--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00141AC-C96D-4060-B39E-45073A43ABF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EA2F0-A7AD-4477-875E-DBBF6587C083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,18 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空気</t>
-    <rPh sb="0" eb="2">
-      <t>クウキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,12 +110,20 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2p</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,26 +147,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -209,13 +218,126 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -224,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -234,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -246,32 +368,167 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC5F3CF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF6D6D6D"/>
+      <color rgb="FFDFF9E5"/>
+      <color rgb="FFFFD5D5"/>
+      <color rgb="FFC5F3CF"/>
       <color rgb="FFDB6413"/>
       <color rgb="FFFFB601"/>
     </mruColors>
@@ -584,39 +841,2140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
-  <dimension ref="A1:A51"/>
+  <dimension ref="A1:AJ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.8984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.69921875" style="11" customWidth="1"/>
+    <col min="2" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="36" width="3.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="18">
+        <v>-2</v>
+      </c>
+      <c r="B4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="D4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="J4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="L4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="M4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="N4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="O4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="P4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="R4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="S4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="T4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="U4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="V4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="W4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="X4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AH4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AI4" s="19">
+        <v>-2</v>
+      </c>
+      <c r="AJ4" s="20">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ5" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ7" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ8" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="21">
+        <v>-2</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI12" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="22"/>
+      <c r="B13" s="25">
+        <v>0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <v>0</v>
+      </c>
+      <c r="L13" s="25">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25">
+        <v>0</v>
+      </c>
+      <c r="N13" s="25">
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>0</v>
+      </c>
+      <c r="T13" s="25">
+        <v>0</v>
+      </c>
+      <c r="U13" s="25">
+        <v>0</v>
+      </c>
+      <c r="V13" s="25">
+        <v>0</v>
+      </c>
+      <c r="W13" s="25">
+        <v>0</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ14" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ15" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ16" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="23">
+        <v>-1</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ21" s="15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="24">
+        <v>-1</v>
+      </c>
+      <c r="B22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ22" s="17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A4:AJ22">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -624,100 +2982,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="8"/>
+    <col min="1" max="1" width="8.796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
-        <v>-1</v>
+    <row r="2" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="12">
+        <v>-2</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="13">
+        <v>-3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="6">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="11">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728EA2F0-A7AD-4477-875E-DBBF6587C083}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9326F0-8931-4828-9ED6-818E0F11B8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -429,34 +429,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6D6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFD5D5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD5D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDFF9E5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDFF9E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF6D6D6D"/>
@@ -484,40 +457,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDFF9E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFD5D5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD5D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDFF9E5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDFF9E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD5D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC5F3CF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -843,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
@@ -2965,13 +2904,13 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A4:AJ22">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2984,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3008,7 +2947,7 @@
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9326F0-8931-4828-9ED6-818E0F11B8AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F5406-5C69-44DC-B241-433A2F9727BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -93,9 +93,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EndBlock</t>
-  </si>
-  <si>
     <t>Start</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -117,6 +114,9 @@
   <si>
     <t>2p</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EndStage</t>
   </si>
 </sst>
 </file>
@@ -782,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <dimension ref="A1:AJ25"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -795,7 +795,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1794,7 +1794,9 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
+      <c r="A13" s="22">
+        <v>0</v>
+      </c>
       <c r="B13" s="25">
         <v>0</v>
       </c>
@@ -2893,12 +2895,12 @@
     </row>
     <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2923,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2942,7 +2944,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2950,7 +2952,7 @@
         <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -2990,7 +2992,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132F5406-5C69-44DC-B241-433A2F9727BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100B8D7-DBF8-4ED3-BA8A-FFE5457C1881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -89,18 +89,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SetStage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>End</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>隕石</t>
     <rPh sb="0" eb="2">
       <t>インセキ</t>
@@ -114,9 +102,6 @@
   <si>
     <t>2p</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EndStage</t>
   </si>
 </sst>
 </file>
@@ -237,7 +222,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -260,93 +245,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -392,51 +297,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="15">
     <dxf>
       <font>
-        <color rgb="FF6D6D6D"/>
+        <color rgb="FFDFF9E5"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF6D6D6D"/>
+          <bgColor rgb="FFDFF9E5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -452,11 +333,131 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFDFF9E5"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -780,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
-  <dimension ref="A1:AJ25"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS17" sqref="AS17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -791,131 +792,500 @@
     <col min="1" max="1" width="2.69921875" style="11" customWidth="1"/>
     <col min="2" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="36" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="3.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="18">
-        <v>-2</v>
-      </c>
-      <c r="B4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="C4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="D4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="F4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="G4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="H4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="I4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="J4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="K4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="L4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="M4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="N4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="O4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="P4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="Q4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="R4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="S4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="T4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="U4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="V4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="W4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="X4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="Y4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="Z4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AA4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AB4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AC4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AD4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AE4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AF4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AG4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AH4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AI4" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AJ4" s="20">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="21">
-        <v>-2</v>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="16">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16">
+        <v>0</v>
+      </c>
+      <c r="E1" s="16">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1" s="16">
+        <v>0</v>
+      </c>
+      <c r="H1" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1" s="16">
+        <v>0</v>
+      </c>
+      <c r="M1" s="16">
+        <v>0</v>
+      </c>
+      <c r="N1" s="16">
+        <v>0</v>
+      </c>
+      <c r="O1" s="16">
+        <v>0</v>
+      </c>
+      <c r="P1" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="16">
+        <v>0</v>
+      </c>
+      <c r="R1" s="16">
+        <v>0</v>
+      </c>
+      <c r="S1" s="16">
+        <v>0</v>
+      </c>
+      <c r="T1" s="16">
+        <v>0</v>
+      </c>
+      <c r="U1" s="16">
+        <v>0</v>
+      </c>
+      <c r="V1" s="16">
+        <v>0</v>
+      </c>
+      <c r="W1" s="16">
+        <v>0</v>
+      </c>
+      <c r="X1" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="16">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="C2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="D2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="E2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="K2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="L2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="N2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="P2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="R2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="S2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="U2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="V2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="W2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="X2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AE2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AF2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AG2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AH2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AI2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AJ2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AK2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AL2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AM2" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="16">
+        <v>0</v>
+      </c>
+      <c r="B3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="C3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="D3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="K3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="L3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="N3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="P3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="R3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="S3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="U3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="V3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="W3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="X3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AB3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AC3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AE3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AF3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AG3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AH3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AI3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AJ3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AK3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AL3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AM3" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AN3" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="I4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="M4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="O4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="P4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="R4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="S4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="T4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="U4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="W4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="X4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN4" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>0</v>
       </c>
       <c r="B5" s="14">
         <v>-2</v>
@@ -1019,13 +1389,25 @@
       <c r="AI5" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ5" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="21">
-        <v>-2</v>
+      <c r="AJ5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM5" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN5" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>0</v>
       </c>
       <c r="B6" s="14">
         <v>-2</v>
@@ -1129,13 +1511,25 @@
       <c r="AI6" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ6" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21">
-        <v>-2</v>
+      <c r="AJ6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM6" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN6" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>0</v>
       </c>
       <c r="B7" s="14">
         <v>-2</v>
@@ -1239,13 +1633,25 @@
       <c r="AI7" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ7" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="21">
-        <v>-2</v>
+      <c r="AJ7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM7" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>0</v>
       </c>
       <c r="B8" s="14">
         <v>-2</v>
@@ -1349,13 +1755,25 @@
       <c r="AI8" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ8" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="21">
-        <v>-2</v>
+      <c r="AJ8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM8" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>0</v>
       </c>
       <c r="B9" s="14">
         <v>-2</v>
@@ -1459,13 +1877,25 @@
       <c r="AI9" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ9" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21">
-        <v>-2</v>
+      <c r="AJ9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16">
+        <v>0</v>
       </c>
       <c r="B10" s="14">
         <v>-2</v>
@@ -1569,13 +1999,25 @@
       <c r="AI10" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ10" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21">
-        <v>-2</v>
+      <c r="AJ10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM10" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16">
+        <v>0</v>
       </c>
       <c r="B11" s="14">
         <v>-2</v>
@@ -1679,233 +2121,269 @@
       <c r="AI11" s="14">
         <v>-2</v>
       </c>
-      <c r="AJ11" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="21">
-        <v>-2</v>
-      </c>
-      <c r="B12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="D12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="E12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="F12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="G12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="H12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="I12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="J12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="K12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="L12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="M12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="N12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="O12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="P12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="R12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="S12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="U12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="V12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="W12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="X12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="Y12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="Z12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AA12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AB12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AC12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AD12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AE12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AF12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AG12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AH12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AI12" s="14">
-        <v>-2</v>
-      </c>
-      <c r="AJ12" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="22">
-        <v>0</v>
-      </c>
-      <c r="B13" s="25">
-        <v>0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
-        <v>0</v>
-      </c>
-      <c r="J13" s="25">
-        <v>0</v>
-      </c>
-      <c r="K13" s="25">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <v>0</v>
-      </c>
-      <c r="N13" s="25">
-        <v>0</v>
-      </c>
-      <c r="O13" s="25">
-        <v>0</v>
-      </c>
-      <c r="P13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>0</v>
-      </c>
-      <c r="R13" s="25">
-        <v>0</v>
-      </c>
-      <c r="S13" s="25">
-        <v>0</v>
-      </c>
-      <c r="T13" s="25">
-        <v>0</v>
-      </c>
-      <c r="U13" s="25">
-        <v>0</v>
-      </c>
-      <c r="V13" s="25">
-        <v>0</v>
-      </c>
-      <c r="W13" s="25">
-        <v>0</v>
-      </c>
-      <c r="X13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="25">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23">
-        <v>-1</v>
+      <c r="AJ11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AK11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AL11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AM11" s="14">
+        <v>-2</v>
+      </c>
+      <c r="AN11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>0</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0</v>
+      </c>
+      <c r="N12" s="15">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15">
+        <v>0</v>
+      </c>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15">
+        <v>0</v>
+      </c>
+      <c r="U12" s="15">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
+        <v>0</v>
+      </c>
+      <c r="W12" s="15">
+        <v>0</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="17">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM13" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="17">
+        <v>0</v>
       </c>
       <c r="B14" s="14">
         <v>-1</v>
@@ -2009,13 +2487,25 @@
       <c r="AI14" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ14" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="23">
-        <v>-1</v>
+      <c r="AJ14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM14" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <v>0</v>
       </c>
       <c r="B15" s="14">
         <v>-1</v>
@@ -2119,13 +2609,25 @@
       <c r="AI15" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ15" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="23">
-        <v>-1</v>
+      <c r="AJ15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM15" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
+        <v>0</v>
       </c>
       <c r="B16" s="14">
         <v>-1</v>
@@ -2229,13 +2731,25 @@
       <c r="AI16" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ16" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23">
-        <v>-1</v>
+      <c r="AJ16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM16" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN16" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="17">
+        <v>0</v>
       </c>
       <c r="B17" s="14">
         <v>-1</v>
@@ -2339,13 +2853,25 @@
       <c r="AI17" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ17" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="23">
-        <v>-1</v>
+      <c r="AJ17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM17" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN17" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="17">
+        <v>0</v>
       </c>
       <c r="B18" s="14">
         <v>-1</v>
@@ -2449,13 +2975,25 @@
       <c r="AI18" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ18" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="23">
-        <v>-1</v>
+      <c r="AJ18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN18" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="17">
+        <v>0</v>
       </c>
       <c r="B19" s="14">
         <v>-1</v>
@@ -2559,13 +3097,25 @@
       <c r="AI19" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ19" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
-        <v>-1</v>
+      <c r="AJ19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM19" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN19" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="17">
+        <v>0</v>
       </c>
       <c r="B20" s="14">
         <v>-1</v>
@@ -2669,13 +3219,25 @@
       <c r="AI20" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ20" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="23">
-        <v>-1</v>
+      <c r="AJ20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN20" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="17">
+        <v>0</v>
       </c>
       <c r="B21" s="14">
         <v>-1</v>
@@ -2779,141 +3341,319 @@
       <c r="AI21" s="14">
         <v>-1</v>
       </c>
-      <c r="AJ21" s="15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="24">
-        <v>-1</v>
-      </c>
-      <c r="B22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="M22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="N22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="P22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="R22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="S22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="T22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="U22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="V22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="W22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="X22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Z22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AA22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AB22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AC22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AD22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AE22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AF22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AG22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AH22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AI22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AJ22" s="17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="AJ21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM21" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="17">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="E22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="O22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="R22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="S22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="T22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="U22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="W22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="X22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AB22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AC22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AD22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AE22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AH22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AI22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AJ22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AK22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AL22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AM22" s="14">
+        <v>-1</v>
+      </c>
+      <c r="AN22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="17">
+        <v>0</v>
+      </c>
+      <c r="B23" s="17">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="17">
+        <v>0</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0</v>
+      </c>
+      <c r="O23" s="17">
+        <v>0</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17">
+        <v>0</v>
+      </c>
+      <c r="T23" s="17">
+        <v>0</v>
+      </c>
+      <c r="U23" s="17">
+        <v>0</v>
+      </c>
+      <c r="V23" s="17">
+        <v>0</v>
+      </c>
+      <c r="W23" s="17">
+        <v>0</v>
+      </c>
+      <c r="X23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32"/>
+    </row>
+    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33"/>
+    </row>
+    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34"/>
+    </row>
+    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35"/>
+    </row>
+    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36"/>
+    </row>
+    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A4:AJ22">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>-2</formula>
+  <conditionalFormatting sqref="A1:AN23">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>-2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2944,7 +3684,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -2952,7 +3692,7 @@
         <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -2992,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C7B00F-785D-49BD-B468-2F1B3BA25AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2EF57-F26D-452C-94ED-D294B44943E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -807,7 +807,7 @@
   <dimension ref="A1:AN45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:AN31"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -824,6 +824,7 @@
     <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="34" max="36" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="3.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -853,8 +854,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10">
-        <f>ROW(A31)-ROW(A9)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="15"/>
     </row>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2EF57-F26D-452C-94ED-D294B44943E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7424846B-B338-477F-8C7C-E24F7C739EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -804,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -840,27 +840,267 @@
       <c r="A3" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="E3">
+        <f>COLUMN(AN7)</f>
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10">
-        <f>COLUMN(AN9)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
+      <c r="A4" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="E4" s="10">
+        <f>ROW(A29)-ROW(A7)+1</f>
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="10">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15"/>
+      <c r="A6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>0</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>0</v>
+      </c>
+      <c r="J7" s="16">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16">
+        <v>0</v>
+      </c>
+      <c r="L7" s="16">
+        <v>0</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0</v>
+      </c>
+      <c r="N7" s="16">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16">
+        <v>0</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="16">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0</v>
+      </c>
+      <c r="W7" s="16">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="10" t="s">
-        <v>16</v>
+      <c r="A8" s="16">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="K8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="L8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="N8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="P8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="R8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="S8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="U8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="V8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="W8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="X8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AE8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AF8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AG8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AH8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AI8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AJ8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AK8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AL8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AM8" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AN8" s="16">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -868,118 +1108,118 @@
         <v>0</v>
       </c>
       <c r="B9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM9" s="16">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN9" s="16">
         <v>0</v>
@@ -989,118 +1229,118 @@
       <c r="A10" s="16">
         <v>0</v>
       </c>
-      <c r="B10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="H10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="I10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="J10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="K10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="L10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="M10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="N10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="O10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="P10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="R10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="S10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="T10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="U10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="V10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="W10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="X10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AD10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AE10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AF10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AG10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AH10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AI10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AJ10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AK10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AL10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AM10" s="16">
+      <c r="B10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="C10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="D10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="F10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="G10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="H10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="I10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="J10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="K10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="L10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="M10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="N10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="O10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="P10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="R10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="S10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="T10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="U10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="X10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Y10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AA10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AB10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AD10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AE10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AG10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AH10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AI10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AJ10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AM10" s="17">
         <v>-2</v>
       </c>
       <c r="AN10" s="16">
@@ -1111,118 +1351,118 @@
       <c r="A11" s="16">
         <v>0</v>
       </c>
-      <c r="B11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="H11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="I11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="J11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="K11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="L11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="M11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="N11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="O11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="P11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="R11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="S11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="T11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="U11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="V11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="W11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="X11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AD11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AE11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AF11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AG11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AH11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AI11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AJ11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AK11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AL11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AM11" s="16">
+      <c r="B11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="C11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="D11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="E11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="H11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="I11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="J11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="K11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="L11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="M11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="N11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="O11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="P11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="R11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="S11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="T11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="U11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="X11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Y11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AA11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AB11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AD11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AE11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AF11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AG11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AH11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AI11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AJ11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AM11" s="17">
         <v>-2</v>
       </c>
       <c r="AN11" s="16">
@@ -1433,7 +1673,7 @@
       <c r="AA13" s="17">
         <v>-2</v>
       </c>
-      <c r="AB13" s="17">
+      <c r="AB13" s="18">
         <v>-2</v>
       </c>
       <c r="AC13" s="17">
@@ -1461,13 +1701,13 @@
         <v>-2</v>
       </c>
       <c r="AK13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="16">
         <v>0</v>
@@ -1580,16 +1820,16 @@
         <v>-2</v>
       </c>
       <c r="AJ14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="16">
         <v>0</v>
@@ -1677,7 +1917,7 @@
       <c r="AA15" s="17">
         <v>-2</v>
       </c>
-      <c r="AB15" s="18">
+      <c r="AB15" s="17">
         <v>-2</v>
       </c>
       <c r="AC15" s="17">
@@ -1693,16 +1933,16 @@
         <v>-2</v>
       </c>
       <c r="AG15" s="17">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="AH15" s="17">
         <v>-2</v>
       </c>
       <c r="AI15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="17">
         <v>0</v>
@@ -1717,7 +1957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="16">
         <v>0</v>
       </c>
@@ -1743,10 +1983,10 @@
         <v>-2</v>
       </c>
       <c r="I16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="17">
         <v>-2</v>
@@ -1809,19 +2049,19 @@
         <v>-2</v>
       </c>
       <c r="AE16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="17">
         <v>0</v>
@@ -1847,7 +2087,7 @@
         <v>-2</v>
       </c>
       <c r="C17" s="17">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="D17" s="17">
         <v>-2</v>
@@ -1862,34 +2102,34 @@
         <v>-2</v>
       </c>
       <c r="H17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L17" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P17" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="17">
         <v>-2</v>
@@ -1931,16 +2171,16 @@
         <v>-2</v>
       </c>
       <c r="AE17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="17">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="17">
         <v>0</v>
@@ -1961,110 +2201,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16">
-        <v>0</v>
-      </c>
-      <c r="B18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="17">
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="19">
+        <v>0</v>
+      </c>
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+      <c r="V18" s="18">
+        <v>0</v>
+      </c>
+      <c r="W18" s="18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="18">
+        <v>-2</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="18">
         <v>0</v>
       </c>
       <c r="AJ18" s="17">
@@ -2084,26 +2324,26 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
+      <c r="A19" s="19">
         <v>0</v>
       </c>
       <c r="B19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C19" s="17">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="17">
         <v>0</v>
@@ -2136,43 +2376,43 @@
         <v>0</v>
       </c>
       <c r="R19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="T19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="U19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="W19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AA19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AB19" s="17">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AC19" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="17">
         <v>0</v>
@@ -2209,106 +2449,106 @@
       <c r="A20" s="19">
         <v>0</v>
       </c>
-      <c r="B20" s="18">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18">
-        <v>0</v>
-      </c>
-      <c r="G20" s="18">
-        <v>0</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-      <c r="I20" s="18">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18">
-        <v>0</v>
-      </c>
-      <c r="K20" s="18">
-        <v>0</v>
-      </c>
-      <c r="L20" s="18">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18">
-        <v>0</v>
-      </c>
-      <c r="N20" s="18">
-        <v>0</v>
-      </c>
-      <c r="O20" s="18">
-        <v>0</v>
-      </c>
-      <c r="P20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="18">
-        <v>0</v>
-      </c>
-      <c r="R20" s="18">
-        <v>0</v>
-      </c>
-      <c r="S20" s="18">
-        <v>0</v>
+      <c r="B20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="C20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="N20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="O20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S20" s="17">
+        <v>-1</v>
       </c>
       <c r="T20" s="18">
-        <v>0</v>
-      </c>
-      <c r="U20" s="18">
-        <v>0</v>
-      </c>
-      <c r="V20" s="18">
-        <v>0</v>
-      </c>
-      <c r="W20" s="18">
-        <v>1</v>
-      </c>
-      <c r="X20" s="18">
-        <v>-2</v>
-      </c>
-      <c r="Y20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="18">
+        <v>-1</v>
+      </c>
+      <c r="U20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="V20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="X20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="17">
         <v>0</v>
       </c>
       <c r="AJ20" s="17">
@@ -2335,7 +2575,7 @@
         <v>-1</v>
       </c>
       <c r="C21" s="17">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="17">
         <v>-1</v>
@@ -2350,34 +2590,34 @@
         <v>-1</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L21" s="17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="M21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P21" s="17">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21" s="17">
         <v>-1</v>
@@ -2413,25 +2653,25 @@
         <v>-1</v>
       </c>
       <c r="AC21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ21" s="17">
         <v>0</v>
@@ -2475,10 +2715,10 @@
         <v>-1</v>
       </c>
       <c r="I22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="17">
         <v>-1</v>
@@ -2507,7 +2747,7 @@
       <c r="S22" s="17">
         <v>-1</v>
       </c>
-      <c r="T22" s="18">
+      <c r="T22" s="17">
         <v>-1</v>
       </c>
       <c r="U22" s="17">
@@ -2538,22 +2778,22 @@
         <v>-1</v>
       </c>
       <c r="AD22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ22" s="17">
         <v>0</v>
@@ -2800,16 +3040,16 @@
         <v>-1</v>
       </c>
       <c r="AJ24" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK24" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL24" s="17">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AM24" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN24" s="16">
         <v>0</v>
@@ -2922,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="AJ25" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK25" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL25" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM25" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN25" s="16">
         <v>0</v>
@@ -3050,7 +3290,7 @@
         <v>-1</v>
       </c>
       <c r="AL26" s="17">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AM26" s="17">
         <v>-1</v>
@@ -3307,380 +3547,142 @@
       <c r="A29" s="19">
         <v>0</v>
       </c>
-      <c r="B29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL29" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM29" s="17">
-        <v>-1</v>
+      <c r="B29" s="19">
+        <v>0</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
+        <v>0</v>
+      </c>
+      <c r="H29" s="19">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
+        <v>0</v>
+      </c>
+      <c r="J29" s="19">
+        <v>0</v>
+      </c>
+      <c r="K29" s="19">
+        <v>0</v>
+      </c>
+      <c r="L29" s="19">
+        <v>0</v>
+      </c>
+      <c r="M29" s="19">
+        <v>0</v>
+      </c>
+      <c r="N29" s="19">
+        <v>0</v>
+      </c>
+      <c r="O29" s="19">
+        <v>0</v>
+      </c>
+      <c r="P29" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>0</v>
+      </c>
+      <c r="R29" s="19">
+        <v>0</v>
+      </c>
+      <c r="S29" s="19">
+        <v>0</v>
+      </c>
+      <c r="T29" s="19">
+        <v>0</v>
+      </c>
+      <c r="U29" s="19">
+        <v>0</v>
+      </c>
+      <c r="V29" s="19">
+        <v>0</v>
+      </c>
+      <c r="W29" s="19">
+        <v>0</v>
+      </c>
+      <c r="X29" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="19">
+        <v>0</v>
       </c>
       <c r="AN29" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="19">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM30" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN30" s="16">
-        <v>0</v>
+      <c r="A30" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="19">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19">
-        <v>0</v>
-      </c>
-      <c r="C31" s="19">
-        <v>0</v>
-      </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="19">
-        <v>0</v>
-      </c>
-      <c r="J31" s="19">
-        <v>0</v>
-      </c>
-      <c r="K31" s="19">
-        <v>0</v>
-      </c>
-      <c r="L31" s="19">
-        <v>0</v>
-      </c>
-      <c r="M31" s="19">
-        <v>0</v>
-      </c>
-      <c r="N31" s="19">
-        <v>0</v>
-      </c>
-      <c r="O31" s="19">
-        <v>0</v>
-      </c>
-      <c r="P31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="19">
-        <v>0</v>
-      </c>
-      <c r="R31" s="19">
-        <v>0</v>
-      </c>
-      <c r="S31" s="19">
-        <v>0</v>
-      </c>
-      <c r="T31" s="19">
-        <v>0</v>
-      </c>
-      <c r="U31" s="19">
-        <v>0</v>
-      </c>
-      <c r="V31" s="19">
-        <v>0</v>
-      </c>
-      <c r="W31" s="19">
-        <v>0</v>
-      </c>
-      <c r="X31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="16">
-        <v>0</v>
-      </c>
+      <c r="A31"/>
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>15</v>
-      </c>
+      <c r="A34"/>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35"/>
@@ -3709,17 +3711,11 @@
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44"/>
-    </row>
-    <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A9:AN31">
+  <conditionalFormatting sqref="A7:AN29">
     <cfRule type="containsBlanks" dxfId="11" priority="2">
-      <formula>LEN(TRIM(A9))=0</formula>
+      <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>-2</formula>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7424846B-B338-477F-8C7C-E24F7C739EE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405087D-03B6-449B-9470-1A8ACDA61B69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" activeTab="1" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
@@ -66,10 +66,6 @@
   </si>
   <si>
     <t>パーツ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -125,6 +121,10 @@
     <rPh sb="0" eb="1">
       <t>トビラ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロケット</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -806,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS21" sqref="AS21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -822,7 +822,8 @@
     <col min="17" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="19" max="32" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="34" max="36" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="3.19921875" bestFit="1" customWidth="1"/>
@@ -830,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -838,7 +839,7 @@
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <f>COLUMN(AN7)</f>
@@ -847,7 +848,7 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="10">
         <f>ROW(A29)-ROW(A7)+1</f>
@@ -856,7 +857,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1064,7 +1065,7 @@
         <v>-2</v>
       </c>
       <c r="AB8" s="16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="16">
         <v>-2</v>
@@ -1186,7 +1187,7 @@
         <v>-2</v>
       </c>
       <c r="AB9" s="16">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="16">
         <v>-2</v>
@@ -1308,7 +1309,7 @@
         <v>-2</v>
       </c>
       <c r="AB10" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="17">
         <v>-2</v>
@@ -1430,7 +1431,7 @@
         <v>-2</v>
       </c>
       <c r="AB11" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="17">
         <v>-2</v>
@@ -1552,7 +1553,7 @@
         <v>-2</v>
       </c>
       <c r="AB12" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="17">
         <v>-2</v>
@@ -1570,7 +1571,7 @@
         <v>-2</v>
       </c>
       <c r="AH12" s="17">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="AI12" s="17">
         <v>-2</v>
@@ -1650,10 +1651,10 @@
         <v>-2</v>
       </c>
       <c r="T13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V13" s="17">
         <v>-2</v>
@@ -1665,16 +1666,16 @@
         <v>-2</v>
       </c>
       <c r="Y13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="18">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="17">
         <v>-2</v>
@@ -1689,25 +1690,25 @@
         <v>-2</v>
       </c>
       <c r="AG13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="17">
         <v>-2</v>
       </c>
       <c r="AK13" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL13" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM13" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN13" s="16">
         <v>0</v>
@@ -1769,13 +1770,13 @@
         <v>-2</v>
       </c>
       <c r="S14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="17">
         <v>-2</v>
@@ -1820,16 +1821,16 @@
         <v>-2</v>
       </c>
       <c r="AJ14" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK14" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL14" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM14" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN14" s="16">
         <v>0</v>
@@ -1888,16 +1889,16 @@
         <v>-2</v>
       </c>
       <c r="R15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U15" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="17">
         <v>-2</v>
@@ -1933,25 +1934,25 @@
         <v>-2</v>
       </c>
       <c r="AG15" s="17">
-        <v>98</v>
+        <v>-2</v>
       </c>
       <c r="AH15" s="17">
         <v>-2</v>
       </c>
       <c r="AI15" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ15" s="17">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AK15" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL15" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM15" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN15" s="16">
         <v>0</v>
@@ -2007,19 +2008,19 @@
         <v>-2</v>
       </c>
       <c r="Q16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="17">
         <v>-2</v>
@@ -2049,31 +2050,31 @@
         <v>-2</v>
       </c>
       <c r="AE16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM16" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN16" s="16">
         <v>0</v>
@@ -2111,91 +2112,91 @@
         <v>0</v>
       </c>
       <c r="K17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="N17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="O17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="P17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="17">
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="17">
+        <v>0</v>
+      </c>
+      <c r="V17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="X17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Z17" s="17">
         <v>2</v>
       </c>
-      <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
+      <c r="AA17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AB17" s="17">
         <v>2</v>
       </c>
-      <c r="O17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
+      <c r="AC17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AD17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AE17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AF17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AG17" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AH17" s="17">
         <v>2</v>
       </c>
-      <c r="Q17" s="17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD17" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="17">
-        <v>0</v>
-      </c>
       <c r="AI17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM17" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN17" s="16">
         <v>0</v>
@@ -2233,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="K18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M18" s="18">
         <v>0</v>
@@ -2245,10 +2246,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="18">
         <v>0</v>
@@ -2293,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="AE18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG18" s="18">
         <v>0</v>
@@ -2346,100 +2347,100 @@
         <v>-1</v>
       </c>
       <c r="H19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R19" s="17">
         <v>2</v>
       </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
+      <c r="S19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="V19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="X19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Y19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Z19" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AA19" s="17">
         <v>2</v>
       </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z19" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA19" s="17">
-        <v>-1</v>
-      </c>
       <c r="AB19" s="17">
         <v>-1</v>
       </c>
       <c r="AC19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM19" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN19" s="16">
         <v>0</v>
@@ -2471,10 +2472,10 @@
         <v>-1</v>
       </c>
       <c r="I20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" s="17">
         <v>-1</v>
@@ -2483,10 +2484,10 @@
         <v>-1</v>
       </c>
       <c r="M20" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="17">
         <v>-1</v>
@@ -2534,34 +2535,34 @@
         <v>-1</v>
       </c>
       <c r="AD20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM20" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN20" s="16">
         <v>0</v>
@@ -2674,16 +2675,16 @@
         <v>-1</v>
       </c>
       <c r="AJ21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM21" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN21" s="16">
         <v>0</v>
@@ -2796,16 +2797,16 @@
         <v>-1</v>
       </c>
       <c r="AJ22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM22" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN22" s="16">
         <v>0</v>
@@ -2870,13 +2871,13 @@
         <v>-1</v>
       </c>
       <c r="T23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="17">
         <v>-1</v>
@@ -2888,16 +2889,16 @@
         <v>-1</v>
       </c>
       <c r="Z23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="17">
         <v>-1</v>
@@ -2918,16 +2919,16 @@
         <v>-1</v>
       </c>
       <c r="AJ23" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK23" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL23" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM23" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN23" s="16">
         <v>0</v>
@@ -3010,13 +3011,13 @@
         <v>-1</v>
       </c>
       <c r="Z24" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="17">
         <v>-1</v>
       </c>
       <c r="AB24" s="17">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="AC24" s="17">
         <v>-1</v>
@@ -3046,7 +3047,7 @@
         <v>-1</v>
       </c>
       <c r="AL24" s="17">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AM24" s="17">
         <v>-1</v>
@@ -3132,7 +3133,7 @@
         <v>-1</v>
       </c>
       <c r="Z25" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="17">
         <v>-1</v>
@@ -3254,7 +3255,7 @@
         <v>-1</v>
       </c>
       <c r="Z26" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="17">
         <v>-1</v>
@@ -3376,7 +3377,7 @@
         <v>-1</v>
       </c>
       <c r="Z27" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
         <v>-1</v>
@@ -3498,7 +3499,7 @@
         <v>-1</v>
       </c>
       <c r="Z28" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="17">
         <v>-1</v>
@@ -3667,7 +3668,7 @@
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3675,7 +3676,7 @@
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3760,8 +3761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9754E99-8BA5-4422-81EF-CFCE37180D35}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -3779,7 +3780,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -3787,7 +3788,7 @@
         <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -3806,7 +3807,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -3830,22 +3831,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -3877,7 +3878,10 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9105A2E-6322-4D59-8249-513D8742F205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329A97C-B695-4C35-8571-3BB83FB4475F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1033,7 +1036,8 @@
     <col min="2" max="2" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5" customWidth="1"/>
     <col min="10" max="11" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="16" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
@@ -1210,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1276,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB8" s="15">
         <v>0</v>
@@ -1329,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C9" s="15">
         <v>-2</v>
@@ -1338,7 +1342,7 @@
         <v>-2</v>
       </c>
       <c r="E9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
@@ -1374,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S9" s="15">
         <v>0</v>
@@ -1395,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y9" s="15">
         <v>-2</v>
@@ -1407,7 +1411,7 @@
         <v>-2</v>
       </c>
       <c r="AB9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC9" s="15">
         <v>0</v>
@@ -1422,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="AG9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH9" s="15">
         <v>-2</v>
@@ -1463,7 +1467,7 @@
         <v>-2</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G10" s="15">
         <v>0</v>
@@ -1487,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O10" s="15">
         <v>-2</v>
@@ -1499,10 +1503,10 @@
         <v>-2</v>
       </c>
       <c r="R10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="15">
         <v>0</v>
@@ -1514,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X10" s="15">
         <v>-2</v>
@@ -1532,7 +1536,7 @@
         <v>-2</v>
       </c>
       <c r="AC10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD10" s="15">
         <v>0</v>
@@ -1541,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG10" s="15">
         <v>-2</v>
@@ -1588,7 +1592,7 @@
         <v>-2</v>
       </c>
       <c r="G11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H11" s="15">
         <v>0</v>
@@ -1597,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
@@ -1606,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N11" s="15">
         <v>-2</v>
@@ -1627,7 +1631,7 @@
         <v>-2</v>
       </c>
       <c r="T11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U11" s="15">
         <v>0</v>
@@ -1657,10 +1661,10 @@
         <v>-2</v>
       </c>
       <c r="AD11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF11" s="15">
         <v>-2</v>
@@ -1713,7 +1717,7 @@
         <v>-2</v>
       </c>
       <c r="H12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I12" s="15">
         <v>0</v>
@@ -1722,10 +1726,10 @@
         <v>-2</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="15">
         <v>-2</v>
@@ -1752,10 +1756,10 @@
         <v>-2</v>
       </c>
       <c r="U12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V12" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W12" s="15">
         <v>-2</v>
@@ -1838,7 +1842,7 @@
         <v>-2</v>
       </c>
       <c r="I13" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J13" s="15">
         <v>-2</v>
@@ -1999,7 +2003,7 @@
         <v>-2</v>
       </c>
       <c r="V14" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W14" s="15">
         <v>0</v>
@@ -3097,16 +3101,16 @@
         <v>-1</v>
       </c>
       <c r="V23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23" s="16">
         <v>-1</v>
@@ -3293,13 +3297,13 @@
         <v>-1</v>
       </c>
       <c r="F25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>-1</v>
       </c>
       <c r="I25" s="16">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4329A97C-B695-4C35-8571-3BB83FB4475F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BAE061-89D9-43C7-BED9-3A528338D685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -379,7 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -431,216 +431,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF6D6D6D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6D6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFD5D5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD5D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDFF9E5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDFF9E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF6D6D6D"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6D6D6D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFD5D5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFD5D5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFDFF9E5"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDFF9E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1024,67 +814,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AT47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.5" customWidth="1"/>
-    <col min="10" max="11" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="19" max="25" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="27" max="32" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="2.69921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="3.19921875" customWidth="1"/>
+    <col min="6" max="6" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="13" max="14" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="22" max="28" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="42" max="44" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="3.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="E3">
-        <f>COLUMN(AN7)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="10">
-        <f>ROW(A29)-ROW(A7)+1</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <v>0</v>
       </c>
@@ -1185,28 +975,46 @@
         <v>0</v>
       </c>
       <c r="AH7" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="15">
         <v>0</v>
       </c>
       <c r="AL7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>-2</v>
+      </c>
+      <c r="AO7" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
         <v>0</v>
       </c>
@@ -1214,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <v>0</v>
@@ -1280,13 +1088,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="15">
         <v>0</v>
@@ -1307,42 +1115,60 @@
         <v>0</v>
       </c>
       <c r="AH8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="15">
         <v>0</v>
       </c>
       <c r="AL8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>-2</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
         <v>0</v>
       </c>
       <c r="B9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
@@ -1378,10 +1204,10 @@
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="15">
         <v>0</v>
@@ -1399,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="X9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="15">
         <v>-2</v>
       </c>
       <c r="AC9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE9" s="15">
         <v>0</v>
@@ -1426,54 +1252,72 @@
         <v>0</v>
       </c>
       <c r="AG9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="15">
         <v>-2</v>
       </c>
       <c r="AL9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C10" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D10" s="16">
-        <v>-2</v>
+        <v>-2</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AQ9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="15">
+        <v>0</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
       </c>
       <c r="E10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="15">
         <v>-2</v>
       </c>
       <c r="G10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I10" s="15">
         <v>0</v>
@@ -1491,43 +1335,43 @@
         <v>0</v>
       </c>
       <c r="N10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V10" s="15">
         <v>0</v>
       </c>
       <c r="W10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="15">
         <v>-2</v>
@@ -1539,22 +1383,22 @@
         <v>-2</v>
       </c>
       <c r="AD10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="15">
         <v>-2</v>
@@ -1566,42 +1410,60 @@
         <v>-2</v>
       </c>
       <c r="AM10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="G11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AQ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="15">
+        <v>0</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G11" s="16">
         <v>-2</v>
       </c>
       <c r="H11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
         <v>0</v>
@@ -1610,16 +1472,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
         <v>-2</v>
@@ -1634,22 +1496,22 @@
         <v>-2</v>
       </c>
       <c r="U11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="15">
         <v>-2</v>
@@ -1670,188 +1532,224 @@
         <v>-2</v>
       </c>
       <c r="AG11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AK11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AL11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AM11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AN11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AQ11" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AR11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="15">
+        <v>0</v>
+      </c>
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="J12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Q12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="R12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="S12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="T12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="U12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="V12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="W12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="X12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AB12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AC12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AG12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AH12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AJ12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AK12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AL12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AM12" s="15">
         <v>99</v>
       </c>
-      <c r="AI11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AJ11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AK11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AL11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AM11" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AN11" s="15">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="G12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="H12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="I12" s="15">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="K12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="L12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="M12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="N12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="O12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="P12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Q12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="R12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="S12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="T12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="U12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="V12" s="15">
-        <v>0</v>
-      </c>
-      <c r="W12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="X12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Y12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Z12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AA12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AB12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AC12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AD12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AE12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AF12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AG12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AH12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AJ12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AK12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AL12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AM12" s="15">
-        <v>-2</v>
-      </c>
       <c r="AN12" s="15">
         <v>-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="G13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="H13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="I13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="AO12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AQ12" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AR12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="15">
+        <v>0</v>
+      </c>
+      <c r="B13" s="15">
+        <v>0</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G13" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H13" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J13" s="16">
         <v>-2</v>
       </c>
       <c r="K13" s="15">
         <v>-2</v>
       </c>
       <c r="L13" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <v>-2</v>
@@ -1890,10 +1788,10 @@
         <v>-2</v>
       </c>
       <c r="Y13" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <v>-2</v>
@@ -1937,112 +1835,130 @@
       <c r="AN13" s="15">
         <v>-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="G14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="H14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="I14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="J14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="K14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="L14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="M14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="N14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="O14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="P14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Q14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="R14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="S14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="T14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="U14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="V14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="W14" s="15">
-        <v>0</v>
-      </c>
-      <c r="X14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="15">
-        <v>0</v>
+      <c r="AO13" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AQ13" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AR13" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AS13" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="15">
+        <v>0</v>
+      </c>
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="K14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="L14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="M14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="N14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="O14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="P14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="R14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="S14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="T14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="U14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="V14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="W14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="X14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AF14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AG14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AH14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>-2</v>
       </c>
       <c r="AJ14" s="15">
         <v>0</v>
@@ -2050,36 +1966,54 @@
       <c r="AK14" s="15">
         <v>0</v>
       </c>
-      <c r="AL14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E15" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F15" s="15">
-        <v>-2</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="AL14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AM14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AN14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AO14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AP14" s="16">
+        <v>-2</v>
+      </c>
+      <c r="AQ14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AR14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AS14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="15">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D15" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G15" s="16">
         <v>-2</v>
       </c>
       <c r="H15" s="15">
@@ -2158,10 +2092,10 @@
         <v>-2</v>
       </c>
       <c r="AG15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI15" s="15">
         <v>0</v>
@@ -2181,28 +2115,46 @@
       <c r="AN15" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="D16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E16" s="15">
-        <v>-2</v>
-      </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="15">
-        <v>0</v>
+      <c r="AO15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="15">
+        <v>0</v>
+      </c>
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>-2</v>
       </c>
       <c r="H16" s="15">
         <v>-2</v>
@@ -2220,25 +2172,25 @@
         <v>-2</v>
       </c>
       <c r="M16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T16" s="15">
         <v>-2</v>
@@ -2259,28 +2211,28 @@
         <v>-2</v>
       </c>
       <c r="Z16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="15">
         <v>0</v>
@@ -2303,514 +2255,604 @@
       <c r="AN16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16">
-        <v>-2</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C17" s="16">
+      <c r="AO16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="15">
+        <v>0</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G17" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="K17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="L17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="M17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="P17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Q17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="R17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="S17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="T17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="U17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="V17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="W17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="X17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Z17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AA17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AB17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AC17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AD17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AG17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AH17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AI17" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AJ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="15">
+        <v>0</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0</v>
+      </c>
+      <c r="C18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F18" s="16">
+        <v>-2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="L18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="M18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="P18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <v>0</v>
+      </c>
+      <c r="T18" s="15">
+        <v>0</v>
+      </c>
+      <c r="U18" s="15">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="X18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Z18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AA18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AB18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AC18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AD18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AG18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AH18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AI18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AJ18" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AK18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15">
+        <v>0</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="D19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>-2</v>
+      </c>
+      <c r="F19" s="16">
         <v>90</v>
       </c>
-      <c r="D17" s="16">
-        <v>-2</v>
-      </c>
-      <c r="E17" s="15">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="J17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="K17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="L17" s="15">
-        <v>0</v>
-      </c>
-      <c r="M17" s="15">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
-      <c r="P17" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="15">
-        <v>0</v>
-      </c>
-      <c r="R17" s="15">
-        <v>0</v>
-      </c>
-      <c r="S17" s="15">
-        <v>0</v>
-      </c>
-      <c r="T17" s="15">
-        <v>0</v>
-      </c>
-      <c r="U17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="V17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="W17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="X17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Y17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="Z17" s="15">
+      <c r="G19" s="16">
+        <v>-2</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="M19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O19" s="15">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15">
+        <v>0</v>
+      </c>
+      <c r="R19" s="15">
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <v>0</v>
+      </c>
+      <c r="T19" s="15">
+        <v>0</v>
+      </c>
+      <c r="U19" s="15">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
+        <v>0</v>
+      </c>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AA19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AC19" s="15">
         <v>98</v>
       </c>
-      <c r="AA17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AB17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AC17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AD17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AE17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AF17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AG17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AH17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AI17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="18">
-        <v>0</v>
-      </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>0</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
-        <v>0</v>
-      </c>
-      <c r="K18" s="17">
-        <v>0</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0</v>
-      </c>
-      <c r="N18" s="17">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0</v>
-      </c>
-      <c r="R18" s="17">
-        <v>0</v>
-      </c>
-      <c r="S18" s="17">
-        <v>0</v>
-      </c>
-      <c r="T18" s="17">
-        <v>0</v>
-      </c>
-      <c r="U18" s="17">
-        <v>0</v>
-      </c>
-      <c r="V18" s="17">
-        <v>0</v>
-      </c>
-      <c r="W18" s="17">
-        <v>0</v>
-      </c>
-      <c r="X18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C19" s="16">
+      <c r="AD19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AK19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AL19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="15">
+        <v>0</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>0</v>
+      </c>
+      <c r="J20" s="17">
+        <v>0</v>
+      </c>
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17">
+        <v>0</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="17">
+        <v>0</v>
+      </c>
+      <c r="T20" s="17">
+        <v>0</v>
+      </c>
+      <c r="U20" s="17">
+        <v>0</v>
+      </c>
+      <c r="V20" s="17">
+        <v>0</v>
+      </c>
+      <c r="W20" s="17">
+        <v>0</v>
+      </c>
+      <c r="X20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="15">
+        <v>0</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F21" s="16">
         <v>91</v>
       </c>
-      <c r="D19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L19" s="16">
-        <v>0</v>
-      </c>
-      <c r="M19" s="16">
-        <v>0</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-      <c r="P19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="16">
-        <v>0</v>
-      </c>
-      <c r="R19" s="16">
-        <v>0</v>
-      </c>
-      <c r="S19" s="16">
-        <v>0</v>
-      </c>
-      <c r="T19" s="16">
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <v>0</v>
-      </c>
-      <c r="V19" s="16">
-        <v>0</v>
-      </c>
-      <c r="W19" s="16">
-        <v>0</v>
-      </c>
-      <c r="X19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AE19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AF19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AG19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AH19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AI19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AJ19" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AK19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="J20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="K20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="L20" s="16">
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
-        <v>0</v>
-      </c>
-      <c r="N20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="O20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="P20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
-        <v>0</v>
-      </c>
-      <c r="S20" s="16">
-        <v>0</v>
-      </c>
-      <c r="T20" s="16">
-        <v>0</v>
-      </c>
-      <c r="U20" s="16">
-        <v>0</v>
-      </c>
-      <c r="V20" s="16">
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
-        <v>0</v>
-      </c>
-      <c r="X20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AD20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AE20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AF20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AG20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AH20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AI20" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AJ20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>-1</v>
-      </c>
       <c r="G21" s="16">
         <v>-1</v>
       </c>
@@ -2818,31 +2860,31 @@
         <v>-1</v>
       </c>
       <c r="I21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16">
         <v>0</v>
       </c>
       <c r="M21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="16">
         <v>-1</v>
       </c>
       <c r="O21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="16">
         <v>0</v>
@@ -2875,19 +2917,19 @@
         <v>0</v>
       </c>
       <c r="AB21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="16">
         <v>-1</v>
@@ -2896,30 +2938,48 @@
         <v>-1</v>
       </c>
       <c r="AI21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B22" s="16">
-        <v>-1</v>
+        <v>-1</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="15">
+        <v>0</v>
+      </c>
+      <c r="B22" s="15">
+        <v>0</v>
       </c>
       <c r="C22" s="16">
         <v>-1</v>
@@ -2943,25 +3003,25 @@
         <v>-1</v>
       </c>
       <c r="J22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N22" s="16">
         <v>-1</v>
       </c>
       <c r="O22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="16">
         <v>-1</v>
@@ -2973,7 +3033,7 @@
         <v>-1</v>
       </c>
       <c r="T22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="16">
         <v>0</v>
@@ -2994,19 +3054,19 @@
         <v>0</v>
       </c>
       <c r="AA22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="16">
         <v>-1</v>
@@ -3015,33 +3075,51 @@
         <v>-1</v>
       </c>
       <c r="AH22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM22" s="16">
         <v>0</v>
       </c>
-      <c r="AN22" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B23" s="16">
-        <v>-1</v>
+      <c r="AN22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="15">
+        <v>0</v>
+      </c>
+      <c r="B23" s="15">
+        <v>0</v>
       </c>
       <c r="C23" s="16">
         <v>-1</v>
@@ -3074,16 +3152,16 @@
         <v>-1</v>
       </c>
       <c r="M23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="16">
         <v>-1</v>
       </c>
       <c r="O23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="16">
         <v>-1</v>
@@ -3098,55 +3176,55 @@
         <v>-1</v>
       </c>
       <c r="U23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="16">
         <v>0</v>
       </c>
       <c r="AE23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL23" s="16">
         <v>0</v>
@@ -3154,16 +3232,34 @@
       <c r="AM23" s="16">
         <v>0</v>
       </c>
-      <c r="AN23" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B24" s="16">
-        <v>-1</v>
+      <c r="AN23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="15">
+        <v>0</v>
+      </c>
+      <c r="B24" s="15">
+        <v>0</v>
       </c>
       <c r="C24" s="16">
         <v>-1</v>
@@ -3196,16 +3292,16 @@
         <v>-1</v>
       </c>
       <c r="M24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="16">
         <v>-1</v>
@@ -3229,22 +3325,22 @@
         <v>-1</v>
       </c>
       <c r="X24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="16">
         <v>-1</v>
@@ -3262,10 +3358,10 @@
         <v>-1</v>
       </c>
       <c r="AI24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK24" s="16">
         <v>0</v>
@@ -3276,16 +3372,34 @@
       <c r="AM24" s="16">
         <v>0</v>
       </c>
-      <c r="AN24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B25" s="16">
-        <v>-1</v>
+      <c r="AN24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="15">
+        <v>0</v>
+      </c>
+      <c r="B25" s="15">
+        <v>0</v>
       </c>
       <c r="C25" s="16">
         <v>-1</v>
@@ -3302,7 +3416,7 @@
       <c r="G25" s="16">
         <v>-1</v>
       </c>
-      <c r="H25" s="20">
+      <c r="H25" s="16">
         <v>-1</v>
       </c>
       <c r="I25" s="16">
@@ -3321,13 +3435,13 @@
         <v>-1</v>
       </c>
       <c r="N25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="16">
         <v>-1</v>
@@ -3378,13 +3492,13 @@
         <v>-1</v>
       </c>
       <c r="AG25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="16">
         <v>0</v>
@@ -3398,16 +3512,34 @@
       <c r="AM25" s="16">
         <v>0</v>
       </c>
-      <c r="AN25" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B26" s="16">
-        <v>-1</v>
+      <c r="AN25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="15">
+        <v>0</v>
+      </c>
+      <c r="B26" s="15">
+        <v>0</v>
       </c>
       <c r="C26" s="16">
         <v>-1</v>
@@ -3416,19 +3548,19 @@
         <v>-1</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J26" s="16">
         <v>-1</v>
@@ -3446,22 +3578,22 @@
         <v>-1</v>
       </c>
       <c r="O26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P26" s="16">
         <v>0</v>
       </c>
       <c r="Q26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U26" s="16">
         <v>-1</v>
@@ -3509,10 +3641,10 @@
         <v>-1</v>
       </c>
       <c r="AJ26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL26" s="16">
         <v>0</v>
@@ -3520,40 +3652,58 @@
       <c r="AM26" s="16">
         <v>0</v>
       </c>
-      <c r="AN26" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B27" s="16">
-        <v>-1</v>
+      <c r="AN26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="15">
+        <v>0</v>
+      </c>
+      <c r="B27" s="15">
+        <v>0</v>
       </c>
       <c r="C27" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K27" s="16">
         <v>-1</v>
@@ -3577,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U27" s="16">
         <v>-1</v>
@@ -3601,16 +3751,16 @@
         <v>-1</v>
       </c>
       <c r="Z27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD27" s="16">
         <v>-1</v>
@@ -3634,7 +3784,7 @@
         <v>-1</v>
       </c>
       <c r="AK27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL27" s="16">
         <v>0</v>
@@ -3642,16 +3792,34 @@
       <c r="AM27" s="16">
         <v>0</v>
       </c>
-      <c r="AN27" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="16">
-        <v>-1</v>
-      </c>
-      <c r="B28" s="16">
-        <v>-1</v>
+      <c r="AN27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="15">
+        <v>0</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0</v>
       </c>
       <c r="C28" s="16">
         <v>0</v>
@@ -3660,25 +3828,25 @@
         <v>0</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J28" s="16">
-        <v>0</v>
-      </c>
-      <c r="K28" s="16">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="K28" s="20">
+        <v>-1</v>
       </c>
       <c r="L28" s="16">
         <v>-1</v>
@@ -3702,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="S28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V28" s="16">
         <v>-1</v>
@@ -3720,22 +3888,22 @@
         <v>-1</v>
       </c>
       <c r="Y28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE28" s="16">
         <v>-1</v>
@@ -3750,10 +3918,10 @@
         <v>-1</v>
       </c>
       <c r="AI28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK28" s="16">
         <v>0</v>
@@ -3764,181 +3932,819 @@
       <c r="AM28" s="16">
         <v>0</v>
       </c>
-      <c r="AN28" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="18">
-        <v>0</v>
-      </c>
-      <c r="B29" s="18">
-        <v>0</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
-      <c r="D29" s="18">
-        <v>0</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="18">
-        <v>0</v>
-      </c>
-      <c r="G29" s="18">
-        <v>0</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-      <c r="I29" s="18">
-        <v>0</v>
-      </c>
-      <c r="J29" s="18">
-        <v>0</v>
-      </c>
-      <c r="K29" s="18">
-        <v>0</v>
-      </c>
-      <c r="L29" s="18">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18">
-        <v>0</v>
-      </c>
-      <c r="N29" s="18">
-        <v>0</v>
-      </c>
-      <c r="O29" s="18">
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="18">
-        <v>0</v>
-      </c>
-      <c r="R29" s="18">
-        <v>0</v>
-      </c>
-      <c r="S29" s="18">
-        <v>0</v>
-      </c>
-      <c r="T29" s="18">
-        <v>0</v>
-      </c>
-      <c r="U29" s="18">
-        <v>0</v>
-      </c>
-      <c r="V29" s="18">
-        <v>0</v>
-      </c>
-      <c r="W29" s="18">
-        <v>0</v>
-      </c>
-      <c r="X29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
+      <c r="AN28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="15">
+        <v>0</v>
+      </c>
+      <c r="B29" s="15">
+        <v>0</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0</v>
+      </c>
+      <c r="D29" s="16">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0</v>
+      </c>
+      <c r="F29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0</v>
+      </c>
+      <c r="W29" s="16">
+        <v>0</v>
+      </c>
+      <c r="X29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AE29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AF29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="15">
+        <v>0</v>
+      </c>
+      <c r="B30" s="15">
+        <v>0</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16">
+        <v>0</v>
+      </c>
+      <c r="E30" s="16">
+        <v>0</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0</v>
+      </c>
+      <c r="N30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0</v>
+      </c>
+      <c r="X30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="15">
+        <v>0</v>
+      </c>
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>0</v>
+      </c>
+      <c r="M31" s="16">
+        <v>0</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0</v>
+      </c>
+      <c r="O31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0</v>
+      </c>
+      <c r="X31" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16">
+        <v>0</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32" s="16">
+        <v>0</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>0</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0</v>
+      </c>
+      <c r="X32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18">
+        <v>0</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>0</v>
+      </c>
+      <c r="L33" s="18">
+        <v>0</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>0</v>
+      </c>
+      <c r="O33" s="18">
+        <v>0</v>
+      </c>
+      <c r="P33" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>0</v>
+      </c>
+      <c r="R33" s="18">
+        <v>0</v>
+      </c>
+      <c r="S33" s="18">
+        <v>0</v>
+      </c>
+      <c r="T33" s="18">
+        <v>0</v>
+      </c>
+      <c r="U33" s="18">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18">
+        <v>0</v>
+      </c>
+      <c r="W33" s="18">
+        <v>0</v>
+      </c>
+      <c r="X33" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31"/>
-    </row>
-    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33"/>
-    </row>
-    <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34"/>
-    </row>
-    <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35"/>
-    </row>
-    <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36"/>
-    </row>
-    <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37"/>
-    </row>
-    <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38"/>
-    </row>
-    <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39"/>
-    </row>
-    <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40"/>
-    </row>
-    <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41"/>
-    </row>
-    <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42"/>
-    </row>
-    <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A7:AN29">
+  <conditionalFormatting sqref="A7:AT33">
     <cfRule type="containsBlanks" dxfId="11" priority="2">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BAE061-89D9-43C7-BED9-3A528338D685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19BAF8-8EBE-4393-9A60-C38E5FFD57DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -26,18 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ステージエディットの番号</t>
     <rPh sb="10" eb="12">
       <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>床</t>
-    <rPh sb="0" eb="1">
-      <t>ユカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -125,6 +118,20 @@
   </si>
   <si>
     <t>ロケット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック（判定　無）</t>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -235,12 +242,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,6 +255,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,10 +355,10 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -363,23 +370,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -814,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
-  <dimension ref="A1:AT47"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -833,545 +844,552 @@
     <col min="20" max="21" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="3.69921875" bestFit="1" customWidth="1"/>
-    <col min="30" max="35" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.19921875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="4.5" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="3.69921875" bestFit="1" customWidth="1"/>
     <col min="42" max="44" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="3.5" customWidth="1"/>
     <col min="50" max="50" width="3.69921875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.69921875" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="3.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK7" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="AY7">
+        <f>COUNTIFS(A7:AT33,0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK8" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL8" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AM8" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AE9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ9" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK9" s="15">
         <v>-2</v>
       </c>
       <c r="AL9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AM9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP9" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="15">
         <v>-2</v>
       </c>
       <c r="V10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA10" s="15">
         <v>-2</v>
@@ -1389,16 +1407,16 @@
         <v>-2</v>
       </c>
       <c r="AF10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI10" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ10" s="15">
         <v>-2</v>
@@ -1407,81 +1425,81 @@
         <v>-2</v>
       </c>
       <c r="AL10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AM10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AQ10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G11" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
       </c>
       <c r="H11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q11" s="15">
         <v>-2</v>
@@ -1493,7 +1511,7 @@
         <v>-2</v>
       </c>
       <c r="T11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U11" s="15">
         <v>-2</v>
@@ -1502,16 +1520,16 @@
         <v>-2</v>
       </c>
       <c r="W11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA11" s="15">
         <v>-2</v>
@@ -1529,16 +1547,16 @@
         <v>-2</v>
       </c>
       <c r="AF11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ11" s="15">
         <v>-2</v>
@@ -1547,69 +1565,69 @@
         <v>-2</v>
       </c>
       <c r="AL11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AQ11" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F12" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G12" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
       </c>
       <c r="H12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="15">
         <v>-2</v>
       </c>
       <c r="K12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M12" s="15">
         <v>-2</v>
@@ -1618,7 +1636,7 @@
         <v>-2</v>
       </c>
       <c r="O12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P12" s="15">
         <v>-2</v>
@@ -1633,7 +1651,7 @@
         <v>-2</v>
       </c>
       <c r="T12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U12" s="15">
         <v>-2</v>
@@ -1645,13 +1663,13 @@
         <v>-2</v>
       </c>
       <c r="X12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA12" s="15">
         <v>-2</v>
@@ -1669,13 +1687,13 @@
         <v>-2</v>
       </c>
       <c r="AF12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="15">
         <v>-2</v>
       </c>
       <c r="AH12" s="15">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AI12" s="15">
         <v>-2</v>
@@ -1687,69 +1705,69 @@
         <v>-2</v>
       </c>
       <c r="AL12" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="15">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AQ12" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AR12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="H13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="I13" s="16">
-        <v>-2</v>
-      </c>
-      <c r="J13" s="16">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15">
+        <v>1</v>
+      </c>
+      <c r="J13" s="15">
         <v>-2</v>
       </c>
       <c r="K13" s="15">
         <v>-2</v>
       </c>
       <c r="L13" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M13" s="15">
         <v>-2</v>
@@ -1773,7 +1791,7 @@
         <v>-2</v>
       </c>
       <c r="T13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U13" s="15">
         <v>-2</v>
@@ -1788,10 +1806,10 @@
         <v>-2</v>
       </c>
       <c r="Y13" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z13" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA13" s="15">
         <v>-2</v>
@@ -1809,7 +1827,7 @@
         <v>-2</v>
       </c>
       <c r="AF13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="15">
         <v>-2</v>
@@ -1827,200 +1845,200 @@
         <v>-2</v>
       </c>
       <c r="AL13" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AO13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AP13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AR13" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="H14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="I14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="J14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="K14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="L14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="M14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="N14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="O14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="P14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Q14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="R14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="S14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="T14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="U14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="V14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="W14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="X14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="Z14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AB14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AC14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AE14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AG14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AH14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AI14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15">
+        <v>1</v>
+      </c>
+      <c r="J14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="K14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="L14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="O14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="P14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="R14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="S14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="T14" s="15">
+        <v>1</v>
+      </c>
+      <c r="U14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="V14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="W14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="X14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="Z14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AA14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AB14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AC14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AD14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AE14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AF14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AH14" s="15">
+        <v>-2</v>
+      </c>
+      <c r="AI14" s="15">
         <v>-2</v>
       </c>
       <c r="AJ14" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK14" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AM14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AN14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AO14" s="16">
-        <v>-2</v>
-      </c>
-      <c r="AP14" s="16">
-        <v>-2</v>
+        <v>-2</v>
+      </c>
+      <c r="AL14" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO14" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP14" s="15">
+        <v>1</v>
       </c>
       <c r="AQ14" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AS14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G15" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
       </c>
       <c r="H15" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="15">
         <v>-2</v>
@@ -2053,7 +2071,7 @@
         <v>-2</v>
       </c>
       <c r="T15" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U15" s="15">
         <v>-2</v>
@@ -2089,13 +2107,13 @@
         <v>-2</v>
       </c>
       <c r="AF15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="15">
         <v>0</v>
@@ -2110,57 +2128,57 @@
         <v>0</v>
       </c>
       <c r="AM15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G16" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
       </c>
       <c r="H16" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J16" s="15">
         <v>-2</v>
@@ -2193,7 +2211,7 @@
         <v>-2</v>
       </c>
       <c r="T16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U16" s="15">
         <v>-2</v>
@@ -2211,96 +2229,96 @@
         <v>-2</v>
       </c>
       <c r="Z16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF16" s="15">
         <v>0</v>
       </c>
       <c r="AG16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="15">
         <v>0</v>
       </c>
       <c r="AM16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E17" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F17" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G17" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
       </c>
       <c r="H17" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="15">
         <v>-2</v>
@@ -2333,7 +2351,7 @@
         <v>-2</v>
       </c>
       <c r="T17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U17" s="15">
         <v>-2</v>
@@ -2357,93 +2375,93 @@
         <v>-2</v>
       </c>
       <c r="AB17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AH17" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" s="15">
         <v>0</v>
       </c>
       <c r="AM17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E18" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F18" s="16">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="16">
-        <v>-2</v>
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
       </c>
       <c r="H18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="15">
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K18" s="15">
         <v>-2</v>
@@ -2461,25 +2479,25 @@
         <v>-2</v>
       </c>
       <c r="P18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W18" s="15">
         <v>-2</v>
@@ -2491,103 +2509,103 @@
         <v>-2</v>
       </c>
       <c r="Z18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AI18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ18" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="15">
         <v>0</v>
       </c>
       <c r="AM18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="15">
-        <v>-2</v>
-      </c>
-      <c r="E19" s="16">
-        <v>-2</v>
-      </c>
-      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>-2</v>
+      </c>
+      <c r="K19" s="15">
         <v>90</v>
       </c>
-      <c r="G19" s="16">
-        <v>-2</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="15">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <v>0</v>
-      </c>
-      <c r="K19" s="15">
-        <v>0</v>
-      </c>
       <c r="L19" s="15">
         <v>-2</v>
       </c>
@@ -2598,278 +2616,278 @@
         <v>-2</v>
       </c>
       <c r="O19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T19" s="15">
         <v>0</v>
       </c>
       <c r="U19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X19" s="15">
         <v>-2</v>
       </c>
       <c r="Y19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AC19" s="15">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AI19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AL19" s="15">
         <v>0</v>
       </c>
       <c r="AM19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B20" s="15">
-        <v>0</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>0</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
-        <v>0</v>
-      </c>
-      <c r="K20" s="17">
-        <v>0</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0</v>
-      </c>
-      <c r="R20" s="17">
-        <v>0</v>
-      </c>
-      <c r="S20" s="17">
-        <v>0</v>
-      </c>
-      <c r="T20" s="17">
-        <v>0</v>
-      </c>
-      <c r="U20" s="17">
-        <v>0</v>
-      </c>
-      <c r="V20" s="17">
-        <v>0</v>
-      </c>
-      <c r="W20" s="17">
-        <v>0</v>
-      </c>
-      <c r="X20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <v>0</v>
+      </c>
+      <c r="T20" s="15">
+        <v>0</v>
+      </c>
+      <c r="U20" s="15">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="15">
+        <v>1</v>
       </c>
       <c r="AQ20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B21" s="15">
-        <v>0</v>
-      </c>
-      <c r="C21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F21" s="16">
+        <v>1</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1</v>
+      </c>
+      <c r="E21" s="15">
+        <v>1</v>
+      </c>
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="16">
         <v>91</v>
       </c>
-      <c r="G21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16">
-        <v>0</v>
-      </c>
       <c r="L21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M21" s="16">
         <v>-1</v>
@@ -2878,135 +2896,135 @@
         <v>-1</v>
       </c>
       <c r="O21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB21" s="16">
         <v>0</v>
       </c>
       <c r="AC21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG21" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH21" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AL21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AM21" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AN21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="15">
+        <v>1</v>
       </c>
       <c r="AQ21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B22" s="15">
-        <v>0</v>
-      </c>
-      <c r="C22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I22" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15">
+        <v>0</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L22" s="16">
         <v>-1</v>
@@ -3018,10 +3036,10 @@
         <v>-1</v>
       </c>
       <c r="O22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q22" s="16">
         <v>-1</v>
@@ -3033,114 +3051,114 @@
         <v>-1</v>
       </c>
       <c r="T22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB22" s="16">
         <v>0</v>
       </c>
       <c r="AC22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ22" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AL22" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AM22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="15">
+        <v>1</v>
       </c>
       <c r="AQ22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT22" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="15">
-        <v>0</v>
-      </c>
-      <c r="C23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15">
+        <v>0</v>
       </c>
       <c r="J23" s="16">
         <v>-1</v>
@@ -3158,10 +3176,10 @@
         <v>-1</v>
       </c>
       <c r="O23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q23" s="16">
         <v>-1</v>
@@ -3176,25 +3194,25 @@
         <v>-1</v>
       </c>
       <c r="U23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB23" s="16">
         <v>0</v>
@@ -3206,81 +3224,81 @@
         <v>0</v>
       </c>
       <c r="AE23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK23" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AL23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>1</v>
       </c>
       <c r="AQ23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT23" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="15">
-        <v>0</v>
-      </c>
-      <c r="C24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="15">
+        <v>1</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15">
+        <v>0</v>
       </c>
       <c r="J24" s="16">
         <v>-1</v>
@@ -3298,10 +3316,10 @@
         <v>-1</v>
       </c>
       <c r="O24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q24" s="16">
         <v>-1</v>
@@ -3325,102 +3343,102 @@
         <v>-1</v>
       </c>
       <c r="X24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24" s="16">
         <v>-1</v>
       </c>
       <c r="AE24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ24" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="15">
+        <v>1</v>
       </c>
       <c r="AQ24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT24" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B25" s="15">
-        <v>0</v>
-      </c>
-      <c r="C25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I25" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
+        <v>1</v>
+      </c>
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15">
+        <v>1</v>
       </c>
       <c r="J25" s="16">
         <v>-1</v>
@@ -3441,7 +3459,7 @@
         <v>-1</v>
       </c>
       <c r="P25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q25" s="16">
         <v>-1</v>
@@ -3488,79 +3506,79 @@
       <c r="AE25" s="16">
         <v>-1</v>
       </c>
-      <c r="AF25" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AG25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="16">
-        <v>0</v>
+      <c r="AF25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="15">
+        <v>1</v>
       </c>
       <c r="AQ25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT25" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B26" s="15">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I26" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C26" s="15">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1</v>
+      </c>
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15">
+        <v>1</v>
       </c>
       <c r="J26" s="16">
         <v>-1</v>
@@ -3581,7 +3599,7 @@
         <v>-1</v>
       </c>
       <c r="P26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q26" s="16">
         <v>-1</v>
@@ -3638,69 +3656,69 @@
         <v>-1</v>
       </c>
       <c r="AI26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AL26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="15">
+        <v>1</v>
       </c>
       <c r="AQ26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR26" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS26" s="15">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AT26" s="15">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B27" s="15">
-        <v>0</v>
-      </c>
-      <c r="C27" s="16">
-        <v>0</v>
-      </c>
-      <c r="D27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="E27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I27" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15">
+        <v>1</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15">
+        <v>1</v>
       </c>
       <c r="J27" s="16">
         <v>-1</v>
@@ -3721,10 +3739,10 @@
         <v>-1</v>
       </c>
       <c r="P27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R27" s="16">
         <v>-1</v>
@@ -3778,74 +3796,74 @@
         <v>-1</v>
       </c>
       <c r="AI27" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK27" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AL27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="15">
+        <v>1</v>
       </c>
       <c r="AQ27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B28" s="15">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16">
-        <v>0</v>
-      </c>
-      <c r="D28" s="16">
-        <v>0</v>
-      </c>
-      <c r="E28" s="16">
-        <v>-1</v>
-      </c>
-      <c r="F28" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I28" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15">
+        <v>1</v>
       </c>
       <c r="J28" s="16">
         <v>-1</v>
       </c>
-      <c r="K28" s="20">
+      <c r="K28" s="16">
         <v>-1</v>
       </c>
       <c r="L28" s="16">
@@ -3864,10 +3882,10 @@
         <v>-1</v>
       </c>
       <c r="Q28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S28" s="16">
         <v>-1</v>
@@ -3918,78 +3936,78 @@
         <v>-1</v>
       </c>
       <c r="AI28" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="15">
+        <v>1</v>
       </c>
       <c r="AQ28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT28" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B29" s="15">
-        <v>0</v>
-      </c>
-      <c r="C29" s="16">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16">
-        <v>0</v>
-      </c>
-      <c r="E29" s="16">
-        <v>0</v>
-      </c>
-      <c r="F29" s="16">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H29" s="16">
-        <v>-1</v>
-      </c>
-      <c r="I29" s="16">
-        <v>-1</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15">
+        <v>1</v>
       </c>
       <c r="J29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="16">
         <v>-1</v>
@@ -4007,22 +4025,22 @@
         <v>-1</v>
       </c>
       <c r="R29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W29" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X29" s="16">
         <v>-1</v>
@@ -4058,81 +4076,81 @@
         <v>-1</v>
       </c>
       <c r="AI29" s="16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL29" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="15">
+        <v>1</v>
       </c>
       <c r="AQ29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B30" s="15">
-        <v>0</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16">
-        <v>0</v>
-      </c>
-      <c r="E30" s="16">
-        <v>0</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>-1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1</v>
+      </c>
+      <c r="H30" s="15">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15">
+        <v>1</v>
       </c>
       <c r="J30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="16">
         <v>-1</v>
@@ -4150,19 +4168,19 @@
         <v>-1</v>
       </c>
       <c r="S30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X30" s="16">
         <v>-1</v>
@@ -4180,16 +4198,16 @@
         <v>-1</v>
       </c>
       <c r="AC30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF30" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG30" s="16">
         <v>-1</v>
@@ -4198,465 +4216,465 @@
         <v>-1</v>
       </c>
       <c r="AI30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AL30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="15">
+        <v>1</v>
       </c>
       <c r="AQ30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT30" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B31" s="15">
-        <v>0</v>
-      </c>
-      <c r="C31" s="16">
-        <v>0</v>
-      </c>
-      <c r="D31" s="16">
-        <v>0</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <v>0</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16">
-        <v>0</v>
-      </c>
-      <c r="J31" s="16">
-        <v>0</v>
-      </c>
-      <c r="K31" s="16">
-        <v>0</v>
-      </c>
-      <c r="L31" s="16">
-        <v>0</v>
-      </c>
-      <c r="M31" s="16">
-        <v>0</v>
-      </c>
-      <c r="N31" s="16">
-        <v>0</v>
-      </c>
-      <c r="O31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="P31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Q31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="S31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="T31" s="16">
-        <v>0</v>
-      </c>
-      <c r="U31" s="16">
-        <v>0</v>
-      </c>
-      <c r="V31" s="16">
-        <v>0</v>
-      </c>
-      <c r="W31" s="16">
-        <v>0</v>
-      </c>
-      <c r="X31" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="Z31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AA31" s="16">
-        <v>-1</v>
-      </c>
-      <c r="AB31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="16">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15">
+        <v>1</v>
+      </c>
+      <c r="H31" s="15">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15">
+        <v>1</v>
+      </c>
+      <c r="K31" s="15">
+        <v>1</v>
+      </c>
+      <c r="L31" s="15">
+        <v>1</v>
+      </c>
+      <c r="M31" s="15">
+        <v>1</v>
+      </c>
+      <c r="N31" s="15">
+        <v>1</v>
+      </c>
+      <c r="O31" s="15">
+        <v>1</v>
+      </c>
+      <c r="P31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="15">
+        <v>1</v>
+      </c>
+      <c r="R31" s="15">
+        <v>1</v>
+      </c>
+      <c r="S31" s="15">
+        <v>1</v>
+      </c>
+      <c r="T31" s="15">
+        <v>1</v>
+      </c>
+      <c r="U31" s="15">
+        <v>1</v>
+      </c>
+      <c r="V31" s="15">
+        <v>1</v>
+      </c>
+      <c r="W31" s="15">
+        <v>1</v>
+      </c>
+      <c r="X31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="15">
+        <v>1</v>
       </c>
       <c r="AQ31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT31" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="16">
-        <v>0</v>
-      </c>
-      <c r="B32" s="16">
-        <v>0</v>
-      </c>
-      <c r="C32" s="16">
-        <v>0</v>
-      </c>
-      <c r="D32" s="16">
-        <v>0</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <v>0</v>
-      </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16">
-        <v>0</v>
-      </c>
-      <c r="J32" s="16">
-        <v>0</v>
-      </c>
-      <c r="K32" s="16">
-        <v>0</v>
-      </c>
-      <c r="L32" s="16">
-        <v>0</v>
-      </c>
-      <c r="M32" s="16">
-        <v>0</v>
-      </c>
-      <c r="N32" s="16">
-        <v>0</v>
-      </c>
-      <c r="O32" s="16">
-        <v>0</v>
-      </c>
-      <c r="P32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="16">
-        <v>0</v>
-      </c>
-      <c r="R32" s="16">
-        <v>0</v>
-      </c>
-      <c r="S32" s="16">
-        <v>0</v>
-      </c>
-      <c r="T32" s="16">
-        <v>0</v>
-      </c>
-      <c r="U32" s="16">
-        <v>0</v>
-      </c>
-      <c r="V32" s="16">
-        <v>0</v>
-      </c>
-      <c r="W32" s="16">
-        <v>0</v>
-      </c>
-      <c r="X32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="16">
-        <v>0</v>
+      <c r="A32" s="15">
+        <v>1</v>
+      </c>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15">
+        <v>1</v>
+      </c>
+      <c r="J32" s="15">
+        <v>1</v>
+      </c>
+      <c r="K32" s="15">
+        <v>1</v>
+      </c>
+      <c r="L32" s="15">
+        <v>1</v>
+      </c>
+      <c r="M32" s="15">
+        <v>1</v>
+      </c>
+      <c r="N32" s="15">
+        <v>1</v>
+      </c>
+      <c r="O32" s="15">
+        <v>1</v>
+      </c>
+      <c r="P32" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>1</v>
+      </c>
+      <c r="R32" s="15">
+        <v>1</v>
+      </c>
+      <c r="S32" s="15">
+        <v>1</v>
+      </c>
+      <c r="T32" s="15">
+        <v>1</v>
+      </c>
+      <c r="U32" s="15">
+        <v>1</v>
+      </c>
+      <c r="V32" s="15">
+        <v>1</v>
+      </c>
+      <c r="W32" s="15">
+        <v>1</v>
+      </c>
+      <c r="X32" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="15">
+        <v>1</v>
       </c>
       <c r="AQ32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT32" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="18">
-        <v>0</v>
-      </c>
-      <c r="B33" s="18">
-        <v>0</v>
-      </c>
-      <c r="C33" s="18">
-        <v>0</v>
-      </c>
-      <c r="D33" s="18">
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
-      </c>
-      <c r="G33" s="18">
-        <v>0</v>
-      </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
-      <c r="I33" s="18">
-        <v>0</v>
-      </c>
-      <c r="J33" s="18">
-        <v>0</v>
-      </c>
-      <c r="K33" s="18">
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
-        <v>0</v>
-      </c>
-      <c r="M33" s="18">
-        <v>0</v>
-      </c>
-      <c r="N33" s="18">
-        <v>0</v>
-      </c>
-      <c r="O33" s="18">
-        <v>0</v>
-      </c>
-      <c r="P33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="18">
-        <v>0</v>
-      </c>
-      <c r="R33" s="18">
-        <v>0</v>
-      </c>
-      <c r="S33" s="18">
-        <v>0</v>
-      </c>
-      <c r="T33" s="18">
-        <v>0</v>
-      </c>
-      <c r="U33" s="18">
-        <v>0</v>
-      </c>
-      <c r="V33" s="18">
-        <v>0</v>
-      </c>
-      <c r="W33" s="18">
-        <v>0</v>
-      </c>
-      <c r="X33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="18">
-        <v>0</v>
+      <c r="A33" s="15">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
+        <v>1</v>
+      </c>
+      <c r="I33" s="15">
+        <v>1</v>
+      </c>
+      <c r="J33" s="15">
+        <v>1</v>
+      </c>
+      <c r="K33" s="15">
+        <v>1</v>
+      </c>
+      <c r="L33" s="15">
+        <v>1</v>
+      </c>
+      <c r="M33" s="15">
+        <v>1</v>
+      </c>
+      <c r="N33" s="15">
+        <v>1</v>
+      </c>
+      <c r="O33" s="15">
+        <v>1</v>
+      </c>
+      <c r="P33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="15">
+        <v>1</v>
+      </c>
+      <c r="R33" s="15">
+        <v>1</v>
+      </c>
+      <c r="S33" s="15">
+        <v>1</v>
+      </c>
+      <c r="T33" s="15">
+        <v>1</v>
+      </c>
+      <c r="U33" s="15">
+        <v>1</v>
+      </c>
+      <c r="V33" s="15">
+        <v>1</v>
+      </c>
+      <c r="W33" s="15">
+        <v>1</v>
+      </c>
+      <c r="X33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AK33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AL33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AM33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AN33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="15">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="15">
+        <v>1</v>
       </c>
       <c r="AQ33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT33" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
@@ -4670,7 +4688,7 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -4745,41 +4763,44 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A7:AT33">
-    <cfRule type="containsBlanks" dxfId="11" priority="2">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(A7))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4792,7 +4813,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -4810,7 +4831,7 @@
         <v>-2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -4818,7 +4839,7 @@
         <v>-2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -4826,95 +4847,105 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="A5" s="18">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="17">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10"/>
-      <c r="B10" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="13">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="7">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="19">
-        <v>90</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="13">
-        <v>91</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="7">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="8">
-        <v>99</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F19BAF8-8EBE-4393-9A60-C38E5FFD57DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B9947-3456-4D87-9EF4-DDE9DF3EBDA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -380,7 +380,81 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="195">
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -393,6 +467,43 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFC000"/>
       </font>
       <fill>
@@ -462,6 +573,1589 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF6D6D6D"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6D6D6D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFD5D5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD5D5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDFF9E5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDFF9E5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7979"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -828,7 +2522,7 @@
   <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="AX29" sqref="AX29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -986,31 +2680,31 @@
         <v>1</v>
       </c>
       <c r="AG7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AH7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AJ7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="15">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="15">
         <v>1</v>
       </c>
       <c r="AM7" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN7" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO7" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP7" s="15">
         <v>1</v>
@@ -1029,7 +2723,7 @@
       </c>
       <c r="AY7">
         <f>COUNTIFS(A7:AT33,0)</f>
-        <v>82</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1040,94 +2734,94 @@
         <v>1</v>
       </c>
       <c r="C8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="T8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="W8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="X8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Y8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Z8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AA8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AB8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AC8" s="15">
         <v>1</v>
       </c>
       <c r="AD8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AE8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG8" s="15">
         <v>-2</v>
@@ -1145,31 +2839,35 @@
         <v>-2</v>
       </c>
       <c r="AL8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AM8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR8" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS8" s="15">
         <v>1</v>
       </c>
       <c r="AT8" s="15">
         <v>1</v>
+      </c>
+      <c r="AY8">
+        <f>COUNTIFS(A7:AT33,1)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1180,94 +2878,94 @@
         <v>1</v>
       </c>
       <c r="C9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="K9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="M9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="N9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="P9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="S9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="T9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="W9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="X9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Y9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Z9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AA9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AB9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AC9" s="15">
         <v>1</v>
       </c>
       <c r="AD9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AE9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG9" s="15">
         <v>-2</v>
@@ -1285,25 +2983,25 @@
         <v>-2</v>
       </c>
       <c r="AL9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AM9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR9" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS9" s="15">
         <v>1</v>
@@ -1314,31 +3012,31 @@
     </row>
     <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="15">
         <v>1</v>
       </c>
       <c r="C10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J10" s="15">
         <v>-2</v>
@@ -1371,7 +3069,7 @@
         <v>-2</v>
       </c>
       <c r="T10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U10" s="15">
         <v>-2</v>
@@ -1398,7 +3096,7 @@
         <v>-2</v>
       </c>
       <c r="AC10" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="15">
         <v>-2</v>
@@ -1407,7 +3105,7 @@
         <v>-2</v>
       </c>
       <c r="AF10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG10" s="15">
         <v>-2</v>
@@ -1425,28 +3123,28 @@
         <v>-2</v>
       </c>
       <c r="AL10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AM10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR10" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="15">
         <v>1</v>
@@ -1454,31 +3152,31 @@
     </row>
     <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="15">
         <v>1</v>
       </c>
       <c r="C11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J11" s="15">
         <v>-2</v>
@@ -1511,7 +3209,7 @@
         <v>-2</v>
       </c>
       <c r="T11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U11" s="15">
         <v>-2</v>
@@ -1538,7 +3236,7 @@
         <v>-2</v>
       </c>
       <c r="AC11" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="15">
         <v>-2</v>
@@ -1547,7 +3245,7 @@
         <v>-2</v>
       </c>
       <c r="AF11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG11" s="15">
         <v>-2</v>
@@ -1565,28 +3263,28 @@
         <v>-2</v>
       </c>
       <c r="AL11" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR11" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS11" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="15">
         <v>1</v>
@@ -1594,31 +3292,31 @@
     </row>
     <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="15">
         <v>1</v>
       </c>
       <c r="C12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J12" s="15">
         <v>-2</v>
@@ -1651,7 +3349,7 @@
         <v>-2</v>
       </c>
       <c r="T12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U12" s="15">
         <v>-2</v>
@@ -1678,7 +3376,7 @@
         <v>-2</v>
       </c>
       <c r="AC12" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="15">
         <v>-2</v>
@@ -1687,13 +3385,13 @@
         <v>-2</v>
       </c>
       <c r="AF12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG12" s="15">
         <v>-2</v>
       </c>
       <c r="AH12" s="15">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AI12" s="15">
         <v>-2</v>
@@ -1705,28 +3403,28 @@
         <v>-2</v>
       </c>
       <c r="AL12" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR12" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="15">
         <v>1</v>
@@ -1734,31 +3432,31 @@
     </row>
     <row r="13" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="15">
         <v>1</v>
       </c>
       <c r="C13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J13" s="15">
         <v>-2</v>
@@ -1791,7 +3489,7 @@
         <v>-2</v>
       </c>
       <c r="T13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U13" s="15">
         <v>-2</v>
@@ -1818,7 +3516,7 @@
         <v>-2</v>
       </c>
       <c r="AC13" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="15">
         <v>-2</v>
@@ -1827,7 +3525,7 @@
         <v>-2</v>
       </c>
       <c r="AF13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG13" s="15">
         <v>-2</v>
@@ -1845,28 +3543,28 @@
         <v>-2</v>
       </c>
       <c r="AL13" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR13" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="15">
         <v>1</v>
@@ -1874,31 +3572,31 @@
     </row>
     <row r="14" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B14" s="15">
         <v>1</v>
       </c>
       <c r="C14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J14" s="15">
         <v>-2</v>
@@ -1931,7 +3629,7 @@
         <v>-2</v>
       </c>
       <c r="T14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U14" s="15">
         <v>-2</v>
@@ -1958,7 +3656,7 @@
         <v>-2</v>
       </c>
       <c r="AC14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="15">
         <v>-2</v>
@@ -1967,7 +3665,7 @@
         <v>-2</v>
       </c>
       <c r="AF14" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG14" s="15">
         <v>-2</v>
@@ -1976,7 +3674,7 @@
         <v>-2</v>
       </c>
       <c r="AI14" s="15">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="AJ14" s="15">
         <v>-2</v>
@@ -1985,28 +3683,28 @@
         <v>-2</v>
       </c>
       <c r="AL14" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR14" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="15">
         <v>1</v>
@@ -2014,31 +3712,31 @@
     </row>
     <row r="15" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" s="15">
         <v>1</v>
       </c>
       <c r="C15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="J15" s="15">
         <v>-2</v>
@@ -2071,13 +3769,13 @@
         <v>-2</v>
       </c>
       <c r="T15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W15" s="15">
         <v>-2</v>
@@ -2089,16 +3787,16 @@
         <v>-2</v>
       </c>
       <c r="Z15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="15">
         <v>-2</v>
@@ -2107,10 +3805,10 @@
         <v>-2</v>
       </c>
       <c r="AF15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH15" s="15">
         <v>0</v>
@@ -2122,31 +3820,31 @@
         <v>0</v>
       </c>
       <c r="AK15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR15" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="15">
         <v>1</v>
@@ -2154,31 +3852,31 @@
     </row>
     <row r="16" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16" s="15">
         <v>1</v>
       </c>
       <c r="C16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J16" s="15">
         <v>-2</v>
@@ -2214,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="15">
         <v>-2</v>
@@ -2247,46 +3945,46 @@
         <v>-2</v>
       </c>
       <c r="AF16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AL16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR16" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="15">
         <v>1</v>
@@ -2294,31 +3992,31 @@
     </row>
     <row r="17" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="15">
         <v>1</v>
       </c>
       <c r="C17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J17" s="15">
         <v>-2</v>
@@ -2348,16 +4046,16 @@
         <v>-2</v>
       </c>
       <c r="S17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T17" s="15">
         <v>0</v>
       </c>
       <c r="U17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
         <v>-2</v>
@@ -2375,58 +4073,58 @@
         <v>-2</v>
       </c>
       <c r="AB17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AL17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN17" s="15">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="AO17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR17" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="15">
         <v>1</v>
@@ -2434,37 +4132,37 @@
     </row>
     <row r="18" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B18" s="15">
         <v>1</v>
       </c>
       <c r="C18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="15">
         <v>-2</v>
@@ -2485,19 +4183,19 @@
         <v>-2</v>
       </c>
       <c r="R18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T18" s="15">
         <v>0</v>
       </c>
       <c r="U18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="15">
         <v>-2</v>
@@ -2509,64 +4207,64 @@
         <v>-2</v>
       </c>
       <c r="Z18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AC18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AD18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AE18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AJ18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AL18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR18" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="15">
         <v>1</v>
@@ -2574,37 +4272,37 @@
     </row>
     <row r="19" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B19" s="15">
         <v>1</v>
       </c>
       <c r="C19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D19" s="15">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="F19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="H19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I19" s="15">
         <v>0</v>
       </c>
       <c r="J19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K19" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="L19" s="15">
         <v>-2</v>
@@ -2625,19 +4323,19 @@
         <v>-2</v>
       </c>
       <c r="R19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T19" s="15">
         <v>0</v>
       </c>
       <c r="U19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="15">
         <v>-2</v>
@@ -2646,67 +4344,67 @@
         <v>-2</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AA19" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AC19" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AE19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AF19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AG19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AH19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AI19" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AK19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AL19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AN19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AO19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AP19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AQ19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AR19" s="15">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="AS19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="15">
         <v>1</v>
@@ -2714,28 +4412,28 @@
     </row>
     <row r="20" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B20" s="15">
         <v>1</v>
       </c>
       <c r="C20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15">
         <v>0</v>
@@ -2747,10 +4445,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N20" s="15">
         <v>0</v>
@@ -2759,10 +4457,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20" s="15">
         <v>0</v>
@@ -2783,10 +4481,10 @@
         <v>0</v>
       </c>
       <c r="X20" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z20" s="15">
         <v>0</v>
@@ -2807,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG20" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH20" s="15">
         <v>0</v>
@@ -2828,25 +4526,25 @@
         <v>0</v>
       </c>
       <c r="AM20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="15">
         <v>1</v>
@@ -2854,37 +4552,37 @@
     </row>
     <row r="21" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B21" s="15">
         <v>1</v>
       </c>
       <c r="C21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D21" s="15">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="E21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="15">
-        <v>0</v>
-      </c>
-      <c r="J21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J21" s="15">
         <v>-1</v>
       </c>
       <c r="K21" s="16">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="L21" s="16">
         <v>-1</v>
@@ -2893,10 +4591,10 @@
         <v>-1</v>
       </c>
       <c r="N21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="16">
         <v>-1</v>
@@ -2908,7 +4606,7 @@
         <v>-1</v>
       </c>
       <c r="S21" s="16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T21" s="16">
         <v>-1</v>
@@ -2935,58 +4633,58 @@
         <v>-1</v>
       </c>
       <c r="AB21" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ21" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK21" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO21" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO21" s="16">
+        <v>-1</v>
       </c>
       <c r="AP21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR21" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS21" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="15">
         <v>1</v>
@@ -2994,33 +4692,33 @@
     </row>
     <row r="22" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B22" s="15">
         <v>1</v>
       </c>
       <c r="C22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="15">
-        <v>0</v>
-      </c>
-      <c r="J22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J22" s="15">
         <v>-1</v>
       </c>
       <c r="K22" s="16">
@@ -3033,10 +4731,10 @@
         <v>-1</v>
       </c>
       <c r="N22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="16">
         <v>-1</v>
@@ -3075,58 +4773,58 @@
         <v>-1</v>
       </c>
       <c r="AB22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ22" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK22" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN22" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO22" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO22" s="16">
+        <v>-1</v>
       </c>
       <c r="AP22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR22" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS22" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="15">
         <v>1</v>
@@ -3134,33 +4832,33 @@
     </row>
     <row r="23" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B23" s="15">
         <v>1</v>
       </c>
       <c r="C23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I23" s="15">
-        <v>0</v>
-      </c>
-      <c r="J23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J23" s="15">
         <v>-1</v>
       </c>
       <c r="K23" s="16">
@@ -3215,58 +4913,58 @@
         <v>-1</v>
       </c>
       <c r="AB23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE23" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF23" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG23" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH23" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI23" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ23" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK23" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN23" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO23" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO23" s="16">
+        <v>-1</v>
       </c>
       <c r="AP23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR23" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS23" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="15">
         <v>1</v>
@@ -3274,33 +4972,33 @@
     </row>
     <row r="24" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B24" s="15">
         <v>1</v>
       </c>
       <c r="C24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="15">
-        <v>0</v>
-      </c>
-      <c r="J24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J24" s="15">
         <v>-1</v>
       </c>
       <c r="K24" s="16">
@@ -3364,49 +5062,49 @@
         <v>-1</v>
       </c>
       <c r="AE24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG24" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH24" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI24" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ24" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK24" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN24" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO24" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO24" s="16">
+        <v>-1</v>
       </c>
       <c r="AP24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR24" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS24" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="15">
         <v>1</v>
@@ -3414,33 +5112,33 @@
     </row>
     <row r="25" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B25" s="15">
         <v>1</v>
       </c>
       <c r="C25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I25" s="15">
-        <v>1</v>
-      </c>
-      <c r="J25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J25" s="15">
         <v>-1</v>
       </c>
       <c r="K25" s="16">
@@ -3474,13 +5172,13 @@
         <v>-1</v>
       </c>
       <c r="U25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="16">
         <v>-1</v>
@@ -3492,61 +5190,61 @@
         <v>-1</v>
       </c>
       <c r="AA25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="16">
         <v>-1</v>
       </c>
-      <c r="AF25" s="15">
-        <v>0</v>
+      <c r="AF25" s="16">
+        <v>-1</v>
       </c>
       <c r="AG25" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH25" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI25" s="15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL25" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AK25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AL25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM25" s="16">
+        <v>-1</v>
       </c>
       <c r="AN25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AO25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AP25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR25" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS25" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="15">
         <v>1</v>
@@ -3554,33 +5252,33 @@
     </row>
     <row r="26" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
       </c>
       <c r="C26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="15">
-        <v>1</v>
-      </c>
-      <c r="J26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J26" s="15">
         <v>-1</v>
       </c>
       <c r="K26" s="16">
@@ -3632,13 +5330,13 @@
         <v>-1</v>
       </c>
       <c r="AA26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="16">
         <v>-1</v>
       </c>
       <c r="AC26" s="16">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="AD26" s="16">
         <v>-1</v>
@@ -3656,37 +5354,37 @@
         <v>-1</v>
       </c>
       <c r="AI26" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ26" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK26" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN26" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN26" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO26" s="16">
+        <v>-1</v>
       </c>
       <c r="AP26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR26" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS26" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="15">
         <v>1</v>
@@ -3694,33 +5392,33 @@
     </row>
     <row r="27" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" s="15">
         <v>1</v>
       </c>
       <c r="C27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I27" s="15">
-        <v>1</v>
-      </c>
-      <c r="J27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J27" s="15">
         <v>-1</v>
       </c>
       <c r="K27" s="16">
@@ -3772,7 +5470,7 @@
         <v>-1</v>
       </c>
       <c r="AA27" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="16">
         <v>-1</v>
@@ -3796,37 +5494,37 @@
         <v>-1</v>
       </c>
       <c r="AI27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ27" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK27" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN27" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO27" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO27" s="16">
+        <v>-1</v>
       </c>
       <c r="AP27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR27" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS27" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="15">
         <v>1</v>
@@ -3834,33 +5532,33 @@
     </row>
     <row r="28" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B28" s="15">
         <v>1</v>
       </c>
       <c r="C28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I28" s="15">
-        <v>1</v>
-      </c>
-      <c r="J28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J28" s="15">
         <v>-1</v>
       </c>
       <c r="K28" s="16">
@@ -3912,7 +5610,7 @@
         <v>-1</v>
       </c>
       <c r="AA28" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="16">
         <v>-1</v>
@@ -3936,37 +5634,37 @@
         <v>-1</v>
       </c>
       <c r="AI28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ28" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK28" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN28" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO28" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO28" s="16">
+        <v>-1</v>
       </c>
       <c r="AP28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR28" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS28" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT28" s="15">
         <v>1</v>
@@ -3974,33 +5672,33 @@
     </row>
     <row r="29" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="15">
         <v>1</v>
       </c>
       <c r="C29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I29" s="15">
-        <v>1</v>
-      </c>
-      <c r="J29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J29" s="15">
         <v>-1</v>
       </c>
       <c r="K29" s="16">
@@ -4052,7 +5750,7 @@
         <v>-1</v>
       </c>
       <c r="AA29" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="16">
         <v>-1</v>
@@ -4076,37 +5774,37 @@
         <v>-1</v>
       </c>
       <c r="AI29" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ29" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK29" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN29" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO29" s="16">
+        <v>-1</v>
       </c>
       <c r="AP29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AR29" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS29" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT29" s="15">
         <v>1</v>
@@ -4114,31 +5812,31 @@
     </row>
     <row r="30" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B30" s="15">
         <v>1</v>
       </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="15">
-        <v>1</v>
-      </c>
-      <c r="H30" s="15">
-        <v>1</v>
-      </c>
-      <c r="I30" s="15">
-        <v>1</v>
+      <c r="C30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I30" s="16">
+        <v>-1</v>
       </c>
       <c r="J30" s="16">
         <v>-1</v>
@@ -4192,7 +5890,7 @@
         <v>-1</v>
       </c>
       <c r="AA30" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="16">
         <v>-1</v>
@@ -4216,37 +5914,37 @@
         <v>-1</v>
       </c>
       <c r="AI30" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ30" s="16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AK30" s="16">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="15">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="15">
-        <v>1</v>
+        <v>-1</v>
+      </c>
+      <c r="AL30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AP30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AQ30" s="16">
+        <v>-1</v>
       </c>
       <c r="AR30" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS30" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT30" s="15">
         <v>1</v>
@@ -4254,139 +5952,139 @@
     </row>
     <row r="31" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B31" s="15">
         <v>1</v>
       </c>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="15">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15">
-        <v>1</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="15">
-        <v>1</v>
-      </c>
-      <c r="H31" s="15">
-        <v>1</v>
-      </c>
-      <c r="I31" s="15">
-        <v>1</v>
-      </c>
-      <c r="J31" s="15">
-        <v>1</v>
-      </c>
-      <c r="K31" s="15">
-        <v>1</v>
-      </c>
-      <c r="L31" s="15">
-        <v>1</v>
-      </c>
-      <c r="M31" s="15">
-        <v>1</v>
-      </c>
-      <c r="N31" s="15">
-        <v>1</v>
-      </c>
-      <c r="O31" s="15">
-        <v>1</v>
-      </c>
-      <c r="P31" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>1</v>
-      </c>
-      <c r="R31" s="15">
-        <v>1</v>
-      </c>
-      <c r="S31" s="15">
-        <v>1</v>
-      </c>
-      <c r="T31" s="15">
-        <v>1</v>
-      </c>
-      <c r="U31" s="15">
-        <v>1</v>
-      </c>
-      <c r="V31" s="15">
-        <v>1</v>
-      </c>
-      <c r="W31" s="15">
-        <v>1</v>
-      </c>
-      <c r="X31" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="15">
-        <v>1</v>
+      <c r="C31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="U31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="V31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="X31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>-1</v>
       </c>
       <c r="AA31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AI31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP31" s="15">
-        <v>1</v>
-      </c>
-      <c r="AQ31" s="15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AE31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AF31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AL31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AP31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AQ31" s="16">
+        <v>-1</v>
       </c>
       <c r="AR31" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS31" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="15">
         <v>1</v>
@@ -4399,131 +6097,131 @@
       <c r="B32" s="15">
         <v>1</v>
       </c>
-      <c r="C32" s="15">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15">
-        <v>1</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="15">
-        <v>1</v>
-      </c>
-      <c r="H32" s="15">
-        <v>1</v>
-      </c>
-      <c r="I32" s="15">
-        <v>1</v>
-      </c>
-      <c r="J32" s="15">
-        <v>1</v>
-      </c>
-      <c r="K32" s="15">
-        <v>1</v>
-      </c>
-      <c r="L32" s="15">
-        <v>1</v>
-      </c>
-      <c r="M32" s="15">
-        <v>1</v>
-      </c>
-      <c r="N32" s="15">
-        <v>1</v>
-      </c>
-      <c r="O32" s="15">
-        <v>1</v>
-      </c>
-      <c r="P32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>1</v>
-      </c>
-      <c r="R32" s="15">
-        <v>1</v>
-      </c>
-      <c r="S32" s="15">
-        <v>1</v>
-      </c>
-      <c r="T32" s="15">
-        <v>1</v>
-      </c>
-      <c r="U32" s="15">
-        <v>1</v>
-      </c>
-      <c r="V32" s="15">
-        <v>1</v>
-      </c>
-      <c r="W32" s="15">
-        <v>1</v>
-      </c>
-      <c r="X32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="15">
-        <v>1</v>
+      <c r="C32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="I32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="K32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="L32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="M32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="N32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="O32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="R32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="S32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="T32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="U32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="V32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="W32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="X32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>-1</v>
       </c>
       <c r="AA32" s="15">
         <v>1</v>
       </c>
-      <c r="AB32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AG32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AI32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AJ32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AK32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AL32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AN32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AO32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AP32" s="15">
-        <v>1</v>
-      </c>
-      <c r="AQ32" s="15">
-        <v>1</v>
+      <c r="AB32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AE32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AF32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AL32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AM32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AN32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AO32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AP32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AQ32" s="16">
+        <v>-1</v>
       </c>
       <c r="AR32" s="15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AS32" s="15">
         <v>1</v>
@@ -4762,45 +6460,619 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A7:AT33">
+  <conditionalFormatting sqref="A33:AT33 A7:AJ7 AC8:AC9 AA31:AA32 C30:Z32 AM7:AT7 C10:AJ29 C30:AA30 A8:B32 AN21:AQ29 AS8:AT32 AN8:AQ19 AK20:AR20">
+    <cfRule type="containsBlanks" dxfId="194" priority="287">
+      <formula>LEN(TRIM(A7))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="289" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="290" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="291" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="292" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="293" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="294" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="295" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="296" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="297" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="298" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="299" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="300" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30:AQ32">
+    <cfRule type="containsBlanks" dxfId="181" priority="66">
+      <formula>LEN(TRIM(AB30))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="67" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="68" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="69" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="70" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="71" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="72" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="73" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="74" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="75" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="76" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="77" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="78" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK7">
+    <cfRule type="containsBlanks" dxfId="168" priority="209">
+      <formula>LEN(TRIM(AK7))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="210" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="211" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="212" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="213" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="214" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="215" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="216" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="217" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="218" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="219" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="220" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="221" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM9">
+    <cfRule type="containsBlanks" dxfId="155" priority="170">
+      <formula>LEN(TRIM(AM9))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="171" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="153" priority="172" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="173" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="177" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="178" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="179" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="180" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="181" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="182" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM8">
+    <cfRule type="containsBlanks" dxfId="142" priority="183">
+      <formula>LEN(TRIM(AM8))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="184" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="185" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="186" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="187" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="188" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="189" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="190" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="191" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="192" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="193" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="194" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="195" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10:AM19">
+    <cfRule type="containsBlanks" dxfId="129" priority="157">
+      <formula>LEN(TRIM(AK10))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="158" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="159" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="160" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="125" priority="161" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="162" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="163" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="164" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="165" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="166" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="167" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="168" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="169" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK22:AM29">
+    <cfRule type="containsBlanks" dxfId="116" priority="144">
+      <formula>LEN(TRIM(AK22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="145" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="146" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="111" priority="149" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="150" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="151" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="152" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="153" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="154" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="155" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="156" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK21:AM21">
+    <cfRule type="containsBlanks" dxfId="103" priority="131">
+      <formula>LEN(TRIM(AK21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="132" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="133" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="134" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="135" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="136" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="137" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="138" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="139" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="140" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="141" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="142" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="143" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD8:AL9">
+    <cfRule type="containsBlanks" dxfId="90" priority="105">
+      <formula>LEN(TRIM(AD8))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="106" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="107" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="108" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="109" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="110" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="111" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="112" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="113" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="114" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="115" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="116" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="117" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8:AB9">
+    <cfRule type="containsBlanks" dxfId="77" priority="92">
+      <formula>LEN(TRIM(C8))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="93" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="94" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="95" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="96" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="97" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="98" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="99" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="100" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="101" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="102" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="103" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="104" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:Z32">
+    <cfRule type="containsBlanks" dxfId="64" priority="79">
+      <formula>LEN(TRIM(C31))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="81" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="82" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="83" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="84" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="85" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="86" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="87" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="88" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="89" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="91" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="containsBlanks" dxfId="51" priority="40">
+      <formula>LEN(TRIM(AL7))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="45" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="51" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="52" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR8:AR19">
+    <cfRule type="containsBlanks" dxfId="38" priority="27">
+      <formula>LEN(TRIM(AR8))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="37" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="39" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR21:AR30">
+    <cfRule type="containsBlanks" dxfId="25" priority="14">
+      <formula>LEN(TRIM(AR21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="25" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="26" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR31:AR32">
     <cfRule type="containsBlanks" dxfId="12" priority="1">
-      <formula>LEN(TRIM(A7))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>LEN(TRIM(AR31))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD153696-F281-4D97-A551-9006CAD58EF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48807368-3103-47DC-ADD8-DE54E50506EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -407,7 +407,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="14">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -419,16 +419,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
@@ -436,6 +426,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -443,6 +436,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="7" tint="0.59996337778862885"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.59996337778862885"/>
@@ -450,6 +446,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
@@ -457,118 +456,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B0F0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF80FF21"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80FF21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFE7E7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE8F2E2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8F2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF00B0F0"/>
@@ -599,121 +489,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF80FF21"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF80FF21"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1" tint="0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFE7E7"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE7E7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFE8F2E2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE8F2E2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1094,7 +869,7 @@
   <dimension ref="A1:AY47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AL34" sqref="AL34"/>
+      <selection activeCell="BL31" sqref="BL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1247,22 +1022,22 @@
         <v>-3</v>
       </c>
       <c r="AG7" s="19">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AH7" s="19">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AI7" s="19">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ7" s="19">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AK7" s="19">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL7" s="19">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AM7" s="19">
         <v>23</v>
@@ -1289,8 +1064,8 @@
         <v>-3</v>
       </c>
       <c r="AY7">
-        <f>COUNTIFS(A7:AT33,0)</f>
-        <v>82</v>
+        <f>COUNTIFS($A$7:$AT$33,0)</f>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1391,22 +1166,22 @@
         <v>-3</v>
       </c>
       <c r="AG8" s="15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AH8" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>-2</v>
+        <v>-3</v>
+      </c>
+      <c r="AI8" s="19">
+        <v>-3</v>
       </c>
       <c r="AJ8" s="15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK8" s="15">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL8" s="19">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AM8" s="19">
         <v>-3</v>
@@ -1433,8 +1208,8 @@
         <v>-3</v>
       </c>
       <c r="AY8">
-        <f>COUNTIFS(A7:AT33,1)</f>
-        <v>0</v>
+        <f>COUNTIFS($A$7:$AT$33,20)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1534,23 +1309,23 @@
       <c r="AF9" s="19">
         <v>-3</v>
       </c>
-      <c r="AG9" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AH9" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AJ9" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AK9" s="15">
-        <v>-2</v>
+      <c r="AG9" s="19">
+        <v>-3</v>
+      </c>
+      <c r="AH9" s="19">
+        <v>-3</v>
+      </c>
+      <c r="AI9" s="19">
+        <v>-3</v>
+      </c>
+      <c r="AJ9" s="19">
+        <v>-3</v>
+      </c>
+      <c r="AK9" s="19">
+        <v>-3</v>
       </c>
       <c r="AL9" s="19">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AM9" s="19">
         <v>-3</v>
@@ -1575,6 +1350,10 @@
       </c>
       <c r="AT9" s="15">
         <v>-3</v>
+      </c>
+      <c r="AY9">
+        <f>COUNTIFS($A$7:$AT$33,21)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1626,8 +1405,8 @@
       <c r="P10" s="15">
         <v>-2</v>
       </c>
-      <c r="Q10" s="19">
-        <v>20</v>
+      <c r="Q10" s="15">
+        <v>-2</v>
       </c>
       <c r="R10" s="15">
         <v>-2</v>
@@ -1665,8 +1444,8 @@
       <c r="AC10" s="15">
         <v>-2</v>
       </c>
-      <c r="AD10" s="19">
-        <v>20</v>
+      <c r="AD10" s="15">
+        <v>-2</v>
       </c>
       <c r="AE10" s="15">
         <v>-2</v>
@@ -1689,8 +1468,8 @@
       <c r="AK10" s="15">
         <v>-2</v>
       </c>
-      <c r="AL10" s="19">
-        <v>20</v>
+      <c r="AL10" s="15">
+        <v>0</v>
       </c>
       <c r="AM10" s="19">
         <v>-3</v>
@@ -1715,6 +1494,10 @@
       </c>
       <c r="AT10" s="15">
         <v>-3</v>
+      </c>
+      <c r="AY10">
+        <f>COUNTIFS($A$7:$AT$33,22)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1766,8 +1549,8 @@
       <c r="P11" s="15">
         <v>-2</v>
       </c>
-      <c r="Q11" s="19">
-        <v>20</v>
+      <c r="Q11" s="15">
+        <v>-2</v>
       </c>
       <c r="R11" s="15">
         <v>-2</v>
@@ -1805,8 +1588,8 @@
       <c r="AC11" s="15">
         <v>-2</v>
       </c>
-      <c r="AD11" s="19">
-        <v>20</v>
+      <c r="AD11" s="15">
+        <v>-2</v>
       </c>
       <c r="AE11" s="15">
         <v>-2</v>
@@ -1856,6 +1639,10 @@
       <c r="AT11" s="19">
         <v>-3</v>
       </c>
+      <c r="AY11">
+        <f>COUNTIFS($A$7:$AT$33,23)</f>
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19">
@@ -1906,8 +1693,8 @@
       <c r="P12" s="15">
         <v>-2</v>
       </c>
-      <c r="Q12" s="19">
-        <v>20</v>
+      <c r="Q12" s="15">
+        <v>-2</v>
       </c>
       <c r="R12" s="15">
         <v>-2</v>
@@ -1937,16 +1724,16 @@
         <v>-2</v>
       </c>
       <c r="AA12" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="15">
-        <v>-2</v>
-      </c>
-      <c r="AD12" s="19">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="15">
+        <v>-2</v>
       </c>
       <c r="AE12" s="15">
         <v>-2</v>
@@ -1961,7 +1748,7 @@
         <v>-2</v>
       </c>
       <c r="AI12" s="15">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AJ12" s="15">
         <v>-2</v>
@@ -2046,8 +1833,8 @@
       <c r="P13" s="15">
         <v>-2</v>
       </c>
-      <c r="Q13" s="19">
-        <v>20</v>
+      <c r="Q13" s="15">
+        <v>-2</v>
       </c>
       <c r="R13" s="15">
         <v>-2</v>
@@ -2059,7 +1846,7 @@
         <v>-2</v>
       </c>
       <c r="U13" s="15">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="V13" s="15">
         <v>-2</v>
@@ -2085,8 +1872,8 @@
       <c r="AC13" s="15">
         <v>-2</v>
       </c>
-      <c r="AD13" s="19">
-        <v>20</v>
+      <c r="AD13" s="15">
+        <v>-2</v>
       </c>
       <c r="AE13" s="15">
         <v>-2</v>
@@ -2186,8 +1973,8 @@
       <c r="P14" s="15">
         <v>-2</v>
       </c>
-      <c r="Q14" s="19">
-        <v>20</v>
+      <c r="Q14" s="15">
+        <v>-2</v>
       </c>
       <c r="R14" s="15">
         <v>-2</v>
@@ -2196,13 +1983,13 @@
         <v>-2</v>
       </c>
       <c r="T14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W14" s="15">
         <v>-2</v>
@@ -2211,7 +1998,7 @@
         <v>-2</v>
       </c>
       <c r="Y14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="15">
         <v>-2</v>
@@ -2226,28 +2013,28 @@
         <v>-2</v>
       </c>
       <c r="AD14" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL14" s="15">
         <v>0</v>
@@ -2326,8 +2113,8 @@
       <c r="P15" s="15">
         <v>-2</v>
       </c>
-      <c r="Q15" s="19">
-        <v>20</v>
+      <c r="Q15" s="15">
+        <v>-2</v>
       </c>
       <c r="R15" s="15">
         <v>-2</v>
@@ -2339,10 +2126,10 @@
         <v>-2</v>
       </c>
       <c r="U15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W15" s="15">
         <v>-2</v>
@@ -2351,10 +2138,10 @@
         <v>-2</v>
       </c>
       <c r="Y15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="15">
         <v>-2</v>
@@ -2366,28 +2153,28 @@
         <v>-2</v>
       </c>
       <c r="AD15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE15" s="15">
         <v>0</v>
       </c>
       <c r="AF15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK15" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL15" s="15">
         <v>0</v>
@@ -2467,7 +2254,7 @@
         <v>-2</v>
       </c>
       <c r="Q16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R16" s="15">
         <v>-2</v>
@@ -2482,34 +2269,34 @@
         <v>-2</v>
       </c>
       <c r="V16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X16" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="15">
         <v>-2</v>
       </c>
       <c r="AC16" s="15">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="AD16" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE16" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="15">
         <v>-2</v>
@@ -2607,7 +2394,7 @@
         <v>-2</v>
       </c>
       <c r="Q17" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R17" s="15">
         <v>-2</v>
@@ -2622,16 +2409,16 @@
         <v>-2</v>
       </c>
       <c r="V17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="15">
         <v>0</v>
@@ -2649,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="15">
         <v>-2</v>
@@ -2747,7 +2534,7 @@
         <v>-2</v>
       </c>
       <c r="Q18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R18" s="15">
         <v>-2</v>
@@ -2762,16 +2549,16 @@
         <v>-2</v>
       </c>
       <c r="V18" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W18" s="15">
         <v>-2</v>
       </c>
       <c r="X18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y18" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z18" s="15">
         <v>-2</v>
@@ -2884,10 +2671,10 @@
         <v>-2</v>
       </c>
       <c r="P19" s="15">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R19" s="15">
         <v>-2</v>
@@ -2902,10 +2689,10 @@
         <v>-2</v>
       </c>
       <c r="V19" s="15">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X19" s="15">
         <v>-2</v>
@@ -3158,34 +2945,34 @@
         <v>-1</v>
       </c>
       <c r="N21" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R21" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S21" s="16">
         <v>-1</v>
       </c>
       <c r="T21" s="16">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="U21" s="16">
         <v>-1</v>
       </c>
       <c r="V21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="16">
         <v>-1</v>
@@ -3194,43 +2981,43 @@
         <v>-1</v>
       </c>
       <c r="Z21" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21" s="16">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AB21" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC21" s="16">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AD21" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE21" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AF21" s="19">
-        <v>23</v>
-      </c>
-      <c r="AG21" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AH21" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AI21" s="19">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AF21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH21" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI21" s="16">
+        <v>-1</v>
       </c>
       <c r="AJ21" s="16">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AK21" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL21" s="16">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AL21" s="15">
+        <v>0</v>
       </c>
       <c r="AM21" s="19">
         <v>-3</v>
@@ -3325,52 +3112,52 @@
         <v>-1</v>
       </c>
       <c r="W22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="16">
         <v>-1</v>
       </c>
       <c r="Z22" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA22" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB22" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC22" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD22" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AF22" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AG22" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AH22" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AI22" s="15">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH22" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI22" s="16">
+        <v>-1</v>
       </c>
       <c r="AJ22" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK22" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL22" s="16">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AL22" s="15">
+        <v>0</v>
       </c>
       <c r="AM22" s="19">
         <v>-3</v>
@@ -3468,10 +3255,10 @@
         <v>-1</v>
       </c>
       <c r="X23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="16">
         <v>0</v>
@@ -3483,34 +3270,34 @@
         <v>0</v>
       </c>
       <c r="AC23" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AF23" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AG23" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AH23" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AI23" s="15">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH23" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI23" s="16">
+        <v>-1</v>
       </c>
       <c r="AJ23" s="16">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK23" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL23" s="16">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AL23" s="15">
+        <v>0</v>
       </c>
       <c r="AM23" s="19">
         <v>23</v>
@@ -3617,40 +3404,40 @@
         <v>-1</v>
       </c>
       <c r="AA24" s="16">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB24" s="16">
         <v>-1</v>
       </c>
       <c r="AC24" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD24" s="16">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AE24" s="16">
-        <v>20</v>
-      </c>
-      <c r="AF24" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AG24" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AH24" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AI24" s="15">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH24" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI24" s="16">
+        <v>-1</v>
       </c>
       <c r="AJ24" s="16">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AK24" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL24" s="16">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AL24" s="15">
+        <v>0</v>
       </c>
       <c r="AM24" s="19">
         <v>-3</v>
@@ -3766,31 +3553,31 @@
         <v>-1</v>
       </c>
       <c r="AD25" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE25" s="16">
         <v>0</v>
       </c>
       <c r="AF25" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="15">
-        <v>21</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AJ25" s="15">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AG25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AH25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI25" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ25" s="16">
+        <v>-1</v>
       </c>
       <c r="AK25" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL25" s="16">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AL25" s="15">
+        <v>0</v>
       </c>
       <c r="AM25" s="19">
         <v>-3</v>
@@ -3876,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="T26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="16">
         <v>-1</v>
@@ -3909,28 +3696,28 @@
         <v>-1</v>
       </c>
       <c r="AE26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="16">
         <v>0</v>
       </c>
       <c r="AH26" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="16">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AL26" s="16">
-        <v>-3</v>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="15">
+        <v>0</v>
       </c>
       <c r="AM26" s="19">
         <v>-3</v>
@@ -4019,7 +3806,7 @@
         <v>-1</v>
       </c>
       <c r="U27" s="16">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="V27" s="16">
         <v>-1</v>
@@ -4055,22 +3842,22 @@
         <v>-1</v>
       </c>
       <c r="AG27" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH27" s="16">
-        <v>20</v>
-      </c>
-      <c r="AI27" s="19">
-        <v>23</v>
-      </c>
-      <c r="AJ27" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AK27" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AL27" s="19">
-        <v>-3</v>
+        <v>99</v>
+      </c>
+      <c r="AI27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK27" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AL27" s="15">
+        <v>0</v>
       </c>
       <c r="AM27" s="19">
         <v>23</v>
@@ -4195,22 +3982,22 @@
         <v>-1</v>
       </c>
       <c r="AG28" s="16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH28" s="16">
-        <v>20</v>
-      </c>
-      <c r="AI28" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AJ28" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AK28" s="15">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AI28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ28" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK28" s="16">
+        <v>-1</v>
       </c>
       <c r="AL28" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="19">
         <v>-3</v>
@@ -4334,23 +4121,23 @@
       <c r="AF29" s="16">
         <v>-1</v>
       </c>
-      <c r="AG29" s="15">
-        <v>21</v>
+      <c r="AG29" s="16">
+        <v>-1</v>
       </c>
       <c r="AH29" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AI29" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AJ29" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AK29" s="15">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AI29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ29" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK29" s="16">
+        <v>-1</v>
       </c>
       <c r="AL29" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="19">
         <v>-3</v>
@@ -4474,23 +4261,23 @@
       <c r="AF30" s="16">
         <v>-1</v>
       </c>
-      <c r="AG30" s="15">
-        <v>-3</v>
+      <c r="AG30" s="16">
+        <v>-1</v>
       </c>
       <c r="AH30" s="16">
-        <v>-3</v>
-      </c>
-      <c r="AI30" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AJ30" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AK30" s="15">
-        <v>-3</v>
+        <v>-1</v>
+      </c>
+      <c r="AI30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ30" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AK30" s="16">
+        <v>-1</v>
       </c>
       <c r="AL30" s="15">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="19">
         <v>-3</v>
@@ -4617,14 +4404,14 @@
       <c r="AG31" s="19">
         <v>-3</v>
       </c>
-      <c r="AH31" s="19">
-        <v>22</v>
-      </c>
-      <c r="AI31" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AJ31" s="19">
-        <v>-3</v>
+      <c r="AH31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI31" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ31" s="16">
+        <v>-1</v>
       </c>
       <c r="AK31" s="19">
         <v>22</v>
@@ -4757,14 +4544,14 @@
       <c r="AG32" s="15">
         <v>-3</v>
       </c>
-      <c r="AH32" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AI32" s="15">
-        <v>-3</v>
-      </c>
-      <c r="AJ32" s="15">
-        <v>-3</v>
+      <c r="AH32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI32" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ32" s="16">
+        <v>-1</v>
       </c>
       <c r="AK32" s="15">
         <v>-3</v>
@@ -4897,14 +4684,14 @@
       <c r="AG33" s="19">
         <v>-3</v>
       </c>
-      <c r="AH33" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AI33" s="19">
-        <v>-3</v>
-      </c>
-      <c r="AJ33" s="19">
-        <v>-3</v>
+      <c r="AH33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AI33" s="16">
+        <v>-1</v>
+      </c>
+      <c r="AJ33" s="16">
+        <v>-1</v>
       </c>
       <c r="AK33" s="19">
         <v>-3</v>
@@ -5049,22 +4836,22 @@
     <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="12" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="equal">
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
@@ -5074,6 +4861,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="AY9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E2B6F6-FE4A-48DF-8926-D2A2F975F42B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC276F0D-25D8-47DB-905F-7B5E5D9509DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -880,8 +880,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O15" sqref="O14:O15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1055,100 +1055,100 @@
     </row>
     <row r="18" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="B18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="F18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="J18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="L18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="N18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="P18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="R18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="S18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="T18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="U18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="V18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="X18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Y18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Z18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AA18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AB18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AC18">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AD18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AE18">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG18">
         <v>-2</v>
@@ -1166,133 +1166,133 @@
         <v>-2</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM18">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AN18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ18">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AR18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY18">
         <f>COUNTIFS($A$18:$AT$44,0)</f>
-        <v>165</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="K19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="M19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="O19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="P19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="S19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="T19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="U19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="V19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="W19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="X19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Y19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Z19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AA19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AC19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AD19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AE19">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG19">
         <v>-2</v>
@@ -1310,133 +1310,133 @@
         <v>-2</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY19">
         <f>COUNTIFS($A$18:$AT$44,20)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG20">
         <v>-2</v>
@@ -1454,64 +1454,64 @@
         <v>-2</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$18:$AT$44,21)</f>
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J21">
         <v>-2</v>
@@ -1535,7 +1535,7 @@
         <v>-2</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R21">
         <v>-2</v>
@@ -1574,7 +1574,7 @@
         <v>-2</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE21">
         <v>-2</v>
@@ -1598,64 +1598,64 @@
         <v>-2</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$18:$AT$44,22)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="B22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E22">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J22">
         <v>-2</v>
@@ -1679,7 +1679,7 @@
         <v>-2</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R22">
         <v>-2</v>
@@ -1718,13 +1718,13 @@
         <v>-2</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG22">
         <v>-2</v>
@@ -1742,64 +1742,64 @@
         <v>-2</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM22">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AN22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ22">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AR22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$18:$AT$44,23)</f>
-        <v>27</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J23">
         <v>-2</v>
@@ -1823,7 +1823,7 @@
         <v>-2</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R23">
         <v>-2</v>
@@ -1859,7 +1859,7 @@
         <v>-2</v>
       </c>
       <c r="AC23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -1877,7 +1877,7 @@
         <v>-2</v>
       </c>
       <c r="AI23">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AJ23">
         <v>-2</v>
@@ -1886,64 +1886,64 @@
         <v>-2</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY23">
         <f>AY18+AY19+AY20+AY21+AY22</f>
-        <v>253</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J24">
         <v>-2</v>
@@ -1967,7 +1967,7 @@
         <v>-2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R24">
         <v>-2</v>
@@ -2006,7 +2006,7 @@
         <v>-2</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE24">
         <v>-2</v>
@@ -2018,72 +2018,72 @@
         <v>-2</v>
       </c>
       <c r="AH24">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AI24">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AJ24">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AK24">
         <v>-2</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J25">
         <v>-2</v>
@@ -2107,7 +2107,7 @@
         <v>-2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R25">
         <v>-2</v>
@@ -2116,13 +2116,13 @@
         <v>-2</v>
       </c>
       <c r="T25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <v>-2</v>
@@ -2131,13 +2131,13 @@
         <v>-2</v>
       </c>
       <c r="Y25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>-2</v>
@@ -2146,7 +2146,7 @@
         <v>-2</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25">
         <v>-2</v>
@@ -2155,75 +2155,75 @@
         <v>-2</v>
       </c>
       <c r="AG25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL25">
         <v>0</v>
       </c>
       <c r="AM25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="B26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="F26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J26">
         <v>-2</v>
@@ -2247,7 +2247,7 @@
         <v>-2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R26">
         <v>-2</v>
@@ -2259,10 +2259,10 @@
         <v>-2</v>
       </c>
       <c r="U26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>-2</v>
@@ -2271,46 +2271,46 @@
         <v>-2</v>
       </c>
       <c r="Y26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AA26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>-2</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM26">
         <v>23</v>
@@ -2339,31 +2339,31 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J27">
         <v>-2</v>
@@ -2387,7 +2387,7 @@
         <v>-2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R27">
         <v>-2</v>
@@ -2402,46 +2402,46 @@
         <v>-2</v>
       </c>
       <c r="V27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="X27">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AA27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AB27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>-2</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AF27">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG27">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH27">
         <v>-3</v>
       </c>
       <c r="AI27">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="AJ27">
         <v>-3</v>
@@ -2450,7 +2450,7 @@
         <v>-3</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM27">
         <v>-3</v>
@@ -2479,31 +2479,31 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J28">
         <v>-2</v>
@@ -2527,7 +2527,7 @@
         <v>-2</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R28">
         <v>-2</v>
@@ -2542,22 +2542,22 @@
         <v>-2</v>
       </c>
       <c r="V28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH28">
         <v>-3</v>
@@ -2587,10 +2587,10 @@
         <v>-3</v>
       </c>
       <c r="AK28">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM28">
         <v>-3</v>
@@ -2619,31 +2619,31 @@
     </row>
     <row r="29" spans="1:51" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H29">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J29">
         <v>-2</v>
@@ -2667,7 +2667,7 @@
         <v>-2</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R29">
         <v>-2</v>
@@ -2682,55 +2682,55 @@
         <v>-2</v>
       </c>
       <c r="V29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Z29">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA29">
+        <v>20</v>
+      </c>
+      <c r="AB29">
+        <v>20</v>
+      </c>
+      <c r="AC29">
+        <v>20</v>
+      </c>
+      <c r="AD29">
+        <v>20</v>
+      </c>
+      <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29">
         <v>21</v>
       </c>
-      <c r="AB29">
-        <v>-3</v>
-      </c>
-      <c r="AC29">
+      <c r="AG29">
+        <v>-3</v>
+      </c>
+      <c r="AH29">
         <v>21</v>
       </c>
-      <c r="AD29">
-        <v>-3</v>
-      </c>
-      <c r="AE29">
-        <v>-3</v>
-      </c>
-      <c r="AF29">
-        <v>-3</v>
-      </c>
-      <c r="AG29">
-        <v>-3</v>
-      </c>
-      <c r="AH29">
-        <v>-3</v>
-      </c>
       <c r="AI29">
         <v>-3</v>
       </c>
       <c r="AJ29">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AK29">
         <v>-3</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM29">
         <v>-3</v>
@@ -2759,31 +2759,31 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="B30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="F30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J30">
         <v>-2</v>
@@ -2804,10 +2804,10 @@
         <v>-2</v>
       </c>
       <c r="P30">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R30">
         <v>-2</v>
@@ -2822,55 +2822,55 @@
         <v>-2</v>
       </c>
       <c r="V30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Y30">
+        <v>-3</v>
+      </c>
+      <c r="Z30">
+        <v>-3</v>
+      </c>
+      <c r="AA30">
         <v>20</v>
       </c>
-      <c r="Z30">
+      <c r="AB30">
+        <v>21</v>
+      </c>
+      <c r="AC30">
+        <v>-3</v>
+      </c>
+      <c r="AD30">
+        <v>21</v>
+      </c>
+      <c r="AE30">
+        <v>-3</v>
+      </c>
+      <c r="AF30">
+        <v>-3</v>
+      </c>
+      <c r="AG30">
+        <v>-3</v>
+      </c>
+      <c r="AH30">
+        <v>-3</v>
+      </c>
+      <c r="AI30">
+        <v>-3</v>
+      </c>
+      <c r="AJ30">
+        <v>-3</v>
+      </c>
+      <c r="AK30">
+        <v>-3</v>
+      </c>
+      <c r="AL30">
         <v>20</v>
-      </c>
-      <c r="AA30">
-        <v>-3</v>
-      </c>
-      <c r="AB30">
-        <v>-3</v>
-      </c>
-      <c r="AC30">
-        <v>-3</v>
-      </c>
-      <c r="AD30">
-        <v>-3</v>
-      </c>
-      <c r="AE30">
-        <v>-3</v>
-      </c>
-      <c r="AF30">
-        <v>-3</v>
-      </c>
-      <c r="AG30">
-        <v>-3</v>
-      </c>
-      <c r="AH30">
-        <v>-3</v>
-      </c>
-      <c r="AI30">
-        <v>20</v>
-      </c>
-      <c r="AJ30">
-        <v>20</v>
-      </c>
-      <c r="AK30">
-        <v>20</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
       </c>
       <c r="AM30">
         <v>23</v>
@@ -2899,28 +2899,28 @@
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2965,52 +2965,52 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL31">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM31">
         <v>-3</v>
@@ -3039,31 +3039,31 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J32">
         <v>-1</v>
@@ -3078,19 +3078,19 @@
         <v>-1</v>
       </c>
       <c r="N32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R32">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S32">
         <v>-1</v>
@@ -3102,55 +3102,55 @@
         <v>-1</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA32">
+        <v>-3</v>
+      </c>
+      <c r="AB32">
         <v>21</v>
       </c>
-      <c r="AB32">
-        <v>-3</v>
-      </c>
       <c r="AC32">
+        <v>-3</v>
+      </c>
+      <c r="AD32">
         <v>21</v>
       </c>
-      <c r="AD32">
-        <v>-3</v>
-      </c>
       <c r="AE32">
+        <v>-3</v>
+      </c>
+      <c r="AF32">
+        <v>-3</v>
+      </c>
+      <c r="AG32">
+        <v>-3</v>
+      </c>
+      <c r="AH32">
+        <v>-3</v>
+      </c>
+      <c r="AI32">
+        <v>-3</v>
+      </c>
+      <c r="AJ32">
+        <v>-3</v>
+      </c>
+      <c r="AK32">
+        <v>-3</v>
+      </c>
+      <c r="AL32">
         <v>20</v>
-      </c>
-      <c r="AF32">
-        <v>23</v>
-      </c>
-      <c r="AG32">
-        <v>-3</v>
-      </c>
-      <c r="AH32">
-        <v>-3</v>
-      </c>
-      <c r="AI32">
-        <v>-3</v>
-      </c>
-      <c r="AJ32">
-        <v>22</v>
-      </c>
-      <c r="AK32">
-        <v>-3</v>
-      </c>
-      <c r="AL32">
-        <v>-3</v>
       </c>
       <c r="AM32">
         <v>-3</v>
@@ -3179,31 +3179,31 @@
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J33">
         <v>-1</v>
@@ -3245,16 +3245,16 @@
         <v>-1</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA33">
         <v>-3</v>
@@ -3269,28 +3269,28 @@
         <v>-3</v>
       </c>
       <c r="AE33">
+        <v>-3</v>
+      </c>
+      <c r="AF33">
+        <v>-3</v>
+      </c>
+      <c r="AG33">
+        <v>-3</v>
+      </c>
+      <c r="AH33">
+        <v>-3</v>
+      </c>
+      <c r="AI33">
+        <v>-3</v>
+      </c>
+      <c r="AJ33">
+        <v>-3</v>
+      </c>
+      <c r="AK33">
+        <v>-3</v>
+      </c>
+      <c r="AL33">
         <v>20</v>
-      </c>
-      <c r="AF33">
-        <v>-3</v>
-      </c>
-      <c r="AG33">
-        <v>-3</v>
-      </c>
-      <c r="AH33">
-        <v>-3</v>
-      </c>
-      <c r="AI33">
-        <v>-3</v>
-      </c>
-      <c r="AJ33">
-        <v>-3</v>
-      </c>
-      <c r="AK33">
-        <v>-3</v>
-      </c>
-      <c r="AL33">
-        <v>-3</v>
       </c>
       <c r="AM33">
         <v>-3</v>
@@ -3319,31 +3319,31 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="B34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E34">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="F34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H34">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34">
         <v>-1</v>
@@ -3388,10 +3388,10 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -3406,31 +3406,31 @@
         <v>0</v>
       </c>
       <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>22</v>
+      </c>
+      <c r="AG34">
+        <v>-3</v>
+      </c>
+      <c r="AH34">
+        <v>-3</v>
+      </c>
+      <c r="AI34">
+        <v>22</v>
+      </c>
+      <c r="AJ34">
+        <v>-3</v>
+      </c>
+      <c r="AK34">
+        <v>-3</v>
+      </c>
+      <c r="AL34">
         <v>20</v>
-      </c>
-      <c r="AE34">
-        <v>20</v>
-      </c>
-      <c r="AF34">
-        <v>-3</v>
-      </c>
-      <c r="AG34">
-        <v>-3</v>
-      </c>
-      <c r="AH34">
-        <v>-3</v>
-      </c>
-      <c r="AI34">
-        <v>-3</v>
-      </c>
-      <c r="AJ34">
-        <v>-3</v>
-      </c>
-      <c r="AK34">
-        <v>-3</v>
-      </c>
-      <c r="AL34">
-        <v>-3</v>
       </c>
       <c r="AM34">
         <v>23</v>
@@ -3459,31 +3459,31 @@
     </row>
     <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J35">
         <v>-1</v>
@@ -3537,40 +3537,40 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>-3</v>
+      </c>
+      <c r="AG35">
+        <v>-3</v>
+      </c>
+      <c r="AH35">
+        <v>-3</v>
+      </c>
+      <c r="AI35">
+        <v>-3</v>
+      </c>
+      <c r="AJ35">
+        <v>-3</v>
+      </c>
+      <c r="AK35">
+        <v>-3</v>
+      </c>
+      <c r="AL35">
         <v>20</v>
-      </c>
-      <c r="AF35">
-        <v>-3</v>
-      </c>
-      <c r="AG35">
-        <v>-3</v>
-      </c>
-      <c r="AH35">
-        <v>-3</v>
-      </c>
-      <c r="AI35">
-        <v>-3</v>
-      </c>
-      <c r="AJ35">
-        <v>22</v>
-      </c>
-      <c r="AK35">
-        <v>-3</v>
-      </c>
-      <c r="AL35">
-        <v>-3</v>
       </c>
       <c r="AM35">
         <v>-3</v>
@@ -3599,31 +3599,31 @@
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J36">
         <v>-1</v>
@@ -3677,7 +3677,7 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3686,19 +3686,19 @@
         <v>-1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH36">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AI36">
         <v>-3</v>
@@ -3710,7 +3710,7 @@
         <v>-3</v>
       </c>
       <c r="AL36">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AM36">
         <v>-3</v>
@@ -3739,31 +3739,31 @@
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H37">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J37">
         <v>-1</v>
@@ -3796,13 +3796,13 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3829,81 +3829,81 @@
         <v>-1</v>
       </c>
       <c r="AE37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
       </c>
       <c r="AH37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AS37">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AT37">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="B38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E38">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="F38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J38">
         <v>-1</v>
@@ -3939,7 +3939,7 @@
         <v>-1</v>
       </c>
       <c r="U38">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="V38">
         <v>-1</v>
@@ -3975,75 +3975,75 @@
         <v>-1</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI38">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="AJ38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL38">
-        <v>-3</v>
+        <v>99</v>
       </c>
       <c r="AM38">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="AN38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ38">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="AR38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT38">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J39">
         <v>-1</v>
@@ -4115,75 +4115,75 @@
         <v>-1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH39">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT39">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J40">
         <v>-1</v>
@@ -4255,75 +4255,75 @@
         <v>-1</v>
       </c>
       <c r="AG40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH40">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT40">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J41">
         <v>-1</v>
@@ -4395,466 +4395,466 @@
         <v>-1</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH41">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AI41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT41">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="B42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="E42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G42">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="H42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AI42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AL42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AO42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ42">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AR42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS42">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT42">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I43">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="K43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="M43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="O43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="Q43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="S43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="T43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="U43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="W43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AE43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF43">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AG43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS43">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT43">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="H44">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="I44">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="J44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="K44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="M44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="O44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="P44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Q44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="S44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="T44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="U44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS44">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT44">
-        <v>20</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC276F0D-25D8-47DB-905F-7B5E5D9509DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45AC43C-E57C-4705-80A9-F34713662DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -881,7 +881,7 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA17" sqref="BA17"/>
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="AY18">
         <f>COUNTIFS($A$18:$AT$44,0)</f>
-        <v>101</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1310,7 +1310,7 @@
         <v>-2</v>
       </c>
       <c r="AL19">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AM19">
         <v>-2</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$18:$AT$44,21)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1556,7 +1556,7 @@
         <v>-2</v>
       </c>
       <c r="X21">
-        <v>-2</v>
+        <v>98</v>
       </c>
       <c r="Y21">
         <v>-2</v>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$18:$AT$44,22)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1697,13 +1697,13 @@
         <v>-2</v>
       </c>
       <c r="W22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z22">
         <v>-2</v>
@@ -1721,10 +1721,10 @@
         <v>-2</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG22">
         <v>-2</v>
@@ -1736,22 +1736,22 @@
         <v>-2</v>
       </c>
       <c r="AJ22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
         <v>-2</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$18:$AT$44,23)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1859,10 +1859,10 @@
         <v>-2</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE23">
         <v>-2</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="AY23">
         <f>AY18+AY19+AY20+AY21+AY22</f>
-        <v>144</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2015,16 +2015,16 @@
         <v>-2</v>
       </c>
       <c r="AG24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="AK24">
         <v>-2</v>
@@ -2116,13 +2116,13 @@
         <v>-2</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W25">
         <v>-2</v>
@@ -2131,13 +2131,13 @@
         <v>-2</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB25">
         <v>-2</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -2167,34 +2167,34 @@
         <v>0</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2259,10 +2259,10 @@
         <v>-2</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W26">
         <v>-2</v>
@@ -2271,70 +2271,70 @@
         <v>-2</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z26">
+        <v>-2</v>
+      </c>
+      <c r="AA26">
+        <v>-2</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>-2</v>
+      </c>
+      <c r="AF26">
+        <v>-2</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>20</v>
       </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>-2</v>
-      </c>
-      <c r="AD26">
-        <v>-2</v>
-      </c>
-      <c r="AE26">
-        <v>-2</v>
-      </c>
-      <c r="AF26">
-        <v>-2</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>22</v>
-      </c>
       <c r="AI26">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AJ26">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AM26">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AN26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ26">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AR26">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2402,76 +2402,76 @@
         <v>-2</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W27">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>-2</v>
+      </c>
+      <c r="AF27">
+        <v>-2</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>20</v>
+      </c>
+      <c r="AI27">
+        <v>20</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>-2</v>
+      </c>
+      <c r="AN27">
+        <v>-2</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
         <v>21</v>
-      </c>
-      <c r="AA27">
-        <v>-3</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>-2</v>
-      </c>
-      <c r="AD27">
-        <v>-2</v>
-      </c>
-      <c r="AE27">
-        <v>-2</v>
-      </c>
-      <c r="AF27">
-        <v>-2</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>-3</v>
-      </c>
-      <c r="AI27">
-        <v>-3</v>
-      </c>
-      <c r="AJ27">
-        <v>-3</v>
-      </c>
-      <c r="AK27">
-        <v>-3</v>
-      </c>
-      <c r="AL27">
-        <v>-3</v>
-      </c>
-      <c r="AM27">
-        <v>-3</v>
-      </c>
-      <c r="AN27">
-        <v>-3</v>
-      </c>
-      <c r="AO27">
-        <v>-3</v>
-      </c>
-      <c r="AP27">
-        <v>-3</v>
-      </c>
-      <c r="AQ27">
-        <v>-3</v>
-      </c>
-      <c r="AR27">
-        <v>-3</v>
-      </c>
-      <c r="AS27">
-        <v>-3</v>
       </c>
       <c r="AT27">
         <v>-3</v>
@@ -2518,16 +2518,16 @@
         <v>-2</v>
       </c>
       <c r="N28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R28">
         <v>-2</v>
@@ -2536,10 +2536,10 @@
         <v>-2</v>
       </c>
       <c r="T28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -2548,37 +2548,37 @@
         <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="AI28">
         <v>-3</v>
@@ -2590,19 +2590,19 @@
         <v>20</v>
       </c>
       <c r="AL28">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN28">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="AQ28">
         <v>-3</v>
@@ -2658,16 +2658,16 @@
         <v>-2</v>
       </c>
       <c r="N29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="P29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R29">
         <v>-2</v>
@@ -2682,76 +2682,76 @@
         <v>-2</v>
       </c>
       <c r="V29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W29">
+        <v>-2</v>
+      </c>
+      <c r="X29">
+        <v>-2</v>
+      </c>
+      <c r="Y29">
+        <v>-2</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>-3</v>
+      </c>
+      <c r="AB29">
+        <v>-3</v>
+      </c>
+      <c r="AC29">
+        <v>-3</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>-2</v>
+      </c>
+      <c r="AF29">
+        <v>-2</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>-3</v>
+      </c>
+      <c r="AI29">
+        <v>-3</v>
+      </c>
+      <c r="AJ29">
+        <v>-3</v>
+      </c>
+      <c r="AK29">
+        <v>20</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>-2</v>
+      </c>
+      <c r="AN29">
+        <v>-2</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>-3</v>
+      </c>
+      <c r="AQ29">
+        <v>-3</v>
+      </c>
+      <c r="AR29">
+        <v>-3</v>
+      </c>
+      <c r="AS29">
         <v>21</v>
-      </c>
-      <c r="X29">
-        <v>-3</v>
-      </c>
-      <c r="Y29">
-        <v>21</v>
-      </c>
-      <c r="Z29">
-        <v>-3</v>
-      </c>
-      <c r="AA29">
-        <v>20</v>
-      </c>
-      <c r="AB29">
-        <v>20</v>
-      </c>
-      <c r="AC29">
-        <v>20</v>
-      </c>
-      <c r="AD29">
-        <v>20</v>
-      </c>
-      <c r="AE29">
-        <v>20</v>
-      </c>
-      <c r="AF29">
-        <v>21</v>
-      </c>
-      <c r="AG29">
-        <v>-3</v>
-      </c>
-      <c r="AH29">
-        <v>21</v>
-      </c>
-      <c r="AI29">
-        <v>-3</v>
-      </c>
-      <c r="AJ29">
-        <v>21</v>
-      </c>
-      <c r="AK29">
-        <v>-3</v>
-      </c>
-      <c r="AL29">
-        <v>20</v>
-      </c>
-      <c r="AM29">
-        <v>-3</v>
-      </c>
-      <c r="AN29">
-        <v>-3</v>
-      </c>
-      <c r="AO29">
-        <v>-3</v>
-      </c>
-      <c r="AP29">
-        <v>-3</v>
-      </c>
-      <c r="AQ29">
-        <v>-3</v>
-      </c>
-      <c r="AR29">
-        <v>-3</v>
-      </c>
-      <c r="AS29">
-        <v>-3</v>
       </c>
       <c r="AT29">
         <v>-3</v>
@@ -2780,7 +2780,7 @@
         <v>-2</v>
       </c>
       <c r="H30">
-        <v>-2</v>
+        <v>90</v>
       </c>
       <c r="I30">
         <v>-2</v>
@@ -2789,7 +2789,7 @@
         <v>-2</v>
       </c>
       <c r="K30">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="L30">
         <v>-2</v>
@@ -2798,16 +2798,16 @@
         <v>-2</v>
       </c>
       <c r="N30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="Q30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R30">
         <v>-2</v>
@@ -2822,70 +2822,70 @@
         <v>-2</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="X30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Y30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Z30">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA30">
+        <v>-3</v>
+      </c>
+      <c r="AB30">
+        <v>-3</v>
+      </c>
+      <c r="AC30">
+        <v>-3</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>-2</v>
+      </c>
+      <c r="AF30">
+        <v>-2</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>-3</v>
+      </c>
+      <c r="AI30">
+        <v>-3</v>
+      </c>
+      <c r="AJ30">
+        <v>-3</v>
+      </c>
+      <c r="AK30">
         <v>20</v>
       </c>
-      <c r="AB30">
-        <v>21</v>
-      </c>
-      <c r="AC30">
-        <v>-3</v>
-      </c>
-      <c r="AD30">
-        <v>21</v>
-      </c>
-      <c r="AE30">
-        <v>-3</v>
-      </c>
-      <c r="AF30">
-        <v>-3</v>
-      </c>
-      <c r="AG30">
-        <v>-3</v>
-      </c>
-      <c r="AH30">
-        <v>-3</v>
-      </c>
-      <c r="AI30">
-        <v>-3</v>
-      </c>
-      <c r="AJ30">
-        <v>-3</v>
-      </c>
-      <c r="AK30">
-        <v>-3</v>
-      </c>
       <c r="AL30">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AN30">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO30">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP30">
         <v>-3</v>
       </c>
       <c r="AQ30">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="AR30">
         <v>-3</v>
@@ -2932,10 +2932,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2965,65 +2965,65 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>-2</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>-1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
         <v>22</v>
       </c>
-      <c r="Z31">
-        <v>-3</v>
-      </c>
-      <c r="AA31">
-        <v>-3</v>
-      </c>
-      <c r="AB31">
-        <v>-3</v>
-      </c>
-      <c r="AC31">
-        <v>-3</v>
-      </c>
-      <c r="AD31">
-        <v>-3</v>
-      </c>
-      <c r="AE31">
-        <v>-3</v>
-      </c>
-      <c r="AF31">
-        <v>22</v>
-      </c>
-      <c r="AG31">
-        <v>-3</v>
-      </c>
-      <c r="AH31">
-        <v>-3</v>
-      </c>
-      <c r="AI31">
-        <v>22</v>
-      </c>
-      <c r="AJ31">
-        <v>-3</v>
-      </c>
-      <c r="AK31">
-        <v>-3</v>
-      </c>
-      <c r="AL31">
-        <v>20</v>
-      </c>
-      <c r="AM31">
-        <v>-3</v>
-      </c>
-      <c r="AN31">
-        <v>-3</v>
-      </c>
-      <c r="AO31">
-        <v>-3</v>
-      </c>
-      <c r="AP31">
-        <v>-3</v>
-      </c>
       <c r="AQ31">
         <v>-3</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>-3</v>
       </c>
       <c r="AS31">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AT31">
         <v>-3</v>
@@ -3060,7 +3060,7 @@
         <v>-1</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -3069,7 +3069,7 @@
         <v>-1</v>
       </c>
       <c r="K32">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="L32">
         <v>-1</v>
@@ -3078,88 +3078,88 @@
         <v>-1</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="P32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R32">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="S32">
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD32">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AE32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL32">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AM32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN32">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO32">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP32">
         <v>-3</v>
@@ -3236,70 +3236,70 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="V33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AF33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL33">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AM33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO33">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP33">
         <v>-3</v>
@@ -3311,7 +3311,7 @@
         <v>-3</v>
       </c>
       <c r="AS33">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AT33">
         <v>-3</v>
@@ -3376,79 +3376,79 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF34">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AG34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>-1</v>
+      </c>
+      <c r="AN34">
+        <v>-1</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
         <v>20</v>
       </c>
-      <c r="AM34">
-        <v>23</v>
-      </c>
-      <c r="AN34">
-        <v>-3</v>
-      </c>
-      <c r="AO34">
-        <v>-3</v>
-      </c>
-      <c r="AP34">
-        <v>-3</v>
-      </c>
       <c r="AQ34">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AR34">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AS34">
         <v>-3</v>
@@ -3516,10 +3516,10 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V35">
         <v>-1</v>
@@ -3537,7 +3537,7 @@
         <v>-1</v>
       </c>
       <c r="AA35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
         <v>-1</v>
@@ -3549,52 +3549,52 @@
         <v>-1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF35">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG35">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AI35">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AJ35">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AK35">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>-1</v>
+      </c>
+      <c r="AN35">
+        <v>-1</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>21</v>
+      </c>
+      <c r="AQ35">
+        <v>-3</v>
+      </c>
+      <c r="AR35">
         <v>20</v>
       </c>
-      <c r="AM35">
-        <v>-3</v>
-      </c>
-      <c r="AN35">
-        <v>-3</v>
-      </c>
-      <c r="AO35">
-        <v>-3</v>
-      </c>
-      <c r="AP35">
-        <v>-3</v>
-      </c>
-      <c r="AQ35">
-        <v>-3</v>
-      </c>
-      <c r="AR35">
-        <v>-3</v>
-      </c>
       <c r="AS35">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AT35">
-        <v>-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3656,10 +3656,10 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>-1</v>
@@ -3689,37 +3689,37 @@
         <v>-1</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AG36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AI36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AM36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN36">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>-3</v>
@@ -3728,13 +3728,13 @@
         <v>-3</v>
       </c>
       <c r="AR36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AS36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AT36">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37">
         <v>-1</v>
@@ -3829,34 +3829,34 @@
         <v>-1</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO37">
         <v>0</v>
@@ -3871,10 +3871,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT37">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3936,10 +3936,10 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="V38">
         <v>-1</v>
@@ -3957,16 +3957,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38">
         <v>-1</v>
@@ -3990,7 +3990,7 @@
         <v>-1</v>
       </c>
       <c r="AL38">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="AM38">
         <v>-1</v>
@@ -3999,10 +3999,10 @@
         <v>-1</v>
       </c>
       <c r="AO38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ38">
         <v>-1</v>
@@ -4076,10 +4076,10 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>-1</v>
@@ -4094,10 +4094,10 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -4216,25 +4216,25 @@
         <v>-1</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>-1</v>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45AC43C-E57C-4705-80A9-F34713662DCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45A03F-8678-40BD-B2DE-A6E3CE7092C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -418,7 +418,1347 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="154">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -881,7 +2221,7 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W31" sqref="W31"/>
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1194,7 +2534,7 @@
       </c>
       <c r="AY18">
         <f>COUNTIFS($A$18:$AT$44,0)</f>
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1310,7 +2650,7 @@
         <v>-2</v>
       </c>
       <c r="AL19">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AM19">
         <v>-2</v>
@@ -1338,7 +2678,7 @@
       </c>
       <c r="AY19">
         <f>COUNTIFS($A$18:$AT$44,20)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1482,7 +2822,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$18:$AT$44,21)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1556,7 +2896,7 @@
         <v>-2</v>
       </c>
       <c r="X21">
-        <v>98</v>
+        <v>-2</v>
       </c>
       <c r="Y21">
         <v>-2</v>
@@ -1574,16 +2914,16 @@
         <v>-2</v>
       </c>
       <c r="AD21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH21">
         <v>-2</v>
@@ -1626,7 +2966,7 @@
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$18:$AT$44,22)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1697,13 +3037,13 @@
         <v>-2</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z22">
         <v>-2</v>
@@ -1718,16 +3058,16 @@
         <v>-2</v>
       </c>
       <c r="AD22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF22">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH22">
         <v>-2</v>
@@ -1736,22 +3076,22 @@
         <v>-2</v>
       </c>
       <c r="AJ22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP22">
         <v>-2</v>
@@ -1770,7 +3110,7 @@
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$18:$AT$44,23)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1862,16 +3202,16 @@
         <v>-2</v>
       </c>
       <c r="AD23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF23">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH23">
         <v>-2</v>
@@ -1883,7 +3223,7 @@
         <v>-2</v>
       </c>
       <c r="AK23">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AL23">
         <v>-2</v>
@@ -1914,33 +3254,33 @@
       </c>
       <c r="AY23">
         <f>AY18+AY19+AY20+AY21+AY22</f>
-        <v>183</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>-2</v>
@@ -1961,16 +3301,16 @@
         <v>-2</v>
       </c>
       <c r="O24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S24">
         <v>-2</v>
@@ -2006,22 +3346,22 @@
         <v>-2</v>
       </c>
       <c r="AD24">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG24">
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ24">
         <v>-2</v>
@@ -2059,28 +3399,28 @@
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E25">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="F25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>-2</v>
@@ -2101,16 +3441,16 @@
         <v>-2</v>
       </c>
       <c r="O25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Q25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>-2</v>
@@ -2146,25 +3486,25 @@
         <v>-2</v>
       </c>
       <c r="AD25">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF25">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG25">
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK25">
         <v>-2</v>
@@ -2199,28 +3539,28 @@
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>-2</v>
@@ -2241,16 +3581,16 @@
         <v>-2</v>
       </c>
       <c r="O26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q26">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>-2</v>
@@ -2280,28 +3620,28 @@
         <v>-2</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG26">
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -2310,22 +3650,22 @@
         <v>0</v>
       </c>
       <c r="AL26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -2339,28 +3679,28 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>-2</v>
@@ -2381,16 +3721,16 @@
         <v>-2</v>
       </c>
       <c r="O27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Q27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R27">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>-2</v>
@@ -2414,61 +3754,61 @@
         <v>-2</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC27">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AD27">
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="AF27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH27">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AI27">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ27">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AN27">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AS27">
         <v>21</v>
@@ -2479,28 +3819,28 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="C28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E28">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="F28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>-2</v>
@@ -2518,34 +3858,34 @@
         <v>-2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>-2</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X28">
         <v>-2</v>
@@ -2557,28 +3897,28 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH28">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="AI28">
         <v>-3</v>
@@ -2587,22 +3927,22 @@
         <v>-3</v>
       </c>
       <c r="AK28">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AN28">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP28">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="AQ28">
         <v>-3</v>
@@ -2619,28 +3959,28 @@
     </row>
     <row r="29" spans="1:51" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>-2</v>
@@ -2658,19 +3998,19 @@
         <v>-2</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>21</v>
       </c>
-      <c r="P29">
-        <v>-3</v>
-      </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>-2</v>
@@ -2688,34 +4028,34 @@
         <v>-2</v>
       </c>
       <c r="X29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AB29">
         <v>-3</v>
       </c>
       <c r="AC29">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF29">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG29">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH29">
         <v>-3</v>
@@ -2727,70 +4067,70 @@
         <v>-3</v>
       </c>
       <c r="AK29">
+        <v>-3</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>-3</v>
+      </c>
+      <c r="AN29">
+        <v>-3</v>
+      </c>
+      <c r="AO29">
+        <v>-3</v>
+      </c>
+      <c r="AP29">
+        <v>-3</v>
+      </c>
+      <c r="AQ29">
+        <v>-3</v>
+      </c>
+      <c r="AR29">
+        <v>-3</v>
+      </c>
+      <c r="AS29">
         <v>20</v>
       </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>-2</v>
-      </c>
-      <c r="AN29">
-        <v>-2</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>-3</v>
-      </c>
-      <c r="AQ29">
-        <v>-3</v>
-      </c>
-      <c r="AR29">
-        <v>-3</v>
-      </c>
-      <c r="AS29">
-        <v>21</v>
-      </c>
       <c r="AT29">
-        <v>-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>-2</v>
+      </c>
+      <c r="J30">
+        <v>-2</v>
+      </c>
+      <c r="K30">
         <v>90</v>
       </c>
-      <c r="I30">
-        <v>-2</v>
-      </c>
-      <c r="J30">
-        <v>-2</v>
-      </c>
-      <c r="K30">
-        <v>-2</v>
-      </c>
       <c r="L30">
         <v>-2</v>
       </c>
@@ -2798,19 +4138,19 @@
         <v>-2</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O30">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="P30">
         <v>-3</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>-2</v>
@@ -2825,16 +4165,16 @@
         <v>-2</v>
       </c>
       <c r="W30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA30">
         <v>-3</v>
@@ -2846,25 +4186,25 @@
         <v>-3</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH30">
         <v>-3</v>
       </c>
       <c r="AI30">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AJ30">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AK30">
         <v>20</v>
@@ -2873,19 +4213,19 @@
         <v>0</v>
       </c>
       <c r="AM30">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="AN30">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP30">
         <v>-3</v>
       </c>
       <c r="AQ30">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="AR30">
         <v>-3</v>
@@ -2902,22 +4242,22 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2932,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2950,10 +4290,10 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -2968,10 +4308,10 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -2989,10 +4329,10 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>0</v>
@@ -3013,16 +4353,16 @@
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AN31">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO31">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP31">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="AQ31">
         <v>-3</v>
@@ -3031,7 +4371,7 @@
         <v>-3</v>
       </c>
       <c r="AS31">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AT31">
         <v>-3</v>
@@ -3039,38 +4379,38 @@
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>-1</v>
+      </c>
+      <c r="J32">
+        <v>-1</v>
+      </c>
+      <c r="K32">
         <v>91</v>
       </c>
-      <c r="I32">
-        <v>-1</v>
-      </c>
-      <c r="J32">
-        <v>-1</v>
-      </c>
-      <c r="K32">
-        <v>-1</v>
-      </c>
       <c r="L32">
         <v>-1</v>
       </c>
@@ -3096,70 +4436,70 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U32">
+        <v>-1</v>
+      </c>
+      <c r="V32">
+        <v>-1</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
         <v>21</v>
       </c>
-      <c r="V32">
-        <v>-3</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>-1</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AD32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AE32">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF32">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AG32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ32">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AK32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AM32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN32">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP32">
         <v>-3</v>
@@ -3179,28 +4519,28 @@
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>-1</v>
@@ -3236,16 +4576,16 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="V33">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3254,52 +4594,52 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AD33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AE33">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AK33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AM33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN33">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP33">
         <v>-3</v>
@@ -3311,7 +4651,7 @@
         <v>-3</v>
       </c>
       <c r="AS33">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AT33">
         <v>-3</v>
@@ -3319,28 +4659,28 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>-1</v>
@@ -3376,16 +4716,16 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3394,64 +4734,64 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AE34">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AL34">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AM34">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AN34">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO34">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AP34">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AQ34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR34">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AS34">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="AT34">
         <v>-3</v>
@@ -3459,28 +4799,28 @@
     </row>
     <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>-1</v>
@@ -3516,10 +4856,10 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V35">
         <v>-1</v>
@@ -3543,25 +4883,25 @@
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH35">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AI35">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AJ35">
         <v>20</v>
@@ -3570,57 +4910,57 @@
         <v>20</v>
       </c>
       <c r="AL35">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AM35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN35">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP35">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AQ35">
         <v>-3</v>
       </c>
       <c r="AR35">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AS35">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AT35">
-        <v>20</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G36">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>-1</v>
@@ -3656,10 +4996,10 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V36">
         <v>-1</v>
@@ -3677,7 +5017,7 @@
         <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="AB36">
         <v>-1</v>
@@ -3686,13 +5026,13 @@
         <v>-1</v>
       </c>
       <c r="AD36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
         <v>0</v>
@@ -3713,19 +5053,19 @@
         <v>0</v>
       </c>
       <c r="AM36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO36">
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -3739,28 +5079,28 @@
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D37">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>-1</v>
@@ -3796,10 +5136,10 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37">
         <v>-1</v>
@@ -3859,16 +5199,16 @@
         <v>-1</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS37">
         <v>-1</v>
@@ -3879,28 +5219,28 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>-1</v>
@@ -3936,10 +5276,10 @@
         <v>-1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V38">
         <v>-1</v>
@@ -3957,16 +5297,16 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38">
         <v>-1</v>
@@ -3999,10 +5339,10 @@
         <v>-1</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38">
         <v>-1</v>
@@ -4076,10 +5416,10 @@
         <v>-1</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V39">
         <v>-1</v>
@@ -4094,10 +5434,10 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -4216,25 +5556,25 @@
         <v>-1</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
         <v>-1</v>
@@ -4947,48 +6287,498 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A18:AT44">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
+  <conditionalFormatting sqref="A18:AT20 A24:G24 A38:AT44 A25:B25 E25 A37:E37 H31:AT37 E34 A34:B34 A32:A33 A35:A36 E31 A31:B31 A29:A30 E28 A28:B28 A26:A27 I26:AT30 AH21:AT25 A21:AD21 A22:AE23 I24:AE25">
+    <cfRule type="containsBlanks" dxfId="153" priority="141">
       <formula>LEN(TRIM(A18))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="143" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="144" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="145" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="147" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="150" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="151" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="152" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="153" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="154" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="155" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H30">
+    <cfRule type="containsBlanks" dxfId="139" priority="127">
+      <formula>LEN(TRIM(H24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="129" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="135" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="136" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="137" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="138" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="140" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:D25 C34:D34 C31:D31 C28:D28">
+    <cfRule type="containsBlanks" dxfId="125" priority="113">
+      <formula>LEN(TRIM(C25))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="115" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="116" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="124" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="126" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:G25 F28:G37 G26:G27">
+    <cfRule type="containsBlanks" dxfId="111" priority="99">
+      <formula>LEN(TRIM(F25))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="109" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="112" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:E33">
+    <cfRule type="containsBlanks" dxfId="97" priority="85">
+      <formula>LEN(TRIM(B32))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="94" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="95" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="96" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="98" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E36">
+    <cfRule type="containsBlanks" dxfId="83" priority="71">
+      <formula>LEN(TRIM(B35))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="80" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E30">
+    <cfRule type="containsBlanks" dxfId="69" priority="57">
+      <formula>LEN(TRIM(B29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:F27">
+    <cfRule type="containsBlanks" dxfId="55" priority="43">
+      <formula>LEN(TRIM(B26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22:AG25">
+    <cfRule type="containsBlanks" dxfId="41" priority="29">
+      <formula>LEN(TRIM(AG22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE21:AG21">
+    <cfRule type="containsBlanks" dxfId="27" priority="15">
+      <formula>LEN(TRIM(AE21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF22:AF25">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(AF22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45A03F-8678-40BD-B2DE-A6E3CE7092C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF52345B-9A98-4EAD-A1E6-64E66B8174FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -418,7 +418,275 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="154">
+  <dxfs count="182">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -2221,7 +2489,7 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA33" sqref="AA33"/>
+      <selection activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2678,7 +2946,7 @@
       </c>
       <c r="AY19">
         <f>COUNTIFS($A$18:$AT$44,20)</f>
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -3254,7 +3522,7 @@
       </c>
       <c r="AY23">
         <f>AY18+AY19+AY20+AY21+AY22</f>
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -5094,10 +5362,10 @@
         <v>20</v>
       </c>
       <c r="F37">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="G37">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -6288,53 +6556,143 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A18:AT20 A24:G24 A38:AT44 A25:B25 E25 A37:E37 H31:AT37 E34 A34:B34 A32:A33 A35:A36 E31 A31:B31 A29:A30 E28 A28:B28 A26:A27 I26:AT30 AH21:AT25 A21:AD21 A22:AE23 I24:AE25">
-    <cfRule type="containsBlanks" dxfId="153" priority="141">
+    <cfRule type="containsBlanks" dxfId="181" priority="169">
       <formula>LEN(TRIM(A18))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="171" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="172" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="173" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="175" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="176" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="177" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="178" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="151" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="179" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="180" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="181" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="182" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="183" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H30">
+    <cfRule type="containsBlanks" dxfId="167" priority="155">
+      <formula>LEN(TRIM(H24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="156" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="157" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="158" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="162" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="163" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="164" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="165" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="166" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="167" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="168" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25:D25 C34:D34 C31:D31 C28:D28">
+    <cfRule type="containsBlanks" dxfId="153" priority="141">
+      <formula>LEN(TRIM(C25))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="142" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="143" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="144" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="151" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="152" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="153" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="154" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25:G25 F28:G36 G26:G27">
     <cfRule type="containsBlanks" dxfId="139" priority="127">
-      <formula>LEN(TRIM(H24))=0</formula>
+      <formula>LEN(TRIM(F25))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
       <formula>-3</formula>
@@ -6377,9 +6735,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D25 C34:D34 C31:D31 C28:D28">
+  <conditionalFormatting sqref="B32:E33">
     <cfRule type="containsBlanks" dxfId="125" priority="113">
-      <formula>LEN(TRIM(C25))=0</formula>
+      <formula>LEN(TRIM(B32))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
       <formula>-3</formula>
@@ -6422,9 +6780,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 F28:G37 G26:G27">
+  <conditionalFormatting sqref="B35:E36">
     <cfRule type="containsBlanks" dxfId="111" priority="99">
-      <formula>LEN(TRIM(F25))=0</formula>
+      <formula>LEN(TRIM(B35))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
       <formula>-3</formula>
@@ -6467,9 +6825,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E33">
+  <conditionalFormatting sqref="B29:E30">
     <cfRule type="containsBlanks" dxfId="97" priority="85">
-      <formula>LEN(TRIM(B32))=0</formula>
+      <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>-3</formula>
@@ -6512,9 +6870,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:E36">
+  <conditionalFormatting sqref="B26:F27">
     <cfRule type="containsBlanks" dxfId="83" priority="71">
-      <formula>LEN(TRIM(B35))=0</formula>
+      <formula>LEN(TRIM(B26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
       <formula>-3</formula>
@@ -6557,9 +6915,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E30">
+  <conditionalFormatting sqref="AG22:AG25">
     <cfRule type="containsBlanks" dxfId="69" priority="57">
-      <formula>LEN(TRIM(B29))=0</formula>
+      <formula>LEN(TRIM(AG22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
       <formula>-3</formula>
@@ -6602,9 +6960,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F27">
+  <conditionalFormatting sqref="AE21:AG21">
     <cfRule type="containsBlanks" dxfId="55" priority="43">
-      <formula>LEN(TRIM(B26))=0</formula>
+      <formula>LEN(TRIM(AE21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
       <formula>-3</formula>
@@ -6647,9 +7005,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG22:AG25">
+  <conditionalFormatting sqref="AF22:AF25">
     <cfRule type="containsBlanks" dxfId="41" priority="29">
-      <formula>LEN(TRIM(AG22))=0</formula>
+      <formula>LEN(TRIM(AF22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>-3</formula>
@@ -6692,9 +7050,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AG21">
+  <conditionalFormatting sqref="G37">
     <cfRule type="containsBlanks" dxfId="27" priority="15">
-      <formula>LEN(TRIM(AE21))=0</formula>
+      <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>-3</formula>
@@ -6737,9 +7095,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF22:AF25">
+  <conditionalFormatting sqref="F37">
     <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(AF22))=0</formula>
+      <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>-3</formula>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FE76B-0D96-46BA-8B46-302FC7DCA23F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A33833-173A-4569-98BD-C3655159F76D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -9725,7 +9725,7 @@
   <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV33" sqref="AV33"/>
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C879B2D-EB53-460E-98BC-363750241F16}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32735C98-92E3-40C0-A17B-D7E6A29B542A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,24 +177,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Block</t>
+    <t>BgUp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Trampoline</t>
+    <t>BgDown</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Spike</t>
+    <t>1P</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Meteor</t>
+    <t>2P</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>Block</t>
+  </si>
+  <si>
     <t>FillBlock</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7077,10 +7075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C86EC2-D6DB-4E58-8FCF-41F9269C8330}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:AT44"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7124,21 +7122,25 @@
         <v>26</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>31</v>
-      </c>
       <c r="H6" s="10" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10">
         <v>255</v>
@@ -7155,7 +7157,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="10">
         <v>255</v>
@@ -7171,34 +7173,21 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="10">
-        <v>255</v>
-      </c>
-      <c r="F10" s="10">
-        <v>255</v>
-      </c>
-      <c r="G10" s="10">
-        <v>255</v>
-      </c>
-      <c r="H10" s="10">
-        <v>255</v>
-      </c>
+      <c r="E10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="10">
         <v>255</v>
       </c>
       <c r="F11" s="10">
-        <v>255</v>
+        <v>191</v>
       </c>
       <c r="G11" s="10">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
         <v>255</v>
@@ -7206,338 +7195,73 @@
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>184</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="10">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14">
         <v>255</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F14">
+        <v>149</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+      <c r="H14">
         <v>255</v>
       </c>
-      <c r="G12" s="10">
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15">
+        <v>180</v>
+      </c>
+      <c r="F15">
+        <v>180</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15">
         <v>255</v>
       </c>
-      <c r="H12" s="10">
-        <v>255</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10">
-        <v>255</v>
-      </c>
-      <c r="F13" s="10">
-        <v>255</v>
-      </c>
-      <c r="G13" s="10">
-        <v>255</v>
-      </c>
-      <c r="H13" s="10">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="10"/>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W18" s="17">
-        <v>0</v>
-      </c>
-      <c r="X18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT18" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AY18">
-        <f>COUNTIFS($A$18:$AT$44,0)</f>
-        <v>144</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="19" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W19" s="17">
-        <v>0</v>
-      </c>
-      <c r="X19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC19" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT19" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AY19">
-        <f>COUNTIFS($A$18:$AT$44,20)</f>
-        <v>7</v>
+      <c r="A19" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7608,7 +7332,7 @@
         <v>-2</v>
       </c>
       <c r="W20" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X20" s="17">
         <v>-2</v>
@@ -7626,7 +7350,7 @@
         <v>-2</v>
       </c>
       <c r="AC20" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD20" s="17">
         <v>-2</v>
@@ -7680,8 +7404,8 @@
         <v>-2</v>
       </c>
       <c r="AY20">
-        <f>COUNTIFS($A$18:$AT$44,21)</f>
-        <v>14</v>
+        <f>COUNTIFS($A$24:$AT$50,0)</f>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7752,7 +7476,7 @@
         <v>-2</v>
       </c>
       <c r="W21" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X21" s="17">
         <v>-2</v>
@@ -7770,7 +7494,7 @@
         <v>-2</v>
       </c>
       <c r="AC21" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD21" s="17">
         <v>-2</v>
@@ -7824,8 +7548,8 @@
         <v>-2</v>
       </c>
       <c r="AY21">
-        <f>COUNTIFS($A$18:$AT$44,22)</f>
-        <v>1</v>
+        <f>COUNTIFS($A$24:$AT$50,20)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -7896,13 +7620,13 @@
         <v>-2</v>
       </c>
       <c r="W22" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X22" s="17">
         <v>-2</v>
       </c>
       <c r="Y22" s="17">
-        <v>98</v>
+        <v>-2</v>
       </c>
       <c r="Z22" s="17">
         <v>-2</v>
@@ -7914,7 +7638,7 @@
         <v>-2</v>
       </c>
       <c r="AC22" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD22" s="17">
         <v>-2</v>
@@ -7923,7 +7647,7 @@
         <v>-2</v>
       </c>
       <c r="AF22" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG22" s="17">
         <v>-2</v>
@@ -7968,8 +7692,8 @@
         <v>-2</v>
       </c>
       <c r="AY22">
-        <f>COUNTIFS($A$18:$AT$44,23)</f>
-        <v>0</v>
+        <f>COUNTIFS($A$24:$AT$50,21)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8040,31 +7764,31 @@
         <v>-2</v>
       </c>
       <c r="W23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC23" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="17">
         <v>0</v>
@@ -8112,8 +7836,8 @@
         <v>-2</v>
       </c>
       <c r="AY23">
-        <f>AY18+AY19+AY20+AY21+AY22</f>
-        <v>166</v>
+        <f>COUNTIFS($A$24:$AT$50,22)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8205,13 +7929,13 @@
         <v>-2</v>
       </c>
       <c r="AD24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF24" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG24" s="17">
         <v>0</v>
@@ -8235,7 +7959,7 @@
         <v>-2</v>
       </c>
       <c r="AN24" s="17">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AO24" s="17">
         <v>-2</v>
@@ -8254,6 +7978,10 @@
       </c>
       <c r="AT24" s="17">
         <v>-2</v>
+      </c>
+      <c r="AY24">
+        <f>COUNTIFS($A$24:$AT$50,23)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8345,19 +8073,19 @@
         <v>-2</v>
       </c>
       <c r="AD25" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF25" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG25" s="17">
         <v>0</v>
       </c>
       <c r="AH25" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI25" s="17">
         <v>-2</v>
@@ -8366,7 +8094,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="17">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AL25" s="17">
         <v>-2</v>
@@ -8394,32 +8122,36 @@
       </c>
       <c r="AT25" s="17">
         <v>-2</v>
+      </c>
+      <c r="AY25">
+        <f>AY20+AY21+AY22+AY23+AY24</f>
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="17">
         <v>-2</v>
@@ -8440,16 +8172,16 @@
         <v>-2</v>
       </c>
       <c r="O26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="17">
         <v>-2</v>
@@ -8470,37 +8202,37 @@
         <v>-2</v>
       </c>
       <c r="Y26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AF26" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG26" s="17">
         <v>0</v>
       </c>
       <c r="AH26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ26" s="17">
         <v>-2</v>
@@ -8509,57 +8241,57 @@
         <v>-2</v>
       </c>
       <c r="AL26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B27" s="17">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="C27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E27" s="17">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="F27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I27" s="17">
         <v>-2</v>
@@ -8580,22 +8312,22 @@
         <v>-2</v>
       </c>
       <c r="O27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R27" s="17">
         <v>0</v>
       </c>
       <c r="S27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U27" s="17">
         <v>-2</v>
@@ -8625,16 +8357,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF27" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH27" s="17">
         <v>-2</v>
@@ -8649,57 +8381,57 @@
         <v>-2</v>
       </c>
       <c r="AL27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AN27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO27" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AP27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ27" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AR27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS27" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G28" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I28" s="17">
         <v>-2</v>
@@ -8720,231 +8452,231 @@
         <v>-2</v>
       </c>
       <c r="O28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P28" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q28" s="17">
+        <v>-3</v>
+      </c>
+      <c r="R28" s="17">
+        <v>0</v>
+      </c>
+      <c r="S28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="T28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="U28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="X28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Y28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="17">
+        <v>0</v>
+      </c>
+      <c r="B29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="C29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="D29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="F29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="G29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
+      <c r="I29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="J29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="K29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="L29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="M29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="N29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="O29" s="17">
+        <v>0</v>
+      </c>
+      <c r="P29" s="17">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="R29" s="17">
+        <v>0</v>
+      </c>
+      <c r="S29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="T29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="U29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="X29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>-2</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>23</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AI29" s="17">
         <v>22</v>
       </c>
-      <c r="R28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="S28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="T28" s="17">
-        <v>0</v>
-      </c>
-      <c r="U28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT28" s="17">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:51" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P29" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="S29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="T29" s="17">
-        <v>0</v>
-      </c>
-      <c r="U29" s="17">
-        <v>0</v>
-      </c>
-      <c r="V29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI29" s="17">
-        <v>-2</v>
-      </c>
       <c r="AJ29" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK29" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL29" s="17">
         <v>0</v>
       </c>
       <c r="AM29" s="17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN29" s="17">
         <v>-3</v>
       </c>
       <c r="AO29" s="17">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AP29" s="17">
-        <v>-3</v>
+        <v>22</v>
       </c>
       <c r="AQ29" s="17">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AR29" s="17">
         <v>-3</v>
@@ -8958,28 +8690,28 @@
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B30" s="17">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="C30" s="17">
-        <v>90</v>
+        <v>-3</v>
       </c>
       <c r="D30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E30" s="17">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="F30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="17">
         <v>-2</v>
@@ -9000,25 +8732,25 @@
         <v>-2</v>
       </c>
       <c r="O30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Q30" s="17">
         <v>-3</v>
       </c>
       <c r="R30" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="S30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="T30" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="U30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V30" s="17">
         <v>-2</v>
@@ -9033,40 +8765,40 @@
         <v>-2</v>
       </c>
       <c r="Z30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AH30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AI30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK30" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL30" s="17">
         <v>0</v>
@@ -9101,73 +8833,73 @@
         <v>0</v>
       </c>
       <c r="B31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G31" s="17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="H31" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N31" s="17">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="O31" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="R31" s="17">
         <v>0</v>
       </c>
       <c r="S31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V31" s="17">
-        <v>0</v>
-      </c>
-      <c r="W31" s="19">
-        <v>1</v>
+        <v>-2</v>
+      </c>
+      <c r="W31" s="17">
+        <v>-2</v>
       </c>
       <c r="X31" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="17">
         <v>0</v>
@@ -9176,195 +8908,195 @@
         <v>0</v>
       </c>
       <c r="AA31" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AB31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AC31" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AD31" s="17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AE31" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ31" s="17">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="AK31" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL31" s="17">
         <v>0</v>
       </c>
       <c r="AM31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AN31" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AP31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>-3</v>
+      </c>
+      <c r="AS31" s="17">
         <v>20</v>
       </c>
-      <c r="AP31" s="17">
-        <v>21</v>
-      </c>
-      <c r="AQ31" s="17">
-        <v>21</v>
-      </c>
-      <c r="AR31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS31" s="17">
-        <v>21</v>
-      </c>
       <c r="AT31" s="17">
-        <v>-3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C32" s="17">
-        <v>91</v>
+        <v>-3</v>
       </c>
       <c r="D32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H32" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J32" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="K32" s="17">
-        <v>-3</v>
+        <v>90</v>
       </c>
       <c r="L32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="M32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="N32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="O32" s="17">
+        <v>0</v>
+      </c>
+      <c r="P32" s="17">
+        <v>-3</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>-3</v>
+      </c>
+      <c r="R32" s="17">
+        <v>0</v>
+      </c>
+      <c r="S32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="T32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="U32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="V32" s="17">
+        <v>-2</v>
+      </c>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="17">
         <v>20</v>
       </c>
-      <c r="M32" s="17">
-        <v>0</v>
-      </c>
-      <c r="N32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X32" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y32" s="17">
-        <v>-1</v>
-      </c>
       <c r="Z32" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AA32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AC32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AD32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AE32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH32" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI32" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AJ32" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AK32" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AL32" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="17">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AN32" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO32" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP32" s="17">
         <v>-3</v>
       </c>
       <c r="AQ32" s="17">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="AR32" s="17">
         <v>-3</v>
@@ -9378,139 +9110,139 @@
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B33" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C33" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D33" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E33" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F33" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G33" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="17">
         <v>0</v>
       </c>
       <c r="J33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="K33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="L33" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M33" s="17">
         <v>0</v>
       </c>
       <c r="N33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W33" s="17">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="W33" s="19">
+        <v>0</v>
       </c>
       <c r="X33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN33" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AO33" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP33" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ33" s="17">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AR33" s="17">
         <v>-3</v>
       </c>
       <c r="AS33" s="17">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="AT33" s="17">
         <v>-3</v>
@@ -9518,43 +9250,43 @@
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H34" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J34" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K34" s="17">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="L34" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M34" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="17">
         <v>-1</v>
@@ -9593,55 +9325,55 @@
         <v>-1</v>
       </c>
       <c r="Z34" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="17">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AB34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AC34" s="17">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AD34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AE34" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF34" s="17">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="AG34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ34" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AK34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AM34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN34" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO34" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AP34" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ34" s="17">
         <v>-3</v>
@@ -9656,30 +9388,30 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="17">
         <v>-1</v>
@@ -9688,13 +9420,13 @@
         <v>-1</v>
       </c>
       <c r="K35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="17">
         <v>-1</v>
@@ -9709,19 +9441,19 @@
         <v>-1</v>
       </c>
       <c r="R35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W35" s="17">
         <v>-1</v>
@@ -9733,93 +9465,93 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AB35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AC35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AD35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AE35" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AK35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AM35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO35" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP35" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AQ35" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AR35" s="17">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AS35" s="17">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AT35" s="17">
-        <v>20</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B36" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="C36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E36" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="F36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="17">
         <v>-1</v>
@@ -9855,13 +9587,13 @@
         <v>-1</v>
       </c>
       <c r="T36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W36" s="17">
         <v>-1</v>
@@ -9873,93 +9605,93 @@
         <v>-1</v>
       </c>
       <c r="Z36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AE36" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AH36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AK36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AL36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AM36" s="17">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AN36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO36" s="17">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AP36" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AQ36" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AR36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AS36" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AT36" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="17">
         <v>-1</v>
@@ -9998,10 +9730,10 @@
         <v>-1</v>
       </c>
       <c r="U37" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W37" s="17">
         <v>-1</v>
@@ -10022,84 +9754,84 @@
         <v>-1</v>
       </c>
       <c r="AC37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AJ37" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AK37" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AL37" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AM37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AN37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AO37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AP37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AQ37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AR37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AS37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AT37" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G38" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="17">
         <v>-1</v>
@@ -10150,96 +9882,96 @@
         <v>-1</v>
       </c>
       <c r="Y38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38" s="17">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AB38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="C39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="D39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="G39" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="H39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I39" s="17">
         <v>-1</v>
@@ -10290,13 +10022,13 @@
         <v>-1</v>
       </c>
       <c r="Y39" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z39" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB39" s="17">
         <v>-1</v>
@@ -10358,28 +10090,28 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I40" s="17">
         <v>-1</v>
@@ -10430,10 +10162,10 @@
         <v>-1</v>
       </c>
       <c r="Y40" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z40" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA40" s="17">
         <v>-1</v>
@@ -11057,23 +10789,288 @@
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
+      <c r="A45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="M45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="N45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="O45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="V45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="X45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Y45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Z45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AA45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AC45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AD45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AE45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AF45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AG45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AH45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AI45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AJ45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AK45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AL45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AM45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AN45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AO45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AP45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AQ45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AR45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AS45" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AT45" s="17">
+        <v>-1</v>
+      </c>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="Z46" s="18"/>
+      <c r="A46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="B46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="C46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="I46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="K46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="L46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="M46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="N46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="O46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="R46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="S46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="T46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="U46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="V46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="W46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="X46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Y46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="Z46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AA46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AB46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AC46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AD46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AE46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AF46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AG46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AH46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AI46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AJ46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AK46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AL46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AM46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AN46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AO46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AP46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AQ46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AR46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AS46" s="17">
+        <v>-1</v>
+      </c>
+      <c r="AT46" s="17">
+        <v>-1</v>
+      </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -11085,2188 +11082,2200 @@
       <c r="C48"/>
       <c r="D48"/>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49"/>
+    <row r="49" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
+      <c r="Z52" s="18"/>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55"/>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58"/>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
     </row>
+    <row r="59" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A34:B34 A32:A33 A35:A36 A29:A30 A26:A27 AH19:AH22 Z46 AB38:AB40 AC25:AC30 A25:C25 A37:E37 A28:C28 AE19:AF22 AC19:AC22 X22:AG22 AD39:AH39 AA38:AE39 AA25:AA30 AG22:AK23 AL18:AT31 AH24:AK25 AD42:AK44 AE37:AK41 AL37:AM44 AM36:AM41 AE32:AM35 AN32:AT44 AF26:AK26 AF36:AT36 AQ31:AT34 C36:N41 A38:N44 A18:N24 D25:N30 X39:AA39 X19:Y22 X27:AK31 X18:AK21 X38:AH38 X32:AC37 X27:Z34 P24:V44 P18:U23 W18:W23 X23:AJ26 Y38:Z40 X40:AE44 A31:L31 C32:L35 N31:N35">
-    <cfRule type="containsBlanks" dxfId="657" priority="953">
-      <formula>LEN(TRIM(A18))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="955" operator="equal">
+  <conditionalFormatting sqref="H26:H32">
+    <cfRule type="containsBlanks" dxfId="657" priority="939">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="940" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="941" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="942" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="943" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="944" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="945" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="946" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="947" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="963" operator="between">
+    <cfRule type="cellIs" dxfId="648" priority="948" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="949" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="950" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="951" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="952" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H30">
-    <cfRule type="containsBlanks" dxfId="643" priority="939">
-      <formula>LEN(TRIM(H24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="940" operator="equal">
+  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
+    <cfRule type="containsBlanks" dxfId="643" priority="925">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="926" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="927" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="928" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="943" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="929" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="930" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="931" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="932" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="933" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="948" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="934" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="935" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="936" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="937" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="938" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C25:D25 C34:D34 C31:D31 C28:D28">
-    <cfRule type="containsBlanks" dxfId="629" priority="925">
-      <formula>LEN(TRIM(C25))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="926" operator="equal">
+  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
+    <cfRule type="containsBlanks" dxfId="629" priority="911">
+      <formula>LEN(TRIM(F27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="912" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="913" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="914" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="915" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="916" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="917" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="918" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="919" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="934" operator="between">
+    <cfRule type="cellIs" dxfId="620" priority="920" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="921" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="922" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="923" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="924" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25:G25 F28:G36 G26:G27">
-    <cfRule type="containsBlanks" dxfId="615" priority="911">
-      <formula>LEN(TRIM(F25))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="912" operator="equal">
+  <conditionalFormatting sqref="B34:E35">
+    <cfRule type="containsBlanks" dxfId="615" priority="897">
+      <formula>LEN(TRIM(B34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="614" priority="898" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="899" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="900" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="901" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="902" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="903" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="904" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="905" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="920" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="906" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="907" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="908" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="909" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="910" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B32:E33">
-    <cfRule type="containsBlanks" dxfId="601" priority="897">
-      <formula>LEN(TRIM(B32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="898" operator="equal">
+  <conditionalFormatting sqref="B37:E38">
+    <cfRule type="containsBlanks" dxfId="601" priority="883">
+      <formula>LEN(TRIM(B37))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="884" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="885" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="886" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="888" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="889" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="890" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="891" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="906" operator="between">
+    <cfRule type="cellIs" dxfId="592" priority="892" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="893" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="894" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="895" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="896" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:E36">
-    <cfRule type="containsBlanks" dxfId="587" priority="883">
-      <formula>LEN(TRIM(B35))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="884" operator="equal">
+  <conditionalFormatting sqref="B31:E32">
+    <cfRule type="containsBlanks" dxfId="587" priority="869">
+      <formula>LEN(TRIM(B31))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="870" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="871" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="872" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="873" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="874" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="875" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="876" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="877" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="892" operator="between">
+    <cfRule type="cellIs" dxfId="578" priority="878" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="879" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="880" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="881" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="882" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29:E30">
-    <cfRule type="containsBlanks" dxfId="573" priority="869">
-      <formula>LEN(TRIM(B29))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="870" operator="equal">
+  <conditionalFormatting sqref="B28:F29">
+    <cfRule type="containsBlanks" dxfId="573" priority="855">
+      <formula>LEN(TRIM(B28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="856" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="857" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="858" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="859" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="860" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="861" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="862" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="863" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="878" operator="between">
+    <cfRule type="cellIs" dxfId="564" priority="864" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="865" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="866" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="867" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="868" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:F27">
-    <cfRule type="containsBlanks" dxfId="559" priority="855">
-      <formula>LEN(TRIM(B26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="856" operator="equal">
+  <conditionalFormatting sqref="AI24:AI27">
+    <cfRule type="containsBlanks" dxfId="559" priority="841">
+      <formula>LEN(TRIM(AI24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="842" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="843" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="844" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="846" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="847" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="848" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="849" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="864" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="850" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="851" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="852" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="853" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="854" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22:AI25">
-    <cfRule type="containsBlanks" dxfId="545" priority="841">
-      <formula>LEN(TRIM(AI22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="842" operator="equal">
+  <conditionalFormatting sqref="AI23 AE23 AG23">
+    <cfRule type="containsBlanks" dxfId="545" priority="827">
+      <formula>LEN(TRIM(AE23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="828" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="829" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="830" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="831" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="832" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="833" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="834" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="849" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="835" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="850" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="836" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="837" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="852" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="838" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="839" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="840" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI21 AE21 AG21">
-    <cfRule type="containsBlanks" dxfId="531" priority="827">
-      <formula>LEN(TRIM(AE21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="828" operator="equal">
+  <conditionalFormatting sqref="AH21:AH27">
+    <cfRule type="containsBlanks" dxfId="531" priority="813">
+      <formula>LEN(TRIM(AH21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="814" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="815" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="816" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="817" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="818" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="819" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="820" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="821" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="836" operator="between">
+    <cfRule type="cellIs" dxfId="522" priority="822" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="823" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="824" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="825" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="826" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH19:AH25">
-    <cfRule type="containsBlanks" dxfId="517" priority="813">
-      <formula>LEN(TRIM(AH19))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="814" operator="equal">
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsBlanks" dxfId="517" priority="799">
+      <formula>LEN(TRIM(G39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="800" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="801" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="802" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="804" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="805" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="806" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="807" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="508" priority="808" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="809" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="810" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="811" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="812" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="containsBlanks" dxfId="503" priority="799">
-      <formula>LEN(TRIM(G37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="800" operator="equal">
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsBlanks" dxfId="503" priority="785">
+      <formula>LEN(TRIM(F39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="786" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="787" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="788" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="789" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="790" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="791" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="792" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="793" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="808" operator="between">
+    <cfRule type="cellIs" dxfId="494" priority="794" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="795" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="796" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="797" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="798" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
-    <cfRule type="containsBlanks" dxfId="489" priority="785">
-      <formula>LEN(TRIM(F37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="786" operator="equal">
+  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
+    <cfRule type="containsBlanks" dxfId="489" priority="771">
+      <formula>LEN(TRIM(N34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="772" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="773" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="774" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="775" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="776" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="777" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="778" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="779" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="794" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="780" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="781" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="782" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="783" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="784" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI32:AI41 Q32:Q38 AC40:AD40 R32:R39 AF32:AG41 N32:N38 AD32:AD41 P35:P39 Y42:AD44 AD40:AH41 AB32:AH37 P35:Q35 Y39:AC40">
-    <cfRule type="containsBlanks" dxfId="475" priority="771">
-      <formula>LEN(TRIM(N32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="772" operator="equal">
+  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46">
+    <cfRule type="containsBlanks" dxfId="475" priority="757">
+      <formula>LEN(TRIM(P38))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="758" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="759" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="760" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="761" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="762" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="763" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="778" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="764" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="765" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="780" operator="between">
+    <cfRule type="cellIs" dxfId="466" priority="766" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="767" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="768" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="769" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="770" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U36:U38 R40:R41 AA37 AB37:AB40 S36:S38 X36:AB36 T36 P40:P41 Z41:AD44 Z37:Z40 Y38:Y44 AA40:AA44">
-    <cfRule type="containsBlanks" dxfId="461" priority="757">
-      <formula>LEN(TRIM(P36))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="758" operator="equal">
+  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27">
+    <cfRule type="containsBlanks" dxfId="461" priority="701">
+      <formula>LEN(TRIM(AF24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="702" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="703" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="704" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="706" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="707" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="708" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="709" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="766" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="710" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="711" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="712" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="713" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="714" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL24:AL25 AK22:AK25 AJ24:AJ25 AF22:AF25 AH22:AI25 AG23:AG25 AM22:AM25 AN24:AN25 AP24:AP25 AO22:AO25">
-    <cfRule type="containsBlanks" dxfId="447" priority="701">
-      <formula>LEN(TRIM(AF22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="702" operator="equal">
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="containsBlanks" dxfId="447" priority="645">
+      <formula>LEN(TRIM(AG33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="646" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="647" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="648" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="649" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="650" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="651" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="652" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="653" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="654" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="655" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="656" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="657" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="658" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG31">
-    <cfRule type="containsBlanks" dxfId="433" priority="645">
-      <formula>LEN(TRIM(AG31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="646" operator="equal">
+  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
+    <cfRule type="containsBlanks" dxfId="433" priority="631">
+      <formula>LEN(TRIM(AG26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="632" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="633" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="634" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="635" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="636" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="637" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="638" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="639" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="654" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="640" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="641" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="642" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="643" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="644" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG25 AG27:AG30">
-    <cfRule type="containsBlanks" dxfId="419" priority="631">
-      <formula>LEN(TRIM(AG24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="632" operator="equal">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="containsBlanks" dxfId="419" priority="533">
+      <formula>LEN(TRIM(AD33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="534" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="535" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="536" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="538" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="539" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="540" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="541" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="640" operator="between">
+    <cfRule type="cellIs" dxfId="410" priority="542" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="543" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="544" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="545" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="546" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD31">
-    <cfRule type="containsBlanks" dxfId="405" priority="533">
-      <formula>LEN(TRIM(AD31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="534" operator="equal">
+  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
+    <cfRule type="containsBlanks" dxfId="405" priority="519">
+      <formula>LEN(TRIM(AD26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="520" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="521" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="522" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="523" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="524" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="525" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="526" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="527" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="396" priority="528" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="529" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="530" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="531" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="532" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD25 AD27:AD30">
-    <cfRule type="containsBlanks" dxfId="391" priority="519">
-      <formula>LEN(TRIM(AD24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="520" operator="equal">
+  <conditionalFormatting sqref="E26:E32">
+    <cfRule type="containsBlanks" dxfId="391" priority="589">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="590" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="591" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="592" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="593" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="595" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="596" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="597" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="528" operator="between">
+    <cfRule type="cellIs" dxfId="382" priority="598" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="599" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="600" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="601" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="602" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E30">
-    <cfRule type="containsBlanks" dxfId="377" priority="589">
-      <formula>LEN(TRIM(E24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="590" operator="equal">
+  <conditionalFormatting sqref="AF24:AF27">
+    <cfRule type="containsBlanks" dxfId="377" priority="575">
+      <formula>LEN(TRIM(AF24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="576" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="577" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="578" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="579" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="581" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="582" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="583" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="598" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="584" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="585" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="586" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="587" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="588" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF22:AF25">
-    <cfRule type="containsBlanks" dxfId="363" priority="575">
-      <formula>LEN(TRIM(AF22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="576" operator="equal">
+  <conditionalFormatting sqref="AF23 AB23 AD23">
+    <cfRule type="containsBlanks" dxfId="363" priority="561">
+      <formula>LEN(TRIM(AB23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="562" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="563" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="564" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="565" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="567" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="568" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="569" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="354" priority="570" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="571" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="572" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="573" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="574" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21 AB21 AD21">
-    <cfRule type="containsBlanks" dxfId="349" priority="561">
-      <formula>LEN(TRIM(AB21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="562" operator="equal">
+  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
+    <cfRule type="containsBlanks" dxfId="349" priority="547">
+      <formula>LEN(TRIM(AC21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="548" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="549" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="550" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="553" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="554" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="555" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="570" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="556" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="557" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="558" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="559" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="560" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE19:AE25 AC19:AC25 AD19:AH19">
-    <cfRule type="containsBlanks" dxfId="335" priority="547">
-      <formula>LEN(TRIM(AC19))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="548" operator="equal">
+  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
+    <cfRule type="containsBlanks" dxfId="335" priority="449">
+      <formula>LEN(TRIM(AL28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="457" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="458" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="459" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="460" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="461" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="462" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26 AN26 AR26 AP26">
-    <cfRule type="containsBlanks" dxfId="321" priority="449">
-      <formula>LEN(TRIM(AL26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="450" operator="equal">
+  <conditionalFormatting sqref="AR33:AR34">
+    <cfRule type="containsBlanks" dxfId="321" priority="421">
+      <formula>LEN(TRIM(AR33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="422" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="423" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="424" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="425" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="429" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="458" operator="between">
+    <cfRule type="cellIs" dxfId="312" priority="430" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="431" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="432" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="433" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR31:AR32">
-    <cfRule type="containsBlanks" dxfId="307" priority="421">
-      <formula>LEN(TRIM(AR31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="422" operator="equal">
+  <conditionalFormatting sqref="AP33:AP34">
+    <cfRule type="containsBlanks" dxfId="307" priority="127">
+      <formula>LEN(TRIM(AP33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="128" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="129" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="130" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="132" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="133" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="134" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="135" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="430" operator="between">
+    <cfRule type="cellIs" dxfId="298" priority="136" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="137" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="138" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="139" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="140" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP31:AP32">
-    <cfRule type="containsBlanks" dxfId="293" priority="127">
-      <formula>LEN(TRIM(AP31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="128" operator="equal">
+  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
+    <cfRule type="containsBlanks" dxfId="293" priority="141">
+      <formula>LEN(TRIM(AB26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="142" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="143" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="144" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="149" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="284" priority="150" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="151" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="152" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="153" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="154" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB24:AB25 AB27:AB30">
-    <cfRule type="containsBlanks" dxfId="279" priority="141">
-      <formula>LEN(TRIM(AB24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="142" operator="equal">
+  <conditionalFormatting sqref="F26:F32">
+    <cfRule type="containsBlanks" dxfId="279" priority="309">
+      <formula>LEN(TRIM(F26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="311" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="312" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="315" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="316" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="317" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="270" priority="318" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="319" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="320" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="321" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="322" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24:F30">
-    <cfRule type="containsBlanks" dxfId="265" priority="309">
-      <formula>LEN(TRIM(F24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="310" operator="equal">
+  <conditionalFormatting sqref="B27 B36 B33 B30">
+    <cfRule type="containsBlanks" dxfId="265" priority="295">
+      <formula>LEN(TRIM(B27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="297" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="298" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="299" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="300" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="301" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="302" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="303" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="256" priority="304" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="305" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25 B34 B31 B28">
-    <cfRule type="containsBlanks" dxfId="251" priority="295">
-      <formula>LEN(TRIM(B25))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="296" operator="equal">
+  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
+    <cfRule type="containsBlanks" dxfId="251" priority="281">
+      <formula>LEN(TRIM(D27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="283" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="284" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="285" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="286" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="287" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="288" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="289" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="304" operator="between">
+    <cfRule type="cellIs" dxfId="242" priority="290" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="291" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="292" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="293" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="294" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:E25 D28:E36 E26:E27">
-    <cfRule type="containsBlanks" dxfId="237" priority="281">
-      <formula>LEN(TRIM(D25))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="282" operator="equal">
+  <conditionalFormatting sqref="AG24:AG27">
+    <cfRule type="containsBlanks" dxfId="237" priority="267">
+      <formula>LEN(TRIM(AG24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="268" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="269" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="270" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="271" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="272" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="273" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="274" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="275" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="228" priority="276" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="277" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="278" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="279" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG22:AG25">
-    <cfRule type="containsBlanks" dxfId="223" priority="267">
-      <formula>LEN(TRIM(AG22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="268" operator="equal">
+  <conditionalFormatting sqref="AF21:AF27">
+    <cfRule type="containsBlanks" dxfId="223" priority="253">
+      <formula>LEN(TRIM(AF21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="254" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="255" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="256" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="257" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="258" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="259" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="260" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="261" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="276" operator="between">
+    <cfRule type="cellIs" dxfId="214" priority="262" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="263" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="264" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="265" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="266" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF19:AF25">
-    <cfRule type="containsBlanks" dxfId="209" priority="253">
-      <formula>LEN(TRIM(AF19))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="254" operator="equal">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsBlanks" dxfId="209" priority="239">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="241" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="242" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="243" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="244" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="245" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="246" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="247" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="200" priority="248" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="249" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="250" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="251" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="252" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsBlanks" dxfId="195" priority="239">
-      <formula>LEN(TRIM(E37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="240" operator="equal">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsBlanks" dxfId="195" priority="225">
+      <formula>LEN(TRIM(D39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="226" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="227" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="228" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="233" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="186" priority="234" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="237" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="238" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D37">
-    <cfRule type="containsBlanks" dxfId="181" priority="225">
-      <formula>LEN(TRIM(D37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="226" operator="equal">
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="containsBlanks" dxfId="181" priority="211">
+      <formula>LEN(TRIM(AE33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="213" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="214" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="215" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="216" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="217" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="218" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="219" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="172" priority="220" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="221" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="222" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="223" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="224" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="containsBlanks" dxfId="167" priority="211">
-      <formula>LEN(TRIM(AE31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="212" operator="equal">
+  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
+    <cfRule type="containsBlanks" dxfId="167" priority="197">
+      <formula>LEN(TRIM(AE26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="205" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="220" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="206" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="207" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="208" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="209" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="210" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE24:AE25 AE27:AE30">
-    <cfRule type="containsBlanks" dxfId="153" priority="197">
-      <formula>LEN(TRIM(AE24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="198" operator="equal">
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="containsBlanks" dxfId="153" priority="155">
+      <formula>LEN(TRIM(AB33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="161" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="162" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="163" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="164" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="165" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="167" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="168" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB31">
-    <cfRule type="containsBlanks" dxfId="139" priority="155">
-      <formula>LEN(TRIM(AB31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="156" operator="equal">
+  <conditionalFormatting sqref="C26:C32">
+    <cfRule type="containsBlanks" dxfId="139" priority="183">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="184" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="185" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="186" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="187" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="188" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="189" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="190" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="191" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="130" priority="192" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="193" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="194" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="195" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="196" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C30">
-    <cfRule type="containsBlanks" dxfId="125" priority="183">
-      <formula>LEN(TRIM(C24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="184" operator="equal">
+  <conditionalFormatting sqref="AD24:AD27">
+    <cfRule type="containsBlanks" dxfId="125" priority="169">
+      <formula>LEN(TRIM(AD24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="170" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="171" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="172" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="178" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="179" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="180" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="181" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="182" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD22:AD25">
-    <cfRule type="containsBlanks" dxfId="111" priority="169">
-      <formula>LEN(TRIM(AD22))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="170" operator="equal">
+  <conditionalFormatting sqref="O20:O33">
+    <cfRule type="containsBlanks" dxfId="111" priority="85">
+      <formula>LEN(TRIM(O20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="87" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="90" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="178" operator="between">
+    <cfRule type="cellIs" dxfId="102" priority="94" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="95" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O31">
-    <cfRule type="containsBlanks" dxfId="97" priority="85">
-      <formula>LEN(TRIM(O18))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+  <conditionalFormatting sqref="O34:O46">
+    <cfRule type="containsBlanks" dxfId="97" priority="71">
+      <formula>LEN(TRIM(O34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="72" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="73" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="75" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="76" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="88" priority="80" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O44">
-    <cfRule type="containsBlanks" dxfId="83" priority="71">
-      <formula>LEN(TRIM(O32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
+  <conditionalFormatting sqref="O34:O46">
+    <cfRule type="containsBlanks" dxfId="83" priority="57">
+      <formula>LEN(TRIM(O34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O44">
-    <cfRule type="containsBlanks" dxfId="69" priority="57">
-      <formula>LEN(TRIM(O32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+  <conditionalFormatting sqref="V20:V25">
+    <cfRule type="containsBlanks" dxfId="69" priority="43">
+      <formula>LEN(TRIM(V20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="60" priority="52" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V23">
-    <cfRule type="containsBlanks" dxfId="55" priority="43">
-      <formula>LEN(TRIM(V18))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+  <conditionalFormatting sqref="W26:W33">
+    <cfRule type="containsBlanks" dxfId="55" priority="29">
+      <formula>LEN(TRIM(W26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="46" priority="38" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W24:W31">
-    <cfRule type="containsBlanks" dxfId="41" priority="29">
-      <formula>LEN(TRIM(W24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+  <conditionalFormatting sqref="W34:W46">
+    <cfRule type="containsBlanks" dxfId="41" priority="15">
+      <formula>LEN(TRIM(W34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="24" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W32:W44">
-    <cfRule type="containsBlanks" dxfId="27" priority="15">
-      <formula>LEN(TRIM(W32))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+  <conditionalFormatting sqref="M33:M37">
+    <cfRule type="containsBlanks" dxfId="27" priority="1">
+      <formula>LEN(TRIM(M33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M31:M35">
-    <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(M31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+  <conditionalFormatting sqref="A20:AT46">
+    <cfRule type="containsBlanks" dxfId="13" priority="953">
+      <formula>LEN(TRIM(A20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="955" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="956" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="957" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="958" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="959" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="960" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="961" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="962" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="963" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="964" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="965" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="966" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="967" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="AY20" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32735C98-92E3-40C0-A17B-D7E6A29B542A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188BBAD-FB8B-44E0-BB05-290C174F720E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -322,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -354,39 +354,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="1" tint="0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,20 +412,148 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="658">
+  <dxfs count="672">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -7077,8 +7179,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AY60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AW32" sqref="AW32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7265,3807 +7367,3807 @@
       </c>
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS20" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT20" s="17">
-        <v>-2</v>
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>-2</v>
+      </c>
+      <c r="AP20">
+        <v>-2</v>
+      </c>
+      <c r="AQ20">
+        <v>-2</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>153</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS21" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT21" s="17">
-        <v>-2</v>
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>-3</v>
+      </c>
+      <c r="D21">
+        <v>-3</v>
+      </c>
+      <c r="E21">
+        <v>-3</v>
+      </c>
+      <c r="F21">
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <v>-3</v>
+      </c>
+      <c r="H21">
+        <v>-3</v>
+      </c>
+      <c r="I21">
+        <v>-3</v>
+      </c>
+      <c r="J21">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <v>-3</v>
+      </c>
+      <c r="L21">
+        <v>-3</v>
+      </c>
+      <c r="M21">
+        <v>-3</v>
+      </c>
+      <c r="N21">
+        <v>23</v>
+      </c>
+      <c r="O21">
+        <v>-3</v>
+      </c>
+      <c r="P21">
+        <v>-3</v>
+      </c>
+      <c r="Q21">
+        <v>-3</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>-3</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="U21">
+        <v>20</v>
+      </c>
+      <c r="V21">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+      <c r="X21">
+        <v>20</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>20</v>
+      </c>
+      <c r="AA21">
+        <v>20</v>
+      </c>
+      <c r="AB21">
+        <v>21</v>
+      </c>
+      <c r="AC21">
+        <v>-3</v>
+      </c>
+      <c r="AD21">
+        <v>22</v>
+      </c>
+      <c r="AE21">
+        <v>-3</v>
+      </c>
+      <c r="AF21">
+        <v>-3</v>
+      </c>
+      <c r="AG21">
+        <v>21</v>
+      </c>
+      <c r="AH21">
+        <v>-3</v>
+      </c>
+      <c r="AI21">
+        <v>21</v>
+      </c>
+      <c r="AJ21">
+        <v>-3</v>
+      </c>
+      <c r="AK21">
+        <v>21</v>
+      </c>
+      <c r="AL21">
+        <v>-3</v>
+      </c>
+      <c r="AM21">
+        <v>20</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>-2</v>
+      </c>
+      <c r="AP21">
+        <v>-2</v>
+      </c>
+      <c r="AQ21">
+        <v>-2</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>20</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$24:$AT$50,20)</f>
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AE22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AF22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AG22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AH22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS22" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT22" s="17">
-        <v>-2</v>
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>-3</v>
+      </c>
+      <c r="C22">
+        <v>-3</v>
+      </c>
+      <c r="D22">
+        <v>-3</v>
+      </c>
+      <c r="E22">
+        <v>-3</v>
+      </c>
+      <c r="F22">
+        <v>-3</v>
+      </c>
+      <c r="G22">
+        <v>-3</v>
+      </c>
+      <c r="H22">
+        <v>-3</v>
+      </c>
+      <c r="I22">
+        <v>-3</v>
+      </c>
+      <c r="J22">
+        <v>-3</v>
+      </c>
+      <c r="K22">
+        <v>-3</v>
+      </c>
+      <c r="L22">
+        <v>-3</v>
+      </c>
+      <c r="M22">
+        <v>-3</v>
+      </c>
+      <c r="N22">
+        <v>-3</v>
+      </c>
+      <c r="O22">
+        <v>-3</v>
+      </c>
+      <c r="P22">
+        <v>-3</v>
+      </c>
+      <c r="Q22">
+        <v>-3</v>
+      </c>
+      <c r="R22">
+        <v>-3</v>
+      </c>
+      <c r="S22">
+        <v>-3</v>
+      </c>
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>-3</v>
+      </c>
+      <c r="AC22">
+        <v>-3</v>
+      </c>
+      <c r="AD22">
+        <v>-3</v>
+      </c>
+      <c r="AE22">
+        <v>-3</v>
+      </c>
+      <c r="AF22">
+        <v>-3</v>
+      </c>
+      <c r="AG22">
+        <v>-3</v>
+      </c>
+      <c r="AH22">
+        <v>-3</v>
+      </c>
+      <c r="AI22">
+        <v>-3</v>
+      </c>
+      <c r="AJ22">
+        <v>-3</v>
+      </c>
+      <c r="AK22">
+        <v>-3</v>
+      </c>
+      <c r="AL22">
+        <v>-3</v>
+      </c>
+      <c r="AM22">
+        <v>20</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>-2</v>
+      </c>
+      <c r="AP22">
+        <v>-2</v>
+      </c>
+      <c r="AQ22">
+        <v>-2</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>20</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$24:$AT$50,21)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS23" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT23" s="17">
-        <v>-2</v>
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>-3</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+      <c r="D23">
+        <v>-3</v>
+      </c>
+      <c r="E23">
+        <v>-3</v>
+      </c>
+      <c r="F23">
+        <v>-3</v>
+      </c>
+      <c r="G23">
+        <v>-3</v>
+      </c>
+      <c r="H23">
+        <v>-3</v>
+      </c>
+      <c r="I23">
+        <v>-3</v>
+      </c>
+      <c r="J23">
+        <v>-3</v>
+      </c>
+      <c r="K23">
+        <v>-3</v>
+      </c>
+      <c r="L23">
+        <v>-3</v>
+      </c>
+      <c r="M23">
+        <v>-3</v>
+      </c>
+      <c r="N23">
+        <v>-3</v>
+      </c>
+      <c r="O23">
+        <v>-3</v>
+      </c>
+      <c r="P23">
+        <v>-3</v>
+      </c>
+      <c r="Q23">
+        <v>-3</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>-2</v>
+      </c>
+      <c r="W23">
+        <v>-2</v>
+      </c>
+      <c r="X23">
+        <v>-2</v>
+      </c>
+      <c r="Y23">
+        <v>-2</v>
+      </c>
+      <c r="Z23">
+        <v>-2</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>-3</v>
+      </c>
+      <c r="AE23">
+        <v>-3</v>
+      </c>
+      <c r="AF23">
+        <v>-3</v>
+      </c>
+      <c r="AG23">
+        <v>20</v>
+      </c>
+      <c r="AH23">
+        <v>20</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>-2</v>
+      </c>
+      <c r="AP23">
+        <v>-2</v>
+      </c>
+      <c r="AQ23">
+        <v>-2</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
       </c>
       <c r="AY23">
         <f>COUNTIFS($A$24:$AT$50,22)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="17">
-        <v>21</v>
-      </c>
-      <c r="AF24" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG24" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS24" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT24" s="17">
-        <v>-2</v>
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>-3</v>
+      </c>
+      <c r="C24">
+        <v>-3</v>
+      </c>
+      <c r="D24">
+        <v>-3</v>
+      </c>
+      <c r="E24">
+        <v>-3</v>
+      </c>
+      <c r="F24">
+        <v>-3</v>
+      </c>
+      <c r="G24">
+        <v>-3</v>
+      </c>
+      <c r="H24">
+        <v>-3</v>
+      </c>
+      <c r="I24">
+        <v>-3</v>
+      </c>
+      <c r="J24">
+        <v>-3</v>
+      </c>
+      <c r="K24">
+        <v>-3</v>
+      </c>
+      <c r="L24">
+        <v>-3</v>
+      </c>
+      <c r="M24">
+        <v>-3</v>
+      </c>
+      <c r="N24">
+        <v>-3</v>
+      </c>
+      <c r="O24">
+        <v>-3</v>
+      </c>
+      <c r="P24">
+        <v>-3</v>
+      </c>
+      <c r="Q24">
+        <v>-3</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>-2</v>
+      </c>
+      <c r="U24">
+        <v>-2</v>
+      </c>
+      <c r="V24">
+        <v>-2</v>
+      </c>
+      <c r="W24">
+        <v>-2</v>
+      </c>
+      <c r="X24">
+        <v>-2</v>
+      </c>
+      <c r="Y24">
+        <v>-2</v>
+      </c>
+      <c r="Z24">
+        <v>-2</v>
+      </c>
+      <c r="AA24">
+        <v>-2</v>
+      </c>
+      <c r="AB24">
+        <v>-2</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>20</v>
+      </c>
+      <c r="AG24">
+        <v>20</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>-2</v>
+      </c>
+      <c r="AK24">
+        <v>-2</v>
+      </c>
+      <c r="AL24">
+        <v>-2</v>
+      </c>
+      <c r="AM24">
+        <v>-2</v>
+      </c>
+      <c r="AN24">
+        <v>-2</v>
+      </c>
+      <c r="AO24">
+        <v>-2</v>
+      </c>
+      <c r="AP24">
+        <v>-2</v>
+      </c>
+      <c r="AQ24">
+        <v>-2</v>
+      </c>
+      <c r="AR24">
+        <v>-2</v>
+      </c>
+      <c r="AS24">
+        <v>-2</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$24:$AT$50,23)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="B25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="C25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="D25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="E25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="F25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="G25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="H25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="I25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="P25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="R25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="S25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AF25" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG25" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK25" s="17">
-        <v>99</v>
-      </c>
-      <c r="AL25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS25" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT25" s="17">
-        <v>-2</v>
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>-3</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>20</v>
+      </c>
+      <c r="O25">
+        <v>20</v>
+      </c>
+      <c r="P25">
+        <v>20</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>-2</v>
+      </c>
+      <c r="T25">
+        <v>-2</v>
+      </c>
+      <c r="U25">
+        <v>-2</v>
+      </c>
+      <c r="V25">
+        <v>-2</v>
+      </c>
+      <c r="W25">
+        <v>-2</v>
+      </c>
+      <c r="X25">
+        <v>-2</v>
+      </c>
+      <c r="Y25">
+        <v>-2</v>
+      </c>
+      <c r="Z25">
+        <v>-2</v>
+      </c>
+      <c r="AA25">
+        <v>-2</v>
+      </c>
+      <c r="AB25">
+        <v>-2</v>
+      </c>
+      <c r="AC25">
+        <v>-2</v>
+      </c>
+      <c r="AD25">
+        <v>-2</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>-2</v>
+      </c>
+      <c r="AJ25">
+        <v>-2</v>
+      </c>
+      <c r="AK25">
+        <v>-2</v>
+      </c>
+      <c r="AL25">
+        <v>-2</v>
+      </c>
+      <c r="AM25">
+        <v>-2</v>
+      </c>
+      <c r="AN25">
+        <v>-2</v>
+      </c>
+      <c r="AO25">
+        <v>-2</v>
+      </c>
+      <c r="AP25">
+        <v>-2</v>
+      </c>
+      <c r="AQ25">
+        <v>-2</v>
+      </c>
+      <c r="AR25">
+        <v>-2</v>
+      </c>
+      <c r="AS25">
+        <v>-2</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>204</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
-        <v>0</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>0</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>0</v>
-      </c>
-      <c r="R26" s="17">
-        <v>0</v>
-      </c>
-      <c r="S26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="17">
-        <v>21</v>
-      </c>
-      <c r="AF26" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG26" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS26" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT26" s="17">
-        <v>-2</v>
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>-3</v>
+      </c>
+      <c r="C26">
+        <v>-3</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>-2</v>
+      </c>
+      <c r="T26">
+        <v>-2</v>
+      </c>
+      <c r="U26">
+        <v>-2</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>2</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26">
+        <v>2</v>
+      </c>
+      <c r="AA26">
+        <v>-2</v>
+      </c>
+      <c r="AB26">
+        <v>-2</v>
+      </c>
+      <c r="AC26">
+        <v>-2</v>
+      </c>
+      <c r="AD26">
+        <v>-2</v>
+      </c>
+      <c r="AE26">
+        <v>-2</v>
+      </c>
+      <c r="AF26">
+        <v>-2</v>
+      </c>
+      <c r="AG26">
+        <v>-2</v>
+      </c>
+      <c r="AH26">
+        <v>-2</v>
+      </c>
+      <c r="AI26">
+        <v>-2</v>
+      </c>
+      <c r="AJ26">
+        <v>-2</v>
+      </c>
+      <c r="AK26">
+        <v>-2</v>
+      </c>
+      <c r="AL26">
+        <v>-2</v>
+      </c>
+      <c r="AM26">
+        <v>-2</v>
+      </c>
+      <c r="AN26">
+        <v>-2</v>
+      </c>
+      <c r="AO26">
+        <v>-2</v>
+      </c>
+      <c r="AP26">
+        <v>99</v>
+      </c>
+      <c r="AQ26">
+        <v>-2</v>
+      </c>
+      <c r="AR26">
+        <v>-2</v>
+      </c>
+      <c r="AS26">
+        <v>-2</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
-        <v>0</v>
-      </c>
-      <c r="B27" s="17">
-        <v>22</v>
-      </c>
-      <c r="C27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E27" s="17">
-        <v>22</v>
-      </c>
-      <c r="F27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="17">
-        <v>21</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R27" s="17">
-        <v>0</v>
-      </c>
-      <c r="S27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD27" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AF27" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG27" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AI27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AJ27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AK27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AL27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AM27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AN27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AO27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AP27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AQ27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AR27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AS27" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AT27" s="17">
-        <v>-2</v>
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>-2</v>
+      </c>
+      <c r="F27">
+        <v>-2</v>
+      </c>
+      <c r="G27">
+        <v>-2</v>
+      </c>
+      <c r="H27">
+        <v>-2</v>
+      </c>
+      <c r="I27">
+        <v>-2</v>
+      </c>
+      <c r="J27">
+        <v>-2</v>
+      </c>
+      <c r="K27">
+        <v>-2</v>
+      </c>
+      <c r="L27">
+        <v>-2</v>
+      </c>
+      <c r="M27">
+        <v>-2</v>
+      </c>
+      <c r="N27">
+        <v>-2</v>
+      </c>
+      <c r="O27">
+        <v>-2</v>
+      </c>
+      <c r="P27">
+        <v>-2</v>
+      </c>
+      <c r="Q27">
+        <v>-2</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>-2</v>
+      </c>
+      <c r="T27">
+        <v>-2</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>-2</v>
+      </c>
+      <c r="X27">
+        <v>-2</v>
+      </c>
+      <c r="Y27">
+        <v>-2</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>-2</v>
+      </c>
+      <c r="AC27">
+        <v>-2</v>
+      </c>
+      <c r="AD27">
+        <v>-2</v>
+      </c>
+      <c r="AE27">
+        <v>-2</v>
+      </c>
+      <c r="AF27">
+        <v>-2</v>
+      </c>
+      <c r="AG27">
+        <v>-2</v>
+      </c>
+      <c r="AH27">
+        <v>-2</v>
+      </c>
+      <c r="AI27">
+        <v>-2</v>
+      </c>
+      <c r="AJ27">
+        <v>-2</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
-        <v>0</v>
-      </c>
-      <c r="B28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R28" s="17">
-        <v>0</v>
-      </c>
-      <c r="S28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC28" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="17">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>-2</v>
+      </c>
+      <c r="E28">
+        <v>-2</v>
+      </c>
+      <c r="F28">
+        <v>-2</v>
+      </c>
+      <c r="G28">
+        <v>-2</v>
+      </c>
+      <c r="H28">
+        <v>-2</v>
+      </c>
+      <c r="I28">
+        <v>-2</v>
+      </c>
+      <c r="J28">
+        <v>-2</v>
+      </c>
+      <c r="K28">
+        <v>-2</v>
+      </c>
+      <c r="L28">
+        <v>-2</v>
+      </c>
+      <c r="M28">
+        <v>-2</v>
+      </c>
+      <c r="N28">
+        <v>-2</v>
+      </c>
+      <c r="O28">
+        <v>-2</v>
+      </c>
+      <c r="P28">
+        <v>-2</v>
+      </c>
+      <c r="Q28">
+        <v>-2</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>-2</v>
+      </c>
+      <c r="T28">
+        <v>-2</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>-2</v>
+      </c>
+      <c r="W28">
+        <v>-2</v>
+      </c>
+      <c r="X28">
+        <v>-2</v>
+      </c>
+      <c r="Y28">
+        <v>-2</v>
+      </c>
+      <c r="Z28">
+        <v>-2</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>-2</v>
+      </c>
+      <c r="AE28">
+        <v>-2</v>
+      </c>
+      <c r="AF28">
+        <v>-2</v>
+      </c>
+      <c r="AG28">
+        <v>-2</v>
+      </c>
+      <c r="AH28">
+        <v>-2</v>
+      </c>
+      <c r="AI28">
+        <v>-2</v>
+      </c>
+      <c r="AJ28">
+        <v>-2</v>
+      </c>
+      <c r="AK28">
+        <v>-2</v>
+      </c>
+      <c r="AL28">
+        <v>-2</v>
+      </c>
+      <c r="AM28">
+        <v>-2</v>
+      </c>
+      <c r="AN28">
+        <v>-2</v>
+      </c>
+      <c r="AO28">
+        <v>-2</v>
+      </c>
+      <c r="AP28">
+        <v>-2</v>
+      </c>
+      <c r="AQ28">
+        <v>-2</v>
+      </c>
+      <c r="AR28">
+        <v>-2</v>
+      </c>
+      <c r="AS28">
+        <v>-2</v>
+      </c>
+      <c r="AT28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
-        <v>0</v>
-      </c>
-      <c r="B29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="17">
-        <v>21</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R29" s="17">
-        <v>0</v>
-      </c>
-      <c r="S29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AA29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AB29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AC29" s="17">
-        <v>-2</v>
-      </c>
-      <c r="AD29" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="17">
-        <v>23</v>
-      </c>
-      <c r="AF29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI29" s="17">
-        <v>22</v>
-      </c>
-      <c r="AJ29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AK29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL29" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="17">
-        <v>22</v>
-      </c>
-      <c r="AN29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP29" s="17">
-        <v>22</v>
-      </c>
-      <c r="AQ29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR29" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS29" s="17">
-        <v>21</v>
-      </c>
-      <c r="AT29" s="17">
-        <v>-3</v>
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>-2</v>
+      </c>
+      <c r="D29">
+        <v>-2</v>
+      </c>
+      <c r="E29">
+        <v>-2</v>
+      </c>
+      <c r="F29">
+        <v>-2</v>
+      </c>
+      <c r="G29">
+        <v>-2</v>
+      </c>
+      <c r="H29">
+        <v>-2</v>
+      </c>
+      <c r="I29">
+        <v>-2</v>
+      </c>
+      <c r="J29">
+        <v>-2</v>
+      </c>
+      <c r="K29">
+        <v>-2</v>
+      </c>
+      <c r="L29">
+        <v>-2</v>
+      </c>
+      <c r="M29">
+        <v>-2</v>
+      </c>
+      <c r="N29">
+        <v>-2</v>
+      </c>
+      <c r="O29">
+        <v>-2</v>
+      </c>
+      <c r="P29">
+        <v>-2</v>
+      </c>
+      <c r="Q29">
+        <v>-2</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>-2</v>
+      </c>
+      <c r="W29">
+        <v>-2</v>
+      </c>
+      <c r="X29">
+        <v>-2</v>
+      </c>
+      <c r="Y29">
+        <v>-2</v>
+      </c>
+      <c r="Z29">
+        <v>-2</v>
+      </c>
+      <c r="AA29">
+        <v>-2</v>
+      </c>
+      <c r="AB29">
+        <v>-2</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>-2</v>
+      </c>
+      <c r="AH29">
+        <v>-2</v>
+      </c>
+      <c r="AI29">
+        <v>-2</v>
+      </c>
+      <c r="AJ29">
+        <v>-2</v>
+      </c>
+      <c r="AK29">
+        <v>-2</v>
+      </c>
+      <c r="AL29">
+        <v>-2</v>
+      </c>
+      <c r="AM29">
+        <v>-2</v>
+      </c>
+      <c r="AN29">
+        <v>-2</v>
+      </c>
+      <c r="AO29">
+        <v>-2</v>
+      </c>
+      <c r="AP29">
+        <v>-2</v>
+      </c>
+      <c r="AQ29">
+        <v>-2</v>
+      </c>
+      <c r="AR29">
+        <v>-2</v>
+      </c>
+      <c r="AS29">
+        <v>-2</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17">
-        <v>22</v>
-      </c>
-      <c r="C30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E30" s="17">
-        <v>22</v>
-      </c>
-      <c r="F30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O30" s="17">
-        <v>0</v>
-      </c>
-      <c r="P30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R30" s="17">
-        <v>0</v>
-      </c>
-      <c r="S30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Y30" s="17">
-        <v>-2</v>
-      </c>
-      <c r="Z30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AF30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AK30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL30" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS30" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT30" s="17">
-        <v>-3</v>
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>-2</v>
+      </c>
+      <c r="C30">
+        <v>-2</v>
+      </c>
+      <c r="D30">
+        <v>-2</v>
+      </c>
+      <c r="E30">
+        <v>-2</v>
+      </c>
+      <c r="F30">
+        <v>-2</v>
+      </c>
+      <c r="G30">
+        <v>-2</v>
+      </c>
+      <c r="H30">
+        <v>-2</v>
+      </c>
+      <c r="I30">
+        <v>-2</v>
+      </c>
+      <c r="J30">
+        <v>-2</v>
+      </c>
+      <c r="K30">
+        <v>-2</v>
+      </c>
+      <c r="L30">
+        <v>-2</v>
+      </c>
+      <c r="M30">
+        <v>-2</v>
+      </c>
+      <c r="N30">
+        <v>-2</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>-2</v>
+      </c>
+      <c r="T30">
+        <v>-2</v>
+      </c>
+      <c r="U30">
+        <v>-2</v>
+      </c>
+      <c r="V30">
+        <v>-2</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>-2</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>-2</v>
+      </c>
+      <c r="AB30">
+        <v>-2</v>
+      </c>
+      <c r="AC30">
+        <v>-2</v>
+      </c>
+      <c r="AD30">
+        <v>-2</v>
+      </c>
+      <c r="AE30">
+        <v>-2</v>
+      </c>
+      <c r="AF30">
+        <v>-2</v>
+      </c>
+      <c r="AG30">
+        <v>-2</v>
+      </c>
+      <c r="AH30">
+        <v>-2</v>
+      </c>
+      <c r="AI30">
+        <v>-2</v>
+      </c>
+      <c r="AJ30">
+        <v>-2</v>
+      </c>
+      <c r="AK30">
+        <v>-2</v>
+      </c>
+      <c r="AL30">
+        <v>-2</v>
+      </c>
+      <c r="AM30">
+        <v>-2</v>
+      </c>
+      <c r="AN30">
+        <v>-2</v>
+      </c>
+      <c r="AO30">
+        <v>-2</v>
+      </c>
+      <c r="AP30">
+        <v>-2</v>
+      </c>
+      <c r="AQ30">
+        <v>-2</v>
+      </c>
+      <c r="AR30">
+        <v>-2</v>
+      </c>
+      <c r="AS30">
+        <v>-2</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
-        <v>0</v>
-      </c>
-      <c r="B31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="L31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O31" s="17">
-        <v>0</v>
-      </c>
-      <c r="P31" s="17">
-        <v>21</v>
-      </c>
-      <c r="Q31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R31" s="17">
-        <v>0</v>
-      </c>
-      <c r="S31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W31" s="17">
-        <v>-2</v>
-      </c>
-      <c r="X31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="17">
-        <v>21</v>
-      </c>
-      <c r="AB31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AC31" s="17">
-        <v>21</v>
-      </c>
-      <c r="AD31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AE31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AF31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AK31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL31" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR31" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS31" s="17">
-        <v>20</v>
-      </c>
-      <c r="AT31" s="17">
-        <v>20</v>
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>-2</v>
+      </c>
+      <c r="C31">
+        <v>-2</v>
+      </c>
+      <c r="D31">
+        <v>-2</v>
+      </c>
+      <c r="E31">
+        <v>-2</v>
+      </c>
+      <c r="F31">
+        <v>-2</v>
+      </c>
+      <c r="G31">
+        <v>-2</v>
+      </c>
+      <c r="H31">
+        <v>-2</v>
+      </c>
+      <c r="I31">
+        <v>-2</v>
+      </c>
+      <c r="J31">
+        <v>-2</v>
+      </c>
+      <c r="K31">
+        <v>-2</v>
+      </c>
+      <c r="L31">
+        <v>-2</v>
+      </c>
+      <c r="M31">
+        <v>-2</v>
+      </c>
+      <c r="N31">
+        <v>-2</v>
+      </c>
+      <c r="O31">
+        <v>-2</v>
+      </c>
+      <c r="P31">
+        <v>-2</v>
+      </c>
+      <c r="Q31">
+        <v>-2</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>-2</v>
+      </c>
+      <c r="T31">
+        <v>-2</v>
+      </c>
+      <c r="U31">
+        <v>-2</v>
+      </c>
+      <c r="V31">
+        <v>-2</v>
+      </c>
+      <c r="W31">
+        <v>-2</v>
+      </c>
+      <c r="X31">
+        <v>-2</v>
+      </c>
+      <c r="Y31">
+        <v>-2</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>-2</v>
+      </c>
+      <c r="AB31">
+        <v>-2</v>
+      </c>
+      <c r="AC31">
+        <v>-2</v>
+      </c>
+      <c r="AD31">
+        <v>-2</v>
+      </c>
+      <c r="AE31">
+        <v>-2</v>
+      </c>
+      <c r="AF31">
+        <v>-2</v>
+      </c>
+      <c r="AG31">
+        <v>-2</v>
+      </c>
+      <c r="AH31">
+        <v>-2</v>
+      </c>
+      <c r="AI31">
+        <v>-2</v>
+      </c>
+      <c r="AJ31">
+        <v>-2</v>
+      </c>
+      <c r="AK31">
+        <v>-2</v>
+      </c>
+      <c r="AL31">
+        <v>-2</v>
+      </c>
+      <c r="AM31">
+        <v>-2</v>
+      </c>
+      <c r="AN31">
+        <v>-2</v>
+      </c>
+      <c r="AO31">
+        <v>-2</v>
+      </c>
+      <c r="AP31">
+        <v>-2</v>
+      </c>
+      <c r="AQ31">
+        <v>-2</v>
+      </c>
+      <c r="AR31">
+        <v>-2</v>
+      </c>
+      <c r="AS31">
+        <v>-2</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17">
-        <v>0</v>
-      </c>
-      <c r="B32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="J32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="K32" s="17">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>-2</v>
+      </c>
+      <c r="C32">
+        <v>-2</v>
+      </c>
+      <c r="D32">
         <v>90</v>
       </c>
-      <c r="L32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="M32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="N32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="O32" s="17">
-        <v>0</v>
-      </c>
-      <c r="P32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="R32" s="17">
-        <v>0</v>
-      </c>
-      <c r="S32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="T32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="U32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="V32" s="17">
-        <v>-2</v>
-      </c>
-      <c r="W32" s="17">
-        <v>0</v>
-      </c>
-      <c r="X32" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="17">
-        <v>20</v>
-      </c>
-      <c r="Z32" s="17">
-        <v>20</v>
-      </c>
-      <c r="AA32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AB32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AC32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AD32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AE32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AF32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI32" s="17">
-        <v>20</v>
-      </c>
-      <c r="AJ32" s="17">
-        <v>20</v>
-      </c>
-      <c r="AK32" s="17">
-        <v>20</v>
-      </c>
-      <c r="AL32" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="17">
-        <v>23</v>
-      </c>
-      <c r="AN32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ32" s="17">
-        <v>23</v>
-      </c>
-      <c r="AR32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS32" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT32" s="17">
-        <v>-3</v>
+      <c r="E32">
+        <v>-2</v>
+      </c>
+      <c r="F32">
+        <v>-2</v>
+      </c>
+      <c r="G32">
+        <v>-2</v>
+      </c>
+      <c r="H32">
+        <v>-2</v>
+      </c>
+      <c r="I32">
+        <v>-2</v>
+      </c>
+      <c r="J32">
+        <v>-2</v>
+      </c>
+      <c r="K32">
+        <v>-2</v>
+      </c>
+      <c r="L32">
+        <v>-2</v>
+      </c>
+      <c r="M32">
+        <v>-2</v>
+      </c>
+      <c r="N32">
+        <v>-2</v>
+      </c>
+      <c r="O32">
+        <v>-2</v>
+      </c>
+      <c r="P32">
+        <v>-2</v>
+      </c>
+      <c r="Q32">
+        <v>-2</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>-2</v>
+      </c>
+      <c r="T32">
+        <v>-2</v>
+      </c>
+      <c r="U32">
+        <v>-2</v>
+      </c>
+      <c r="V32">
+        <v>-2</v>
+      </c>
+      <c r="W32">
+        <v>-2</v>
+      </c>
+      <c r="X32">
+        <v>-2</v>
+      </c>
+      <c r="Y32">
+        <v>-2</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>-2</v>
+      </c>
+      <c r="AB32">
+        <v>-2</v>
+      </c>
+      <c r="AC32">
+        <v>-2</v>
+      </c>
+      <c r="AD32">
+        <v>-2</v>
+      </c>
+      <c r="AE32">
+        <v>-2</v>
+      </c>
+      <c r="AF32">
+        <v>-2</v>
+      </c>
+      <c r="AG32">
+        <v>-2</v>
+      </c>
+      <c r="AH32">
+        <v>-2</v>
+      </c>
+      <c r="AI32">
+        <v>-2</v>
+      </c>
+      <c r="AJ32">
+        <v>-2</v>
+      </c>
+      <c r="AK32">
+        <v>-2</v>
+      </c>
+      <c r="AL32">
+        <v>-2</v>
+      </c>
+      <c r="AM32">
+        <v>-2</v>
+      </c>
+      <c r="AN32">
+        <v>-2</v>
+      </c>
+      <c r="AO32">
+        <v>-2</v>
+      </c>
+      <c r="AP32">
+        <v>-2</v>
+      </c>
+      <c r="AQ32">
+        <v>-2</v>
+      </c>
+      <c r="AR32">
+        <v>-2</v>
+      </c>
+      <c r="AS32">
+        <v>-2</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="17">
-        <v>0</v>
-      </c>
-      <c r="B33" s="17">
-        <v>22</v>
-      </c>
-      <c r="C33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E33" s="17">
-        <v>22</v>
-      </c>
-      <c r="F33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
-        <v>0</v>
-      </c>
-      <c r="K33" s="17">
-        <v>0</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>0</v>
-      </c>
-      <c r="R33" s="17">
-        <v>0</v>
-      </c>
-      <c r="S33" s="17">
-        <v>0</v>
-      </c>
-      <c r="T33" s="17">
-        <v>0</v>
-      </c>
-      <c r="U33" s="17">
-        <v>0</v>
-      </c>
-      <c r="V33" s="17">
-        <v>0</v>
-      </c>
-      <c r="W33" s="19">
-        <v>0</v>
-      </c>
-      <c r="X33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS33" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT33" s="17">
-        <v>-3</v>
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17">
-        <v>0</v>
-      </c>
-      <c r="B34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K34" s="17">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
         <v>91</v>
       </c>
-      <c r="L34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y34" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z34" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="17">
-        <v>21</v>
-      </c>
-      <c r="AB34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AC34" s="17">
-        <v>21</v>
-      </c>
-      <c r="AD34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AE34" s="17">
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34">
+        <v>-1</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>20</v>
       </c>
-      <c r="AF34" s="17">
-        <v>23</v>
-      </c>
-      <c r="AG34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ34" s="17">
-        <v>22</v>
-      </c>
-      <c r="AK34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AM34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS34" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT34" s="17">
-        <v>-3</v>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>-1</v>
+      </c>
+      <c r="L34">
+        <v>-1</v>
+      </c>
+      <c r="M34">
+        <v>-1</v>
+      </c>
+      <c r="N34">
+        <v>-1</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+      <c r="P34">
+        <v>-1</v>
+      </c>
+      <c r="Q34">
+        <v>-1</v>
+      </c>
+      <c r="R34">
+        <v>-1</v>
+      </c>
+      <c r="S34">
+        <v>-1</v>
+      </c>
+      <c r="T34">
+        <v>-1</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>-1</v>
+      </c>
+      <c r="W34">
+        <v>-1</v>
+      </c>
+      <c r="X34">
+        <v>-1</v>
+      </c>
+      <c r="Y34">
+        <v>-1</v>
+      </c>
+      <c r="Z34">
+        <v>-1</v>
+      </c>
+      <c r="AA34">
+        <v>-1</v>
+      </c>
+      <c r="AB34">
+        <v>-1</v>
+      </c>
+      <c r="AC34">
+        <v>-1</v>
+      </c>
+      <c r="AD34">
+        <v>-1</v>
+      </c>
+      <c r="AE34">
+        <v>-1</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>-1</v>
+      </c>
+      <c r="AH34">
+        <v>-1</v>
+      </c>
+      <c r="AI34">
+        <v>-1</v>
+      </c>
+      <c r="AJ34">
+        <v>-1</v>
+      </c>
+      <c r="AK34">
+        <v>-1</v>
+      </c>
+      <c r="AL34">
+        <v>-1</v>
+      </c>
+      <c r="AM34">
+        <v>-1</v>
+      </c>
+      <c r="AN34">
+        <v>-1</v>
+      </c>
+      <c r="AO34">
+        <v>-1</v>
+      </c>
+      <c r="AP34">
+        <v>-1</v>
+      </c>
+      <c r="AQ34">
+        <v>-1</v>
+      </c>
+      <c r="AR34">
+        <v>-1</v>
+      </c>
+      <c r="AS34">
+        <v>-1</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="17">
-        <v>0</v>
-      </c>
-      <c r="B35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y35" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z35" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AB35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AC35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AD35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AE35" s="17">
-        <v>20</v>
-      </c>
-      <c r="AF35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AK35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AM35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS35" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT35" s="17">
-        <v>-3</v>
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>-1</v>
+      </c>
+      <c r="C35">
+        <v>-1</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>-1</v>
+      </c>
+      <c r="G35">
+        <v>-1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>-1</v>
+      </c>
+      <c r="L35">
+        <v>-1</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>-1</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>-1</v>
+      </c>
+      <c r="Q35">
+        <v>-1</v>
+      </c>
+      <c r="R35">
+        <v>-1</v>
+      </c>
+      <c r="S35">
+        <v>-1</v>
+      </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>-1</v>
+      </c>
+      <c r="W35">
+        <v>-1</v>
+      </c>
+      <c r="X35">
+        <v>-1</v>
+      </c>
+      <c r="Y35">
+        <v>-1</v>
+      </c>
+      <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
+        <v>-1</v>
+      </c>
+      <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
+        <v>-1</v>
+      </c>
+      <c r="AD35">
+        <v>-1</v>
+      </c>
+      <c r="AE35">
+        <v>-1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>-1</v>
+      </c>
+      <c r="AH35">
+        <v>-1</v>
+      </c>
+      <c r="AI35">
+        <v>-1</v>
+      </c>
+      <c r="AJ35">
+        <v>-1</v>
+      </c>
+      <c r="AK35">
+        <v>-1</v>
+      </c>
+      <c r="AL35">
+        <v>-1</v>
+      </c>
+      <c r="AM35">
+        <v>-1</v>
+      </c>
+      <c r="AN35">
+        <v>-1</v>
+      </c>
+      <c r="AO35">
+        <v>-1</v>
+      </c>
+      <c r="AP35">
+        <v>-1</v>
+      </c>
+      <c r="AQ35">
+        <v>-1</v>
+      </c>
+      <c r="AR35">
+        <v>-1</v>
+      </c>
+      <c r="AS35">
+        <v>-1</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="17">
-        <v>0</v>
-      </c>
-      <c r="B36" s="17">
-        <v>22</v>
-      </c>
-      <c r="C36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E36" s="17">
-        <v>22</v>
-      </c>
-      <c r="F36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y36" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="17">
-        <v>20</v>
-      </c>
-      <c r="AE36" s="17">
-        <v>20</v>
-      </c>
-      <c r="AF36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AK36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AL36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AM36" s="17">
-        <v>21</v>
-      </c>
-      <c r="AN36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO36" s="17">
-        <v>21</v>
-      </c>
-      <c r="AP36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ36" s="17">
-        <v>21</v>
-      </c>
-      <c r="AR36" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS36" s="17">
-        <v>21</v>
-      </c>
-      <c r="AT36" s="17">
-        <v>-3</v>
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>-1</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>-1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>-1</v>
+      </c>
+      <c r="G36">
+        <v>-1</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>-1</v>
+      </c>
+      <c r="J36">
+        <v>-1</v>
+      </c>
+      <c r="K36">
+        <v>-1</v>
+      </c>
+      <c r="L36">
+        <v>-1</v>
+      </c>
+      <c r="M36">
+        <v>-1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>-1</v>
+      </c>
+      <c r="S36">
+        <v>-1</v>
+      </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>-1</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
+        <v>-1</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>-1</v>
+      </c>
+      <c r="AH36">
+        <v>-1</v>
+      </c>
+      <c r="AI36">
+        <v>-1</v>
+      </c>
+      <c r="AJ36">
+        <v>-1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>-1</v>
+      </c>
+      <c r="AM36">
+        <v>-1</v>
+      </c>
+      <c r="AN36">
+        <v>-1</v>
+      </c>
+      <c r="AO36">
+        <v>-1</v>
+      </c>
+      <c r="AP36">
+        <v>-1</v>
+      </c>
+      <c r="AQ36">
+        <v>-1</v>
+      </c>
+      <c r="AR36">
+        <v>-1</v>
+      </c>
+      <c r="AS36">
+        <v>-1</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="17">
-        <v>0</v>
-      </c>
-      <c r="B37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB37" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AF37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AG37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AH37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AI37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AJ37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AK37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AL37" s="17">
-        <v>20</v>
-      </c>
-      <c r="AM37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AN37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AO37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AP37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AQ37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AR37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AS37" s="17">
-        <v>-3</v>
-      </c>
-      <c r="AT37" s="17">
-        <v>-3</v>
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>-1</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>-1</v>
+      </c>
+      <c r="G37">
+        <v>-1</v>
+      </c>
+      <c r="H37">
+        <v>-1</v>
+      </c>
+      <c r="I37">
+        <v>-1</v>
+      </c>
+      <c r="J37">
+        <v>-1</v>
+      </c>
+      <c r="K37">
+        <v>-1</v>
+      </c>
+      <c r="L37">
+        <v>-1</v>
+      </c>
+      <c r="M37">
+        <v>-1</v>
+      </c>
+      <c r="N37">
+        <v>-1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>-1</v>
+      </c>
+      <c r="Q37">
+        <v>-1</v>
+      </c>
+      <c r="R37">
+        <v>-1</v>
+      </c>
+      <c r="S37">
+        <v>-1</v>
+      </c>
+      <c r="T37">
+        <v>-1</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>-1</v>
+      </c>
+      <c r="W37">
+        <v>-1</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>-1</v>
+      </c>
+      <c r="AA37">
+        <v>-1</v>
+      </c>
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
+        <v>-1</v>
+      </c>
+      <c r="AD37">
+        <v>-1</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>-1</v>
+      </c>
+      <c r="AH37">
+        <v>-1</v>
+      </c>
+      <c r="AI37">
+        <v>-1</v>
+      </c>
+      <c r="AJ37">
+        <v>-1</v>
+      </c>
+      <c r="AK37">
+        <v>-1</v>
+      </c>
+      <c r="AL37">
+        <v>-1</v>
+      </c>
+      <c r="AM37">
+        <v>-1</v>
+      </c>
+      <c r="AN37">
+        <v>-1</v>
+      </c>
+      <c r="AO37">
+        <v>-1</v>
+      </c>
+      <c r="AP37">
+        <v>-1</v>
+      </c>
+      <c r="AQ37">
+        <v>-1</v>
+      </c>
+      <c r="AR37">
+        <v>-1</v>
+      </c>
+      <c r="AS37">
+        <v>-1</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="17">
-        <v>0</v>
-      </c>
-      <c r="B38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="C38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="D38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="F38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="G38" s="17">
-        <v>-3</v>
-      </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA38" s="17">
-        <v>98</v>
-      </c>
-      <c r="AB38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC38" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="17">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="17">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+      <c r="G38">
+        <v>-1</v>
+      </c>
+      <c r="H38">
+        <v>-1</v>
+      </c>
+      <c r="I38">
+        <v>-1</v>
+      </c>
+      <c r="J38">
+        <v>-1</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>-1</v>
+      </c>
+      <c r="M38">
+        <v>-1</v>
+      </c>
+      <c r="N38">
+        <v>-1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-1</v>
+      </c>
+      <c r="Q38">
+        <v>-1</v>
+      </c>
+      <c r="R38">
+        <v>-1</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>-1</v>
+      </c>
+      <c r="W38">
+        <v>-1</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
+        <v>-1</v>
+      </c>
+      <c r="AD38">
+        <v>-1</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>-1</v>
+      </c>
+      <c r="AG38">
+        <v>-1</v>
+      </c>
+      <c r="AH38">
+        <v>-1</v>
+      </c>
+      <c r="AI38">
+        <v>-1</v>
+      </c>
+      <c r="AJ38">
+        <v>-1</v>
+      </c>
+      <c r="AK38">
+        <v>-1</v>
+      </c>
+      <c r="AL38">
+        <v>-1</v>
+      </c>
+      <c r="AM38">
+        <v>-1</v>
+      </c>
+      <c r="AN38">
+        <v>-1</v>
+      </c>
+      <c r="AO38">
+        <v>-1</v>
+      </c>
+      <c r="AP38">
+        <v>-1</v>
+      </c>
+      <c r="AQ38">
+        <v>-1</v>
+      </c>
+      <c r="AR38">
+        <v>-1</v>
+      </c>
+      <c r="AS38">
+        <v>-1</v>
+      </c>
+      <c r="AT38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="17">
-        <v>0</v>
-      </c>
-      <c r="B39" s="17">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
-      <c r="D39" s="17">
-        <v>20</v>
-      </c>
-      <c r="E39" s="17">
-        <v>20</v>
-      </c>
-      <c r="F39" s="17">
-        <v>20</v>
-      </c>
-      <c r="G39" s="17">
-        <v>20</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS39" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT39" s="17">
-        <v>-1</v>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="G39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>-1</v>
+      </c>
+      <c r="I39">
+        <v>-1</v>
+      </c>
+      <c r="J39">
+        <v>-1</v>
+      </c>
+      <c r="K39">
+        <v>-1</v>
+      </c>
+      <c r="L39">
+        <v>-1</v>
+      </c>
+      <c r="M39">
+        <v>-1</v>
+      </c>
+      <c r="N39">
+        <v>-1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-1</v>
+      </c>
+      <c r="Q39">
+        <v>-1</v>
+      </c>
+      <c r="R39">
+        <v>-1</v>
+      </c>
+      <c r="S39">
+        <v>-1</v>
+      </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>-1</v>
+      </c>
+      <c r="W39">
+        <v>-1</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
+        <v>-1</v>
+      </c>
+      <c r="AD39">
+        <v>-1</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>-1</v>
+      </c>
+      <c r="AG39">
+        <v>-1</v>
+      </c>
+      <c r="AH39">
+        <v>-1</v>
+      </c>
+      <c r="AI39">
+        <v>-1</v>
+      </c>
+      <c r="AJ39">
+        <v>-1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="17">
-        <v>0</v>
-      </c>
-      <c r="B40" s="17">
-        <v>0</v>
-      </c>
-      <c r="C40" s="17">
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS40" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT40" s="17">
-        <v>-1</v>
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>-3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>-1</v>
+      </c>
+      <c r="Q40">
+        <v>-1</v>
+      </c>
+      <c r="R40">
+        <v>-1</v>
+      </c>
+      <c r="S40">
+        <v>-1</v>
+      </c>
+      <c r="T40">
+        <v>-1</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>-1</v>
+      </c>
+      <c r="AG40">
+        <v>-1</v>
+      </c>
+      <c r="AH40">
+        <v>-1</v>
+      </c>
+      <c r="AI40">
+        <v>-1</v>
+      </c>
+      <c r="AJ40">
+        <v>-1</v>
+      </c>
+      <c r="AK40">
+        <v>-1</v>
+      </c>
+      <c r="AL40">
+        <v>-1</v>
+      </c>
+      <c r="AM40">
+        <v>-1</v>
+      </c>
+      <c r="AN40">
+        <v>-1</v>
+      </c>
+      <c r="AO40">
+        <v>-1</v>
+      </c>
+      <c r="AP40">
+        <v>-1</v>
+      </c>
+      <c r="AQ40">
+        <v>-1</v>
+      </c>
+      <c r="AR40">
+        <v>-1</v>
+      </c>
+      <c r="AS40">
+        <v>-1</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS41" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT41" s="17">
-        <v>-1</v>
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>-3</v>
+      </c>
+      <c r="C41">
+        <v>-3</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41">
+        <v>20</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>20</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>20</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-1</v>
+      </c>
+      <c r="Q41">
+        <v>-1</v>
+      </c>
+      <c r="R41">
+        <v>-1</v>
+      </c>
+      <c r="S41">
+        <v>-1</v>
+      </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>-1</v>
+      </c>
+      <c r="W41">
+        <v>-1</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
+        <v>-1</v>
+      </c>
+      <c r="AD41">
+        <v>-1</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>-1</v>
+      </c>
+      <c r="AG41">
+        <v>-1</v>
+      </c>
+      <c r="AH41">
+        <v>-1</v>
+      </c>
+      <c r="AI41">
+        <v>-1</v>
+      </c>
+      <c r="AJ41">
+        <v>-1</v>
+      </c>
+      <c r="AK41">
+        <v>-1</v>
+      </c>
+      <c r="AL41">
+        <v>-1</v>
+      </c>
+      <c r="AM41">
+        <v>-1</v>
+      </c>
+      <c r="AN41">
+        <v>-1</v>
+      </c>
+      <c r="AO41">
+        <v>-1</v>
+      </c>
+      <c r="AP41">
+        <v>-1</v>
+      </c>
+      <c r="AQ41">
+        <v>-1</v>
+      </c>
+      <c r="AR41">
+        <v>-1</v>
+      </c>
+      <c r="AS41">
+        <v>-1</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS42" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT42" s="17">
-        <v>-1</v>
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>-3</v>
+      </c>
+      <c r="D42">
+        <v>-3</v>
+      </c>
+      <c r="E42">
+        <v>-3</v>
+      </c>
+      <c r="F42">
+        <v>23</v>
+      </c>
+      <c r="G42">
+        <v>-3</v>
+      </c>
+      <c r="H42">
+        <v>-3</v>
+      </c>
+      <c r="I42">
+        <v>-3</v>
+      </c>
+      <c r="J42">
+        <v>23</v>
+      </c>
+      <c r="K42">
+        <v>-3</v>
+      </c>
+      <c r="L42">
+        <v>-3</v>
+      </c>
+      <c r="M42">
+        <v>-3</v>
+      </c>
+      <c r="N42">
+        <v>20</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>-1</v>
+      </c>
+      <c r="W42">
+        <v>-1</v>
+      </c>
+      <c r="X42">
+        <v>-1</v>
+      </c>
+      <c r="Y42">
+        <v>-1</v>
+      </c>
+      <c r="Z42">
+        <v>-1</v>
+      </c>
+      <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
+        <v>98</v>
+      </c>
+      <c r="AD42">
+        <v>-1</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>-1</v>
+      </c>
+      <c r="AH42">
+        <v>-1</v>
+      </c>
+      <c r="AI42">
+        <v>-1</v>
+      </c>
+      <c r="AJ42">
+        <v>-1</v>
+      </c>
+      <c r="AK42">
+        <v>-1</v>
+      </c>
+      <c r="AL42">
+        <v>-1</v>
+      </c>
+      <c r="AM42">
+        <v>-1</v>
+      </c>
+      <c r="AN42">
+        <v>-1</v>
+      </c>
+      <c r="AO42">
+        <v>-1</v>
+      </c>
+      <c r="AP42">
+        <v>-1</v>
+      </c>
+      <c r="AQ42">
+        <v>-1</v>
+      </c>
+      <c r="AR42">
+        <v>-1</v>
+      </c>
+      <c r="AS42">
+        <v>-1</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS43" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT43" s="17">
-        <v>-1</v>
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>-3</v>
+      </c>
+      <c r="C43">
+        <v>-3</v>
+      </c>
+      <c r="D43">
+        <v>-3</v>
+      </c>
+      <c r="E43">
+        <v>-3</v>
+      </c>
+      <c r="F43">
+        <v>-3</v>
+      </c>
+      <c r="G43">
+        <v>-3</v>
+      </c>
+      <c r="H43">
+        <v>-3</v>
+      </c>
+      <c r="I43">
+        <v>-3</v>
+      </c>
+      <c r="J43">
+        <v>-3</v>
+      </c>
+      <c r="K43">
+        <v>-3</v>
+      </c>
+      <c r="L43">
+        <v>-3</v>
+      </c>
+      <c r="M43">
+        <v>-3</v>
+      </c>
+      <c r="N43">
+        <v>22</v>
+      </c>
+      <c r="O43">
+        <v>-3</v>
+      </c>
+      <c r="P43">
+        <v>-3</v>
+      </c>
+      <c r="Q43">
+        <v>22</v>
+      </c>
+      <c r="R43">
+        <v>-3</v>
+      </c>
+      <c r="S43">
+        <v>-3</v>
+      </c>
+      <c r="T43">
+        <v>20</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>-1</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
+        <v>-1</v>
+      </c>
+      <c r="Y43">
+        <v>-1</v>
+      </c>
+      <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>-1</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
+        <v>-1</v>
+      </c>
+      <c r="AD43">
+        <v>-1</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>-1</v>
+      </c>
+      <c r="AI43">
+        <v>-1</v>
+      </c>
+      <c r="AJ43">
+        <v>-1</v>
+      </c>
+      <c r="AK43">
+        <v>-1</v>
+      </c>
+      <c r="AL43">
+        <v>-1</v>
+      </c>
+      <c r="AM43">
+        <v>-1</v>
+      </c>
+      <c r="AN43">
+        <v>-1</v>
+      </c>
+      <c r="AO43">
+        <v>-1</v>
+      </c>
+      <c r="AP43">
+        <v>-1</v>
+      </c>
+      <c r="AQ43">
+        <v>-1</v>
+      </c>
+      <c r="AR43">
+        <v>-1</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS44" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT44" s="17">
-        <v>-1</v>
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>-3</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+      <c r="D44">
+        <v>-3</v>
+      </c>
+      <c r="E44">
+        <v>-3</v>
+      </c>
+      <c r="F44">
+        <v>-3</v>
+      </c>
+      <c r="G44">
+        <v>-3</v>
+      </c>
+      <c r="H44">
+        <v>-3</v>
+      </c>
+      <c r="I44">
+        <v>-3</v>
+      </c>
+      <c r="J44">
+        <v>-3</v>
+      </c>
+      <c r="K44">
+        <v>-3</v>
+      </c>
+      <c r="L44">
+        <v>-3</v>
+      </c>
+      <c r="M44">
+        <v>-3</v>
+      </c>
+      <c r="N44">
+        <v>-3</v>
+      </c>
+      <c r="O44">
+        <v>-3</v>
+      </c>
+      <c r="P44">
+        <v>-3</v>
+      </c>
+      <c r="Q44">
+        <v>-3</v>
+      </c>
+      <c r="R44">
+        <v>-3</v>
+      </c>
+      <c r="S44">
+        <v>-3</v>
+      </c>
+      <c r="T44">
+        <v>20</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
+        <v>-1</v>
+      </c>
+      <c r="Y44">
+        <v>-1</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
+        <v>-1</v>
+      </c>
+      <c r="AC44">
+        <v>-1</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
+      </c>
+      <c r="AF44">
+        <v>20</v>
+      </c>
+      <c r="AG44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
+      </c>
+      <c r="AJ44">
+        <v>-1</v>
+      </c>
+      <c r="AK44">
+        <v>-1</v>
+      </c>
+      <c r="AL44">
+        <v>-1</v>
+      </c>
+      <c r="AM44">
+        <v>-1</v>
+      </c>
+      <c r="AN44">
+        <v>-1</v>
+      </c>
+      <c r="AO44">
+        <v>-1</v>
+      </c>
+      <c r="AP44">
+        <v>-1</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS45" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT45" s="17">
-        <v>-1</v>
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>-3</v>
+      </c>
+      <c r="C45">
+        <v>-3</v>
+      </c>
+      <c r="D45">
+        <v>-3</v>
+      </c>
+      <c r="E45">
+        <v>-3</v>
+      </c>
+      <c r="F45">
+        <v>-3</v>
+      </c>
+      <c r="G45">
+        <v>-3</v>
+      </c>
+      <c r="H45">
+        <v>-3</v>
+      </c>
+      <c r="I45">
+        <v>-3</v>
+      </c>
+      <c r="J45">
+        <v>-3</v>
+      </c>
+      <c r="K45">
+        <v>-3</v>
+      </c>
+      <c r="L45">
+        <v>-3</v>
+      </c>
+      <c r="M45">
+        <v>-3</v>
+      </c>
+      <c r="N45">
+        <v>-3</v>
+      </c>
+      <c r="O45">
+        <v>-3</v>
+      </c>
+      <c r="P45">
+        <v>-3</v>
+      </c>
+      <c r="Q45">
+        <v>-3</v>
+      </c>
+      <c r="R45">
+        <v>-3</v>
+      </c>
+      <c r="S45">
+        <v>-3</v>
+      </c>
+      <c r="T45">
+        <v>20</v>
+      </c>
+      <c r="U45">
+        <v>20</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>20</v>
+      </c>
+      <c r="AF45">
+        <v>20</v>
+      </c>
+      <c r="AG45">
+        <v>20</v>
+      </c>
+      <c r="AH45">
+        <v>20</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>-1</v>
+      </c>
+      <c r="AL45">
+        <v>-1</v>
+      </c>
+      <c r="AM45">
+        <v>-1</v>
+      </c>
+      <c r="AN45">
+        <v>-1</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>20</v>
+      </c>
+      <c r="AS45">
+        <v>20</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="B46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="C46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="D46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="I46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="K46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="L46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="M46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="N46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="O46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="P46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Q46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="R46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="S46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="T46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="U46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="V46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="W46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="X46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Y46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="Z46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AA46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AB46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AC46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AD46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AE46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AF46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AG46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AH46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AI46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AJ46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AK46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AL46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AM46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AN46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AO46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AP46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AQ46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AR46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AS46" s="17">
-        <v>-1</v>
-      </c>
-      <c r="AT46" s="17">
-        <v>-1</v>
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11107,7 +11209,7 @@
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="Z52" s="18"/>
+      <c r="Z52" s="17"/>
     </row>
     <row r="53" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53"/>
@@ -11160,8 +11262,53 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H26:H32">
+    <cfRule type="containsBlanks" dxfId="671" priority="953">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="954" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="669" priority="955" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="668" priority="956" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="667" priority="957" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="666" priority="958" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="665" priority="959" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="664" priority="960" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="663" priority="961" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="662" priority="962" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="661" priority="963" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="660" priority="964" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="659" priority="965" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="658" priority="966" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
     <cfRule type="containsBlanks" dxfId="657" priority="939">
-      <formula>LEN(TRIM(H26))=0</formula>
+      <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="656" priority="940" operator="equal">
       <formula>-3</formula>
@@ -11204,9 +11351,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
+  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
     <cfRule type="containsBlanks" dxfId="643" priority="925">
-      <formula>LEN(TRIM(C27))=0</formula>
+      <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="642" priority="926" operator="equal">
       <formula>-3</formula>
@@ -11249,9 +11396,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
+  <conditionalFormatting sqref="B34:E35">
     <cfRule type="containsBlanks" dxfId="629" priority="911">
-      <formula>LEN(TRIM(F27))=0</formula>
+      <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="628" priority="912" operator="equal">
       <formula>-3</formula>
@@ -11294,9 +11441,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E35">
+  <conditionalFormatting sqref="B37:E38">
     <cfRule type="containsBlanks" dxfId="615" priority="897">
-      <formula>LEN(TRIM(B34))=0</formula>
+      <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="614" priority="898" operator="equal">
       <formula>-3</formula>
@@ -11339,9 +11486,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:E38">
+  <conditionalFormatting sqref="B31:E32">
     <cfRule type="containsBlanks" dxfId="601" priority="883">
-      <formula>LEN(TRIM(B37))=0</formula>
+      <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="600" priority="884" operator="equal">
       <formula>-3</formula>
@@ -11384,9 +11531,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E32">
+  <conditionalFormatting sqref="B28:F29">
     <cfRule type="containsBlanks" dxfId="587" priority="869">
-      <formula>LEN(TRIM(B31))=0</formula>
+      <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="586" priority="870" operator="equal">
       <formula>-3</formula>
@@ -11429,9 +11576,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F29">
+  <conditionalFormatting sqref="AI24:AI27">
     <cfRule type="containsBlanks" dxfId="573" priority="855">
-      <formula>LEN(TRIM(B28))=0</formula>
+      <formula>LEN(TRIM(AI24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="572" priority="856" operator="equal">
       <formula>-3</formula>
@@ -11474,9 +11621,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI24:AI27">
+  <conditionalFormatting sqref="AI23 AE23 AG23">
     <cfRule type="containsBlanks" dxfId="559" priority="841">
-      <formula>LEN(TRIM(AI24))=0</formula>
+      <formula>LEN(TRIM(AE23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="558" priority="842" operator="equal">
       <formula>-3</formula>
@@ -11519,9 +11666,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23 AE23 AG23">
+  <conditionalFormatting sqref="AH21:AH27">
     <cfRule type="containsBlanks" dxfId="545" priority="827">
-      <formula>LEN(TRIM(AE23))=0</formula>
+      <formula>LEN(TRIM(AH21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="544" priority="828" operator="equal">
       <formula>-3</formula>
@@ -11564,9 +11711,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH21:AH27">
+  <conditionalFormatting sqref="G39">
     <cfRule type="containsBlanks" dxfId="531" priority="813">
-      <formula>LEN(TRIM(AH21))=0</formula>
+      <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="530" priority="814" operator="equal">
       <formula>-3</formula>
@@ -11609,9 +11756,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsBlanks" dxfId="517" priority="799">
-      <formula>LEN(TRIM(G39))=0</formula>
+      <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="516" priority="800" operator="equal">
       <formula>-3</formula>
@@ -11654,9 +11801,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
     <cfRule type="containsBlanks" dxfId="503" priority="785">
-      <formula>LEN(TRIM(F39))=0</formula>
+      <formula>LEN(TRIM(N34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="502" priority="786" operator="equal">
       <formula>-3</formula>
@@ -11699,9 +11846,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
+  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
     <cfRule type="containsBlanks" dxfId="489" priority="771">
-      <formula>LEN(TRIM(N34))=0</formula>
+      <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="488" priority="772" operator="equal">
       <formula>-3</formula>
@@ -11744,99 +11891,99 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46">
-    <cfRule type="containsBlanks" dxfId="475" priority="757">
-      <formula>LEN(TRIM(P38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="758" operator="equal">
+  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27">
+    <cfRule type="containsBlanks" dxfId="475" priority="715">
+      <formula>LEN(TRIM(AF24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="716" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="759" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="717" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="760" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="718" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="761" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="719" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="762" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="720" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="763" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="721" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="764" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="722" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="765" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="723" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="766" operator="between">
+    <cfRule type="cellIs" dxfId="466" priority="724" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="767" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="725" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="768" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="726" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="769" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="727" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="770" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="728" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27">
-    <cfRule type="containsBlanks" dxfId="461" priority="701">
-      <formula>LEN(TRIM(AF24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="702" operator="equal">
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="containsBlanks" dxfId="461" priority="659">
+      <formula>LEN(TRIM(AG33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="660" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="661" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="662" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="664" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="665" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="666" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="667" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="668" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="669" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="670" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="671" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="672" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
     <cfRule type="containsBlanks" dxfId="447" priority="645">
-      <formula>LEN(TRIM(AG33))=0</formula>
+      <formula>LEN(TRIM(AG26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="446" priority="646" operator="equal">
       <formula>-3</formula>
@@ -11879,54 +12026,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
-    <cfRule type="containsBlanks" dxfId="433" priority="631">
-      <formula>LEN(TRIM(AG26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="632" operator="equal">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="containsBlanks" dxfId="433" priority="547">
+      <formula>LEN(TRIM(AD33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="548" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="549" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="550" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="553" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="554" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="555" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="640" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="556" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="557" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="558" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="559" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="560" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
+  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
     <cfRule type="containsBlanks" dxfId="419" priority="533">
-      <formula>LEN(TRIM(AD33))=0</formula>
+      <formula>LEN(TRIM(AD26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="418" priority="534" operator="equal">
       <formula>-3</formula>
@@ -11969,54 +12116,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
-    <cfRule type="containsBlanks" dxfId="405" priority="519">
-      <formula>LEN(TRIM(AD26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="520" operator="equal">
+  <conditionalFormatting sqref="E26:E32">
+    <cfRule type="containsBlanks" dxfId="405" priority="603">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="604" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="605" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="606" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="608" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="609" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="610" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="611" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="528" operator="between">
+    <cfRule type="cellIs" dxfId="396" priority="612" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="613" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="614" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="615" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="616" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E32">
+  <conditionalFormatting sqref="AF24:AF27">
     <cfRule type="containsBlanks" dxfId="391" priority="589">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="390" priority="590" operator="equal">
       <formula>-3</formula>
@@ -12059,9 +12206,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF27">
+  <conditionalFormatting sqref="AF23 AB23 AD23">
     <cfRule type="containsBlanks" dxfId="377" priority="575">
-      <formula>LEN(TRIM(AF24))=0</formula>
+      <formula>LEN(TRIM(AB23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="376" priority="576" operator="equal">
       <formula>-3</formula>
@@ -12104,9 +12251,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23 AB23 AD23">
+  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
     <cfRule type="containsBlanks" dxfId="363" priority="561">
-      <formula>LEN(TRIM(AB23))=0</formula>
+      <formula>LEN(TRIM(AC21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="362" priority="562" operator="equal">
       <formula>-3</formula>
@@ -12149,234 +12296,234 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
-    <cfRule type="containsBlanks" dxfId="349" priority="547">
-      <formula>LEN(TRIM(AC21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="548" operator="equal">
+  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
+    <cfRule type="containsBlanks" dxfId="349" priority="463">
+      <formula>LEN(TRIM(AL28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="464" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="465" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="466" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="467" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="468" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="469" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="470" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="471" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="340" priority="472" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="473" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="474" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="475" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="476" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
-    <cfRule type="containsBlanks" dxfId="335" priority="449">
-      <formula>LEN(TRIM(AL28))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="450" operator="equal">
+  <conditionalFormatting sqref="AR33:AR34">
+    <cfRule type="containsBlanks" dxfId="335" priority="435">
+      <formula>LEN(TRIM(AR33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="436" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="437" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="438" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="441" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="443" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="458" operator="between">
+    <cfRule type="cellIs" dxfId="326" priority="444" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="445" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="446" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="447" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="448" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR33:AR34">
-    <cfRule type="containsBlanks" dxfId="321" priority="421">
-      <formula>LEN(TRIM(AR33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="422" operator="equal">
+  <conditionalFormatting sqref="AP33:AP34">
+    <cfRule type="containsBlanks" dxfId="321" priority="141">
+      <formula>LEN(TRIM(AP33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="142" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="143" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="144" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="145" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="146" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="147" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="148" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="149" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="430" operator="between">
+    <cfRule type="cellIs" dxfId="312" priority="150" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="151" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="152" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="153" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="154" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP33:AP34">
-    <cfRule type="containsBlanks" dxfId="307" priority="127">
-      <formula>LEN(TRIM(AP33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="128" operator="equal">
+  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
+    <cfRule type="containsBlanks" dxfId="307" priority="155">
+      <formula>LEN(TRIM(AB26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="156" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="157" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="158" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="160" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="161" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="162" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="163" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="136" operator="between">
+    <cfRule type="cellIs" dxfId="298" priority="164" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="165" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="166" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="167" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="168" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
-    <cfRule type="containsBlanks" dxfId="293" priority="141">
-      <formula>LEN(TRIM(AB26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="142" operator="equal">
+  <conditionalFormatting sqref="F26:F32">
+    <cfRule type="containsBlanks" dxfId="293" priority="323">
+      <formula>LEN(TRIM(F26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="324" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="325" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="326" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="327" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="328" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="329" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="330" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="331" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="284" priority="332" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="333" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F32">
+  <conditionalFormatting sqref="B27 B36 B33 B30">
     <cfRule type="containsBlanks" dxfId="279" priority="309">
-      <formula>LEN(TRIM(F26))=0</formula>
+      <formula>LEN(TRIM(B27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
       <formula>-3</formula>
@@ -12419,9 +12566,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27 B36 B33 B30">
+  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
     <cfRule type="containsBlanks" dxfId="265" priority="295">
-      <formula>LEN(TRIM(B27))=0</formula>
+      <formula>LEN(TRIM(D27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
       <formula>-3</formula>
@@ -12464,9 +12611,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
+  <conditionalFormatting sqref="AG24:AG27">
     <cfRule type="containsBlanks" dxfId="251" priority="281">
-      <formula>LEN(TRIM(D27))=0</formula>
+      <formula>LEN(TRIM(AG24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
       <formula>-3</formula>
@@ -12509,9 +12656,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG27">
+  <conditionalFormatting sqref="AF21:AF27">
     <cfRule type="containsBlanks" dxfId="237" priority="267">
-      <formula>LEN(TRIM(AG24))=0</formula>
+      <formula>LEN(TRIM(AF21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="236" priority="268" operator="equal">
       <formula>-3</formula>
@@ -12554,9 +12701,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21:AF27">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="223" priority="253">
-      <formula>LEN(TRIM(AF21))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="254" operator="equal">
       <formula>-3</formula>
@@ -12599,9 +12746,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="D39">
     <cfRule type="containsBlanks" dxfId="209" priority="239">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
       <formula>-3</formula>
@@ -12644,9 +12791,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="AE33">
     <cfRule type="containsBlanks" dxfId="195" priority="225">
-      <formula>LEN(TRIM(D39))=0</formula>
+      <formula>LEN(TRIM(AE33))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="226" operator="equal">
       <formula>-3</formula>
@@ -12689,9 +12836,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
+  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
     <cfRule type="containsBlanks" dxfId="181" priority="211">
-      <formula>LEN(TRIM(AE33))=0</formula>
+      <formula>LEN(TRIM(AE26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
       <formula>-3</formula>
@@ -12734,99 +12881,99 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
-    <cfRule type="containsBlanks" dxfId="167" priority="197">
-      <formula>LEN(TRIM(AE26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="198" operator="equal">
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="containsBlanks" dxfId="167" priority="169">
+      <formula>LEN(TRIM(AB33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="171" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="172" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="174" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="175" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="176" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="177" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="158" priority="178" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="containsBlanks" dxfId="153" priority="155">
-      <formula>LEN(TRIM(AB33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="156" operator="equal">
+  <conditionalFormatting sqref="C26:C32">
+    <cfRule type="containsBlanks" dxfId="153" priority="197">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="198" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="199" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="200" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="201" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="202" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="203" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="204" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="205" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="144" priority="206" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="207" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="208" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="209" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="210" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C32">
+  <conditionalFormatting sqref="AD24:AD27">
     <cfRule type="containsBlanks" dxfId="139" priority="183">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(AD24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="184" operator="equal">
       <formula>-3</formula>
@@ -12869,54 +13016,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD27">
-    <cfRule type="containsBlanks" dxfId="125" priority="169">
-      <formula>LEN(TRIM(AD24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="170" operator="equal">
+  <conditionalFormatting sqref="O20:O33">
+    <cfRule type="containsBlanks" dxfId="125" priority="99">
+      <formula>LEN(TRIM(O20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="100" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="101" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="102" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="103" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="105" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="178" operator="between">
+    <cfRule type="cellIs" dxfId="116" priority="108" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O33">
+  <conditionalFormatting sqref="O34:O46">
     <cfRule type="containsBlanks" dxfId="111" priority="85">
-      <formula>LEN(TRIM(O20))=0</formula>
+      <formula>LEN(TRIM(O34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
       <formula>-3</formula>
@@ -13004,9 +13151,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O46">
+  <conditionalFormatting sqref="V20:V25">
     <cfRule type="containsBlanks" dxfId="83" priority="57">
-      <formula>LEN(TRIM(O34))=0</formula>
+      <formula>LEN(TRIM(V20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
       <formula>-3</formula>
@@ -13049,9 +13196,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20:V25">
+  <conditionalFormatting sqref="W26:W33 U33:AD33">
     <cfRule type="containsBlanks" dxfId="69" priority="43">
-      <formula>LEN(TRIM(V20))=0</formula>
+      <formula>LEN(TRIM(U26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
       <formula>-3</formula>
@@ -13094,9 +13241,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26:W33">
+  <conditionalFormatting sqref="W34:W46">
     <cfRule type="containsBlanks" dxfId="55" priority="29">
-      <formula>LEN(TRIM(W26))=0</formula>
+      <formula>LEN(TRIM(W34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
       <formula>-3</formula>
@@ -13139,9 +13286,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34:W46">
+  <conditionalFormatting sqref="M33:M37">
     <cfRule type="containsBlanks" dxfId="41" priority="15">
-      <formula>LEN(TRIM(W34))=0</formula>
+      <formula>LEN(TRIM(M33))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
       <formula>-3</formula>
@@ -13184,93 +13331,93 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M37">
-    <cfRule type="containsBlanks" dxfId="27" priority="1">
-      <formula>LEN(TRIM(M33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+  <conditionalFormatting sqref="A20:AT46">
+    <cfRule type="containsBlanks" dxfId="27" priority="967">
+      <formula>LEN(TRIM(A20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="969" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="970" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="971" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="972" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="973" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="974" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="975" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="976" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="977" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="978" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="979" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="980" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="981" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="13" priority="953">
-      <formula>LEN(TRIM(A20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="955" operator="equal">
+  <conditionalFormatting sqref="AA41">
+    <cfRule type="containsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(AA41))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="962" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="963" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="11" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="12" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="967" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C188BBAD-FB8B-44E0-BB05-290C174F720E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AE70A-F2EC-4109-9CBF-02DBE015A429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -7180,7 +7180,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AW32" sqref="AW32"/>
+      <selection activeCell="AV33" sqref="AV33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7507,7 +7507,7 @@
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9247,9 +9247,6 @@
       <c r="L33">
         <v>1</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
       <c r="N33">
         <v>0</v>
       </c>
@@ -9312,9 +9309,6 @@
       </c>
       <c r="AH33">
         <v>1</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
       </c>
       <c r="AJ33">
         <v>0</v>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0AE70A-F2EC-4109-9CBF-02DBE015A429}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E2D5F-4E9E-4F57-9A08-9DAC20625DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -7180,7 +7180,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV33" sqref="AV33"/>
+      <selection activeCell="AV28" sqref="AV28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7368,121 +7368,121 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -7500,14 +7500,14 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>308</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8227,7 +8227,7 @@
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>357</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11026,142 +11026,142 @@
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80E2D5F-4E9E-4F57-9A08-9DAC20625DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5E785-8293-46D8-9805-46CF210C4A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -419,7 +419,3357 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="672">
+  <dxfs count="1022">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -7180,7 +10530,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV28" sqref="AV28"/>
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7368,121 +10718,121 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E20">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="F20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I20">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="J20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M20">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="N20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q20">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="R20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="T20">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="U20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="V20">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="W20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="X20">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="Y20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Z20">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AA20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AB20">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AC20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD20">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="AE20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AH20">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AI20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK20">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AL20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AM20">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -7500,22 +10850,22 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AT20">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="C21">
         <v>-3</v>
@@ -7527,7 +10877,7 @@
         <v>-3</v>
       </c>
       <c r="F21">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="G21">
         <v>-3</v>
@@ -7539,7 +10889,7 @@
         <v>-3</v>
       </c>
       <c r="J21">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="K21">
         <v>-3</v>
@@ -7551,7 +10901,7 @@
         <v>-3</v>
       </c>
       <c r="N21">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="O21">
         <v>-3</v>
@@ -7563,100 +10913,100 @@
         <v>-3</v>
       </c>
       <c r="R21">
+        <v>-3</v>
+      </c>
+      <c r="S21">
+        <v>-3</v>
+      </c>
+      <c r="T21">
+        <v>-3</v>
+      </c>
+      <c r="U21">
+        <v>-3</v>
+      </c>
+      <c r="V21">
+        <v>-3</v>
+      </c>
+      <c r="W21">
+        <v>-3</v>
+      </c>
+      <c r="X21">
+        <v>-3</v>
+      </c>
+      <c r="Y21">
+        <v>-3</v>
+      </c>
+      <c r="Z21">
+        <v>-3</v>
+      </c>
+      <c r="AA21">
+        <v>-3</v>
+      </c>
+      <c r="AB21">
+        <v>-3</v>
+      </c>
+      <c r="AC21">
+        <v>-3</v>
+      </c>
+      <c r="AD21">
+        <v>-3</v>
+      </c>
+      <c r="AE21">
+        <v>-3</v>
+      </c>
+      <c r="AF21">
+        <v>-3</v>
+      </c>
+      <c r="AG21">
+        <v>-3</v>
+      </c>
+      <c r="AH21">
+        <v>-3</v>
+      </c>
+      <c r="AI21">
+        <v>-3</v>
+      </c>
+      <c r="AJ21">
+        <v>-3</v>
+      </c>
+      <c r="AK21">
+        <v>-3</v>
+      </c>
+      <c r="AL21">
+        <v>-3</v>
+      </c>
+      <c r="AM21">
+        <v>-3</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>-2</v>
+      </c>
+      <c r="AP21">
+        <v>-2</v>
+      </c>
+      <c r="AQ21">
+        <v>-2</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>21</v>
       </c>
-      <c r="S21">
-        <v>-3</v>
-      </c>
-      <c r="T21">
-        <v>20</v>
-      </c>
-      <c r="U21">
-        <v>20</v>
-      </c>
-      <c r="V21">
-        <v>20</v>
-      </c>
-      <c r="W21">
-        <v>20</v>
-      </c>
-      <c r="X21">
-        <v>20</v>
-      </c>
-      <c r="Y21">
-        <v>20</v>
-      </c>
-      <c r="Z21">
-        <v>20</v>
-      </c>
-      <c r="AA21">
-        <v>20</v>
-      </c>
-      <c r="AB21">
-        <v>21</v>
-      </c>
-      <c r="AC21">
-        <v>-3</v>
-      </c>
-      <c r="AD21">
-        <v>22</v>
-      </c>
-      <c r="AE21">
-        <v>-3</v>
-      </c>
-      <c r="AF21">
-        <v>-3</v>
-      </c>
-      <c r="AG21">
-        <v>21</v>
-      </c>
-      <c r="AH21">
-        <v>-3</v>
-      </c>
-      <c r="AI21">
-        <v>21</v>
-      </c>
-      <c r="AJ21">
-        <v>-3</v>
-      </c>
-      <c r="AK21">
-        <v>21</v>
-      </c>
-      <c r="AL21">
-        <v>-3</v>
-      </c>
-      <c r="AM21">
-        <v>20</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>-2</v>
-      </c>
-      <c r="AP21">
-        <v>-2</v>
-      </c>
-      <c r="AQ21">
-        <v>-2</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>20</v>
-      </c>
       <c r="AT21">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$24:$AT$50,20)</f>
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B22">
         <v>-3</v>
@@ -7737,10 +11087,10 @@
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AC22">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AD22">
         <v>-3</v>
@@ -7770,7 +11120,7 @@
         <v>-3</v>
       </c>
       <c r="AM22">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -7788,19 +11138,19 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$24:$AT$50,21)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B23">
         <v>-3</v>
@@ -7848,7 +11198,7 @@
         <v>-3</v>
       </c>
       <c r="Q23">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="R23">
         <v>20</v>
@@ -7896,7 +11246,7 @@
         <v>-3</v>
       </c>
       <c r="AG23">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="AH23">
         <v>20</v>
@@ -7944,7 +11294,7 @@
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>-3</v>
@@ -7953,43 +11303,43 @@
         <v>-3</v>
       </c>
       <c r="D24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>-3</v>
       </c>
       <c r="F24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <v>-3</v>
       </c>
       <c r="H24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="I24">
         <v>-3</v>
       </c>
       <c r="J24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="K24">
         <v>-3</v>
       </c>
       <c r="L24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="M24">
         <v>-3</v>
       </c>
       <c r="N24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="O24">
         <v>-3</v>
       </c>
       <c r="P24">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="Q24">
         <v>-3</v>
@@ -8083,60 +11433,60 @@
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$24:$AT$50,23)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="C25">
         <v>-3</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="F25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="I25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="J25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="N25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="O25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="P25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="R25">
         <v>0</v>
@@ -8227,12 +11577,12 @@
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B26">
         <v>-3</v>
@@ -8372,7 +11722,7 @@
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -8480,10 +11830,10 @@
         <v>-2</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM27">
         <v>0</v>
@@ -8512,7 +11862,7 @@
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -8620,13 +11970,13 @@
         <v>-2</v>
       </c>
       <c r="AK28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM28">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN28">
         <v>-2</v>
@@ -9734,7 +13084,7 @@
         <v>-1</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL36">
         <v>-1</v>
@@ -9906,7 +13256,7 @@
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -10014,10 +13364,10 @@
         <v>-1</v>
       </c>
       <c r="AK38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
         <v>-1</v>
@@ -10046,7 +13396,7 @@
     </row>
     <row r="39" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -10154,7 +13504,7 @@
         <v>-1</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL39">
         <v>0</v>
@@ -10186,10 +13536,10 @@
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>-3</v>
       </c>
       <c r="C40">
         <v>-3</v>
@@ -10326,7 +13676,7 @@
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B41">
         <v>-3</v>
@@ -10335,34 +13685,34 @@
         <v>-3</v>
       </c>
       <c r="D41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="F41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="H41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I41">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="J41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K41">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="N41">
         <v>20</v>
@@ -10466,10 +13816,10 @@
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B42">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="C42">
         <v>-3</v>
@@ -10481,7 +13831,7 @@
         <v>-3</v>
       </c>
       <c r="F42">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="G42">
         <v>-3</v>
@@ -10493,7 +13843,7 @@
         <v>-3</v>
       </c>
       <c r="J42">
-        <v>23</v>
+        <v>-3</v>
       </c>
       <c r="K42">
         <v>-3</v>
@@ -10606,7 +13956,7 @@
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B43">
         <v>-3</v>
@@ -10618,7 +13968,7 @@
         <v>-3</v>
       </c>
       <c r="E43">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="F43">
         <v>-3</v>
@@ -10630,7 +13980,7 @@
         <v>-3</v>
       </c>
       <c r="I43">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="J43">
         <v>-3</v>
@@ -10642,10 +13992,10 @@
         <v>-3</v>
       </c>
       <c r="M43">
-        <v>-3</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>22</v>
+        <v>-3</v>
       </c>
       <c r="O43">
         <v>-3</v>
@@ -10654,7 +14004,7 @@
         <v>-3</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R43">
         <v>-3</v>
@@ -10663,7 +14013,7 @@
         <v>-3</v>
       </c>
       <c r="T43">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -10746,7 +14096,7 @@
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B44">
         <v>-3</v>
@@ -10803,7 +14153,7 @@
         <v>-3</v>
       </c>
       <c r="T44">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -10881,12 +14231,12 @@
         <v>0</v>
       </c>
       <c r="AT44">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B45">
         <v>-3</v>
@@ -10943,7 +14293,7 @@
         <v>-3</v>
       </c>
       <c r="T45">
-        <v>20</v>
+        <v>-3</v>
       </c>
       <c r="U45">
         <v>20</v>
@@ -10955,19 +14305,19 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
         <v>0</v>
@@ -10976,192 +14326,192 @@
         <v>0</v>
       </c>
       <c r="AE45">
+        <v>21</v>
+      </c>
+      <c r="AF45">
+        <v>-3</v>
+      </c>
+      <c r="AG45">
+        <v>21</v>
+      </c>
+      <c r="AH45">
+        <v>-3</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
+      </c>
+      <c r="AR45">
+        <v>21</v>
+      </c>
+      <c r="AS45">
+        <v>-3</v>
+      </c>
+      <c r="AT45">
         <v>20</v>
-      </c>
-      <c r="AF45">
-        <v>20</v>
-      </c>
-      <c r="AG45">
-        <v>20</v>
-      </c>
-      <c r="AH45">
-        <v>20</v>
-      </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
-      </c>
-      <c r="AK45">
-        <v>-1</v>
-      </c>
-      <c r="AL45">
-        <v>-1</v>
-      </c>
-      <c r="AM45">
-        <v>-1</v>
-      </c>
-      <c r="AN45">
-        <v>-1</v>
-      </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>20</v>
-      </c>
-      <c r="AS45">
-        <v>20</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="O46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="S46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="U46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="V46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AD46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AE46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AF46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AG46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AH46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AI46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AJ46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AK46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AL46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AM46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AN46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AO46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AP46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AQ46">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AR46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AS46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="AT46">
-        <v>-1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11256,2123 +14606,3248 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H26:H32">
-    <cfRule type="containsBlanks" dxfId="671" priority="953">
+    <cfRule type="containsBlanks" dxfId="1021" priority="1303">
       <formula>LEN(TRIM(H26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="954" operator="equal">
+    <cfRule type="cellIs" dxfId="1020" priority="1304" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="1019" priority="1305" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="1018" priority="1306" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="1017" priority="1307" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="1016" priority="1308" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="1015" priority="1309" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="1014" priority="1310" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="1013" priority="1311" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="962" operator="between">
+    <cfRule type="cellIs" dxfId="1012" priority="1312" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="1011" priority="1313" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="1010" priority="1314" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="1009" priority="1315" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="1008" priority="1316" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
-    <cfRule type="containsBlanks" dxfId="657" priority="939">
+    <cfRule type="containsBlanks" dxfId="1007" priority="1289">
       <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="940" operator="equal">
+    <cfRule type="cellIs" dxfId="1006" priority="1290" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1291" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1292" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="943" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="1293" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1294" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="1295" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="1296" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="1297" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="948" operator="between">
+    <cfRule type="cellIs" dxfId="998" priority="1298" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1299" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1300" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="1301" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="1302" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
-    <cfRule type="containsBlanks" dxfId="643" priority="925">
+    <cfRule type="containsBlanks" dxfId="993" priority="1275">
       <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="926" operator="equal">
+    <cfRule type="cellIs" dxfId="992" priority="1276" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="1277" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="1278" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="1279" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="1280" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="1281" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="1282" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="1283" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="934" operator="between">
+    <cfRule type="cellIs" dxfId="984" priority="1284" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1285" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="1286" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="1287" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="1288" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:E35">
-    <cfRule type="containsBlanks" dxfId="629" priority="911">
+    <cfRule type="containsBlanks" dxfId="979" priority="1261">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="912" operator="equal">
+    <cfRule type="cellIs" dxfId="978" priority="1262" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="1263" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="1264" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="1265" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="1266" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="1267" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="1268" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="1269" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="920" operator="between">
+    <cfRule type="cellIs" dxfId="970" priority="1270" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="1271" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="1272" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1273" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="1274" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:E38">
-    <cfRule type="containsBlanks" dxfId="615" priority="897">
+    <cfRule type="containsBlanks" dxfId="965" priority="1247">
       <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="898" operator="equal">
+    <cfRule type="cellIs" dxfId="964" priority="1248" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1249" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="1250" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1251" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="1252" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="1253" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1254" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1255" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="906" operator="between">
+    <cfRule type="cellIs" dxfId="956" priority="1256" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1257" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="1258" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1259" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1260" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:E32">
-    <cfRule type="containsBlanks" dxfId="601" priority="883">
+    <cfRule type="containsBlanks" dxfId="951" priority="1233">
       <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="884" operator="equal">
+    <cfRule type="cellIs" dxfId="950" priority="1234" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="1235" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="1236" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="1237" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="1238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="1239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1240" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1241" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="892" operator="between">
+    <cfRule type="cellIs" dxfId="942" priority="1242" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="1243" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="1244" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="1245" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="1246" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:F29">
-    <cfRule type="containsBlanks" dxfId="587" priority="869">
+    <cfRule type="containsBlanks" dxfId="937" priority="1219">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="870" operator="equal">
+    <cfRule type="cellIs" dxfId="936" priority="1220" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="871" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="1221" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="872" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1222" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="873" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1223" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="874" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1224" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="875" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1225" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="876" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1226" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="877" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="1227" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="878" operator="between">
+    <cfRule type="cellIs" dxfId="928" priority="1228" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="879" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="1229" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="880" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1230" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="881" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="1231" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="882" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="1232" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI24:AI27">
-    <cfRule type="containsBlanks" dxfId="573" priority="855">
+    <cfRule type="containsBlanks" dxfId="923" priority="1205">
       <formula>LEN(TRIM(AI24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="856" operator="equal">
+    <cfRule type="cellIs" dxfId="922" priority="1206" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="857" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="1207" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="858" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="1208" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="859" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="1209" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="860" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="1210" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="861" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="1211" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="862" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="1212" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="863" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="1213" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="864" operator="between">
+    <cfRule type="cellIs" dxfId="914" priority="1214" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="865" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="1215" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="866" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="1216" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="867" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="1217" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="868" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="1218" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23 AE23 AG23">
-    <cfRule type="containsBlanks" dxfId="559" priority="841">
+    <cfRule type="containsBlanks" dxfId="909" priority="1191">
       <formula>LEN(TRIM(AE23))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="842" operator="equal">
+    <cfRule type="cellIs" dxfId="908" priority="1192" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="1193" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="1194" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="845" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="1195" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="1196" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="847" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="1197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="848" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="1198" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="849" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="1199" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="850" operator="between">
+    <cfRule type="cellIs" dxfId="900" priority="1200" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="851" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="1201" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="852" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="1202" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="853" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="1203" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="854" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="1204" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH27">
-    <cfRule type="containsBlanks" dxfId="545" priority="827">
+    <cfRule type="containsBlanks" dxfId="895" priority="1177">
       <formula>LEN(TRIM(AH21))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="894" priority="1178" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="1179" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="1180" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="1181" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="832" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="1182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="833" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="1183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="1184" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="1185" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="836" operator="between">
+    <cfRule type="cellIs" dxfId="886" priority="1186" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="1187" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="1188" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="1189" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="840" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="1190" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="containsBlanks" dxfId="531" priority="813">
+    <cfRule type="containsBlanks" dxfId="881" priority="1163">
       <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="814" operator="equal">
+    <cfRule type="cellIs" dxfId="880" priority="1164" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="1165" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="1166" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="1167" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="1168" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="1169" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="1170" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="1171" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="872" priority="1172" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="1173" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="1174" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="1175" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="1176" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsBlanks" dxfId="517" priority="799">
+    <cfRule type="containsBlanks" dxfId="867" priority="1149">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="800" operator="equal">
+    <cfRule type="cellIs" dxfId="866" priority="1150" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="801" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="1151" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="802" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="1152" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="803" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="1153" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="804" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="1154" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="805" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="1155" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="806" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="1156" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="807" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="1157" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="808" operator="between">
+    <cfRule type="cellIs" dxfId="858" priority="1158" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="809" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="1159" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="810" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="1160" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="811" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="1161" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="812" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="1162" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
-    <cfRule type="containsBlanks" dxfId="503" priority="785">
+    <cfRule type="containsBlanks" dxfId="853" priority="1135">
       <formula>LEN(TRIM(N34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="786" operator="equal">
+    <cfRule type="cellIs" dxfId="852" priority="1136" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="1137" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="1138" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="1139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="1140" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="1141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="1142" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="1143" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="794" operator="between">
+    <cfRule type="cellIs" dxfId="844" priority="1144" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="1145" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="1146" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="1147" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="1148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
-    <cfRule type="containsBlanks" dxfId="489" priority="771">
+    <cfRule type="containsBlanks" dxfId="839" priority="1121">
       <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="772" operator="equal">
+    <cfRule type="cellIs" dxfId="838" priority="1122" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="773" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="1123" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="774" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="1124" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="775" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="1125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="776" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="1126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="777" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="1127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="778" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="1128" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="779" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="1129" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="780" operator="between">
+    <cfRule type="cellIs" dxfId="830" priority="1130" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="781" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="1131" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="782" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="1132" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="783" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="1133" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="784" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="1134" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27">
-    <cfRule type="containsBlanks" dxfId="475" priority="715">
+  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27 AK27:AL27">
+    <cfRule type="containsBlanks" dxfId="825" priority="1065">
       <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="1066" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="1067" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="1068" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="1069" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="720" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="1070" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="721" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="1071" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="722" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="1072" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="723" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="1073" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="724" operator="between">
+    <cfRule type="cellIs" dxfId="816" priority="1074" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="1075" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="726" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="1076" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="1077" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="728" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="1078" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG33">
-    <cfRule type="containsBlanks" dxfId="461" priority="659">
+    <cfRule type="containsBlanks" dxfId="811" priority="1009">
       <formula>LEN(TRIM(AG33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="1010" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="1011" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="1012" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="1013" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="1014" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="1015" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="1016" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="1017" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="1018" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="1019" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="1020" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="1021" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="1022" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
-    <cfRule type="containsBlanks" dxfId="447" priority="645">
+    <cfRule type="containsBlanks" dxfId="797" priority="995">
       <formula>LEN(TRIM(AG26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="996" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="997" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="998" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="999" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="1000" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="1001" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="1002" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="1003" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="654" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="1004" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="1005" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="1006" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="1007" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="1008" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD33">
-    <cfRule type="containsBlanks" dxfId="433" priority="547">
+    <cfRule type="containsBlanks" dxfId="783" priority="897">
       <formula>LEN(TRIM(AD33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="548" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="898" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="899" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="900" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="901" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="902" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="903" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="904" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="905" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="774" priority="906" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="907" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="908" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="909" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="910" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
-    <cfRule type="containsBlanks" dxfId="419" priority="533">
+    <cfRule type="containsBlanks" dxfId="769" priority="883">
       <formula>LEN(TRIM(AD26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="534" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="884" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="885" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="886" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="887" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="888" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="889" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="890" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="891" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="760" priority="892" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="893" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="894" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="895" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="896" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:E32">
-    <cfRule type="containsBlanks" dxfId="405" priority="603">
+    <cfRule type="containsBlanks" dxfId="755" priority="953">
       <formula>LEN(TRIM(E26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="954" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="955" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="956" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="957" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="958" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="959" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="960" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="961" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="612" operator="between">
+    <cfRule type="cellIs" dxfId="746" priority="962" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="963" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="964" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="965" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="966" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AF27">
-    <cfRule type="containsBlanks" dxfId="391" priority="589">
+    <cfRule type="containsBlanks" dxfId="741" priority="939">
       <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="940" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="941" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="942" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="943" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="944" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="945" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="946" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="947" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="598" operator="between">
+    <cfRule type="cellIs" dxfId="732" priority="948" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="949" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="950" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="951" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="952" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF23 AB23 AD23">
-    <cfRule type="containsBlanks" dxfId="377" priority="575">
+    <cfRule type="containsBlanks" dxfId="727" priority="925">
       <formula>LEN(TRIM(AB23))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="926" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="927" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="928" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="929" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="930" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="931" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="932" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="933" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="718" priority="934" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="935" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="936" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="937" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="938" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
-    <cfRule type="containsBlanks" dxfId="363" priority="561">
+    <cfRule type="containsBlanks" dxfId="713" priority="911">
       <formula>LEN(TRIM(AC21))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="362" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="912" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="913" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="914" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="359" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="915" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="358" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="916" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="917" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="918" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="355" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="919" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="354" priority="570" operator="between">
+    <cfRule type="cellIs" dxfId="704" priority="920" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="921" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="922" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="351" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="923" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="350" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="924" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
-    <cfRule type="containsBlanks" dxfId="349" priority="463">
+    <cfRule type="containsBlanks" dxfId="699" priority="813">
       <formula>LEN(TRIM(AL28))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="348" priority="464" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="814" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="815" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="466" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="816" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="345" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="817" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="344" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="818" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="469" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="819" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="470" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="820" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="341" priority="471" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="821" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="340" priority="472" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="822" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="473" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="823" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="474" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="824" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="337" priority="475" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="825" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="336" priority="476" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="826" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR33:AR34">
-    <cfRule type="containsBlanks" dxfId="335" priority="435">
+    <cfRule type="containsBlanks" dxfId="685" priority="785">
       <formula>LEN(TRIM(AR33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="786" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="333" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="787" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="332" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="788" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="789" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="790" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="329" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="791" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="328" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="792" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="793" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="326" priority="444" operator="between">
+    <cfRule type="cellIs" dxfId="676" priority="794" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="795" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="796" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="323" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="797" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="322" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="798" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP33:AP34">
-    <cfRule type="containsBlanks" dxfId="321" priority="141">
+    <cfRule type="containsBlanks" dxfId="671" priority="491">
       <formula>LEN(TRIM(AP33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="492" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="319" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="493" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="318" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="494" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="495" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="496" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="315" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="497" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="314" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="498" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="499" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="150" operator="between">
+    <cfRule type="cellIs" dxfId="662" priority="500" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="311" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="501" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="310" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="502" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="503" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="504" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
-    <cfRule type="containsBlanks" dxfId="307" priority="155">
+    <cfRule type="containsBlanks" dxfId="657" priority="505">
       <formula>LEN(TRIM(AB26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="306" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="506" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="507" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="508" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="303" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="509" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="302" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="510" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="511" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="512" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="299" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="513" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="298" priority="164" operator="between">
+    <cfRule type="cellIs" dxfId="648" priority="514" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="515" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="516" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="295" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="517" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="294" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="518" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F32">
-    <cfRule type="containsBlanks" dxfId="293" priority="323">
+    <cfRule type="containsBlanks" dxfId="643" priority="673">
       <formula>LEN(TRIM(F26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="292" priority="324" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="674" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="325" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="675" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="676" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="289" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="677" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="288" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="678" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="679" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="286" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="680" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="681" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="332" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="682" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="283" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="683" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="282" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="684" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="685" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="686" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27 B36 B33 B30">
-    <cfRule type="containsBlanks" dxfId="279" priority="309">
+    <cfRule type="containsBlanks" dxfId="629" priority="659">
       <formula>LEN(TRIM(B27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="660" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="661" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="276" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="662" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="275" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="664" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="273" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="665" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="666" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="317" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="667" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="318" operator="between">
+    <cfRule type="cellIs" dxfId="620" priority="668" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="269" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="669" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="670" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="671" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="672" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
-    <cfRule type="containsBlanks" dxfId="265" priority="295">
+    <cfRule type="containsBlanks" dxfId="615" priority="645">
       <formula>LEN(TRIM(D27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="264" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="646" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="647" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="648" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="261" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="649" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="260" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="650" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="651" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="652" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="653" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="304" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="654" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="255" priority="305" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="655" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="254" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="656" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="307" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="657" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="252" priority="308" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="658" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG24:AG27">
-    <cfRule type="containsBlanks" dxfId="251" priority="281">
+    <cfRule type="containsBlanks" dxfId="601" priority="631">
       <formula>LEN(TRIM(AG24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="632" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="633" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="634" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="635" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="246" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="636" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="245" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="637" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="638" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="243" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="639" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="242" priority="290" operator="between">
+    <cfRule type="cellIs" dxfId="592" priority="640" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="641" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="642" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="643" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="644" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF21:AF27">
-    <cfRule type="containsBlanks" dxfId="237" priority="267">
+    <cfRule type="containsBlanks" dxfId="587" priority="617">
       <formula>LEN(TRIM(AF21))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="236" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="618" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="619" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="234" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="620" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="233" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="622" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="623" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="624" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="229" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="625" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="276" operator="between">
+    <cfRule type="cellIs" dxfId="578" priority="626" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="227" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="627" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="628" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="225" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="629" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="224" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="630" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="223" priority="253">
+    <cfRule type="containsBlanks" dxfId="573" priority="603">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="604" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="605" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="220" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="606" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="218" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="608" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="609" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="216" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="610" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="215" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="611" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="262" operator="between">
+    <cfRule type="cellIs" dxfId="564" priority="612" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="613" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="614" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="211" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="615" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="616" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="containsBlanks" dxfId="209" priority="239">
+    <cfRule type="containsBlanks" dxfId="559" priority="589">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="590" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="207" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="591" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="206" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="592" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="593" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="595" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="596" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="201" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="597" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="200" priority="248" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="598" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="599" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="198" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="600" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="197" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="601" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="602" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33">
-    <cfRule type="containsBlanks" dxfId="195" priority="225">
+    <cfRule type="containsBlanks" dxfId="545" priority="575">
       <formula>LEN(TRIM(AE33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="576" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="577" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="192" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="578" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="579" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="189" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="581" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="188" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="582" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="583" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="234" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="584" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="585" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="586" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="587" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="588" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
-    <cfRule type="containsBlanks" dxfId="181" priority="211">
+    <cfRule type="containsBlanks" dxfId="531" priority="561">
       <formula>LEN(TRIM(AE26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="562" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="563" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="564" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="565" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="567" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="568" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="569" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="220" operator="between">
+    <cfRule type="cellIs" dxfId="522" priority="570" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="571" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="572" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="573" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="574" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB33">
-    <cfRule type="containsBlanks" dxfId="167" priority="169">
+    <cfRule type="containsBlanks" dxfId="517" priority="519">
       <formula>LEN(TRIM(AB33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="520" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="521" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="522" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="523" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="524" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="525" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="526" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="527" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="178" operator="between">
+    <cfRule type="cellIs" dxfId="508" priority="528" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="529" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="530" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="531" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="532" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="containsBlanks" dxfId="153" priority="197">
+    <cfRule type="containsBlanks" dxfId="503" priority="547">
       <formula>LEN(TRIM(C26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="548" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="549" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="550" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="553" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="554" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="555" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="206" operator="between">
+    <cfRule type="cellIs" dxfId="494" priority="556" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="557" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="558" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="559" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="560" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD24:AD27">
-    <cfRule type="containsBlanks" dxfId="139" priority="183">
+    <cfRule type="containsBlanks" dxfId="489" priority="533">
       <formula>LEN(TRIM(AD24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="534" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="535" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="536" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="538" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="539" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="540" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="541" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="192" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="542" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="543" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="544" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="545" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="546" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:O33">
-    <cfRule type="containsBlanks" dxfId="125" priority="99">
+    <cfRule type="containsBlanks" dxfId="475" priority="449">
       <formula>LEN(TRIM(O20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="450" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="451" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="452" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="457" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="108" operator="between">
+    <cfRule type="cellIs" dxfId="466" priority="458" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="459" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="460" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="461" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="462" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O46">
-    <cfRule type="containsBlanks" dxfId="111" priority="85">
+    <cfRule type="containsBlanks" dxfId="461" priority="435">
       <formula>LEN(TRIM(O34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="436" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="437" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="438" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="441" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="443" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="94" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="444" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="445" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="446" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="447" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="448" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34:O46">
-    <cfRule type="containsBlanks" dxfId="97" priority="71">
+    <cfRule type="containsBlanks" dxfId="447" priority="421">
       <formula>LEN(TRIM(O34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="422" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="423" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="424" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="425" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="429" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="80" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="430" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="431" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="432" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="433" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V20:V25">
-    <cfRule type="containsBlanks" dxfId="83" priority="57">
+    <cfRule type="containsBlanks" dxfId="433" priority="407">
       <formula>LEN(TRIM(V20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="408" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="409" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="410" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="413" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="414" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="415" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="66" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="416" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="417" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="418" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="419" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="420" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W26:W33 U33:AD33">
-    <cfRule type="containsBlanks" dxfId="69" priority="43">
+    <cfRule type="containsBlanks" dxfId="419" priority="393">
       <formula>LEN(TRIM(U26))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="394" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="395" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="396" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="401" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="52" operator="between">
+    <cfRule type="cellIs" dxfId="410" priority="402" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="403" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="404" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="405" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="406" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W34:W46">
-    <cfRule type="containsBlanks" dxfId="55" priority="29">
+    <cfRule type="containsBlanks" dxfId="405" priority="379">
       <formula>LEN(TRIM(W34))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="380" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="381" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="382" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="385" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="386" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="387" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="396" priority="388" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="389" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="390" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="391" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="392" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:M37">
-    <cfRule type="containsBlanks" dxfId="41" priority="15">
+    <cfRule type="containsBlanks" dxfId="391" priority="365">
       <formula>LEN(TRIM(M33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="366" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="367" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="368" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="369" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="373" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="382" priority="374" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="375" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="376" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="377" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="378" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="27" priority="967">
+    <cfRule type="containsBlanks" dxfId="377" priority="1317">
       <formula>LEN(TRIM(A20))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="969" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="1319" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="970" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="1320" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="971" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="1321" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="972" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="1322" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="973" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="1323" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="974" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="1324" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="975" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="1325" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="976" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="1326" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="977" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="1327" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="978" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="1328" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="979" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="1329" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="980" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="1330" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="981" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="1331" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA41">
+    <cfRule type="containsBlanks" dxfId="363" priority="351">
+      <formula>LEN(TRIM(AA41))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="362" priority="352" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="361" priority="353" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="360" priority="354" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="359" priority="355" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="358" priority="356" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="357" priority="357" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="356" priority="358" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="355" priority="359" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="354" priority="360" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="353" priority="361" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="352" priority="362" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="351" priority="363" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="350" priority="364" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O43">
+    <cfRule type="containsBlanks" dxfId="349" priority="337">
+      <formula>LEN(TRIM(O43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="348" priority="338" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="347" priority="339" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="346" priority="340" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="345" priority="341" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="344" priority="342" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="343" priority="343" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="342" priority="344" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="341" priority="345" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="340" priority="346" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="339" priority="347" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="338" priority="348" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="337" priority="349" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="336" priority="350" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N45">
+    <cfRule type="containsBlanks" dxfId="335" priority="323">
+      <formula>LEN(TRIM(N43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="334" priority="324" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="333" priority="325" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="332" priority="326" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="331" priority="327" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="330" priority="328" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="329" priority="329" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="328" priority="330" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="327" priority="331" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="326" priority="332" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="325" priority="333" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="324" priority="334" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="323" priority="335" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="336" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N45">
+    <cfRule type="containsBlanks" dxfId="321" priority="309">
+      <formula>LEN(TRIM(N43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="320" priority="310" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="319" priority="311" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="312" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="317" priority="313" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="314" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="315" priority="315" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="314" priority="316" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="317" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="318" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="311" priority="319" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="310" priority="320" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="321" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="308" priority="322" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43:R45">
+    <cfRule type="containsBlanks" dxfId="307" priority="295">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="306" priority="296" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="305" priority="297" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="298" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="302" priority="300" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="301" priority="301" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="302" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="299" priority="303" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="304" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="305" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="306" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="307" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="294" priority="308" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43:R45">
+    <cfRule type="containsBlanks" dxfId="293" priority="281">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="282" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="283" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="284" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="285" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="288" priority="286" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="287" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="288" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="289" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="290" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="291" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="282" priority="292" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="293" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="294" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R43">
+    <cfRule type="containsBlanks" dxfId="279" priority="267">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="268" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="269" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="276" priority="270" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="271" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="272" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="273" priority="273" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="272" priority="274" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="275" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="276" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="269" priority="277" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="278" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="279" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="280" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:Q45">
+    <cfRule type="containsBlanks" dxfId="265" priority="253">
+      <formula>LEN(TRIM(Q43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="264" priority="254" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="255" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="256" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="261" priority="257" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="260" priority="258" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="259" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="258" priority="260" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="261" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="262" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="255" priority="263" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="264" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="265" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="252" priority="266" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q43:Q45">
+    <cfRule type="containsBlanks" dxfId="251" priority="239">
+      <formula>LEN(TRIM(Q43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="240" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="249" priority="241" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="242" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="243" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="246" priority="244" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="245" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="246" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="243" priority="247" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="242" priority="248" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="249" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="240" priority="250" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="251" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="252" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:A28">
+    <cfRule type="containsBlanks" dxfId="237" priority="225">
+      <formula>LEN(TRIM(A24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="227" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="234" priority="228" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="233" priority="229" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="230" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="231" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="230" priority="232" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="229" priority="233" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="234" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="227" priority="235" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="236" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="237" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="224" priority="238" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:Q25">
+    <cfRule type="containsBlanks" dxfId="223" priority="211">
+      <formula>LEN(TRIM(B24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="212" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="213" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="220" priority="214" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="215" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="216" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="217" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="216" priority="218" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="215" priority="219" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="220" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="221" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="212" priority="222" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="211" priority="223" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="224" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsBlanks" dxfId="209" priority="197">
+      <formula>LEN(TRIM(B26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="198" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="207" priority="199" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="206" priority="200" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="201" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="204" priority="202" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="203" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="204" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="201" priority="205" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="200" priority="206" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="207" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="198" priority="208" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="197" priority="209" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="210" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27">
+    <cfRule type="containsBlanks" dxfId="195" priority="183">
+      <formula>LEN(TRIM(B27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="184" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="185" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="186" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="191" priority="187" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="188" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="189" priority="189" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="188" priority="190" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="191" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="192" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="193" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="194" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="183" priority="195" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="182" priority="196" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21:T22">
+    <cfRule type="containsBlanks" dxfId="181" priority="169">
+      <formula>LEN(TRIM(Q21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="180" priority="170" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="179" priority="171" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="172" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="173" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="174" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="174" priority="176" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="177" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="178" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="179" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="180" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="181" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="182" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q23:R23">
+    <cfRule type="containsBlanks" dxfId="167" priority="155">
+      <formula>LEN(TRIM(Q23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="156" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="165" priority="157" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="158" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="159" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="160" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="161" priority="161" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="162" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="163" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="164" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="165" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="166" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="167" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="168" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21:AM21">
+    <cfRule type="containsBlanks" dxfId="153" priority="141">
+      <formula>LEN(TRIM(U21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="142" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="143" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="144" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="145" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="146" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="147" priority="147" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="148" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="149" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="150" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="143" priority="151" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="152" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="153" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="154" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB22:AM22">
+    <cfRule type="containsBlanks" dxfId="139" priority="127">
+      <formula>LEN(TRIM(AB22))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="137" priority="129" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="130" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="131" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="131" priority="135" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="136" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="129" priority="137" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="138" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="127" priority="139" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="140" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD23:AH23">
+    <cfRule type="containsBlanks" dxfId="125" priority="113">
+      <formula>LEN(TRIM(AD23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="115" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="116" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="117" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="118" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="121" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="122" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="123" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="124" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="126" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24:AG24">
+    <cfRule type="containsBlanks" dxfId="111" priority="99">
+      <formula>LEN(TRIM(AF24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="101" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="102" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="107" priority="103" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="103" priority="107" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="108" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="109" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="111" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="112" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT21:AT22">
+    <cfRule type="containsBlanks" dxfId="97" priority="85">
+      <formula>LEN(TRIM(AT21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="87" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="88" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="89" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="92" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="93" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="94" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="95" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="96" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="97" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="98" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF20:AF23">
+    <cfRule type="containsBlanks" dxfId="83" priority="71">
+      <formula>LEN(TRIM(AF20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="74" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="75" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="76" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="77" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="78" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="75" priority="79" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="80" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="81" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="71" priority="83" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="84" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK37:AK38">
+    <cfRule type="containsBlanks" dxfId="69" priority="57">
+      <formula>LEN(TRIM(AK37))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="63" priority="63" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="66" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="67" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="70" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28:AM28">
+    <cfRule type="containsBlanks" dxfId="55" priority="43">
+      <formula>LEN(TRIM(AL28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="45" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="47" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="52" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="53" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="55" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="56" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK29:AL29">
+    <cfRule type="containsBlanks" dxfId="41" priority="29">
+      <formula>LEN(TRIM(AK29))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="34" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="38" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="40" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="41" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
+    <cfRule type="containsBlanks" dxfId="27" priority="15">
+      <formula>LEN(TRIM(AK28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="17" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="26" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK28">
     <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(AA41))=0</formula>
+      <formula>LEN(TRIM(AK28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>-3</formula>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF5E785-8293-46D8-9805-46CF210C4A95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465F5BB-4ACC-4168-B7B2-5C989627DEEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -419,7 +419,1615 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1022">
+  <dxfs count="1190">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -10530,7 +12138,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV24" sqref="AV24"/>
+      <selection activeCell="AX34" sqref="AX34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -10817,25 +12425,25 @@
         <v>-3</v>
       </c>
       <c r="AH20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI20">
         <v>-3</v>
       </c>
       <c r="AJ20">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AK20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AM20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO20">
         <v>-2</v>
@@ -10847,17 +12455,17 @@
         <v>-2</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS20">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AT20">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>257</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10967,19 +12575,19 @@
         <v>-3</v>
       </c>
       <c r="AJ21">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AK21">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AM21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO21">
         <v>-2</v>
@@ -10991,17 +12599,17 @@
         <v>-2</v>
       </c>
       <c r="AR21">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS21">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$24:$AT$50,20)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11105,25 +12713,25 @@
         <v>-3</v>
       </c>
       <c r="AH22">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AI22">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AJ22">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AM22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO22">
         <v>-2</v>
@@ -11135,17 +12743,17 @@
         <v>-2</v>
       </c>
       <c r="AR22">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$24:$AT$50,21)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11258,16 +12866,16 @@
         <v>0</v>
       </c>
       <c r="AK23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO23">
         <v>-2</v>
@@ -11279,13 +12887,13 @@
         <v>-2</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY23">
         <f>COUNTIFS($A$24:$AT$50,22)</f>
@@ -11429,7 +13037,7 @@
         <v>-2</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$24:$AT$50,23)</f>
@@ -11573,11 +13181,11 @@
         <v>-2</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11705,7 +13313,7 @@
         <v>-2</v>
       </c>
       <c r="AP26">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AQ26">
         <v>-2</v>
@@ -11717,7 +13325,7 @@
         <v>-2</v>
       </c>
       <c r="AT26">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11836,28 +13444,28 @@
         <v>-2</v>
       </c>
       <c r="AM27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -11970,13 +13578,13 @@
         <v>-2</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28">
         <v>-2</v>
@@ -11997,7 +13605,7 @@
         <v>-2</v>
       </c>
       <c r="AT28">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12137,7 +13745,7 @@
         <v>-2</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12277,7 +13885,7 @@
         <v>-2</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12417,7 +14025,7 @@
         <v>-2</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -12500,7 +14108,7 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <v>-2</v>
@@ -12557,7 +14165,7 @@
         <v>-2</v>
       </c>
       <c r="AT32">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -13799,7 +15407,7 @@
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="AQ41">
         <v>-1</v>
@@ -14222,7 +15830,7 @@
         <v>-1</v>
       </c>
       <c r="AQ44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR44">
         <v>0</v>
@@ -14356,19 +15964,19 @@
         <v>0</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR45">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AT45">
         <v>20</v>
@@ -14606,8 +16214,548 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H26:H32">
+    <cfRule type="containsBlanks" dxfId="1189" priority="1471">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1188" priority="1472" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1187" priority="1473" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1186" priority="1474" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1185" priority="1475" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1184" priority="1476" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1183" priority="1477" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1182" priority="1478" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1181" priority="1479" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1180" priority="1480" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1179" priority="1481" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1178" priority="1482" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1177" priority="1483" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1176" priority="1484" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
+    <cfRule type="containsBlanks" dxfId="1175" priority="1457">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1174" priority="1458" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1173" priority="1459" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1172" priority="1460" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1171" priority="1461" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1170" priority="1462" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1169" priority="1463" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1168" priority="1464" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1167" priority="1465" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1166" priority="1466" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1165" priority="1467" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1164" priority="1468" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1163" priority="1469" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1162" priority="1470" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
+    <cfRule type="containsBlanks" dxfId="1161" priority="1443">
+      <formula>LEN(TRIM(F27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1160" priority="1444" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1159" priority="1445" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1158" priority="1446" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1157" priority="1447" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1156" priority="1448" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1155" priority="1449" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1154" priority="1450" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1153" priority="1451" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1152" priority="1452" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1151" priority="1453" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1150" priority="1454" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1149" priority="1455" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1148" priority="1456" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:E35">
+    <cfRule type="containsBlanks" dxfId="1147" priority="1429">
+      <formula>LEN(TRIM(B34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1146" priority="1430" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1145" priority="1431" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1144" priority="1432" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1143" priority="1433" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1142" priority="1434" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1141" priority="1435" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1140" priority="1436" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1139" priority="1437" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1138" priority="1438" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1137" priority="1439" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1136" priority="1440" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1135" priority="1441" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1134" priority="1442" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E38">
+    <cfRule type="containsBlanks" dxfId="1133" priority="1415">
+      <formula>LEN(TRIM(B37))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1132" priority="1416" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1131" priority="1417" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1130" priority="1418" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1129" priority="1419" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1128" priority="1420" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1127" priority="1421" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1126" priority="1422" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1125" priority="1423" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1124" priority="1424" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1123" priority="1425" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1122" priority="1426" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1121" priority="1427" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1120" priority="1428" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:E32">
+    <cfRule type="containsBlanks" dxfId="1119" priority="1401">
+      <formula>LEN(TRIM(B31))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1118" priority="1402" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1117" priority="1403" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1116" priority="1404" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1115" priority="1405" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1114" priority="1406" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1113" priority="1407" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1112" priority="1408" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1111" priority="1409" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1110" priority="1410" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1109" priority="1411" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1108" priority="1412" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1107" priority="1413" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1106" priority="1414" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:F29">
+    <cfRule type="containsBlanks" dxfId="1105" priority="1387">
+      <formula>LEN(TRIM(B28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1104" priority="1388" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1103" priority="1389" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1102" priority="1390" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1101" priority="1391" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1100" priority="1392" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1099" priority="1393" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1098" priority="1394" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1097" priority="1395" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1096" priority="1396" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1095" priority="1397" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1094" priority="1398" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1093" priority="1399" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1092" priority="1400" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI24:AI27">
+    <cfRule type="containsBlanks" dxfId="1091" priority="1373">
+      <formula>LEN(TRIM(AI24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1090" priority="1374" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1089" priority="1375" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1088" priority="1376" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1087" priority="1377" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1086" priority="1378" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1085" priority="1379" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1084" priority="1380" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1083" priority="1381" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1082" priority="1382" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1081" priority="1383" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1080" priority="1384" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1079" priority="1385" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1078" priority="1386" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI23 AE23 AG23">
+    <cfRule type="containsBlanks" dxfId="1077" priority="1359">
+      <formula>LEN(TRIM(AE23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1076" priority="1360" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1075" priority="1361" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1074" priority="1362" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1073" priority="1363" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1072" priority="1364" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1071" priority="1365" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1070" priority="1366" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1069" priority="1367" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1068" priority="1368" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1067" priority="1369" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1066" priority="1370" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1065" priority="1371" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1064" priority="1372" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21:AH27">
+    <cfRule type="containsBlanks" dxfId="1063" priority="1345">
+      <formula>LEN(TRIM(AH21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1062" priority="1346" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1061" priority="1347" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1060" priority="1348" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1059" priority="1349" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1058" priority="1350" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1057" priority="1351" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1056" priority="1352" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1055" priority="1353" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1054" priority="1354" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1053" priority="1355" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1052" priority="1356" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1051" priority="1357" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1050" priority="1358" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="containsBlanks" dxfId="1049" priority="1331">
+      <formula>LEN(TRIM(G39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1048" priority="1332" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1047" priority="1333" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1046" priority="1334" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1045" priority="1335" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1044" priority="1336" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1043" priority="1337" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1042" priority="1338" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1041" priority="1339" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1040" priority="1340" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1039" priority="1341" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1038" priority="1342" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1037" priority="1343" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1036" priority="1344" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="containsBlanks" dxfId="1035" priority="1317">
+      <formula>LEN(TRIM(F39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1034" priority="1318" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1033" priority="1319" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1032" priority="1320" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1031" priority="1321" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1030" priority="1322" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1029" priority="1323" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1028" priority="1324" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1027" priority="1325" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1026" priority="1326" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1025" priority="1327" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1024" priority="1328" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1023" priority="1329" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1022" priority="1330" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
     <cfRule type="containsBlanks" dxfId="1021" priority="1303">
-      <formula>LEN(TRIM(H26))=0</formula>
+      <formula>LEN(TRIM(N34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1020" priority="1304" operator="equal">
       <formula>-3</formula>
@@ -14650,9 +16798,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
+  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
     <cfRule type="containsBlanks" dxfId="1007" priority="1289">
-      <formula>LEN(TRIM(C27))=0</formula>
+      <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1006" priority="1290" operator="equal">
       <formula>-3</formula>
@@ -14695,2034 +16843,2034 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
-    <cfRule type="containsBlanks" dxfId="993" priority="1275">
-      <formula>LEN(TRIM(F27))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="1276" operator="equal">
+  <conditionalFormatting sqref="AK24:AK27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AO24:AO27 AJ26:AJ27 AK25:AR30 AR20:AT32">
+    <cfRule type="containsBlanks" dxfId="993" priority="1233">
+      <formula>LEN(TRIM(AF20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="992" priority="1234" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1277" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="1235" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="990" priority="1278" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="1236" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="1279" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="1237" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="1280" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="1238" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="1281" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="1239" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="1282" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="1240" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="1283" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="1241" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="1284" operator="between">
+    <cfRule type="cellIs" dxfId="984" priority="1242" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="1285" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1243" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="1286" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="1244" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="1287" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="1245" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1288" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="1246" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E35">
-    <cfRule type="containsBlanks" dxfId="979" priority="1261">
-      <formula>LEN(TRIM(B34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="978" priority="1262" operator="equal">
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="containsBlanks" dxfId="979" priority="1177">
+      <formula>LEN(TRIM(AG33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="978" priority="1178" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="977" priority="1263" operator="equal">
+    <cfRule type="cellIs" dxfId="977" priority="1179" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="976" priority="1264" operator="equal">
+    <cfRule type="cellIs" dxfId="976" priority="1180" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="975" priority="1265" operator="equal">
+    <cfRule type="cellIs" dxfId="975" priority="1181" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="974" priority="1266" operator="equal">
+    <cfRule type="cellIs" dxfId="974" priority="1182" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="973" priority="1267" operator="equal">
+    <cfRule type="cellIs" dxfId="973" priority="1183" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="972" priority="1268" operator="equal">
+    <cfRule type="cellIs" dxfId="972" priority="1184" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="971" priority="1269" operator="equal">
+    <cfRule type="cellIs" dxfId="971" priority="1185" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="970" priority="1270" operator="between">
+    <cfRule type="cellIs" dxfId="970" priority="1186" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="969" priority="1271" operator="equal">
+    <cfRule type="cellIs" dxfId="969" priority="1187" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="968" priority="1272" operator="equal">
+    <cfRule type="cellIs" dxfId="968" priority="1188" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="967" priority="1273" operator="equal">
+    <cfRule type="cellIs" dxfId="967" priority="1189" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="966" priority="1274" operator="equal">
+    <cfRule type="cellIs" dxfId="966" priority="1190" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:E38">
-    <cfRule type="containsBlanks" dxfId="965" priority="1247">
-      <formula>LEN(TRIM(B37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="1248" operator="equal">
+  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
+    <cfRule type="containsBlanks" dxfId="965" priority="1163">
+      <formula>LEN(TRIM(AG26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="1164" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="1249" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1165" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1250" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="1166" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="1251" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1167" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="1252" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="1168" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1253" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="1169" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1254" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1170" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="1255" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1171" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1256" operator="between">
+    <cfRule type="cellIs" dxfId="956" priority="1172" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1257" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1173" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1258" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="1174" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1259" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1175" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="1260" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1176" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E32">
-    <cfRule type="containsBlanks" dxfId="951" priority="1233">
-      <formula>LEN(TRIM(B31))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="950" priority="1234" operator="equal">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="containsBlanks" dxfId="951" priority="1065">
+      <formula>LEN(TRIM(AD33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="950" priority="1066" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="949" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="949" priority="1067" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="948" priority="1236" operator="equal">
+    <cfRule type="cellIs" dxfId="948" priority="1068" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="947" priority="1237" operator="equal">
+    <cfRule type="cellIs" dxfId="947" priority="1069" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="946" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="946" priority="1070" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="945" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="945" priority="1071" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="944" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="944" priority="1072" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="943" priority="1241" operator="equal">
+    <cfRule type="cellIs" dxfId="943" priority="1073" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="942" priority="1242" operator="between">
+    <cfRule type="cellIs" dxfId="942" priority="1074" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="941" priority="1243" operator="equal">
+    <cfRule type="cellIs" dxfId="941" priority="1075" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="940" priority="1244" operator="equal">
+    <cfRule type="cellIs" dxfId="940" priority="1076" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="939" priority="1245" operator="equal">
+    <cfRule type="cellIs" dxfId="939" priority="1077" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="938" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="938" priority="1078" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F29">
-    <cfRule type="containsBlanks" dxfId="937" priority="1219">
-      <formula>LEN(TRIM(B28))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="1220" operator="equal">
+  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
+    <cfRule type="containsBlanks" dxfId="937" priority="1051">
+      <formula>LEN(TRIM(AD26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="936" priority="1052" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="1221" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="1053" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="1222" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1054" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1223" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1055" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1224" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1056" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="1225" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1057" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="1226" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1058" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="1227" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="1059" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="1228" operator="between">
+    <cfRule type="cellIs" dxfId="928" priority="1060" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="1229" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="1061" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="1230" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1062" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="1231" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="1063" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1232" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="1064" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI24:AI27">
-    <cfRule type="containsBlanks" dxfId="923" priority="1205">
-      <formula>LEN(TRIM(AI24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="922" priority="1206" operator="equal">
+  <conditionalFormatting sqref="E26:E32">
+    <cfRule type="containsBlanks" dxfId="923" priority="1121">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="922" priority="1122" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="921" priority="1207" operator="equal">
+    <cfRule type="cellIs" dxfId="921" priority="1123" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="920" priority="1208" operator="equal">
+    <cfRule type="cellIs" dxfId="920" priority="1124" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="919" priority="1209" operator="equal">
+    <cfRule type="cellIs" dxfId="919" priority="1125" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="918" priority="1210" operator="equal">
+    <cfRule type="cellIs" dxfId="918" priority="1126" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="917" priority="1211" operator="equal">
+    <cfRule type="cellIs" dxfId="917" priority="1127" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="916" priority="1212" operator="equal">
+    <cfRule type="cellIs" dxfId="916" priority="1128" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="915" priority="1213" operator="equal">
+    <cfRule type="cellIs" dxfId="915" priority="1129" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="914" priority="1214" operator="between">
+    <cfRule type="cellIs" dxfId="914" priority="1130" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="913" priority="1215" operator="equal">
+    <cfRule type="cellIs" dxfId="913" priority="1131" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="912" priority="1216" operator="equal">
+    <cfRule type="cellIs" dxfId="912" priority="1132" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="911" priority="1217" operator="equal">
+    <cfRule type="cellIs" dxfId="911" priority="1133" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="910" priority="1218" operator="equal">
+    <cfRule type="cellIs" dxfId="910" priority="1134" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23 AE23 AG23">
-    <cfRule type="containsBlanks" dxfId="909" priority="1191">
-      <formula>LEN(TRIM(AE23))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="908" priority="1192" operator="equal">
+  <conditionalFormatting sqref="AF24:AF27">
+    <cfRule type="containsBlanks" dxfId="909" priority="1107">
+      <formula>LEN(TRIM(AF24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="908" priority="1108" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="907" priority="1193" operator="equal">
+    <cfRule type="cellIs" dxfId="907" priority="1109" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="906" priority="1194" operator="equal">
+    <cfRule type="cellIs" dxfId="906" priority="1110" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="905" priority="1195" operator="equal">
+    <cfRule type="cellIs" dxfId="905" priority="1111" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="904" priority="1196" operator="equal">
+    <cfRule type="cellIs" dxfId="904" priority="1112" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="903" priority="1197" operator="equal">
+    <cfRule type="cellIs" dxfId="903" priority="1113" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="902" priority="1198" operator="equal">
+    <cfRule type="cellIs" dxfId="902" priority="1114" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="901" priority="1199" operator="equal">
+    <cfRule type="cellIs" dxfId="901" priority="1115" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="900" priority="1200" operator="between">
+    <cfRule type="cellIs" dxfId="900" priority="1116" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="899" priority="1201" operator="equal">
+    <cfRule type="cellIs" dxfId="899" priority="1117" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="898" priority="1202" operator="equal">
+    <cfRule type="cellIs" dxfId="898" priority="1118" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="897" priority="1203" operator="equal">
+    <cfRule type="cellIs" dxfId="897" priority="1119" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="896" priority="1204" operator="equal">
+    <cfRule type="cellIs" dxfId="896" priority="1120" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH21:AH27">
-    <cfRule type="containsBlanks" dxfId="895" priority="1177">
-      <formula>LEN(TRIM(AH21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="894" priority="1178" operator="equal">
+  <conditionalFormatting sqref="AF23 AB23 AD23">
+    <cfRule type="containsBlanks" dxfId="895" priority="1093">
+      <formula>LEN(TRIM(AB23))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="894" priority="1094" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="893" priority="1179" operator="equal">
+    <cfRule type="cellIs" dxfId="893" priority="1095" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="892" priority="1180" operator="equal">
+    <cfRule type="cellIs" dxfId="892" priority="1096" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="891" priority="1181" operator="equal">
+    <cfRule type="cellIs" dxfId="891" priority="1097" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="890" priority="1182" operator="equal">
+    <cfRule type="cellIs" dxfId="890" priority="1098" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="889" priority="1183" operator="equal">
+    <cfRule type="cellIs" dxfId="889" priority="1099" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="888" priority="1184" operator="equal">
+    <cfRule type="cellIs" dxfId="888" priority="1100" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="887" priority="1185" operator="equal">
+    <cfRule type="cellIs" dxfId="887" priority="1101" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="886" priority="1186" operator="between">
+    <cfRule type="cellIs" dxfId="886" priority="1102" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="885" priority="1187" operator="equal">
+    <cfRule type="cellIs" dxfId="885" priority="1103" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="884" priority="1188" operator="equal">
+    <cfRule type="cellIs" dxfId="884" priority="1104" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="883" priority="1189" operator="equal">
+    <cfRule type="cellIs" dxfId="883" priority="1105" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="882" priority="1190" operator="equal">
+    <cfRule type="cellIs" dxfId="882" priority="1106" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="containsBlanks" dxfId="881" priority="1163">
-      <formula>LEN(TRIM(G39))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="1164" operator="equal">
+  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
+    <cfRule type="containsBlanks" dxfId="881" priority="1079">
+      <formula>LEN(TRIM(AC21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="880" priority="1080" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="1165" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="1081" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1166" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="1082" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="1083" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="1084" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="1085" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="1086" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="1087" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="1172" operator="between">
+    <cfRule type="cellIs" dxfId="872" priority="1088" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="1089" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="1090" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="1091" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="1092" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="containsBlanks" dxfId="867" priority="1149">
-      <formula>LEN(TRIM(F39))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="1150" operator="equal">
+  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
+    <cfRule type="containsBlanks" dxfId="867" priority="981">
+      <formula>LEN(TRIM(AL28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="866" priority="982" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="1151" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="983" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="1152" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="984" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="1153" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="985" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="1154" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="986" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="1155" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="987" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="1156" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="988" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="1157" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="989" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="1158" operator="between">
+    <cfRule type="cellIs" dxfId="858" priority="990" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="1159" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="991" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="1160" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="992" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="1161" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="993" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="1162" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="994" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
-    <cfRule type="containsBlanks" dxfId="853" priority="1135">
-      <formula>LEN(TRIM(N34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="1136" operator="equal">
+  <conditionalFormatting sqref="AR33:AR34">
+    <cfRule type="containsBlanks" dxfId="853" priority="953">
+      <formula>LEN(TRIM(AR33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="852" priority="954" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="1137" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="955" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="1138" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="956" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="1139" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="957" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="1140" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="958" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="1141" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="959" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="1142" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="960" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="1143" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="961" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="1144" operator="between">
+    <cfRule type="cellIs" dxfId="844" priority="962" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="1145" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="963" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="1146" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="964" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="1147" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="965" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="1148" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="966" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
-    <cfRule type="containsBlanks" dxfId="839" priority="1121">
-      <formula>LEN(TRIM(P38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="1122" operator="equal">
+  <conditionalFormatting sqref="AP33:AP34">
+    <cfRule type="containsBlanks" dxfId="839" priority="659">
+      <formula>LEN(TRIM(AP33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="838" priority="660" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="1123" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="661" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="1124" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="662" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="1125" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="663" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="1126" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="664" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="1127" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="665" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="1128" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="666" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="1129" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="667" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="1130" operator="between">
+    <cfRule type="cellIs" dxfId="830" priority="668" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="1131" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="669" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="1132" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="670" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="1133" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="671" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="1134" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="672" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL26:AL27 AK24:AK27 AJ26:AJ27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AN26:AN27 AP26:AP27 AO24:AO27 AK27:AL27">
-    <cfRule type="containsBlanks" dxfId="825" priority="1065">
-      <formula>LEN(TRIM(AF24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="1066" operator="equal">
+  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
+    <cfRule type="containsBlanks" dxfId="825" priority="673">
+      <formula>LEN(TRIM(AB26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="824" priority="674" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="1067" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="675" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="1068" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="676" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="1069" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="677" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="1070" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="678" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="1071" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="679" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="1072" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="680" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="1073" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="681" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="1074" operator="between">
+    <cfRule type="cellIs" dxfId="816" priority="682" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="1075" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="683" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="1076" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="684" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="1077" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="685" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="1078" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="686" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
-    <cfRule type="containsBlanks" dxfId="811" priority="1009">
-      <formula>LEN(TRIM(AG33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="810" priority="1010" operator="equal">
+  <conditionalFormatting sqref="F26:F32">
+    <cfRule type="containsBlanks" dxfId="811" priority="841">
+      <formula>LEN(TRIM(F26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="810" priority="842" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="809" priority="1011" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="843" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="808" priority="1012" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="844" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="807" priority="1013" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="845" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="806" priority="1014" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="846" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="805" priority="1015" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="847" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="804" priority="1016" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="848" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="803" priority="1017" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="849" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="802" priority="1018" operator="between">
+    <cfRule type="cellIs" dxfId="802" priority="850" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="801" priority="1019" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="851" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="800" priority="1020" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="852" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="799" priority="1021" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="853" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="798" priority="1022" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="854" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
-    <cfRule type="containsBlanks" dxfId="797" priority="995">
-      <formula>LEN(TRIM(AG26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="796" priority="996" operator="equal">
+  <conditionalFormatting sqref="B27 B36 B33 B30">
+    <cfRule type="containsBlanks" dxfId="797" priority="827">
+      <formula>LEN(TRIM(B27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="796" priority="828" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="795" priority="997" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="829" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="794" priority="998" operator="equal">
+    <cfRule type="cellIs" dxfId="794" priority="830" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="793" priority="999" operator="equal">
+    <cfRule type="cellIs" dxfId="793" priority="831" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="792" priority="1000" operator="equal">
+    <cfRule type="cellIs" dxfId="792" priority="832" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="791" priority="1001" operator="equal">
+    <cfRule type="cellIs" dxfId="791" priority="833" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="790" priority="1002" operator="equal">
+    <cfRule type="cellIs" dxfId="790" priority="834" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="789" priority="1003" operator="equal">
+    <cfRule type="cellIs" dxfId="789" priority="835" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="788" priority="1004" operator="between">
+    <cfRule type="cellIs" dxfId="788" priority="836" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="787" priority="1005" operator="equal">
+    <cfRule type="cellIs" dxfId="787" priority="837" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="786" priority="1006" operator="equal">
+    <cfRule type="cellIs" dxfId="786" priority="838" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="785" priority="1007" operator="equal">
+    <cfRule type="cellIs" dxfId="785" priority="839" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="784" priority="1008" operator="equal">
+    <cfRule type="cellIs" dxfId="784" priority="840" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
-    <cfRule type="containsBlanks" dxfId="783" priority="897">
-      <formula>LEN(TRIM(AD33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="782" priority="898" operator="equal">
+  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
+    <cfRule type="containsBlanks" dxfId="783" priority="813">
+      <formula>LEN(TRIM(D27))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="782" priority="814" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="781" priority="899" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="815" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="780" priority="900" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="816" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="779" priority="901" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="817" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="778" priority="902" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="818" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="777" priority="903" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="819" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="776" priority="904" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="820" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="775" priority="905" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="821" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="774" priority="906" operator="between">
+    <cfRule type="cellIs" dxfId="774" priority="822" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="773" priority="907" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="823" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="772" priority="908" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="824" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="771" priority="909" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="825" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="770" priority="910" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="826" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
-    <cfRule type="containsBlanks" dxfId="769" priority="883">
-      <formula>LEN(TRIM(AD26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="768" priority="884" operator="equal">
+  <conditionalFormatting sqref="AG24:AG27">
+    <cfRule type="containsBlanks" dxfId="769" priority="799">
+      <formula>LEN(TRIM(AG24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="768" priority="800" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="767" priority="885" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="801" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="766" priority="886" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="802" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="765" priority="887" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="803" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="764" priority="888" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="804" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="763" priority="889" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="805" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="762" priority="890" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="806" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="761" priority="891" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="807" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="760" priority="892" operator="between">
+    <cfRule type="cellIs" dxfId="760" priority="808" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="759" priority="893" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="809" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="758" priority="894" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="810" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="757" priority="895" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="811" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="756" priority="896" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="812" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E32">
-    <cfRule type="containsBlanks" dxfId="755" priority="953">
-      <formula>LEN(TRIM(E26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="754" priority="954" operator="equal">
+  <conditionalFormatting sqref="AF21:AF27">
+    <cfRule type="containsBlanks" dxfId="755" priority="785">
+      <formula>LEN(TRIM(AF21))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="754" priority="786" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="753" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="787" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="752" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="788" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="751" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="789" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="750" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="790" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="749" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="791" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="748" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="792" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="747" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="793" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="746" priority="962" operator="between">
+    <cfRule type="cellIs" dxfId="746" priority="794" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="745" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="795" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="744" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="796" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="743" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="797" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="742" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="798" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF27">
-    <cfRule type="containsBlanks" dxfId="741" priority="939">
-      <formula>LEN(TRIM(AF24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="740" priority="940" operator="equal">
+  <conditionalFormatting sqref="E39">
+    <cfRule type="containsBlanks" dxfId="741" priority="771">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="740" priority="772" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="739" priority="941" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="773" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="738" priority="942" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="774" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="737" priority="943" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="775" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="736" priority="944" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="776" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="735" priority="945" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="777" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="734" priority="946" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="778" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="733" priority="947" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="779" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="732" priority="948" operator="between">
+    <cfRule type="cellIs" dxfId="732" priority="780" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="731" priority="949" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="781" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="730" priority="950" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="782" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="729" priority="951" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="783" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="728" priority="952" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="784" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23 AB23 AD23">
-    <cfRule type="containsBlanks" dxfId="727" priority="925">
-      <formula>LEN(TRIM(AB23))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="726" priority="926" operator="equal">
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsBlanks" dxfId="727" priority="757">
+      <formula>LEN(TRIM(D39))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="726" priority="758" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="725" priority="927" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="759" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="724" priority="928" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="760" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="723" priority="929" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="761" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="722" priority="930" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="762" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="721" priority="931" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="763" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="720" priority="932" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="764" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="719" priority="933" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="765" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="718" priority="934" operator="between">
+    <cfRule type="cellIs" dxfId="718" priority="766" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="717" priority="935" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="767" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="716" priority="936" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="768" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="715" priority="937" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="769" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="714" priority="938" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="770" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
-    <cfRule type="containsBlanks" dxfId="713" priority="911">
-      <formula>LEN(TRIM(AC21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="712" priority="912" operator="equal">
+  <conditionalFormatting sqref="AE33">
+    <cfRule type="containsBlanks" dxfId="713" priority="743">
+      <formula>LEN(TRIM(AE33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="712" priority="744" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="711" priority="913" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="745" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="710" priority="914" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="746" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="709" priority="915" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="747" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="708" priority="916" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="748" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="707" priority="917" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="749" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="706" priority="918" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="750" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="705" priority="919" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="751" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="704" priority="920" operator="between">
+    <cfRule type="cellIs" dxfId="704" priority="752" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="703" priority="921" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="753" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="702" priority="922" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="754" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="701" priority="923" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="755" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="700" priority="924" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="756" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
-    <cfRule type="containsBlanks" dxfId="699" priority="813">
-      <formula>LEN(TRIM(AL28))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="814" operator="equal">
+  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
+    <cfRule type="containsBlanks" dxfId="699" priority="729">
+      <formula>LEN(TRIM(AE26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="730" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="815" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="731" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="816" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="732" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="817" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="733" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="818" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="734" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="819" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="735" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="820" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="736" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="821" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="737" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="822" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="738" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="823" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="739" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="824" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="740" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="825" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="741" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="826" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="742" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR33:AR34">
-    <cfRule type="containsBlanks" dxfId="685" priority="785">
-      <formula>LEN(TRIM(AR33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="786" operator="equal">
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="containsBlanks" dxfId="685" priority="687">
+      <formula>LEN(TRIM(AB33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="688" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="787" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="689" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="788" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="690" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="789" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="691" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="790" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="692" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="791" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="693" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="792" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="694" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="793" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="695" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="794" operator="between">
+    <cfRule type="cellIs" dxfId="676" priority="696" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="795" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="697" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="796" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="698" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="797" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="699" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="798" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="700" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP33:AP34">
-    <cfRule type="containsBlanks" dxfId="671" priority="491">
-      <formula>LEN(TRIM(AP33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="670" priority="492" operator="equal">
+  <conditionalFormatting sqref="C26:C32">
+    <cfRule type="containsBlanks" dxfId="671" priority="715">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="670" priority="716" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="669" priority="493" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="717" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="668" priority="494" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="718" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="667" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="719" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="666" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="720" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="665" priority="497" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="721" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="664" priority="498" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="722" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="663" priority="499" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="723" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="662" priority="500" operator="between">
+    <cfRule type="cellIs" dxfId="662" priority="724" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="661" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="725" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="660" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="726" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="659" priority="503" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="727" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="658" priority="504" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="728" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
-    <cfRule type="containsBlanks" dxfId="657" priority="505">
-      <formula>LEN(TRIM(AB26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="506" operator="equal">
+  <conditionalFormatting sqref="AD24:AD27">
+    <cfRule type="containsBlanks" dxfId="657" priority="701">
+      <formula>LEN(TRIM(AD24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="702" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="703" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="704" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="706" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="511" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="707" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="512" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="708" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="513" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="709" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="514" operator="between">
+    <cfRule type="cellIs" dxfId="648" priority="710" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="515" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="711" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="516" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="712" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="517" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="713" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="518" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="714" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F32">
-    <cfRule type="containsBlanks" dxfId="643" priority="673">
-      <formula>LEN(TRIM(F26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="642" priority="674" operator="equal">
+  <conditionalFormatting sqref="O20:O33">
+    <cfRule type="containsBlanks" dxfId="643" priority="617">
+      <formula>LEN(TRIM(O20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="642" priority="618" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="641" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="619" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="640" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="620" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="639" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="621" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="638" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="622" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="637" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="623" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="636" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="624" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="635" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="625" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="634" priority="682" operator="between">
+    <cfRule type="cellIs" dxfId="634" priority="626" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="633" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="627" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="632" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="628" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="631" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="629" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="630" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="630" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27 B36 B33 B30">
-    <cfRule type="containsBlanks" dxfId="629" priority="659">
-      <formula>LEN(TRIM(B27))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="628" priority="660" operator="equal">
+  <conditionalFormatting sqref="O34:O46">
+    <cfRule type="containsBlanks" dxfId="629" priority="603">
+      <formula>LEN(TRIM(O34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="628" priority="604" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="627" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="605" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="626" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="606" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="625" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="607" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="624" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="608" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="623" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="609" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="622" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="610" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="621" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="611" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="620" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="620" priority="612" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="619" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="613" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="618" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="614" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="617" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="615" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="616" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="616" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
-    <cfRule type="containsBlanks" dxfId="615" priority="645">
-      <formula>LEN(TRIM(D27))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="614" priority="646" operator="equal">
+  <conditionalFormatting sqref="O34:O46">
+    <cfRule type="containsBlanks" dxfId="615" priority="589">
+      <formula>LEN(TRIM(O34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="614" priority="590" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="613" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="591" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="612" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="592" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="611" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="593" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="610" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="594" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="595" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="608" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="596" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="607" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="597" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="606" priority="654" operator="between">
+    <cfRule type="cellIs" dxfId="606" priority="598" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="605" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="599" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="604" priority="656" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="600" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="603" priority="657" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="601" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="602" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="602" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG27">
-    <cfRule type="containsBlanks" dxfId="601" priority="631">
-      <formula>LEN(TRIM(AG24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="600" priority="632" operator="equal">
+  <conditionalFormatting sqref="V20:V25">
+    <cfRule type="containsBlanks" dxfId="601" priority="575">
+      <formula>LEN(TRIM(V20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="600" priority="576" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="599" priority="633" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="577" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="598" priority="634" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="578" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="597" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="579" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="596" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="580" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="595" priority="637" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="581" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="594" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="582" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="593" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="583" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="592" priority="640" operator="between">
+    <cfRule type="cellIs" dxfId="592" priority="584" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="591" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="585" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="590" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="586" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="589" priority="643" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="587" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="588" priority="644" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="588" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21:AF27">
-    <cfRule type="containsBlanks" dxfId="587" priority="617">
-      <formula>LEN(TRIM(AF21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="586" priority="618" operator="equal">
+  <conditionalFormatting sqref="W26:W33 U33:AD33">
+    <cfRule type="containsBlanks" dxfId="587" priority="561">
+      <formula>LEN(TRIM(U26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="586" priority="562" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="585" priority="619" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="563" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="584" priority="620" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="564" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="583" priority="621" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="565" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="582" priority="622" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="566" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="581" priority="623" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="567" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="580" priority="624" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="568" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="579" priority="625" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="569" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="578" priority="626" operator="between">
+    <cfRule type="cellIs" dxfId="578" priority="570" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="577" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="571" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="576" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="572" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="575" priority="629" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="573" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="574" priority="630" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="574" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="containsBlanks" dxfId="573" priority="603">
-      <formula>LEN(TRIM(E39))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="572" priority="604" operator="equal">
+  <conditionalFormatting sqref="W34:W46">
+    <cfRule type="containsBlanks" dxfId="573" priority="547">
+      <formula>LEN(TRIM(W34))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="572" priority="548" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="571" priority="605" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="549" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="570" priority="606" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="550" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="569" priority="607" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="551" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="568" priority="608" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="552" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="567" priority="609" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="553" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="566" priority="610" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="554" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="565" priority="611" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="555" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="564" priority="612" operator="between">
+    <cfRule type="cellIs" dxfId="564" priority="556" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="563" priority="613" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="557" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="562" priority="614" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="558" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="561" priority="615" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="559" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="560" priority="616" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="560" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="containsBlanks" dxfId="559" priority="589">
-      <formula>LEN(TRIM(D39))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="590" operator="equal">
+  <conditionalFormatting sqref="M33:M37">
+    <cfRule type="containsBlanks" dxfId="559" priority="533">
+      <formula>LEN(TRIM(M33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="534" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="591" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="535" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="592" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="536" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="593" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="594" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="538" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="539" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="540" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="597" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="541" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="598" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="542" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="599" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="543" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="600" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="544" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="545" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="546" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
-    <cfRule type="containsBlanks" dxfId="545" priority="575">
-      <formula>LEN(TRIM(AE33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="576" operator="equal">
+  <conditionalFormatting sqref="A20:AT46">
+    <cfRule type="containsBlanks" dxfId="545" priority="1485">
+      <formula>LEN(TRIM(A20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="1487" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="577" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="1488" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="578" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="1489" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="579" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1490" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="580" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="1491" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="1492" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="1493" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="1494" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="584" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="1495" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="585" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="1496" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="586" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="1497" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="587" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="1498" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="588" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="1499" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
-    <cfRule type="containsBlanks" dxfId="531" priority="561">
-      <formula>LEN(TRIM(AE26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="530" priority="562" operator="equal">
+  <conditionalFormatting sqref="AA41">
+    <cfRule type="containsBlanks" dxfId="531" priority="519">
+      <formula>LEN(TRIM(AA41))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="530" priority="520" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="529" priority="563" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="521" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="528" priority="564" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="522" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="527" priority="565" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="523" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="526" priority="566" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="524" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="525" priority="567" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="525" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="524" priority="568" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="526" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="523" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="527" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="522" priority="570" operator="between">
+    <cfRule type="cellIs" dxfId="522" priority="528" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="521" priority="571" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="529" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="520" priority="572" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="530" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="519" priority="573" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="531" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="518" priority="574" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="532" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="containsBlanks" dxfId="517" priority="519">
-      <formula>LEN(TRIM(AB33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="516" priority="520" operator="equal">
+  <conditionalFormatting sqref="O43">
+    <cfRule type="containsBlanks" dxfId="517" priority="505">
+      <formula>LEN(TRIM(O43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="516" priority="506" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="515" priority="521" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="507" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="514" priority="522" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="508" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="513" priority="523" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="509" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="524" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="510" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="511" priority="525" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="511" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="510" priority="526" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="512" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="509" priority="527" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="513" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="508" priority="528" operator="between">
+    <cfRule type="cellIs" dxfId="508" priority="514" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="507" priority="529" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="515" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="506" priority="530" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="516" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="505" priority="531" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="517" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="504" priority="532" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="518" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C32">
-    <cfRule type="containsBlanks" dxfId="503" priority="547">
-      <formula>LEN(TRIM(C26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="502" priority="548" operator="equal">
+  <conditionalFormatting sqref="N43:N45">
+    <cfRule type="containsBlanks" dxfId="503" priority="491">
+      <formula>LEN(TRIM(N43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="502" priority="492" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="501" priority="549" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="493" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="500" priority="550" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="494" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="499" priority="551" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="495" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="498" priority="552" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="496" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="497" priority="553" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="497" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="496" priority="554" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="498" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="495" priority="555" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="499" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="494" priority="556" operator="between">
+    <cfRule type="cellIs" dxfId="494" priority="500" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="493" priority="557" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="501" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="492" priority="558" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="502" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="491" priority="559" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="503" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="490" priority="560" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="504" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD27">
-    <cfRule type="containsBlanks" dxfId="489" priority="533">
-      <formula>LEN(TRIM(AD24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="488" priority="534" operator="equal">
+  <conditionalFormatting sqref="N43:N45">
+    <cfRule type="containsBlanks" dxfId="489" priority="477">
+      <formula>LEN(TRIM(N43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="488" priority="478" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="487" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="479" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="486" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="480" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="485" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="481" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="484" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="482" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="483" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="483" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="482" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="484" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="481" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="485" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="480" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="480" priority="486" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="479" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="487" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="478" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="488" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="477" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="489" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="476" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="490" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O33">
-    <cfRule type="containsBlanks" dxfId="475" priority="449">
-      <formula>LEN(TRIM(O20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="474" priority="450" operator="equal">
+  <conditionalFormatting sqref="R43:R45">
+    <cfRule type="containsBlanks" dxfId="475" priority="463">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="474" priority="464" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="473" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="465" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="472" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="466" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="471" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="467" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="470" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="468" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="455" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="469" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="468" priority="456" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="470" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="467" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="471" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="466" priority="458" operator="between">
+    <cfRule type="cellIs" dxfId="466" priority="472" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="465" priority="459" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="473" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="464" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="474" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="463" priority="461" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="475" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="462" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="476" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O46">
-    <cfRule type="containsBlanks" dxfId="461" priority="435">
-      <formula>LEN(TRIM(O34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="460" priority="436" operator="equal">
+  <conditionalFormatting sqref="R43:R45">
+    <cfRule type="containsBlanks" dxfId="461" priority="449">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="460" priority="450" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="459" priority="437" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="451" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="458" priority="438" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="452" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="457" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="453" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="456" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="454" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="455" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="455" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="454" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="456" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="453" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="457" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="452" priority="444" operator="between">
+    <cfRule type="cellIs" dxfId="452" priority="458" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="451" priority="445" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="459" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="450" priority="446" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="460" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="449" priority="447" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="461" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="448" priority="448" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="462" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O46">
-    <cfRule type="containsBlanks" dxfId="447" priority="421">
-      <formula>LEN(TRIM(O34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="446" priority="422" operator="equal">
+  <conditionalFormatting sqref="R43">
+    <cfRule type="containsBlanks" dxfId="447" priority="435">
+      <formula>LEN(TRIM(R43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="446" priority="436" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="445" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="437" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="444" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="438" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="443" priority="425" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="439" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="442" priority="426" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="440" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="441" priority="427" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="441" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="440" priority="428" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="442" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="439" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="443" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="438" priority="430" operator="between">
+    <cfRule type="cellIs" dxfId="438" priority="444" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="437" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="445" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="436" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="446" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="435" priority="433" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="447" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="434" priority="434" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="448" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20:V25">
-    <cfRule type="containsBlanks" dxfId="433" priority="407">
-      <formula>LEN(TRIM(V20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="432" priority="408" operator="equal">
+  <conditionalFormatting sqref="Q43:Q45">
+    <cfRule type="containsBlanks" dxfId="433" priority="421">
+      <formula>LEN(TRIM(Q43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="432" priority="422" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="431" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="423" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="430" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="424" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="429" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="425" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="428" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="426" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="427" priority="413" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="427" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="426" priority="414" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="428" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="425" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="429" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="424" priority="416" operator="between">
+    <cfRule type="cellIs" dxfId="424" priority="430" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="423" priority="417" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="431" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="422" priority="418" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="432" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="421" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="433" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="420" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="434" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26:W33 U33:AD33">
-    <cfRule type="containsBlanks" dxfId="419" priority="393">
-      <formula>LEN(TRIM(U26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="418" priority="394" operator="equal">
+  <conditionalFormatting sqref="Q43:Q45">
+    <cfRule type="containsBlanks" dxfId="419" priority="407">
+      <formula>LEN(TRIM(Q43))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="418" priority="408" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="417" priority="395" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="409" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="416" priority="396" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="410" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="415" priority="397" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="411" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="414" priority="398" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="412" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="413" priority="399" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="413" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="412" priority="400" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="414" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="411" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="415" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="410" priority="402" operator="between">
+    <cfRule type="cellIs" dxfId="410" priority="416" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="409" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="417" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="408" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="418" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="407" priority="405" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="419" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="406" priority="406" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="420" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34:W46">
-    <cfRule type="containsBlanks" dxfId="405" priority="379">
-      <formula>LEN(TRIM(W34))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="404" priority="380" operator="equal">
+  <conditionalFormatting sqref="A24:A28">
+    <cfRule type="containsBlanks" dxfId="405" priority="393">
+      <formula>LEN(TRIM(A24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="404" priority="394" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="403" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="395" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="402" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="396" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="401" priority="383" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="397" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="400" priority="384" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="398" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="399" priority="385" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="399" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="398" priority="386" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="400" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="397" priority="387" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="401" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="396" priority="388" operator="between">
+    <cfRule type="cellIs" dxfId="396" priority="402" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="395" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="403" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="394" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="404" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="393" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="405" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="392" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="406" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M37">
-    <cfRule type="containsBlanks" dxfId="391" priority="365">
-      <formula>LEN(TRIM(M33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="390" priority="366" operator="equal">
+  <conditionalFormatting sqref="B24:Q25">
+    <cfRule type="containsBlanks" dxfId="391" priority="379">
+      <formula>LEN(TRIM(B24))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="390" priority="380" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="389" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="381" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="388" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="382" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="387" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="383" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="386" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="384" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="385" priority="371" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="385" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="384" priority="372" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="386" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="383" priority="373" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="387" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="382" priority="374" operator="between">
+    <cfRule type="cellIs" dxfId="382" priority="388" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="381" priority="375" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="389" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="380" priority="376" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="390" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="379" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="391" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="378" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="392" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="377" priority="1317">
-      <formula>LEN(TRIM(A20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="1319" operator="equal">
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsBlanks" dxfId="377" priority="365">
+      <formula>LEN(TRIM(B26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="376" priority="366" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="375" priority="1320" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="367" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="374" priority="1321" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="368" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="1322" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="369" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="1323" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="370" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="371" priority="1324" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="371" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="370" priority="1325" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="372" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="1326" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="373" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="1327" operator="between">
+    <cfRule type="cellIs" dxfId="368" priority="374" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="367" priority="1328" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="375" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="366" priority="1329" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="376" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="1330" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="377" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="1331" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="378" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA41">
+  <conditionalFormatting sqref="B27">
     <cfRule type="containsBlanks" dxfId="363" priority="351">
-      <formula>LEN(TRIM(AA41))=0</formula>
+      <formula>LEN(TRIM(B27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="362" priority="352" operator="equal">
       <formula>-3</formula>
@@ -16765,9 +18913,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="Q21:T22">
     <cfRule type="containsBlanks" dxfId="349" priority="337">
-      <formula>LEN(TRIM(O43))=0</formula>
+      <formula>LEN(TRIM(Q21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="348" priority="338" operator="equal">
       <formula>-3</formula>
@@ -16810,9 +18958,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N45">
+  <conditionalFormatting sqref="Q23:R23">
     <cfRule type="containsBlanks" dxfId="335" priority="323">
-      <formula>LEN(TRIM(N43))=0</formula>
+      <formula>LEN(TRIM(Q23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="334" priority="324" operator="equal">
       <formula>-3</formula>
@@ -16855,9 +19003,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N45">
+  <conditionalFormatting sqref="U21:AM21">
     <cfRule type="containsBlanks" dxfId="321" priority="309">
-      <formula>LEN(TRIM(N43))=0</formula>
+      <formula>LEN(TRIM(U21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="320" priority="310" operator="equal">
       <formula>-3</formula>
@@ -16900,9 +19048,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:R45">
+  <conditionalFormatting sqref="AB22:AM22">
     <cfRule type="containsBlanks" dxfId="307" priority="295">
-      <formula>LEN(TRIM(R43))=0</formula>
+      <formula>LEN(TRIM(AB22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="306" priority="296" operator="equal">
       <formula>-3</formula>
@@ -16945,9 +19093,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:R45">
+  <conditionalFormatting sqref="AD23:AH23">
     <cfRule type="containsBlanks" dxfId="293" priority="281">
-      <formula>LEN(TRIM(R43))=0</formula>
+      <formula>LEN(TRIM(AD23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="292" priority="282" operator="equal">
       <formula>-3</formula>
@@ -16990,9 +19138,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43">
+  <conditionalFormatting sqref="AF24:AG24">
     <cfRule type="containsBlanks" dxfId="279" priority="267">
-      <formula>LEN(TRIM(R43))=0</formula>
+      <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="278" priority="268" operator="equal">
       <formula>-3</formula>
@@ -17035,9 +19183,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q45">
+  <conditionalFormatting sqref="AT21:AT22">
     <cfRule type="containsBlanks" dxfId="265" priority="253">
-      <formula>LEN(TRIM(Q43))=0</formula>
+      <formula>LEN(TRIM(AT21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="264" priority="254" operator="equal">
       <formula>-3</formula>
@@ -17080,9 +19228,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q45">
+  <conditionalFormatting sqref="AF20:AF23">
     <cfRule type="containsBlanks" dxfId="251" priority="239">
-      <formula>LEN(TRIM(Q43))=0</formula>
+      <formula>LEN(TRIM(AF20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="240" operator="equal">
       <formula>-3</formula>
@@ -17125,9 +19273,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A28">
+  <conditionalFormatting sqref="AK37:AK38">
     <cfRule type="containsBlanks" dxfId="237" priority="225">
-      <formula>LEN(TRIM(A24))=0</formula>
+      <formula>LEN(TRIM(AK37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
       <formula>-3</formula>
@@ -17170,9 +19318,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:Q25">
+  <conditionalFormatting sqref="AL28:AM28">
     <cfRule type="containsBlanks" dxfId="223" priority="211">
-      <formula>LEN(TRIM(B24))=0</formula>
+      <formula>LEN(TRIM(AL28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="212" operator="equal">
       <formula>-3</formula>
@@ -17215,9 +19363,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="AK29:AL29">
     <cfRule type="containsBlanks" dxfId="209" priority="197">
-      <formula>LEN(TRIM(B26))=0</formula>
+      <formula>LEN(TRIM(AK29))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="208" priority="198" operator="equal">
       <formula>-3</formula>
@@ -17260,9 +19408,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="AK28">
     <cfRule type="containsBlanks" dxfId="195" priority="183">
-      <formula>LEN(TRIM(B27))=0</formula>
+      <formula>LEN(TRIM(AK28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="194" priority="184" operator="equal">
       <formula>-3</formula>
@@ -17305,9 +19453,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:T22">
+  <conditionalFormatting sqref="AK28">
     <cfRule type="containsBlanks" dxfId="181" priority="169">
-      <formula>LEN(TRIM(Q21))=0</formula>
+      <formula>LEN(TRIM(AK28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="180" priority="170" operator="equal">
       <formula>-3</formula>
@@ -17350,9 +19498,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:R23">
+  <conditionalFormatting sqref="AP25">
     <cfRule type="containsBlanks" dxfId="167" priority="155">
-      <formula>LEN(TRIM(Q23))=0</formula>
+      <formula>LEN(TRIM(AP25))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="156" operator="equal">
       <formula>-3</formula>
@@ -17395,9 +19543,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21:AM21">
+  <conditionalFormatting sqref="AA32">
     <cfRule type="containsBlanks" dxfId="153" priority="141">
-      <formula>LEN(TRIM(U21))=0</formula>
+      <formula>LEN(TRIM(AA32))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="152" priority="142" operator="equal">
       <formula>-3</formula>
@@ -17440,9 +19588,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AM22">
+  <conditionalFormatting sqref="AP41">
     <cfRule type="containsBlanks" dxfId="139" priority="127">
-      <formula>LEN(TRIM(AB22))=0</formula>
+      <formula>LEN(TRIM(AP41))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
       <formula>-3</formula>
@@ -17485,9 +19633,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD23:AH23">
+  <conditionalFormatting sqref="AS27">
     <cfRule type="containsBlanks" dxfId="125" priority="113">
-      <formula>LEN(TRIM(AD23))=0</formula>
+      <formula>LEN(TRIM(AS27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
       <formula>-3</formula>
@@ -17530,9 +19678,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AG24">
+  <conditionalFormatting sqref="AH20:AI21">
     <cfRule type="containsBlanks" dxfId="111" priority="99">
-      <formula>LEN(TRIM(AF24))=0</formula>
+      <formula>LEN(TRIM(AH20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
       <formula>-3</formula>
@@ -17575,9 +19723,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT21:AT22">
+  <conditionalFormatting sqref="AH22">
     <cfRule type="containsBlanks" dxfId="97" priority="85">
-      <formula>LEN(TRIM(AT21))=0</formula>
+      <formula>LEN(TRIM(AH22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>-3</formula>
@@ -17620,9 +19768,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF20:AF23">
+  <conditionalFormatting sqref="AI22">
     <cfRule type="containsBlanks" dxfId="83" priority="71">
-      <formula>LEN(TRIM(AF20))=0</formula>
+      <formula>LEN(TRIM(AI22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="82" priority="72" operator="equal">
       <formula>-3</formula>
@@ -17665,9 +19813,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK37:AK38">
+  <conditionalFormatting sqref="AI22">
     <cfRule type="containsBlanks" dxfId="69" priority="57">
-      <formula>LEN(TRIM(AK37))=0</formula>
+      <formula>LEN(TRIM(AI22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
       <formula>-3</formula>
@@ -17710,9 +19858,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28:AM28">
+  <conditionalFormatting sqref="AJ20">
     <cfRule type="containsBlanks" dxfId="55" priority="43">
-      <formula>LEN(TRIM(AL28))=0</formula>
+      <formula>LEN(TRIM(AJ20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="54" priority="44" operator="equal">
       <formula>-3</formula>
@@ -17755,9 +19903,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK29:AL29">
+  <conditionalFormatting sqref="AJ20">
     <cfRule type="containsBlanks" dxfId="41" priority="29">
-      <formula>LEN(TRIM(AK29))=0</formula>
+      <formula>LEN(TRIM(AJ20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>-3</formula>
@@ -17800,9 +19948,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
+  <conditionalFormatting sqref="AJ21">
     <cfRule type="containsBlanks" dxfId="27" priority="15">
-      <formula>LEN(TRIM(AK28))=0</formula>
+      <formula>LEN(TRIM(AJ21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="26" priority="16" operator="equal">
       <formula>-3</formula>
@@ -17845,9 +19993,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
+  <conditionalFormatting sqref="AJ21">
     <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(AK28))=0</formula>
+      <formula>LEN(TRIM(AJ21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>-3</formula>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\TeamProject\Project\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A465F5BB-4ACC-4168-B7B2-5C989627DEEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE9BE64-5D75-4006-A065-74DF7D2083F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -419,7 +419,141 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1190">
+  <dxfs count="1204">
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF80FF21"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF80FF21"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFE7E7"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE7E7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFE8F2E2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE8F2E2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="5"/>
@@ -12138,7 +12272,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AX34" sqref="AX34"/>
+      <selection activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -15267,7 +15401,7 @@
         <v>-1</v>
       </c>
       <c r="AP40">
-        <v>-1</v>
+        <v>99</v>
       </c>
       <c r="AQ40">
         <v>-1</v>
@@ -15407,7 +15541,7 @@
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>99</v>
+        <v>-1</v>
       </c>
       <c r="AQ41">
         <v>-1</v>
@@ -16214,8 +16348,53 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="H26:H32">
+    <cfRule type="containsBlanks" dxfId="1203" priority="1485">
+      <formula>LEN(TRIM(H26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1202" priority="1486" operator="equal">
+      <formula>-3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1201" priority="1487" operator="equal">
+      <formula>-2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1200" priority="1488" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1199" priority="1489" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1198" priority="1490" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1197" priority="1491" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1196" priority="1492" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1195" priority="1493" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1194" priority="1494" operator="between">
+      <formula>20</formula>
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1193" priority="1495" operator="equal">
+      <formula>90</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1192" priority="1496" operator="equal">
+      <formula>91</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1191" priority="1497" operator="equal">
+      <formula>98</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1190" priority="1498" operator="equal">
+      <formula>99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
     <cfRule type="containsBlanks" dxfId="1189" priority="1471">
-      <formula>LEN(TRIM(H26))=0</formula>
+      <formula>LEN(TRIM(C27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1188" priority="1472" operator="equal">
       <formula>-3</formula>
@@ -16258,9 +16437,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:D27 C36:D36 C33:D33 C30:D30">
+  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
     <cfRule type="containsBlanks" dxfId="1175" priority="1457">
-      <formula>LEN(TRIM(C27))=0</formula>
+      <formula>LEN(TRIM(F27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1174" priority="1458" operator="equal">
       <formula>-3</formula>
@@ -16303,9 +16482,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:G27 F30:G38 G28:G29">
+  <conditionalFormatting sqref="B34:E35">
     <cfRule type="containsBlanks" dxfId="1161" priority="1443">
-      <formula>LEN(TRIM(F27))=0</formula>
+      <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1160" priority="1444" operator="equal">
       <formula>-3</formula>
@@ -16348,9 +16527,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:E35">
+  <conditionalFormatting sqref="B37:E38">
     <cfRule type="containsBlanks" dxfId="1147" priority="1429">
-      <formula>LEN(TRIM(B34))=0</formula>
+      <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1146" priority="1430" operator="equal">
       <formula>-3</formula>
@@ -16393,9 +16572,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37:E38">
+  <conditionalFormatting sqref="B31:E32">
     <cfRule type="containsBlanks" dxfId="1133" priority="1415">
-      <formula>LEN(TRIM(B37))=0</formula>
+      <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1132" priority="1416" operator="equal">
       <formula>-3</formula>
@@ -16438,9 +16617,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B31:E32">
+  <conditionalFormatting sqref="B28:F29">
     <cfRule type="containsBlanks" dxfId="1119" priority="1401">
-      <formula>LEN(TRIM(B31))=0</formula>
+      <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1118" priority="1402" operator="equal">
       <formula>-3</formula>
@@ -16483,9 +16662,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28:F29">
+  <conditionalFormatting sqref="AI24:AI27">
     <cfRule type="containsBlanks" dxfId="1105" priority="1387">
-      <formula>LEN(TRIM(B28))=0</formula>
+      <formula>LEN(TRIM(AI24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1104" priority="1388" operator="equal">
       <formula>-3</formula>
@@ -16528,9 +16707,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI24:AI27">
+  <conditionalFormatting sqref="AI23 AE23 AG23">
     <cfRule type="containsBlanks" dxfId="1091" priority="1373">
-      <formula>LEN(TRIM(AI24))=0</formula>
+      <formula>LEN(TRIM(AE23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1090" priority="1374" operator="equal">
       <formula>-3</formula>
@@ -16573,9 +16752,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23 AE23 AG23">
+  <conditionalFormatting sqref="AH21:AH27">
     <cfRule type="containsBlanks" dxfId="1077" priority="1359">
-      <formula>LEN(TRIM(AE23))=0</formula>
+      <formula>LEN(TRIM(AH21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1076" priority="1360" operator="equal">
       <formula>-3</formula>
@@ -16618,9 +16797,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH21:AH27">
+  <conditionalFormatting sqref="G39">
     <cfRule type="containsBlanks" dxfId="1063" priority="1345">
-      <formula>LEN(TRIM(AH21))=0</formula>
+      <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1062" priority="1346" operator="equal">
       <formula>-3</formula>
@@ -16663,9 +16842,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="F39">
     <cfRule type="containsBlanks" dxfId="1049" priority="1331">
-      <formula>LEN(TRIM(G39))=0</formula>
+      <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1048" priority="1332" operator="equal">
       <formula>-3</formula>
@@ -16708,9 +16887,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
     <cfRule type="containsBlanks" dxfId="1035" priority="1317">
-      <formula>LEN(TRIM(F39))=0</formula>
+      <formula>LEN(TRIM(N34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1034" priority="1318" operator="equal">
       <formula>-3</formula>
@@ -16753,9 +16932,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI34:AI43 Q34:Q40 AC42:AD42 R34:R41 AF34:AG43 N34:N40 AD34:AD43 P37:P41 Y44:AD46 AD42:AH43 AB34:AH39 P37:Q37 Y41:AC42">
+  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
     <cfRule type="containsBlanks" dxfId="1021" priority="1303">
-      <formula>LEN(TRIM(N34))=0</formula>
+      <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1020" priority="1304" operator="equal">
       <formula>-3</formula>
@@ -16798,99 +16977,99 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U38:U40 R42:R43 AA39 AB39:AB42 S38:S40 X38:AB38 T38 P42:P43 Z43:AD46 Z39:Z42 Y40:Y46 AA42:AA46 Y41:Z41">
-    <cfRule type="containsBlanks" dxfId="1007" priority="1289">
-      <formula>LEN(TRIM(P38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1006" priority="1290" operator="equal">
+  <conditionalFormatting sqref="AK24:AK27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AO24:AO27 AJ26:AJ27 AK25:AR30 AR20:AT32">
+    <cfRule type="containsBlanks" dxfId="1007" priority="1247">
+      <formula>LEN(TRIM(AF20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1006" priority="1248" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1005" priority="1291" operator="equal">
+    <cfRule type="cellIs" dxfId="1005" priority="1249" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1004" priority="1292" operator="equal">
+    <cfRule type="cellIs" dxfId="1004" priority="1250" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1003" priority="1293" operator="equal">
+    <cfRule type="cellIs" dxfId="1003" priority="1251" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1002" priority="1294" operator="equal">
+    <cfRule type="cellIs" dxfId="1002" priority="1252" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1001" priority="1295" operator="equal">
+    <cfRule type="cellIs" dxfId="1001" priority="1253" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1000" priority="1296" operator="equal">
+    <cfRule type="cellIs" dxfId="1000" priority="1254" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="999" priority="1297" operator="equal">
+    <cfRule type="cellIs" dxfId="999" priority="1255" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="998" priority="1298" operator="between">
+    <cfRule type="cellIs" dxfId="998" priority="1256" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="997" priority="1299" operator="equal">
+    <cfRule type="cellIs" dxfId="997" priority="1257" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="996" priority="1300" operator="equal">
+    <cfRule type="cellIs" dxfId="996" priority="1258" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="995" priority="1301" operator="equal">
+    <cfRule type="cellIs" dxfId="995" priority="1259" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="994" priority="1302" operator="equal">
+    <cfRule type="cellIs" dxfId="994" priority="1260" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK24:AK27 AF24:AF27 AH24:AI27 AG25:AG27 AM24:AM27 AO24:AO27 AJ26:AJ27 AK25:AR30 AR20:AT32">
-    <cfRule type="containsBlanks" dxfId="993" priority="1233">
-      <formula>LEN(TRIM(AF20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="992" priority="1234" operator="equal">
+  <conditionalFormatting sqref="AG33">
+    <cfRule type="containsBlanks" dxfId="993" priority="1191">
+      <formula>LEN(TRIM(AG33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="992" priority="1192" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="991" priority="1235" operator="equal">
+    <cfRule type="cellIs" dxfId="991" priority="1193" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="990" priority="1236" operator="equal">
+    <cfRule type="cellIs" dxfId="990" priority="1194" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="989" priority="1237" operator="equal">
+    <cfRule type="cellIs" dxfId="989" priority="1195" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="988" priority="1238" operator="equal">
+    <cfRule type="cellIs" dxfId="988" priority="1196" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="987" priority="1239" operator="equal">
+    <cfRule type="cellIs" dxfId="987" priority="1197" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="986" priority="1240" operator="equal">
+    <cfRule type="cellIs" dxfId="986" priority="1198" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="985" priority="1241" operator="equal">
+    <cfRule type="cellIs" dxfId="985" priority="1199" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="984" priority="1242" operator="between">
+    <cfRule type="cellIs" dxfId="984" priority="1200" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="983" priority="1243" operator="equal">
+    <cfRule type="cellIs" dxfId="983" priority="1201" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="982" priority="1244" operator="equal">
+    <cfRule type="cellIs" dxfId="982" priority="1202" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="981" priority="1245" operator="equal">
+    <cfRule type="cellIs" dxfId="981" priority="1203" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="980" priority="1246" operator="equal">
+    <cfRule type="cellIs" dxfId="980" priority="1204" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG33">
+  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
     <cfRule type="containsBlanks" dxfId="979" priority="1177">
-      <formula>LEN(TRIM(AG33))=0</formula>
+      <formula>LEN(TRIM(AG26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="978" priority="1178" operator="equal">
       <formula>-3</formula>
@@ -16933,54 +17112,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG26:AG27 AG29:AG32">
-    <cfRule type="containsBlanks" dxfId="965" priority="1163">
-      <formula>LEN(TRIM(AG26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="964" priority="1164" operator="equal">
+  <conditionalFormatting sqref="AD33">
+    <cfRule type="containsBlanks" dxfId="965" priority="1079">
+      <formula>LEN(TRIM(AD33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="964" priority="1080" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="963" priority="1165" operator="equal">
+    <cfRule type="cellIs" dxfId="963" priority="1081" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="962" priority="1166" operator="equal">
+    <cfRule type="cellIs" dxfId="962" priority="1082" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="961" priority="1167" operator="equal">
+    <cfRule type="cellIs" dxfId="961" priority="1083" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="960" priority="1168" operator="equal">
+    <cfRule type="cellIs" dxfId="960" priority="1084" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="959" priority="1169" operator="equal">
+    <cfRule type="cellIs" dxfId="959" priority="1085" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="958" priority="1170" operator="equal">
+    <cfRule type="cellIs" dxfId="958" priority="1086" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="957" priority="1171" operator="equal">
+    <cfRule type="cellIs" dxfId="957" priority="1087" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="956" priority="1172" operator="between">
+    <cfRule type="cellIs" dxfId="956" priority="1088" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="955" priority="1173" operator="equal">
+    <cfRule type="cellIs" dxfId="955" priority="1089" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="954" priority="1174" operator="equal">
+    <cfRule type="cellIs" dxfId="954" priority="1090" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="953" priority="1175" operator="equal">
+    <cfRule type="cellIs" dxfId="953" priority="1091" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="952" priority="1176" operator="equal">
+    <cfRule type="cellIs" dxfId="952" priority="1092" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD33">
+  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
     <cfRule type="containsBlanks" dxfId="951" priority="1065">
-      <formula>LEN(TRIM(AD33))=0</formula>
+      <formula>LEN(TRIM(AD26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="950" priority="1066" operator="equal">
       <formula>-3</formula>
@@ -17023,54 +17202,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD26:AD27 AD29:AD32">
-    <cfRule type="containsBlanks" dxfId="937" priority="1051">
-      <formula>LEN(TRIM(AD26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="936" priority="1052" operator="equal">
+  <conditionalFormatting sqref="E26:E32">
+    <cfRule type="containsBlanks" dxfId="937" priority="1135">
+      <formula>LEN(TRIM(E26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="936" priority="1136" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="935" priority="1053" operator="equal">
+    <cfRule type="cellIs" dxfId="935" priority="1137" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="934" priority="1054" operator="equal">
+    <cfRule type="cellIs" dxfId="934" priority="1138" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="933" priority="1055" operator="equal">
+    <cfRule type="cellIs" dxfId="933" priority="1139" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="932" priority="1056" operator="equal">
+    <cfRule type="cellIs" dxfId="932" priority="1140" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="931" priority="1057" operator="equal">
+    <cfRule type="cellIs" dxfId="931" priority="1141" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="930" priority="1058" operator="equal">
+    <cfRule type="cellIs" dxfId="930" priority="1142" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="929" priority="1059" operator="equal">
+    <cfRule type="cellIs" dxfId="929" priority="1143" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="928" priority="1060" operator="between">
+    <cfRule type="cellIs" dxfId="928" priority="1144" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="927" priority="1061" operator="equal">
+    <cfRule type="cellIs" dxfId="927" priority="1145" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="926" priority="1062" operator="equal">
+    <cfRule type="cellIs" dxfId="926" priority="1146" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="925" priority="1063" operator="equal">
+    <cfRule type="cellIs" dxfId="925" priority="1147" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="924" priority="1064" operator="equal">
+    <cfRule type="cellIs" dxfId="924" priority="1148" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E32">
+  <conditionalFormatting sqref="AF24:AF27">
     <cfRule type="containsBlanks" dxfId="923" priority="1121">
-      <formula>LEN(TRIM(E26))=0</formula>
+      <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="922" priority="1122" operator="equal">
       <formula>-3</formula>
@@ -17113,9 +17292,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AF27">
+  <conditionalFormatting sqref="AF23 AB23 AD23">
     <cfRule type="containsBlanks" dxfId="909" priority="1107">
-      <formula>LEN(TRIM(AF24))=0</formula>
+      <formula>LEN(TRIM(AB23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="908" priority="1108" operator="equal">
       <formula>-3</formula>
@@ -17158,9 +17337,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF23 AB23 AD23">
+  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
     <cfRule type="containsBlanks" dxfId="895" priority="1093">
-      <formula>LEN(TRIM(AB23))=0</formula>
+      <formula>LEN(TRIM(AC21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="894" priority="1094" operator="equal">
       <formula>-3</formula>
@@ -17203,234 +17382,234 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE21:AE27 AC21:AC27 AD21:AH21">
-    <cfRule type="containsBlanks" dxfId="881" priority="1079">
-      <formula>LEN(TRIM(AC21))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="880" priority="1080" operator="equal">
+  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
+    <cfRule type="containsBlanks" dxfId="881" priority="995">
+      <formula>LEN(TRIM(AL28))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="880" priority="996" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="879" priority="1081" operator="equal">
+    <cfRule type="cellIs" dxfId="879" priority="997" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="878" priority="1082" operator="equal">
+    <cfRule type="cellIs" dxfId="878" priority="998" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="877" priority="1083" operator="equal">
+    <cfRule type="cellIs" dxfId="877" priority="999" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="876" priority="1084" operator="equal">
+    <cfRule type="cellIs" dxfId="876" priority="1000" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="875" priority="1085" operator="equal">
+    <cfRule type="cellIs" dxfId="875" priority="1001" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="874" priority="1086" operator="equal">
+    <cfRule type="cellIs" dxfId="874" priority="1002" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="873" priority="1087" operator="equal">
+    <cfRule type="cellIs" dxfId="873" priority="1003" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="872" priority="1088" operator="between">
+    <cfRule type="cellIs" dxfId="872" priority="1004" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="871" priority="1089" operator="equal">
+    <cfRule type="cellIs" dxfId="871" priority="1005" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="870" priority="1090" operator="equal">
+    <cfRule type="cellIs" dxfId="870" priority="1006" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="869" priority="1091" operator="equal">
+    <cfRule type="cellIs" dxfId="869" priority="1007" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="868" priority="1092" operator="equal">
+    <cfRule type="cellIs" dxfId="868" priority="1008" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28 AN28 AR28 AP28">
-    <cfRule type="containsBlanks" dxfId="867" priority="981">
-      <formula>LEN(TRIM(AL28))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="866" priority="982" operator="equal">
+  <conditionalFormatting sqref="AR33:AR34">
+    <cfRule type="containsBlanks" dxfId="867" priority="967">
+      <formula>LEN(TRIM(AR33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="866" priority="968" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="865" priority="983" operator="equal">
+    <cfRule type="cellIs" dxfId="865" priority="969" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="864" priority="984" operator="equal">
+    <cfRule type="cellIs" dxfId="864" priority="970" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="863" priority="985" operator="equal">
+    <cfRule type="cellIs" dxfId="863" priority="971" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="862" priority="986" operator="equal">
+    <cfRule type="cellIs" dxfId="862" priority="972" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="861" priority="987" operator="equal">
+    <cfRule type="cellIs" dxfId="861" priority="973" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="860" priority="988" operator="equal">
+    <cfRule type="cellIs" dxfId="860" priority="974" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="859" priority="989" operator="equal">
+    <cfRule type="cellIs" dxfId="859" priority="975" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="858" priority="990" operator="between">
+    <cfRule type="cellIs" dxfId="858" priority="976" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="857" priority="991" operator="equal">
+    <cfRule type="cellIs" dxfId="857" priority="977" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="856" priority="992" operator="equal">
+    <cfRule type="cellIs" dxfId="856" priority="978" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="855" priority="993" operator="equal">
+    <cfRule type="cellIs" dxfId="855" priority="979" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="854" priority="994" operator="equal">
+    <cfRule type="cellIs" dxfId="854" priority="980" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR33:AR34">
-    <cfRule type="containsBlanks" dxfId="853" priority="953">
-      <formula>LEN(TRIM(AR33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="852" priority="954" operator="equal">
+  <conditionalFormatting sqref="AP33:AP34">
+    <cfRule type="containsBlanks" dxfId="853" priority="673">
+      <formula>LEN(TRIM(AP33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="852" priority="674" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="851" priority="955" operator="equal">
+    <cfRule type="cellIs" dxfId="851" priority="675" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="850" priority="956" operator="equal">
+    <cfRule type="cellIs" dxfId="850" priority="676" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="849" priority="957" operator="equal">
+    <cfRule type="cellIs" dxfId="849" priority="677" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="848" priority="958" operator="equal">
+    <cfRule type="cellIs" dxfId="848" priority="678" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="847" priority="959" operator="equal">
+    <cfRule type="cellIs" dxfId="847" priority="679" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="846" priority="960" operator="equal">
+    <cfRule type="cellIs" dxfId="846" priority="680" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="845" priority="961" operator="equal">
+    <cfRule type="cellIs" dxfId="845" priority="681" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="844" priority="962" operator="between">
+    <cfRule type="cellIs" dxfId="844" priority="682" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="843" priority="963" operator="equal">
+    <cfRule type="cellIs" dxfId="843" priority="683" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="842" priority="964" operator="equal">
+    <cfRule type="cellIs" dxfId="842" priority="684" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="841" priority="965" operator="equal">
+    <cfRule type="cellIs" dxfId="841" priority="685" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="840" priority="966" operator="equal">
+    <cfRule type="cellIs" dxfId="840" priority="686" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP33:AP34">
-    <cfRule type="containsBlanks" dxfId="839" priority="659">
-      <formula>LEN(TRIM(AP33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="838" priority="660" operator="equal">
+  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
+    <cfRule type="containsBlanks" dxfId="839" priority="687">
+      <formula>LEN(TRIM(AB26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="838" priority="688" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="837" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="837" priority="689" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="836" priority="662" operator="equal">
+    <cfRule type="cellIs" dxfId="836" priority="690" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="835" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="691" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="834" priority="664" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="692" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="833" priority="665" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="693" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="832" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="694" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="831" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="695" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="830" priority="668" operator="between">
+    <cfRule type="cellIs" dxfId="830" priority="696" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="829" priority="669" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="697" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="828" priority="670" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="698" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="827" priority="671" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="699" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="826" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="700" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB26:AB27 AB29:AB32">
-    <cfRule type="containsBlanks" dxfId="825" priority="673">
-      <formula>LEN(TRIM(AB26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="824" priority="674" operator="equal">
+  <conditionalFormatting sqref="F26:F32">
+    <cfRule type="containsBlanks" dxfId="825" priority="855">
+      <formula>LEN(TRIM(F26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="824" priority="856" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="823" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="857" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="822" priority="676" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="858" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="821" priority="677" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="859" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="820" priority="678" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="860" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="819" priority="679" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="861" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="818" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="862" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="817" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="863" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="816" priority="682" operator="between">
+    <cfRule type="cellIs" dxfId="816" priority="864" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="815" priority="683" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="865" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="814" priority="684" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="866" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="813" priority="685" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="867" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="812" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="868" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:F32">
+  <conditionalFormatting sqref="B27 B36 B33 B30">
     <cfRule type="containsBlanks" dxfId="811" priority="841">
-      <formula>LEN(TRIM(F26))=0</formula>
+      <formula>LEN(TRIM(B27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="810" priority="842" operator="equal">
       <formula>-3</formula>
@@ -17473,9 +17652,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27 B36 B33 B30">
+  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
     <cfRule type="containsBlanks" dxfId="797" priority="827">
-      <formula>LEN(TRIM(B27))=0</formula>
+      <formula>LEN(TRIM(D27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="796" priority="828" operator="equal">
       <formula>-3</formula>
@@ -17518,9 +17697,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27:E27 D30:E38 E28:E29">
+  <conditionalFormatting sqref="AG24:AG27">
     <cfRule type="containsBlanks" dxfId="783" priority="813">
-      <formula>LEN(TRIM(D27))=0</formula>
+      <formula>LEN(TRIM(AG24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="782" priority="814" operator="equal">
       <formula>-3</formula>
@@ -17563,9 +17742,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG24:AG27">
+  <conditionalFormatting sqref="AF21:AF27">
     <cfRule type="containsBlanks" dxfId="769" priority="799">
-      <formula>LEN(TRIM(AG24))=0</formula>
+      <formula>LEN(TRIM(AF21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="768" priority="800" operator="equal">
       <formula>-3</formula>
@@ -17608,9 +17787,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF21:AF27">
+  <conditionalFormatting sqref="E39">
     <cfRule type="containsBlanks" dxfId="755" priority="785">
-      <formula>LEN(TRIM(AF21))=0</formula>
+      <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="754" priority="786" operator="equal">
       <formula>-3</formula>
@@ -17653,9 +17832,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
+  <conditionalFormatting sqref="D39">
     <cfRule type="containsBlanks" dxfId="741" priority="771">
-      <formula>LEN(TRIM(E39))=0</formula>
+      <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="740" priority="772" operator="equal">
       <formula>-3</formula>
@@ -17698,9 +17877,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
+  <conditionalFormatting sqref="AE33">
     <cfRule type="containsBlanks" dxfId="727" priority="757">
-      <formula>LEN(TRIM(D39))=0</formula>
+      <formula>LEN(TRIM(AE33))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="726" priority="758" operator="equal">
       <formula>-3</formula>
@@ -17743,9 +17922,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE33">
+  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
     <cfRule type="containsBlanks" dxfId="713" priority="743">
-      <formula>LEN(TRIM(AE33))=0</formula>
+      <formula>LEN(TRIM(AE26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="712" priority="744" operator="equal">
       <formula>-3</formula>
@@ -17788,99 +17967,99 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE26:AE27 AE29:AE32">
-    <cfRule type="containsBlanks" dxfId="699" priority="729">
-      <formula>LEN(TRIM(AE26))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="698" priority="730" operator="equal">
+  <conditionalFormatting sqref="AB33">
+    <cfRule type="containsBlanks" dxfId="699" priority="701">
+      <formula>LEN(TRIM(AB33))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="698" priority="702" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="697" priority="731" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="703" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="696" priority="732" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="704" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="695" priority="733" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="705" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="694" priority="734" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="706" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="693" priority="735" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="707" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="692" priority="736" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="708" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="691" priority="737" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="709" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="690" priority="738" operator="between">
+    <cfRule type="cellIs" dxfId="690" priority="710" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="689" priority="739" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="711" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="688" priority="740" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="712" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="687" priority="741" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="713" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="686" priority="742" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="714" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="containsBlanks" dxfId="685" priority="687">
-      <formula>LEN(TRIM(AB33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="684" priority="688" operator="equal">
+  <conditionalFormatting sqref="C26:C32">
+    <cfRule type="containsBlanks" dxfId="685" priority="729">
+      <formula>LEN(TRIM(C26))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="684" priority="730" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="683" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="731" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="682" priority="690" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="732" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="681" priority="691" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="733" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="680" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="734" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="679" priority="693" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="735" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="678" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="736" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="677" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="737" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="676" priority="696" operator="between">
+    <cfRule type="cellIs" dxfId="676" priority="738" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="675" priority="697" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="739" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="674" priority="698" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="740" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="673" priority="699" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="741" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="672" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="742" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C32">
+  <conditionalFormatting sqref="AD24:AD27">
     <cfRule type="containsBlanks" dxfId="671" priority="715">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(AD24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="670" priority="716" operator="equal">
       <formula>-3</formula>
@@ -17923,54 +18102,54 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD24:AD27">
-    <cfRule type="containsBlanks" dxfId="657" priority="701">
-      <formula>LEN(TRIM(AD24))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="656" priority="702" operator="equal">
+  <conditionalFormatting sqref="O20:O33">
+    <cfRule type="containsBlanks" dxfId="657" priority="631">
+      <formula>LEN(TRIM(O20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="656" priority="632" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="655" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="633" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="654" priority="704" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="634" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="653" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="635" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="652" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="636" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="651" priority="707" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="637" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="650" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="638" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="649" priority="709" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="639" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="648" priority="710" operator="between">
+    <cfRule type="cellIs" dxfId="648" priority="640" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="647" priority="711" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="641" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="646" priority="712" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="642" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="645" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="643" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="644" priority="714" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="644" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O33">
+  <conditionalFormatting sqref="O34:O46">
     <cfRule type="containsBlanks" dxfId="643" priority="617">
-      <formula>LEN(TRIM(O20))=0</formula>
+      <formula>LEN(TRIM(O34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="642" priority="618" operator="equal">
       <formula>-3</formula>
@@ -18058,9 +18237,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O46">
+  <conditionalFormatting sqref="V20:V25">
     <cfRule type="containsBlanks" dxfId="615" priority="589">
-      <formula>LEN(TRIM(O34))=0</formula>
+      <formula>LEN(TRIM(V20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="614" priority="590" operator="equal">
       <formula>-3</formula>
@@ -18103,9 +18282,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20:V25">
+  <conditionalFormatting sqref="W26:W33 U33:AD33">
     <cfRule type="containsBlanks" dxfId="601" priority="575">
-      <formula>LEN(TRIM(V20))=0</formula>
+      <formula>LEN(TRIM(U26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="600" priority="576" operator="equal">
       <formula>-3</formula>
@@ -18148,9 +18327,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W26:W33 U33:AD33">
+  <conditionalFormatting sqref="W34:W46">
     <cfRule type="containsBlanks" dxfId="587" priority="561">
-      <formula>LEN(TRIM(U26))=0</formula>
+      <formula>LEN(TRIM(W34))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="586" priority="562" operator="equal">
       <formula>-3</formula>
@@ -18193,9 +18372,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W34:W46">
+  <conditionalFormatting sqref="M33:M37">
     <cfRule type="containsBlanks" dxfId="573" priority="547">
-      <formula>LEN(TRIM(W34))=0</formula>
+      <formula>LEN(TRIM(M33))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="572" priority="548" operator="equal">
       <formula>-3</formula>
@@ -18238,99 +18417,99 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M33:M37">
-    <cfRule type="containsBlanks" dxfId="559" priority="533">
-      <formula>LEN(TRIM(M33))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="558" priority="534" operator="equal">
+  <conditionalFormatting sqref="A20:AT46">
+    <cfRule type="containsBlanks" dxfId="559" priority="1499">
+      <formula>LEN(TRIM(A20))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="558" priority="1501" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="557" priority="535" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="1502" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="556" priority="536" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="1503" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="555" priority="537" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="1504" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="554" priority="538" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="1505" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="553" priority="539" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="1506" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="552" priority="540" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="1507" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="551" priority="541" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="1508" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="550" priority="542" operator="between">
+    <cfRule type="cellIs" dxfId="550" priority="1509" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="549" priority="543" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="1510" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="548" priority="544" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="1511" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="547" priority="545" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1512" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="546" priority="546" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="1513" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A20:AT46">
-    <cfRule type="containsBlanks" dxfId="545" priority="1485">
-      <formula>LEN(TRIM(A20))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="544" priority="1487" operator="equal">
+  <conditionalFormatting sqref="AA41">
+    <cfRule type="containsBlanks" dxfId="545" priority="533">
+      <formula>LEN(TRIM(AA41))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="544" priority="534" operator="equal">
       <formula>-3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="543" priority="1488" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="535" operator="equal">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="542" priority="1489" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="536" operator="equal">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="541" priority="1490" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="537" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="540" priority="1491" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="538" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="539" priority="1492" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="539" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="538" priority="1493" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="540" operator="equal">
       <formula>3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="537" priority="1494" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="541" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="536" priority="1495" operator="between">
+    <cfRule type="cellIs" dxfId="536" priority="542" operator="between">
       <formula>20</formula>
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="535" priority="1496" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="543" operator="equal">
       <formula>90</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="534" priority="1497" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="544" operator="equal">
       <formula>91</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="533" priority="1498" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="545" operator="equal">
       <formula>98</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="532" priority="1499" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="546" operator="equal">
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA41">
+  <conditionalFormatting sqref="O43">
     <cfRule type="containsBlanks" dxfId="531" priority="519">
-      <formula>LEN(TRIM(AA41))=0</formula>
+      <formula>LEN(TRIM(O43))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="530" priority="520" operator="equal">
       <formula>-3</formula>
@@ -18373,9 +18552,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="N43:N45">
     <cfRule type="containsBlanks" dxfId="517" priority="505">
-      <formula>LEN(TRIM(O43))=0</formula>
+      <formula>LEN(TRIM(N43))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="516" priority="506" operator="equal">
       <formula>-3</formula>
@@ -18463,9 +18642,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N45">
+  <conditionalFormatting sqref="R43:R45">
     <cfRule type="containsBlanks" dxfId="489" priority="477">
-      <formula>LEN(TRIM(N43))=0</formula>
+      <formula>LEN(TRIM(R43))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="488" priority="478" operator="equal">
       <formula>-3</formula>
@@ -18553,7 +18732,7 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43:R45">
+  <conditionalFormatting sqref="R43">
     <cfRule type="containsBlanks" dxfId="461" priority="449">
       <formula>LEN(TRIM(R43))=0</formula>
     </cfRule>
@@ -18598,9 +18777,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R43">
+  <conditionalFormatting sqref="Q43:Q45">
     <cfRule type="containsBlanks" dxfId="447" priority="435">
-      <formula>LEN(TRIM(R43))=0</formula>
+      <formula>LEN(TRIM(Q43))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="446" priority="436" operator="equal">
       <formula>-3</formula>
@@ -18688,9 +18867,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q43:Q45">
+  <conditionalFormatting sqref="A24:A28">
     <cfRule type="containsBlanks" dxfId="419" priority="407">
-      <formula>LEN(TRIM(Q43))=0</formula>
+      <formula>LEN(TRIM(A24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="418" priority="408" operator="equal">
       <formula>-3</formula>
@@ -18733,9 +18912,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:A28">
+  <conditionalFormatting sqref="B24:Q25">
     <cfRule type="containsBlanks" dxfId="405" priority="393">
-      <formula>LEN(TRIM(A24))=0</formula>
+      <formula>LEN(TRIM(B24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="404" priority="394" operator="equal">
       <formula>-3</formula>
@@ -18778,9 +18957,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B24:Q25">
+  <conditionalFormatting sqref="B26:C26">
     <cfRule type="containsBlanks" dxfId="391" priority="379">
-      <formula>LEN(TRIM(B24))=0</formula>
+      <formula>LEN(TRIM(B26))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="390" priority="380" operator="equal">
       <formula>-3</formula>
@@ -18823,9 +19002,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B26:C26">
+  <conditionalFormatting sqref="B27">
     <cfRule type="containsBlanks" dxfId="377" priority="365">
-      <formula>LEN(TRIM(B26))=0</formula>
+      <formula>LEN(TRIM(B27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="376" priority="366" operator="equal">
       <formula>-3</formula>
@@ -18868,9 +19047,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27">
+  <conditionalFormatting sqref="Q21:T22">
     <cfRule type="containsBlanks" dxfId="363" priority="351">
-      <formula>LEN(TRIM(B27))=0</formula>
+      <formula>LEN(TRIM(Q21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="362" priority="352" operator="equal">
       <formula>-3</formula>
@@ -18913,9 +19092,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q21:T22">
+  <conditionalFormatting sqref="Q23:R23">
     <cfRule type="containsBlanks" dxfId="349" priority="337">
-      <formula>LEN(TRIM(Q21))=0</formula>
+      <formula>LEN(TRIM(Q23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="348" priority="338" operator="equal">
       <formula>-3</formula>
@@ -18958,9 +19137,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q23:R23">
+  <conditionalFormatting sqref="U21:AM21">
     <cfRule type="containsBlanks" dxfId="335" priority="323">
-      <formula>LEN(TRIM(Q23))=0</formula>
+      <formula>LEN(TRIM(U21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="334" priority="324" operator="equal">
       <formula>-3</formula>
@@ -19003,9 +19182,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U21:AM21">
+  <conditionalFormatting sqref="AB22:AM22">
     <cfRule type="containsBlanks" dxfId="321" priority="309">
-      <formula>LEN(TRIM(U21))=0</formula>
+      <formula>LEN(TRIM(AB22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="320" priority="310" operator="equal">
       <formula>-3</formula>
@@ -19048,9 +19227,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB22:AM22">
+  <conditionalFormatting sqref="AD23:AH23">
     <cfRule type="containsBlanks" dxfId="307" priority="295">
-      <formula>LEN(TRIM(AB22))=0</formula>
+      <formula>LEN(TRIM(AD23))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="306" priority="296" operator="equal">
       <formula>-3</formula>
@@ -19093,9 +19272,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD23:AH23">
+  <conditionalFormatting sqref="AF24:AG24">
     <cfRule type="containsBlanks" dxfId="293" priority="281">
-      <formula>LEN(TRIM(AD23))=0</formula>
+      <formula>LEN(TRIM(AF24))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="292" priority="282" operator="equal">
       <formula>-3</formula>
@@ -19138,9 +19317,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF24:AG24">
+  <conditionalFormatting sqref="AT21:AT22">
     <cfRule type="containsBlanks" dxfId="279" priority="267">
-      <formula>LEN(TRIM(AF24))=0</formula>
+      <formula>LEN(TRIM(AT21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="278" priority="268" operator="equal">
       <formula>-3</formula>
@@ -19183,9 +19362,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AT21:AT22">
+  <conditionalFormatting sqref="AF20:AF23">
     <cfRule type="containsBlanks" dxfId="265" priority="253">
-      <formula>LEN(TRIM(AT21))=0</formula>
+      <formula>LEN(TRIM(AF20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="264" priority="254" operator="equal">
       <formula>-3</formula>
@@ -19228,9 +19407,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF20:AF23">
+  <conditionalFormatting sqref="AK37:AK38">
     <cfRule type="containsBlanks" dxfId="251" priority="239">
-      <formula>LEN(TRIM(AF20))=0</formula>
+      <formula>LEN(TRIM(AK37))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="250" priority="240" operator="equal">
       <formula>-3</formula>
@@ -19273,9 +19452,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK37:AK38">
+  <conditionalFormatting sqref="AL28:AM28">
     <cfRule type="containsBlanks" dxfId="237" priority="225">
-      <formula>LEN(TRIM(AK37))=0</formula>
+      <formula>LEN(TRIM(AL28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="236" priority="226" operator="equal">
       <formula>-3</formula>
@@ -19318,9 +19497,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28:AM28">
+  <conditionalFormatting sqref="AK29:AL29">
     <cfRule type="containsBlanks" dxfId="223" priority="211">
-      <formula>LEN(TRIM(AL28))=0</formula>
+      <formula>LEN(TRIM(AK29))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="222" priority="212" operator="equal">
       <formula>-3</formula>
@@ -19363,9 +19542,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK29:AL29">
+  <conditionalFormatting sqref="AK28">
     <cfRule type="containsBlanks" dxfId="209" priority="197">
-      <formula>LEN(TRIM(AK29))=0</formula>
+      <formula>LEN(TRIM(AK28))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="208" priority="198" operator="equal">
       <formula>-3</formula>
@@ -19453,9 +19632,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
+  <conditionalFormatting sqref="AP25">
     <cfRule type="containsBlanks" dxfId="181" priority="169">
-      <formula>LEN(TRIM(AK28))=0</formula>
+      <formula>LEN(TRIM(AP25))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="180" priority="170" operator="equal">
       <formula>-3</formula>
@@ -19498,9 +19677,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP25">
+  <conditionalFormatting sqref="AA32">
     <cfRule type="containsBlanks" dxfId="167" priority="155">
-      <formula>LEN(TRIM(AP25))=0</formula>
+      <formula>LEN(TRIM(AA32))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="166" priority="156" operator="equal">
       <formula>-3</formula>
@@ -19543,9 +19722,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA32">
+  <conditionalFormatting sqref="AP41">
     <cfRule type="containsBlanks" dxfId="153" priority="141">
-      <formula>LEN(TRIM(AA32))=0</formula>
+      <formula>LEN(TRIM(AP41))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="152" priority="142" operator="equal">
       <formula>-3</formula>
@@ -19588,9 +19767,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP41">
+  <conditionalFormatting sqref="AS27">
     <cfRule type="containsBlanks" dxfId="139" priority="127">
-      <formula>LEN(TRIM(AP41))=0</formula>
+      <formula>LEN(TRIM(AS27))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="128" operator="equal">
       <formula>-3</formula>
@@ -19633,9 +19812,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AS27">
+  <conditionalFormatting sqref="AH20:AI21">
     <cfRule type="containsBlanks" dxfId="125" priority="113">
-      <formula>LEN(TRIM(AS27))=0</formula>
+      <formula>LEN(TRIM(AH20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="124" priority="114" operator="equal">
       <formula>-3</formula>
@@ -19678,9 +19857,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH20:AI21">
+  <conditionalFormatting sqref="AH22">
     <cfRule type="containsBlanks" dxfId="111" priority="99">
-      <formula>LEN(TRIM(AH20))=0</formula>
+      <formula>LEN(TRIM(AH22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="110" priority="100" operator="equal">
       <formula>-3</formula>
@@ -19723,9 +19902,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH22">
+  <conditionalFormatting sqref="AI22">
     <cfRule type="containsBlanks" dxfId="97" priority="85">
-      <formula>LEN(TRIM(AH22))=0</formula>
+      <formula>LEN(TRIM(AI22))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>-3</formula>
@@ -19813,9 +19992,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI22">
+  <conditionalFormatting sqref="AJ20">
     <cfRule type="containsBlanks" dxfId="69" priority="57">
-      <formula>LEN(TRIM(AI22))=0</formula>
+      <formula>LEN(TRIM(AJ20))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="68" priority="58" operator="equal">
       <formula>-3</formula>
@@ -19903,9 +20082,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ20">
+  <conditionalFormatting sqref="AJ21">
     <cfRule type="containsBlanks" dxfId="41" priority="29">
-      <formula>LEN(TRIM(AJ20))=0</formula>
+      <formula>LEN(TRIM(AJ21))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="40" priority="30" operator="equal">
       <formula>-3</formula>
@@ -19993,9 +20172,9 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ21">
+  <conditionalFormatting sqref="AP40">
     <cfRule type="containsBlanks" dxfId="13" priority="1">
-      <formula>LEN(TRIM(AJ21))=0</formula>
+      <formula>LEN(TRIM(AP40))=0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>-3</formula>

--- a/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
+++ b/data/GAMEDATA/STAGE/STAGE_EDITOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\OneDrive\デスクトップ\作ったゲーム\卒業制作\cos-mos\data\GAMEDATA\STAGE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32735C98-92E3-40C0-A17B-D7E6A29B542A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9E6332-5BC8-46C7-9522-BF4A1F6DC56B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="7764" xr2:uid="{948D03C8-AF23-4AD8-B940-66BF5662826E}"/>
   </bookViews>
@@ -7078,7 +7078,7 @@
   <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -7266,124 +7266,124 @@
     </row>
     <row r="20" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="17">
         <v>-2</v>
@@ -7395,139 +7395,139 @@
         <v>-2</v>
       </c>
       <c r="AR20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY20">
         <f>COUNTIFS($A$24:$AT$50,0)</f>
-        <v>153</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B21" s="17">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="C21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F21" s="17">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="G21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J21" s="17">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="K21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N21" s="17">
-        <v>-2</v>
+        <v>23</v>
       </c>
       <c r="O21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R21" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="S21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="T21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="U21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="V21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="W21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="X21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AA21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AB21" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AC21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD21" s="17">
-        <v>-2</v>
+        <v>22</v>
       </c>
       <c r="AE21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG21" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AH21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AI21" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AJ21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK21" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="AL21" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AM21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AN21" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="17">
         <v>-2</v>
@@ -7539,139 +7539,139 @@
         <v>-2</v>
       </c>
       <c r="AR21" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AT21" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY21">
         <f>COUNTIFS($A$24:$AT$50,20)</f>
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="S22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="T22" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="U22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AC22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AD22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AE22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AF22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AG22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AH22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AI22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AJ22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AK22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AL22" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="AM22" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AN22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="17">
         <v>-2</v>
@@ -7683,82 +7683,82 @@
         <v>-2</v>
       </c>
       <c r="AR22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AT22" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY22">
         <f>COUNTIFS($A$24:$AT$50,21)</f>
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q23" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R23" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="S23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V23" s="17">
         <v>-2</v>
@@ -7776,46 +7776,46 @@
         <v>-2</v>
       </c>
       <c r="AA23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AE23" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF23" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AG23" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH23" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="AI23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="17">
         <v>-2</v>
@@ -7827,76 +7827,76 @@
         <v>-2</v>
       </c>
       <c r="AR23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY23">
         <f>COUNTIFS($A$24:$AT$50,22)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="C24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="F24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="G24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="M24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="N24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="P24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Q24" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T24" s="17">
         <v>-2</v>
@@ -7926,25 +7926,25 @@
         <v>-2</v>
       </c>
       <c r="AC24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="17">
         <v>0</v>
       </c>
       <c r="AE24" s="17">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="17">
-        <v>-3</v>
+        <v>20</v>
       </c>
       <c r="AG24" s="17">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="17">
         <v>-2</v>
@@ -7977,67 +7977,67 @@
         <v>-2</v>
       </c>
       <c r="AT24" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY24">
         <f>COUNTIFS($A$24:$AT$50,23)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B25" s="17">
-        <v>-2</v>
+        <v>21</v>
       </c>
       <c r="C25" s="17">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="E25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="F25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="G25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="H25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="I25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="J25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="K25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="L25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="M25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="N25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="O25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="P25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="17">
-        <v>-2</v>
+        <v>20</v>
       </c>
       <c r="R25" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="17">
         <v>-2</v>
@@ -8073,19 +8073,19 @@
         <v>-2</v>
       </c>
       <c r="AD25" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE25" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AF25" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="17">
         <v>0</v>
       </c>
       <c r="AH25" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AI25" s="17">
         <v>-2</v>
@@ -8094,7 +8094,7 @@
         <v>-2</v>
       </c>
       <c r="AK25" s="17">
-        <v>99</v>
+        <v>-2</v>
       </c>
       <c r="AL25" s="17">
         <v>-2</v>
@@ -8121,11 +8121,11 @@
         <v>-2</v>
       </c>
       <c r="AT25" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AY25">
         <f>AY20+AY21+AY22+AY23+AY24</f>
-        <v>204</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8133,10 +8133,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C26" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D26" s="17">
         <v>0</v>
@@ -8154,22 +8154,22 @@
         <v>0</v>
       </c>
       <c r="I26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="K26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="17">
         <v>0</v>
@@ -8193,19 +8193,19 @@
         <v>-2</v>
       </c>
       <c r="V26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X26" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Y26" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="Z26" s="17">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="AA26" s="17">
         <v>-2</v>
@@ -8217,16 +8217,16 @@
         <v>-2</v>
       </c>
       <c r="AD26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE26" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AF26" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG26" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH26" s="17">
         <v>-2</v>
@@ -8253,7 +8253,7 @@
         <v>-2</v>
       </c>
       <c r="AP26" s="17">
-        <v>-2</v>
+        <v>99</v>
       </c>
       <c r="AQ26" s="17">
         <v>-2</v>
@@ -8265,7 +8265,7 @@
         <v>-2</v>
       </c>
       <c r="AT26" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8273,25 +8273,25 @@
         <v>0</v>
       </c>
       <c r="B27" s="17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D27" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E27" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="F27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I27" s="17">
         <v>-2</v>
@@ -8312,13 +8312,13 @@
         <v>-2</v>
       </c>
       <c r="O27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P27" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Q27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R27" s="17">
         <v>0</v>
@@ -8330,10 +8330,10 @@
         <v>-2</v>
       </c>
       <c r="U27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W27" s="17">
         <v>-2</v>
@@ -8345,10 +8345,10 @@
         <v>-2</v>
       </c>
       <c r="Z27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="17">
         <v>-2</v>
@@ -8357,16 +8357,16 @@
         <v>-2</v>
       </c>
       <c r="AD27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF27" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG27" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH27" s="17">
         <v>-2</v>
@@ -8378,34 +8378,34 @@
         <v>-2</v>
       </c>
       <c r="AK27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AL27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AM27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AN27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AR27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AT27" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8413,25 +8413,25 @@
         <v>0</v>
       </c>
       <c r="B28" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C28" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I28" s="17">
         <v>-2</v>
@@ -8452,13 +8452,13 @@
         <v>-2</v>
       </c>
       <c r="O28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q28" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R28" s="17">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>-2</v>
       </c>
       <c r="U28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V28" s="17">
         <v>-2</v>
@@ -8488,61 +8488,61 @@
         <v>-2</v>
       </c>
       <c r="AA28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AK28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AL28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AN28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AO28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AP28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AQ28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AR28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AS28" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AT28" s="17">
         <v>0</v>
@@ -8553,25 +8553,25 @@
         <v>0</v>
       </c>
       <c r="B29" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H29" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I29" s="17">
         <v>-2</v>
@@ -8592,25 +8592,25 @@
         <v>-2</v>
       </c>
       <c r="O29" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P29" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Q29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R29" s="17">
         <v>0</v>
       </c>
       <c r="S29" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T29" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="U29" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V29" s="17">
         <v>-2</v>
@@ -8634,58 +8634,58 @@
         <v>-2</v>
       </c>
       <c r="AC29" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="17">
         <v>0</v>
       </c>
       <c r="AE29" s="17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AH29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AI29" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AJ29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AK29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AL29" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM29" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AN29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP29" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="AQ29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR29" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS29" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AT29" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8693,25 +8693,25 @@
         <v>0</v>
       </c>
       <c r="B30" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="C30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E30" s="17">
-        <v>22</v>
+        <v>-2</v>
       </c>
       <c r="F30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I30" s="17">
         <v>-2</v>
@@ -8735,10 +8735,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="17">
         <v>0</v>
@@ -8756,76 +8756,76 @@
         <v>-2</v>
       </c>
       <c r="W30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="17">
         <v>-2</v>
       </c>
       <c r="Y30" s="17">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="17">
         <v>0</v>
       </c>
       <c r="AA30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AC30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AH30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AI30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AJ30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AK30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AL30" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS30" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT30" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8833,25 +8833,25 @@
         <v>0</v>
       </c>
       <c r="B31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I31" s="17">
         <v>-2</v>
@@ -8872,13 +8872,13 @@
         <v>-2</v>
       </c>
       <c r="O31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P31" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="Q31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R31" s="17">
         <v>0</v>
@@ -8899,73 +8899,73 @@
         <v>-2</v>
       </c>
       <c r="X31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z31" s="17">
         <v>0</v>
       </c>
       <c r="AA31" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AB31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AC31" s="17">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="AD31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AE31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AH31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AI31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AJ31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AK31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AL31" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AN31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AR31" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS31" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AT31" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:51" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -8973,25 +8973,25 @@
         <v>0</v>
       </c>
       <c r="B32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D32" s="17">
-        <v>-3</v>
+        <v>90</v>
       </c>
       <c r="E32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="G32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="I32" s="17">
         <v>-2</v>
@@ -9000,7 +9000,7 @@
         <v>-2</v>
       </c>
       <c r="K32" s="17">
-        <v>90</v>
+        <v>-2</v>
       </c>
       <c r="L32" s="17">
         <v>-2</v>
@@ -9012,13 +9012,13 @@
         <v>-2</v>
       </c>
       <c r="O32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="Q32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R32" s="17">
         <v>0</v>
@@ -9036,76 +9036,76 @@
         <v>-2</v>
       </c>
       <c r="W32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y32" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="Z32" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AB32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AC32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AD32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AE32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AF32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AG32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AH32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AI32" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AJ32" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AK32" s="17">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="AL32" s="17">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AM32" s="17">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AN32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AO32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AP32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AQ32" s="17">
-        <v>23</v>
+        <v>-2</v>
       </c>
       <c r="AR32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AS32" s="17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="AT32" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9113,22 +9113,22 @@
         <v>0</v>
       </c>
       <c r="B33" s="17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E33" s="17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="17">
         <v>0</v>
@@ -9143,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="17">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33" s="19">
         <v>0</v>
@@ -9185,10 +9185,10 @@
         <v>0</v>
       </c>
       <c r="Z33" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB33" s="17">
         <v>0</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="17">
         <v>0</v>
@@ -9224,28 +9224,28 @@
         <v>0</v>
       </c>
       <c r="AM33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AO33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AT33" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9253,34 +9253,34 @@
         <v>0</v>
       </c>
       <c r="B34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="17">
-        <v>-3</v>
+        <v>91</v>
       </c>
       <c r="E34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="17">
         <v>0</v>
       </c>
       <c r="I34" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J34" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="17">
-        <v>91</v>
+        <v>-1</v>
       </c>
       <c r="L34" s="17">
         <v>-1</v>
@@ -9310,7 +9310,7 @@
         <v>-1</v>
       </c>
       <c r="U34" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="17">
         <v>-1</v>
@@ -9325,67 +9325,67 @@
         <v>-1</v>
       </c>
       <c r="Z34" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AB34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC34" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AD34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE34" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AF34" s="17">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ34" s="17">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="AK34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS34" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT34" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:46" ht="15.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -9393,31 +9393,31 @@
         <v>0</v>
       </c>
       <c r="B35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="C35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="17">
         <v>0</v>
       </c>
       <c r="I35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="17">
         <v>-1</v>
@@ -9450,7 +9450,7 @@
         <v>-1</v>
       </c>
       <c r="U35" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V35" s="17">
         <v>-1</v>
@@ -9465,67 +9465,67 @@
         <v>-1</v>
       </c>
       <c r="Z35" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AB35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AC35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AD35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AE35" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AF35" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AL35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS35" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT35" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9533,25 +9533,25 @@
         <v>0</v>
       </c>
       <c r="B36" s="17">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="C36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="17">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="F36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I36" s="17">
         <v>-1</v>
@@ -9572,13 +9572,13 @@
         <v>-1</v>
       </c>
       <c r="O36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R36" s="17">
         <v>-1</v>
@@ -9590,82 +9590,82 @@
         <v>-1</v>
       </c>
       <c r="U36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="17">
         <v>-1</v>
       </c>
       <c r="W36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="17">
         <v>-1</v>
       </c>
       <c r="Y36" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA36" s="17">
         <v>0</v>
       </c>
       <c r="AB36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD36" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AK36" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AM36" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AN36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO36" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AP36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ36" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AR36" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS36" s="17">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AT36" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9673,25 +9673,25 @@
         <v>0</v>
       </c>
       <c r="B37" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I37" s="17">
         <v>-1</v>
@@ -9712,7 +9712,7 @@
         <v>-1</v>
       </c>
       <c r="O37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="17">
         <v>-1</v>
@@ -9730,7 +9730,7 @@
         <v>-1</v>
       </c>
       <c r="U37" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="17">
         <v>-1</v>
@@ -9754,58 +9754,58 @@
         <v>-1</v>
       </c>
       <c r="AC37" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD37" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE37" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AH37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AI37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AJ37" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AK37" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AL37" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="AM37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AN37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AO37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AP37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AQ37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AR37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AS37" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AT37" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -9813,25 +9813,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="C38" s="17">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D38" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E38" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="17">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="H38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I38" s="17">
         <v>-1</v>
@@ -9852,7 +9852,7 @@
         <v>-1</v>
       </c>
       <c r="O38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="17">
         <v>-1</v>
@@ -9864,13 +9864,13 @@
         <v>-1</v>
       </c>
       <c r="S38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V38" s="17">
         <v>-1</v>
@@ -9888,7 +9888,7 @@
         <v>-1</v>
       </c>
       <c r="AA38" s="17">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="AB38" s="17">
         <v>-1</v>
@@ -9897,52 +9897,52 @@
         <v>-1</v>
       </c>
       <c r="AD38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE38" s="17">
         <v>0</v>
       </c>
       <c r="AF38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AJ38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AK38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AL38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AN38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AO38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AQ38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AR38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AS38" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AT38" s="17">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>20</v>
       </c>
       <c r="C39" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D39" s="17">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E39" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="17">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="H39" s="17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I39" s="17">
         <v>-1</v>
@@ -9992,7 +9992,7 @@
         <v>-1</v>
       </c>
       <c r="O39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="17">
         <v>-1</v>
@@ -10010,7 +10010,7 @@
         <v>-1</v>
       </c>
       <c r="U39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V39" s="17">
         <v>-1</v>
@@ -10040,7 +10040,7 @@
         <v>-1</v>
       </c>
       <c r="AE39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="17">
         <v>-1</v>
@@ -10058,34 +10058,34 @@
         <v>-1</v>
       </c>
       <c r="AK39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -10093,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="B40" s="17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C40" s="17">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D40" s="17">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="I40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="17">
         <v>-1</v>
@@ -10150,37 +10150,37 @@
         <v>-1</v>
       </c>
       <c r="U40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z40" s="17">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="17">
         <v>-1</v>
@@ -10225,54 +10225,54 @@
         <v>-1</v>
       </c>
       <c r="AT40" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B41" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C41" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="E41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="G41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="H41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="I41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="J41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="K41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="L41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="M41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="N41" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="O41" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="17">
         <v>-1</v>
@@ -10290,7 +10290,7 @@
         <v>-1</v>
       </c>
       <c r="U41" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="17">
         <v>-1</v>
@@ -10320,7 +10320,7 @@
         <v>-1</v>
       </c>
       <c r="AE41" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="17">
         <v>-1</v>
@@ -10365,72 +10365,72 @@
         <v>-1</v>
       </c>
       <c r="AT41" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B42" s="17">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="C42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F42" s="17">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="G42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J42" s="17">
-        <v>-1</v>
+        <v>23</v>
       </c>
       <c r="K42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M42" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N42" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="O42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V42" s="17">
         <v>-1</v>
@@ -10454,16 +10454,16 @@
         <v>-1</v>
       </c>
       <c r="AC42" s="17">
-        <v>-1</v>
+        <v>98</v>
       </c>
       <c r="AD42" s="17">
         <v>-1</v>
       </c>
       <c r="AE42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="17">
         <v>-1</v>
@@ -10505,72 +10505,72 @@
         <v>-1</v>
       </c>
       <c r="AT42" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N43" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="O43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q43" s="17">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="R43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="S43" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T43" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="U43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="17">
         <v>-1</v>
@@ -10600,13 +10600,13 @@
         <v>-1</v>
       </c>
       <c r="AE43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="17">
         <v>-1</v>
@@ -10642,78 +10642,78 @@
         <v>-1</v>
       </c>
       <c r="AS43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="O44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="S44" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T44" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="U44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W44" s="17">
         <v>-1</v>
@@ -10737,22 +10737,22 @@
         <v>-1</v>
       </c>
       <c r="AD44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AG44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="17">
         <v>-1</v>
@@ -10776,87 +10776,87 @@
         <v>-1</v>
       </c>
       <c r="AQ44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT44" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="C45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="G45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="I45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="K45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="M45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="O45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="P45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="Q45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="S45" s="17">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="T45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="U45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="V45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X45" s="17">
         <v>-1</v>
@@ -10874,28 +10874,28 @@
         <v>-1</v>
       </c>
       <c r="AC45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AF45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AG45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AH45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AI45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK45" s="17">
         <v>-1</v>
@@ -10910,162 +10910,162 @@
         <v>-1</v>
       </c>
       <c r="AO45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AS45" s="17">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AT45" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AK46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AL46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AP46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AR46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AS46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AT46" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.45">
